--- a/APIs/ExternalAPIs/MiunDrive/Miun_Data/pen_and_paper.xlsx
+++ b/APIs/ExternalAPIs/MiunDrive/Miun_Data/pen_and_paper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>תאור מחזור</t>
   </si>
@@ -117,10 +117,7 @@
     <t>היי</t>
   </si>
   <si>
-    <t>רועי</t>
-  </si>
-  <si>
-    <t>ביי</t>
+    <t>בוגר</t>
   </si>
 </sst>
 </file>
@@ -682,10 +679,10 @@
         <v>30</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>30</v>

--- a/APIs/ExternalAPIs/MiunDrive/Miun_Data/pen_and_paper.xlsx
+++ b/APIs/ExternalAPIs/MiunDrive/Miun_Data/pen_and_paper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>תאור מחזור</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>היי</t>
-  </si>
-  <si>
-    <t>בוגר</t>
   </si>
 </sst>
 </file>
@@ -221,10 +218,10 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -449,7 +446,7 @@
     <col customWidth="1" min="4" max="4" width="15.75"/>
     <col customWidth="1" min="5" max="5" width="10.75"/>
     <col customWidth="1" min="6" max="6" width="5.75"/>
-    <col customWidth="1" min="7" max="7" width="4.75"/>
+    <col customWidth="1" min="7" max="7" width="0.38"/>
     <col customWidth="1" min="8" max="9" width="7.75"/>
     <col customWidth="1" min="10" max="10" width="5.75"/>
     <col customWidth="1" min="11" max="11" width="7.75"/>
@@ -585,15 +582,15 @@
       <c r="O2" s="6">
         <v>4.0</v>
       </c>
-      <c r="P2" s="6">
-        <v>30.0</v>
+      <c r="P2" s="8">
+        <v>25.0</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="8"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="6">
         <v>2.456</v>
       </c>
@@ -614,66 +611,62 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9">
-        <v>2.13993892E8</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.0</v>
+      <c r="B3" s="8">
+        <v>1.0</v>
       </c>
-      <c r="D3" s="9">
-        <v>0.0</v>
+      <c r="C3" s="8">
+        <v>1.0</v>
       </c>
-      <c r="E3" s="9">
-        <v>0.0</v>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="F3" s="9">
-        <v>0.0</v>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="G3" s="9">
-        <v>0.0</v>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
       </c>
-      <c r="H3" s="9">
-        <v>0.0</v>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="I3" s="9">
-        <v>0.0</v>
+      <c r="H3" s="6">
+        <v>3.0</v>
       </c>
-      <c r="J3" s="9">
-        <v>0.0</v>
+      <c r="I3" s="8">
+        <v>21.0</v>
       </c>
-      <c r="K3" s="9">
-        <v>0.0</v>
+      <c r="J3" s="6">
+        <v>2.8</v>
       </c>
-      <c r="L3" s="9">
-        <v>0.0</v>
+      <c r="K3" s="8">
+        <v>18.0</v>
       </c>
-      <c r="M3" s="9">
-        <v>0.0</v>
+      <c r="L3" s="8">
+        <v>3.0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0.0</v>
+      <c r="M3" s="8">
+        <v>21.0</v>
       </c>
-      <c r="O3" s="9">
-        <v>0.0</v>
+      <c r="N3" s="8">
+        <v>3.0</v>
       </c>
-      <c r="P3" s="9">
-        <v>0.0</v>
+      <c r="O3" s="8">
+        <v>3.0</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0.0</v>
+      <c r="P3" s="6">
+        <v>30.0</v>
       </c>
-      <c r="R3" s="9">
-        <v>0.0</v>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="S3" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0.0</v>
+      <c r="T3" s="9"/>
+      <c r="U3" s="6">
+        <v>2.456</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>30</v>
@@ -682,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>30</v>
@@ -692,37 +685,71 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9">
-        <v>3.0</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="B4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>24.0</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="6">
+        <v>2.456</v>
+      </c>
       <c r="V4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>30</v>
+      <c r="W4" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>30</v>
+      <c r="X4" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>30</v>
@@ -732,37 +759,71 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="L5" s="8">
         <v>4.0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="M5" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>30.0</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="6">
+        <v>2.456</v>
+      </c>
       <c r="V5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>30</v>
+      <c r="W5" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>30</v>
+      <c r="X5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y5" s="5" t="s">
         <v>30</v>
@@ -772,37 +833,71 @@
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="L6" s="8">
         <v>5.0</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="M6" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>21.0</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="6">
+        <v>2.456</v>
+      </c>
       <c r="V6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>30</v>
+      <c r="W6" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>30</v>
+      <c r="X6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y6" s="5" t="s">
         <v>30</v>
@@ -812,30 +907,78 @@
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9">
-        <v>6.0</v>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="B7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K7" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4.1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>28.0</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="6">
+        <v>2.456</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="6"/>
@@ -857,7 +1000,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
@@ -881,7 +1024,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="8"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
@@ -905,7 +1048,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
@@ -929,7 +1072,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
@@ -953,7 +1096,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
@@ -977,7 +1120,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
@@ -1001,7 +1144,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
@@ -1025,7 +1168,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="8"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
@@ -1049,7 +1192,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
@@ -1073,7 +1216,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="8"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
@@ -1097,7 +1240,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
@@ -1121,7 +1264,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
@@ -1145,7 +1288,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
@@ -1169,7 +1312,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="8"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
@@ -1193,7 +1336,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="9"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
@@ -1217,7 +1360,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="8"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
@@ -1241,7 +1384,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="8"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
@@ -1265,7 +1408,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="8"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
@@ -1289,7 +1432,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="8"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
@@ -1313,7 +1456,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="8"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
@@ -1337,7 +1480,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="8"/>
+      <c r="T28" s="9"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
@@ -1361,7 +1504,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="8"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
@@ -1385,7 +1528,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="8"/>
+      <c r="T30" s="9"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
@@ -1409,7 +1552,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="8"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
@@ -1433,7 +1576,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="8"/>
+      <c r="T32" s="9"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
@@ -1457,7 +1600,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="8"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
@@ -1481,7 +1624,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="8"/>
+      <c r="T34" s="9"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
@@ -1505,7 +1648,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="8"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
@@ -1529,7 +1672,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="8"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
@@ -1553,7 +1696,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="8"/>
+      <c r="T37" s="9"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
@@ -1577,7 +1720,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="8"/>
+      <c r="T38" s="9"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
@@ -1601,7 +1744,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="8"/>
+      <c r="T39" s="9"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
@@ -1625,7 +1768,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="8"/>
+      <c r="T40" s="9"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
@@ -1649,7 +1792,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="8"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
@@ -1673,7 +1816,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="8"/>
+      <c r="T42" s="9"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
@@ -1697,7 +1840,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="8"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
@@ -1721,7 +1864,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="8"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
@@ -1745,7 +1888,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="8"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
@@ -1769,7 +1912,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="8"/>
+      <c r="T46" s="9"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
@@ -1793,7 +1936,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="8"/>
+      <c r="T47" s="9"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
@@ -1817,7 +1960,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="8"/>
+      <c r="T48" s="9"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
@@ -1841,7 +1984,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="8"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
@@ -1865,7 +2008,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="8"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
@@ -1889,7 +2032,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="8"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
@@ -1913,7 +2056,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="8"/>
+      <c r="T52" s="9"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
@@ -1937,7 +2080,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="8"/>
+      <c r="T53" s="9"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
@@ -1961,7 +2104,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="8"/>
+      <c r="T54" s="9"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
@@ -1985,7 +2128,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="8"/>
+      <c r="T55" s="9"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
@@ -2009,7 +2152,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="8"/>
+      <c r="T56" s="9"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
@@ -2033,7 +2176,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="8"/>
+      <c r="T57" s="9"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
     </row>
@@ -2057,7 +2200,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="8"/>
+      <c r="T58" s="9"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
     </row>
@@ -2081,7 +2224,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="8"/>
+      <c r="T59" s="9"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
@@ -2105,7 +2248,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="8"/>
+      <c r="T60" s="9"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
     </row>
@@ -2129,7 +2272,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="8"/>
+      <c r="T61" s="9"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
     </row>
@@ -2153,7 +2296,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="8"/>
+      <c r="T62" s="9"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
     </row>
@@ -2177,7 +2320,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
-      <c r="T63" s="8"/>
+      <c r="T63" s="9"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
     </row>
@@ -2201,7 +2344,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="8"/>
+      <c r="T64" s="9"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
     </row>
@@ -2225,7 +2368,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="8"/>
+      <c r="T65" s="9"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
     </row>
@@ -2249,7 +2392,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="8"/>
+      <c r="T66" s="9"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
     </row>
@@ -2273,7 +2416,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="8"/>
+      <c r="T67" s="9"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
     </row>
@@ -2297,7 +2440,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="8"/>
+      <c r="T68" s="9"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
     </row>
@@ -2321,7 +2464,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="8"/>
+      <c r="T69" s="9"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
     </row>
@@ -2345,7 +2488,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="8"/>
+      <c r="T70" s="9"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
     </row>
@@ -2369,7 +2512,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="8"/>
+      <c r="T71" s="9"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
     </row>
@@ -2393,7 +2536,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="8"/>
+      <c r="T72" s="9"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
     </row>
@@ -2417,7 +2560,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="8"/>
+      <c r="T73" s="9"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
     </row>
@@ -2441,7 +2584,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="8"/>
+      <c r="T74" s="9"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
     </row>
@@ -2465,7 +2608,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="8"/>
+      <c r="T75" s="9"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
     </row>
@@ -2489,7 +2632,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="8"/>
+      <c r="T76" s="9"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
     </row>
@@ -2513,7 +2656,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="8"/>
+      <c r="T77" s="9"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
     </row>
@@ -2537,7 +2680,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="8"/>
+      <c r="T78" s="9"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
     </row>
@@ -2561,7 +2704,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="8"/>
+      <c r="T79" s="9"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
     </row>
@@ -2585,7 +2728,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="8"/>
+      <c r="T80" s="9"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
     </row>
@@ -2609,7 +2752,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="8"/>
+      <c r="T81" s="9"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
     </row>
@@ -2633,7 +2776,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
-      <c r="T82" s="8"/>
+      <c r="T82" s="9"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
     </row>
@@ -2657,7 +2800,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="8"/>
+      <c r="T83" s="9"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
     </row>
@@ -2681,7 +2824,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="8"/>
+      <c r="T84" s="9"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
     </row>
@@ -2705,7 +2848,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="8"/>
+      <c r="T85" s="9"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
     </row>
@@ -2729,7 +2872,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="8"/>
+      <c r="T86" s="9"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
     </row>
@@ -2753,7 +2896,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="8"/>
+      <c r="T87" s="9"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
     </row>
@@ -2777,7 +2920,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="8"/>
+      <c r="T88" s="9"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
     </row>
@@ -2801,7 +2944,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
-      <c r="T89" s="8"/>
+      <c r="T89" s="9"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
     </row>
@@ -2825,7 +2968,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="8"/>
+      <c r="T90" s="9"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
     </row>
@@ -2849,7 +2992,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="8"/>
+      <c r="T91" s="9"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
     </row>
@@ -2873,7 +3016,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="8"/>
+      <c r="T92" s="9"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
     </row>
@@ -2897,7 +3040,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="8"/>
+      <c r="T93" s="9"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
     </row>
@@ -2921,7 +3064,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="8"/>
+      <c r="T94" s="9"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
     </row>
@@ -2945,7 +3088,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="8"/>
+      <c r="T95" s="9"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
     </row>
@@ -2969,7 +3112,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="8"/>
+      <c r="T96" s="9"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
     </row>
@@ -2993,7 +3136,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="8"/>
+      <c r="T97" s="9"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
     </row>
@@ -3017,7 +3160,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="8"/>
+      <c r="T98" s="9"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
     </row>
@@ -3041,7 +3184,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
-      <c r="T99" s="8"/>
+      <c r="T99" s="9"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
     </row>
@@ -3065,7 +3208,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
-      <c r="T100" s="8"/>
+      <c r="T100" s="9"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
     </row>
@@ -3089,7 +3232,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="8"/>
+      <c r="T101" s="9"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
     </row>
@@ -3113,7 +3256,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="8"/>
+      <c r="T102" s="9"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
     </row>
@@ -3137,7 +3280,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="8"/>
+      <c r="T103" s="9"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
     </row>
@@ -3161,7 +3304,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
-      <c r="T104" s="8"/>
+      <c r="T104" s="9"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
     </row>
@@ -3185,7 +3328,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
-      <c r="T105" s="8"/>
+      <c r="T105" s="9"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
     </row>
@@ -3209,7 +3352,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="8"/>
+      <c r="T106" s="9"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
     </row>
@@ -3233,7 +3376,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
-      <c r="T107" s="8"/>
+      <c r="T107" s="9"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
     </row>
@@ -3257,7 +3400,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="8"/>
+      <c r="T108" s="9"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
     </row>
@@ -3281,7 +3424,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="8"/>
+      <c r="T109" s="9"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
     </row>
@@ -3305,7 +3448,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="8"/>
+      <c r="T110" s="9"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
     </row>
@@ -3329,7 +3472,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="8"/>
+      <c r="T111" s="9"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
     </row>
@@ -3353,7 +3496,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
-      <c r="T112" s="8"/>
+      <c r="T112" s="9"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
     </row>
@@ -3377,7 +3520,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
-      <c r="T113" s="8"/>
+      <c r="T113" s="9"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
     </row>
@@ -3401,7 +3544,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="8"/>
+      <c r="T114" s="9"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
     </row>
@@ -3425,7 +3568,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
-      <c r="T115" s="8"/>
+      <c r="T115" s="9"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
     </row>
@@ -3449,7 +3592,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="8"/>
+      <c r="T116" s="9"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
     </row>
@@ -3473,7 +3616,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
-      <c r="T117" s="8"/>
+      <c r="T117" s="9"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
     </row>
@@ -3497,7 +3640,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
-      <c r="T118" s="8"/>
+      <c r="T118" s="9"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
     </row>
@@ -3521,7 +3664,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="8"/>
+      <c r="T119" s="9"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
     </row>
@@ -3545,7 +3688,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="8"/>
+      <c r="T120" s="9"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
     </row>
@@ -3569,7 +3712,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
-      <c r="T121" s="8"/>
+      <c r="T121" s="9"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
     </row>
@@ -3593,7 +3736,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
-      <c r="T122" s="8"/>
+      <c r="T122" s="9"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
     </row>
@@ -3617,7 +3760,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
-      <c r="T123" s="8"/>
+      <c r="T123" s="9"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
     </row>
@@ -3641,7 +3784,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
-      <c r="T124" s="8"/>
+      <c r="T124" s="9"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
     </row>
@@ -3665,7 +3808,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
-      <c r="T125" s="8"/>
+      <c r="T125" s="9"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
     </row>
@@ -3689,7 +3832,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="8"/>
+      <c r="T126" s="9"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
     </row>
@@ -3713,7 +3856,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
-      <c r="T127" s="8"/>
+      <c r="T127" s="9"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
     </row>
@@ -3737,7 +3880,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
-      <c r="T128" s="8"/>
+      <c r="T128" s="9"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
     </row>
@@ -3761,7 +3904,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
-      <c r="T129" s="8"/>
+      <c r="T129" s="9"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
     </row>
@@ -3785,7 +3928,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
       <c r="S130" s="6"/>
-      <c r="T130" s="8"/>
+      <c r="T130" s="9"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
     </row>
@@ -3809,7 +3952,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
-      <c r="T131" s="8"/>
+      <c r="T131" s="9"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
     </row>
@@ -3833,7 +3976,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
       <c r="S132" s="6"/>
-      <c r="T132" s="8"/>
+      <c r="T132" s="9"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
     </row>
@@ -3857,7 +4000,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
-      <c r="T133" s="8"/>
+      <c r="T133" s="9"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
     </row>
@@ -3881,7 +4024,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
-      <c r="T134" s="8"/>
+      <c r="T134" s="9"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
     </row>
@@ -3905,7 +4048,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
-      <c r="T135" s="8"/>
+      <c r="T135" s="9"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
     </row>
@@ -3929,7 +4072,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
-      <c r="T136" s="8"/>
+      <c r="T136" s="9"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
     </row>
@@ -3953,7 +4096,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
       <c r="S137" s="6"/>
-      <c r="T137" s="8"/>
+      <c r="T137" s="9"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
     </row>
@@ -3977,7 +4120,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
       <c r="S138" s="6"/>
-      <c r="T138" s="8"/>
+      <c r="T138" s="9"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
     </row>
@@ -4001,7 +4144,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
-      <c r="T139" s="8"/>
+      <c r="T139" s="9"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
     </row>
@@ -4025,7 +4168,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
-      <c r="T140" s="8"/>
+      <c r="T140" s="9"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
     </row>
@@ -4049,7 +4192,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
-      <c r="T141" s="8"/>
+      <c r="T141" s="9"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
     </row>
@@ -4073,7 +4216,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="8"/>
+      <c r="T142" s="9"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
     </row>
@@ -4097,7 +4240,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
       <c r="S143" s="6"/>
-      <c r="T143" s="8"/>
+      <c r="T143" s="9"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
     </row>
@@ -4121,7 +4264,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
-      <c r="T144" s="8"/>
+      <c r="T144" s="9"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
     </row>
@@ -4145,7 +4288,7 @@
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
       <c r="S145" s="6"/>
-      <c r="T145" s="8"/>
+      <c r="T145" s="9"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
     </row>
@@ -4169,7 +4312,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
-      <c r="T146" s="8"/>
+      <c r="T146" s="9"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
     </row>
@@ -4193,7 +4336,7 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
       <c r="S147" s="6"/>
-      <c r="T147" s="8"/>
+      <c r="T147" s="9"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
     </row>
@@ -4217,7 +4360,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
-      <c r="T148" s="8"/>
+      <c r="T148" s="9"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
     </row>
@@ -4241,7 +4384,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
-      <c r="T149" s="8"/>
+      <c r="T149" s="9"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
     </row>
@@ -4265,7 +4408,7 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="8"/>
+      <c r="T150" s="9"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
     </row>
@@ -4289,7 +4432,7 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="8"/>
+      <c r="T151" s="9"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
     </row>
@@ -4313,7 +4456,7 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
       <c r="S152" s="6"/>
-      <c r="T152" s="8"/>
+      <c r="T152" s="9"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
     </row>
@@ -4337,7 +4480,7 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
       <c r="S153" s="6"/>
-      <c r="T153" s="8"/>
+      <c r="T153" s="9"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
     </row>
@@ -4361,7 +4504,7 @@
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
-      <c r="T154" s="8"/>
+      <c r="T154" s="9"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
     </row>
@@ -4385,7 +4528,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
-      <c r="T155" s="8"/>
+      <c r="T155" s="9"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
     </row>
@@ -4409,7 +4552,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
-      <c r="T156" s="8"/>
+      <c r="T156" s="9"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
     </row>
@@ -4433,7 +4576,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
-      <c r="T157" s="8"/>
+      <c r="T157" s="9"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
     </row>
@@ -4457,7 +4600,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
-      <c r="T158" s="8"/>
+      <c r="T158" s="9"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
     </row>
@@ -4481,7 +4624,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="8"/>
+      <c r="T159" s="9"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
     </row>
@@ -4505,7 +4648,7 @@
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="8"/>
+      <c r="T160" s="9"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
     </row>
@@ -4529,7 +4672,7 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
       <c r="S161" s="6"/>
-      <c r="T161" s="8"/>
+      <c r="T161" s="9"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
     </row>
@@ -4553,7 +4696,7 @@
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
       <c r="S162" s="6"/>
-      <c r="T162" s="8"/>
+      <c r="T162" s="9"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
     </row>
@@ -4577,7 +4720,7 @@
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
       <c r="S163" s="6"/>
-      <c r="T163" s="8"/>
+      <c r="T163" s="9"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
     </row>
@@ -4601,7 +4744,7 @@
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
       <c r="S164" s="6"/>
-      <c r="T164" s="8"/>
+      <c r="T164" s="9"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
     </row>
@@ -4625,7 +4768,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
       <c r="S165" s="6"/>
-      <c r="T165" s="8"/>
+      <c r="T165" s="9"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
     </row>
@@ -4649,7 +4792,7 @@
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
       <c r="S166" s="6"/>
-      <c r="T166" s="8"/>
+      <c r="T166" s="9"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
     </row>
@@ -4673,7 +4816,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
       <c r="S167" s="6"/>
-      <c r="T167" s="8"/>
+      <c r="T167" s="9"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
     </row>
@@ -4697,7 +4840,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
       <c r="S168" s="6"/>
-      <c r="T168" s="8"/>
+      <c r="T168" s="9"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
     </row>
@@ -4721,7 +4864,7 @@
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
       <c r="S169" s="6"/>
-      <c r="T169" s="8"/>
+      <c r="T169" s="9"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
     </row>
@@ -4745,7 +4888,7 @@
       <c r="Q170" s="6"/>
       <c r="R170" s="6"/>
       <c r="S170" s="6"/>
-      <c r="T170" s="8"/>
+      <c r="T170" s="9"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
     </row>
@@ -4769,7 +4912,7 @@
       <c r="Q171" s="6"/>
       <c r="R171" s="6"/>
       <c r="S171" s="6"/>
-      <c r="T171" s="8"/>
+      <c r="T171" s="9"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
     </row>
@@ -4793,7 +4936,7 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
       <c r="S172" s="6"/>
-      <c r="T172" s="8"/>
+      <c r="T172" s="9"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
     </row>
@@ -4817,7 +4960,7 @@
       <c r="Q173" s="6"/>
       <c r="R173" s="6"/>
       <c r="S173" s="6"/>
-      <c r="T173" s="8"/>
+      <c r="T173" s="9"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
     </row>
@@ -4841,7 +4984,7 @@
       <c r="Q174" s="6"/>
       <c r="R174" s="6"/>
       <c r="S174" s="6"/>
-      <c r="T174" s="8"/>
+      <c r="T174" s="9"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
     </row>
@@ -4865,7 +5008,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
       <c r="S175" s="6"/>
-      <c r="T175" s="8"/>
+      <c r="T175" s="9"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
     </row>
@@ -4889,7 +5032,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
       <c r="S176" s="6"/>
-      <c r="T176" s="8"/>
+      <c r="T176" s="9"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
     </row>
@@ -4913,7 +5056,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
       <c r="S177" s="6"/>
-      <c r="T177" s="8"/>
+      <c r="T177" s="9"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
     </row>
@@ -4937,7 +5080,7 @@
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
       <c r="S178" s="6"/>
-      <c r="T178" s="8"/>
+      <c r="T178" s="9"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
     </row>
@@ -4961,7 +5104,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
       <c r="S179" s="6"/>
-      <c r="T179" s="8"/>
+      <c r="T179" s="9"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
     </row>
@@ -4985,7 +5128,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
       <c r="S180" s="6"/>
-      <c r="T180" s="8"/>
+      <c r="T180" s="9"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
     </row>
@@ -5009,7 +5152,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
       <c r="S181" s="6"/>
-      <c r="T181" s="8"/>
+      <c r="T181" s="9"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
     </row>
@@ -5033,7 +5176,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6"/>
-      <c r="T182" s="8"/>
+      <c r="T182" s="9"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
     </row>
@@ -5057,7 +5200,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
       <c r="S183" s="6"/>
-      <c r="T183" s="8"/>
+      <c r="T183" s="9"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
     </row>
@@ -5081,7 +5224,7 @@
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
       <c r="S184" s="6"/>
-      <c r="T184" s="8"/>
+      <c r="T184" s="9"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
     </row>
@@ -5105,7 +5248,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
       <c r="S185" s="6"/>
-      <c r="T185" s="8"/>
+      <c r="T185" s="9"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
     </row>
@@ -5129,7 +5272,7 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
       <c r="S186" s="6"/>
-      <c r="T186" s="8"/>
+      <c r="T186" s="9"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
     </row>
@@ -5153,7 +5296,7 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
       <c r="S187" s="6"/>
-      <c r="T187" s="8"/>
+      <c r="T187" s="9"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
     </row>
@@ -5177,7 +5320,7 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
       <c r="S188" s="6"/>
-      <c r="T188" s="8"/>
+      <c r="T188" s="9"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
     </row>
@@ -5201,7 +5344,7 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="6"/>
       <c r="S189" s="6"/>
-      <c r="T189" s="8"/>
+      <c r="T189" s="9"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
     </row>
@@ -5225,7 +5368,7 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="6"/>
       <c r="S190" s="6"/>
-      <c r="T190" s="8"/>
+      <c r="T190" s="9"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
     </row>
@@ -5249,7 +5392,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
       <c r="S191" s="6"/>
-      <c r="T191" s="8"/>
+      <c r="T191" s="9"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
     </row>
@@ -5273,7 +5416,7 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="6"/>
       <c r="S192" s="6"/>
-      <c r="T192" s="8"/>
+      <c r="T192" s="9"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
     </row>
@@ -5297,7 +5440,7 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="6"/>
       <c r="S193" s="6"/>
-      <c r="T193" s="8"/>
+      <c r="T193" s="9"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
     </row>
@@ -5321,7 +5464,7 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="6"/>
       <c r="S194" s="6"/>
-      <c r="T194" s="8"/>
+      <c r="T194" s="9"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
     </row>
@@ -5345,7 +5488,7 @@
       <c r="Q195" s="6"/>
       <c r="R195" s="6"/>
       <c r="S195" s="6"/>
-      <c r="T195" s="8"/>
+      <c r="T195" s="9"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
     </row>
@@ -5369,7 +5512,7 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="6"/>
       <c r="S196" s="6"/>
-      <c r="T196" s="8"/>
+      <c r="T196" s="9"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
     </row>
@@ -5393,7 +5536,7 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="6"/>
       <c r="S197" s="6"/>
-      <c r="T197" s="8"/>
+      <c r="T197" s="9"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
     </row>
@@ -5417,7 +5560,7 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="6"/>
       <c r="S198" s="6"/>
-      <c r="T198" s="8"/>
+      <c r="T198" s="9"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
     </row>
@@ -5441,7 +5584,7 @@
       <c r="Q199" s="6"/>
       <c r="R199" s="6"/>
       <c r="S199" s="6"/>
-      <c r="T199" s="8"/>
+      <c r="T199" s="9"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
     </row>
@@ -5465,7 +5608,7 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="6"/>
       <c r="S200" s="6"/>
-      <c r="T200" s="8"/>
+      <c r="T200" s="9"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
     </row>
@@ -5489,7 +5632,7 @@
       <c r="Q201" s="6"/>
       <c r="R201" s="6"/>
       <c r="S201" s="6"/>
-      <c r="T201" s="8"/>
+      <c r="T201" s="9"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
     </row>
@@ -5513,7 +5656,7 @@
       <c r="Q202" s="6"/>
       <c r="R202" s="6"/>
       <c r="S202" s="6"/>
-      <c r="T202" s="8"/>
+      <c r="T202" s="9"/>
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
     </row>
@@ -5537,7 +5680,7 @@
       <c r="Q203" s="6"/>
       <c r="R203" s="6"/>
       <c r="S203" s="6"/>
-      <c r="T203" s="8"/>
+      <c r="T203" s="9"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
     </row>
@@ -5561,7 +5704,7 @@
       <c r="Q204" s="6"/>
       <c r="R204" s="6"/>
       <c r="S204" s="6"/>
-      <c r="T204" s="8"/>
+      <c r="T204" s="9"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
     </row>
@@ -5585,7 +5728,7 @@
       <c r="Q205" s="6"/>
       <c r="R205" s="6"/>
       <c r="S205" s="6"/>
-      <c r="T205" s="8"/>
+      <c r="T205" s="9"/>
       <c r="U205" s="6"/>
       <c r="V205" s="6"/>
     </row>
@@ -5609,7 +5752,7 @@
       <c r="Q206" s="6"/>
       <c r="R206" s="6"/>
       <c r="S206" s="6"/>
-      <c r="T206" s="8"/>
+      <c r="T206" s="9"/>
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
     </row>
@@ -5633,7 +5776,7 @@
       <c r="Q207" s="6"/>
       <c r="R207" s="6"/>
       <c r="S207" s="6"/>
-      <c r="T207" s="8"/>
+      <c r="T207" s="9"/>
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
     </row>
@@ -5657,7 +5800,7 @@
       <c r="Q208" s="6"/>
       <c r="R208" s="6"/>
       <c r="S208" s="6"/>
-      <c r="T208" s="8"/>
+      <c r="T208" s="9"/>
       <c r="U208" s="6"/>
       <c r="V208" s="6"/>
     </row>
@@ -5681,7 +5824,7 @@
       <c r="Q209" s="6"/>
       <c r="R209" s="6"/>
       <c r="S209" s="6"/>
-      <c r="T209" s="8"/>
+      <c r="T209" s="9"/>
       <c r="U209" s="6"/>
       <c r="V209" s="6"/>
     </row>
@@ -5705,7 +5848,7 @@
       <c r="Q210" s="6"/>
       <c r="R210" s="6"/>
       <c r="S210" s="6"/>
-      <c r="T210" s="8"/>
+      <c r="T210" s="9"/>
       <c r="U210" s="6"/>
       <c r="V210" s="6"/>
     </row>
@@ -5729,7 +5872,7 @@
       <c r="Q211" s="6"/>
       <c r="R211" s="6"/>
       <c r="S211" s="6"/>
-      <c r="T211" s="8"/>
+      <c r="T211" s="9"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
     </row>
@@ -5753,7 +5896,7 @@
       <c r="Q212" s="6"/>
       <c r="R212" s="6"/>
       <c r="S212" s="6"/>
-      <c r="T212" s="8"/>
+      <c r="T212" s="9"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
     </row>
@@ -5777,7 +5920,7 @@
       <c r="Q213" s="6"/>
       <c r="R213" s="6"/>
       <c r="S213" s="6"/>
-      <c r="T213" s="8"/>
+      <c r="T213" s="9"/>
       <c r="U213" s="6"/>
       <c r="V213" s="6"/>
     </row>
@@ -5801,7 +5944,7 @@
       <c r="Q214" s="6"/>
       <c r="R214" s="6"/>
       <c r="S214" s="6"/>
-      <c r="T214" s="8"/>
+      <c r="T214" s="9"/>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
     </row>
@@ -5825,7 +5968,7 @@
       <c r="Q215" s="6"/>
       <c r="R215" s="6"/>
       <c r="S215" s="6"/>
-      <c r="T215" s="8"/>
+      <c r="T215" s="9"/>
       <c r="U215" s="6"/>
       <c r="V215" s="6"/>
     </row>
@@ -5849,7 +5992,7 @@
       <c r="Q216" s="6"/>
       <c r="R216" s="6"/>
       <c r="S216" s="6"/>
-      <c r="T216" s="8"/>
+      <c r="T216" s="9"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
     </row>
@@ -5873,7 +6016,7 @@
       <c r="Q217" s="6"/>
       <c r="R217" s="6"/>
       <c r="S217" s="6"/>
-      <c r="T217" s="8"/>
+      <c r="T217" s="9"/>
       <c r="U217" s="6"/>
       <c r="V217" s="6"/>
     </row>
@@ -5897,7 +6040,7 @@
       <c r="Q218" s="6"/>
       <c r="R218" s="6"/>
       <c r="S218" s="6"/>
-      <c r="T218" s="8"/>
+      <c r="T218" s="9"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
     </row>
@@ -5921,7 +6064,7 @@
       <c r="Q219" s="6"/>
       <c r="R219" s="6"/>
       <c r="S219" s="6"/>
-      <c r="T219" s="8"/>
+      <c r="T219" s="9"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
     </row>
@@ -5945,7 +6088,7 @@
       <c r="Q220" s="6"/>
       <c r="R220" s="6"/>
       <c r="S220" s="6"/>
-      <c r="T220" s="8"/>
+      <c r="T220" s="9"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
     </row>
@@ -5969,7 +6112,7 @@
       <c r="Q221" s="6"/>
       <c r="R221" s="6"/>
       <c r="S221" s="6"/>
-      <c r="T221" s="8"/>
+      <c r="T221" s="9"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
     </row>
@@ -5993,7 +6136,7 @@
       <c r="Q222" s="6"/>
       <c r="R222" s="6"/>
       <c r="S222" s="6"/>
-      <c r="T222" s="8"/>
+      <c r="T222" s="9"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
     </row>
@@ -6017,7 +6160,7 @@
       <c r="Q223" s="6"/>
       <c r="R223" s="6"/>
       <c r="S223" s="6"/>
-      <c r="T223" s="8"/>
+      <c r="T223" s="9"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
     </row>
@@ -6041,7 +6184,7 @@
       <c r="Q224" s="6"/>
       <c r="R224" s="6"/>
       <c r="S224" s="6"/>
-      <c r="T224" s="8"/>
+      <c r="T224" s="9"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
     </row>
@@ -6065,7 +6208,7 @@
       <c r="Q225" s="6"/>
       <c r="R225" s="6"/>
       <c r="S225" s="6"/>
-      <c r="T225" s="8"/>
+      <c r="T225" s="9"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
     </row>
@@ -6089,7 +6232,7 @@
       <c r="Q226" s="6"/>
       <c r="R226" s="6"/>
       <c r="S226" s="6"/>
-      <c r="T226" s="8"/>
+      <c r="T226" s="9"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
     </row>
@@ -6113,7 +6256,7 @@
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
       <c r="S227" s="6"/>
-      <c r="T227" s="8"/>
+      <c r="T227" s="9"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
     </row>
@@ -6137,7 +6280,7 @@
       <c r="Q228" s="6"/>
       <c r="R228" s="6"/>
       <c r="S228" s="6"/>
-      <c r="T228" s="8"/>
+      <c r="T228" s="9"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
     </row>
@@ -6161,7 +6304,7 @@
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
       <c r="S229" s="6"/>
-      <c r="T229" s="8"/>
+      <c r="T229" s="9"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
     </row>
@@ -6185,7 +6328,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
       <c r="S230" s="6"/>
-      <c r="T230" s="8"/>
+      <c r="T230" s="9"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
     </row>
@@ -6209,7 +6352,7 @@
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
       <c r="S231" s="6"/>
-      <c r="T231" s="8"/>
+      <c r="T231" s="9"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
     </row>
@@ -6233,7 +6376,7 @@
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
       <c r="S232" s="6"/>
-      <c r="T232" s="8"/>
+      <c r="T232" s="9"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
     </row>
@@ -6257,7 +6400,7 @@
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6"/>
-      <c r="T233" s="8"/>
+      <c r="T233" s="9"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
     </row>
@@ -6281,7 +6424,7 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6"/>
-      <c r="T234" s="8"/>
+      <c r="T234" s="9"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
     </row>
@@ -6305,7 +6448,7 @@
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
       <c r="S235" s="6"/>
-      <c r="T235" s="8"/>
+      <c r="T235" s="9"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
     </row>
@@ -6329,7 +6472,7 @@
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
       <c r="S236" s="6"/>
-      <c r="T236" s="8"/>
+      <c r="T236" s="9"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
     </row>
@@ -6353,7 +6496,7 @@
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
       <c r="S237" s="6"/>
-      <c r="T237" s="8"/>
+      <c r="T237" s="9"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6"/>
     </row>
@@ -6377,7 +6520,7 @@
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6"/>
-      <c r="T238" s="8"/>
+      <c r="T238" s="9"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
     </row>
@@ -6401,7 +6544,7 @@
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
       <c r="S239" s="6"/>
-      <c r="T239" s="8"/>
+      <c r="T239" s="9"/>
       <c r="U239" s="6"/>
       <c r="V239" s="6"/>
     </row>
@@ -6425,7 +6568,7 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6"/>
-      <c r="T240" s="8"/>
+      <c r="T240" s="9"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6"/>
     </row>
@@ -6449,7 +6592,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6"/>
-      <c r="T241" s="8"/>
+      <c r="T241" s="9"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6"/>
     </row>
@@ -6473,7 +6616,7 @@
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6"/>
-      <c r="T242" s="8"/>
+      <c r="T242" s="9"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6"/>
     </row>
@@ -6497,7 +6640,7 @@
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6"/>
-      <c r="T243" s="8"/>
+      <c r="T243" s="9"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6"/>
     </row>
@@ -6521,7 +6664,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6"/>
-      <c r="T244" s="8"/>
+      <c r="T244" s="9"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6"/>
     </row>
@@ -6545,7 +6688,7 @@
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6"/>
-      <c r="T245" s="8"/>
+      <c r="T245" s="9"/>
       <c r="U245" s="6"/>
       <c r="V245" s="6"/>
     </row>
@@ -6569,7 +6712,7 @@
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6"/>
-      <c r="T246" s="8"/>
+      <c r="T246" s="9"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6"/>
     </row>
@@ -6593,7 +6736,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6"/>
-      <c r="T247" s="8"/>
+      <c r="T247" s="9"/>
       <c r="U247" s="6"/>
       <c r="V247" s="6"/>
     </row>
@@ -6617,7 +6760,7 @@
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6"/>
-      <c r="T248" s="8"/>
+      <c r="T248" s="9"/>
       <c r="U248" s="6"/>
       <c r="V248" s="6"/>
     </row>
@@ -6641,7 +6784,7 @@
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6"/>
-      <c r="T249" s="8"/>
+      <c r="T249" s="9"/>
       <c r="U249" s="6"/>
       <c r="V249" s="6"/>
     </row>
@@ -6665,7 +6808,7 @@
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6"/>
-      <c r="T250" s="8"/>
+      <c r="T250" s="9"/>
       <c r="U250" s="6"/>
       <c r="V250" s="6"/>
     </row>
@@ -6689,7 +6832,7 @@
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6"/>
-      <c r="T251" s="8"/>
+      <c r="T251" s="9"/>
       <c r="U251" s="6"/>
       <c r="V251" s="6"/>
     </row>
@@ -6713,7 +6856,7 @@
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6"/>
-      <c r="T252" s="8"/>
+      <c r="T252" s="9"/>
       <c r="U252" s="6"/>
       <c r="V252" s="6"/>
     </row>
@@ -6737,7 +6880,7 @@
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6"/>
-      <c r="T253" s="8"/>
+      <c r="T253" s="9"/>
       <c r="U253" s="6"/>
       <c r="V253" s="6"/>
     </row>
@@ -6761,7 +6904,7 @@
       <c r="Q254" s="6"/>
       <c r="R254" s="6"/>
       <c r="S254" s="6"/>
-      <c r="T254" s="8"/>
+      <c r="T254" s="9"/>
       <c r="U254" s="6"/>
       <c r="V254" s="6"/>
     </row>
@@ -6785,7 +6928,7 @@
       <c r="Q255" s="6"/>
       <c r="R255" s="6"/>
       <c r="S255" s="6"/>
-      <c r="T255" s="8"/>
+      <c r="T255" s="9"/>
       <c r="U255" s="6"/>
       <c r="V255" s="6"/>
     </row>
@@ -6809,7 +6952,7 @@
       <c r="Q256" s="6"/>
       <c r="R256" s="6"/>
       <c r="S256" s="6"/>
-      <c r="T256" s="8"/>
+      <c r="T256" s="9"/>
       <c r="U256" s="6"/>
       <c r="V256" s="6"/>
     </row>
@@ -6833,7 +6976,7 @@
       <c r="Q257" s="6"/>
       <c r="R257" s="6"/>
       <c r="S257" s="6"/>
-      <c r="T257" s="8"/>
+      <c r="T257" s="9"/>
       <c r="U257" s="6"/>
       <c r="V257" s="6"/>
     </row>
@@ -6857,7 +7000,7 @@
       <c r="Q258" s="6"/>
       <c r="R258" s="6"/>
       <c r="S258" s="6"/>
-      <c r="T258" s="8"/>
+      <c r="T258" s="9"/>
       <c r="U258" s="6"/>
       <c r="V258" s="6"/>
     </row>
@@ -6881,7 +7024,7 @@
       <c r="Q259" s="6"/>
       <c r="R259" s="6"/>
       <c r="S259" s="6"/>
-      <c r="T259" s="8"/>
+      <c r="T259" s="9"/>
       <c r="U259" s="6"/>
       <c r="V259" s="6"/>
     </row>
@@ -6905,7 +7048,7 @@
       <c r="Q260" s="6"/>
       <c r="R260" s="6"/>
       <c r="S260" s="6"/>
-      <c r="T260" s="8"/>
+      <c r="T260" s="9"/>
       <c r="U260" s="6"/>
       <c r="V260" s="6"/>
     </row>
@@ -6929,7 +7072,7 @@
       <c r="Q261" s="6"/>
       <c r="R261" s="6"/>
       <c r="S261" s="6"/>
-      <c r="T261" s="8"/>
+      <c r="T261" s="9"/>
       <c r="U261" s="6"/>
       <c r="V261" s="6"/>
     </row>
@@ -6953,7 +7096,7 @@
       <c r="Q262" s="6"/>
       <c r="R262" s="6"/>
       <c r="S262" s="6"/>
-      <c r="T262" s="8"/>
+      <c r="T262" s="9"/>
       <c r="U262" s="6"/>
       <c r="V262" s="6"/>
     </row>
@@ -6977,7 +7120,7 @@
       <c r="Q263" s="6"/>
       <c r="R263" s="6"/>
       <c r="S263" s="6"/>
-      <c r="T263" s="8"/>
+      <c r="T263" s="9"/>
       <c r="U263" s="6"/>
       <c r="V263" s="6"/>
     </row>
@@ -7001,7 +7144,7 @@
       <c r="Q264" s="6"/>
       <c r="R264" s="6"/>
       <c r="S264" s="6"/>
-      <c r="T264" s="8"/>
+      <c r="T264" s="9"/>
       <c r="U264" s="6"/>
       <c r="V264" s="6"/>
     </row>
@@ -7025,7 +7168,7 @@
       <c r="Q265" s="6"/>
       <c r="R265" s="6"/>
       <c r="S265" s="6"/>
-      <c r="T265" s="8"/>
+      <c r="T265" s="9"/>
       <c r="U265" s="6"/>
       <c r="V265" s="6"/>
     </row>
@@ -7049,7 +7192,7 @@
       <c r="Q266" s="6"/>
       <c r="R266" s="6"/>
       <c r="S266" s="6"/>
-      <c r="T266" s="8"/>
+      <c r="T266" s="9"/>
       <c r="U266" s="6"/>
       <c r="V266" s="6"/>
     </row>
@@ -7073,7 +7216,7 @@
       <c r="Q267" s="6"/>
       <c r="R267" s="6"/>
       <c r="S267" s="6"/>
-      <c r="T267" s="8"/>
+      <c r="T267" s="9"/>
       <c r="U267" s="6"/>
       <c r="V267" s="6"/>
     </row>
@@ -7097,7 +7240,7 @@
       <c r="Q268" s="6"/>
       <c r="R268" s="6"/>
       <c r="S268" s="6"/>
-      <c r="T268" s="8"/>
+      <c r="T268" s="9"/>
       <c r="U268" s="6"/>
       <c r="V268" s="6"/>
     </row>
@@ -7121,7 +7264,7 @@
       <c r="Q269" s="6"/>
       <c r="R269" s="6"/>
       <c r="S269" s="6"/>
-      <c r="T269" s="8"/>
+      <c r="T269" s="9"/>
       <c r="U269" s="6"/>
       <c r="V269" s="6"/>
     </row>
@@ -7145,7 +7288,7 @@
       <c r="Q270" s="6"/>
       <c r="R270" s="6"/>
       <c r="S270" s="6"/>
-      <c r="T270" s="8"/>
+      <c r="T270" s="9"/>
       <c r="U270" s="6"/>
       <c r="V270" s="6"/>
     </row>
@@ -7169,7 +7312,7 @@
       <c r="Q271" s="6"/>
       <c r="R271" s="6"/>
       <c r="S271" s="6"/>
-      <c r="T271" s="8"/>
+      <c r="T271" s="9"/>
       <c r="U271" s="6"/>
       <c r="V271" s="6"/>
     </row>
@@ -7193,7 +7336,7 @@
       <c r="Q272" s="6"/>
       <c r="R272" s="6"/>
       <c r="S272" s="6"/>
-      <c r="T272" s="8"/>
+      <c r="T272" s="9"/>
       <c r="U272" s="6"/>
       <c r="V272" s="6"/>
     </row>
@@ -7217,7 +7360,7 @@
       <c r="Q273" s="6"/>
       <c r="R273" s="6"/>
       <c r="S273" s="6"/>
-      <c r="T273" s="8"/>
+      <c r="T273" s="9"/>
       <c r="U273" s="6"/>
       <c r="V273" s="6"/>
     </row>
@@ -7241,7 +7384,7 @@
       <c r="Q274" s="6"/>
       <c r="R274" s="6"/>
       <c r="S274" s="6"/>
-      <c r="T274" s="8"/>
+      <c r="T274" s="9"/>
       <c r="U274" s="6"/>
       <c r="V274" s="6"/>
     </row>
@@ -7265,7 +7408,7 @@
       <c r="Q275" s="6"/>
       <c r="R275" s="6"/>
       <c r="S275" s="6"/>
-      <c r="T275" s="8"/>
+      <c r="T275" s="9"/>
       <c r="U275" s="6"/>
       <c r="V275" s="6"/>
     </row>
@@ -7289,7 +7432,7 @@
       <c r="Q276" s="6"/>
       <c r="R276" s="6"/>
       <c r="S276" s="6"/>
-      <c r="T276" s="8"/>
+      <c r="T276" s="9"/>
       <c r="U276" s="6"/>
       <c r="V276" s="6"/>
     </row>
@@ -7313,7 +7456,7 @@
       <c r="Q277" s="6"/>
       <c r="R277" s="6"/>
       <c r="S277" s="6"/>
-      <c r="T277" s="8"/>
+      <c r="T277" s="9"/>
       <c r="U277" s="6"/>
       <c r="V277" s="6"/>
     </row>
@@ -7337,7 +7480,7 @@
       <c r="Q278" s="6"/>
       <c r="R278" s="6"/>
       <c r="S278" s="6"/>
-      <c r="T278" s="8"/>
+      <c r="T278" s="9"/>
       <c r="U278" s="6"/>
       <c r="V278" s="6"/>
     </row>
@@ -7361,7 +7504,7 @@
       <c r="Q279" s="6"/>
       <c r="R279" s="6"/>
       <c r="S279" s="6"/>
-      <c r="T279" s="8"/>
+      <c r="T279" s="9"/>
       <c r="U279" s="6"/>
       <c r="V279" s="6"/>
     </row>
@@ -7385,7 +7528,7 @@
       <c r="Q280" s="6"/>
       <c r="R280" s="6"/>
       <c r="S280" s="6"/>
-      <c r="T280" s="8"/>
+      <c r="T280" s="9"/>
       <c r="U280" s="6"/>
       <c r="V280" s="6"/>
     </row>
@@ -7409,7 +7552,7 @@
       <c r="Q281" s="6"/>
       <c r="R281" s="6"/>
       <c r="S281" s="6"/>
-      <c r="T281" s="8"/>
+      <c r="T281" s="9"/>
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
     </row>
@@ -7433,7 +7576,7 @@
       <c r="Q282" s="6"/>
       <c r="R282" s="6"/>
       <c r="S282" s="6"/>
-      <c r="T282" s="8"/>
+      <c r="T282" s="9"/>
       <c r="U282" s="6"/>
       <c r="V282" s="6"/>
     </row>
@@ -7457,7 +7600,7 @@
       <c r="Q283" s="6"/>
       <c r="R283" s="6"/>
       <c r="S283" s="6"/>
-      <c r="T283" s="8"/>
+      <c r="T283" s="9"/>
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
     </row>
@@ -7481,7 +7624,7 @@
       <c r="Q284" s="6"/>
       <c r="R284" s="6"/>
       <c r="S284" s="6"/>
-      <c r="T284" s="8"/>
+      <c r="T284" s="9"/>
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
     </row>
@@ -7505,7 +7648,7 @@
       <c r="Q285" s="6"/>
       <c r="R285" s="6"/>
       <c r="S285" s="6"/>
-      <c r="T285" s="8"/>
+      <c r="T285" s="9"/>
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
     </row>
@@ -7529,7 +7672,7 @@
       <c r="Q286" s="6"/>
       <c r="R286" s="6"/>
       <c r="S286" s="6"/>
-      <c r="T286" s="8"/>
+      <c r="T286" s="9"/>
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
     </row>
@@ -7553,7 +7696,7 @@
       <c r="Q287" s="6"/>
       <c r="R287" s="6"/>
       <c r="S287" s="6"/>
-      <c r="T287" s="8"/>
+      <c r="T287" s="9"/>
       <c r="U287" s="6"/>
       <c r="V287" s="6"/>
     </row>
@@ -7577,7 +7720,7 @@
       <c r="Q288" s="6"/>
       <c r="R288" s="6"/>
       <c r="S288" s="6"/>
-      <c r="T288" s="8"/>
+      <c r="T288" s="9"/>
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
     </row>
@@ -7601,7 +7744,7 @@
       <c r="Q289" s="6"/>
       <c r="R289" s="6"/>
       <c r="S289" s="6"/>
-      <c r="T289" s="8"/>
+      <c r="T289" s="9"/>
       <c r="U289" s="6"/>
       <c r="V289" s="6"/>
     </row>
@@ -7625,7 +7768,7 @@
       <c r="Q290" s="6"/>
       <c r="R290" s="6"/>
       <c r="S290" s="6"/>
-      <c r="T290" s="8"/>
+      <c r="T290" s="9"/>
       <c r="U290" s="6"/>
       <c r="V290" s="6"/>
     </row>
@@ -7649,7 +7792,7 @@
       <c r="Q291" s="6"/>
       <c r="R291" s="6"/>
       <c r="S291" s="6"/>
-      <c r="T291" s="8"/>
+      <c r="T291" s="9"/>
       <c r="U291" s="6"/>
       <c r="V291" s="6"/>
     </row>
@@ -7673,7 +7816,7 @@
       <c r="Q292" s="6"/>
       <c r="R292" s="6"/>
       <c r="S292" s="6"/>
-      <c r="T292" s="8"/>
+      <c r="T292" s="9"/>
       <c r="U292" s="6"/>
       <c r="V292" s="6"/>
     </row>
@@ -7697,7 +7840,7 @@
       <c r="Q293" s="6"/>
       <c r="R293" s="6"/>
       <c r="S293" s="6"/>
-      <c r="T293" s="8"/>
+      <c r="T293" s="9"/>
       <c r="U293" s="6"/>
       <c r="V293" s="6"/>
     </row>
@@ -7721,7 +7864,7 @@
       <c r="Q294" s="6"/>
       <c r="R294" s="6"/>
       <c r="S294" s="6"/>
-      <c r="T294" s="8"/>
+      <c r="T294" s="9"/>
       <c r="U294" s="6"/>
       <c r="V294" s="6"/>
     </row>
@@ -7745,7 +7888,7 @@
       <c r="Q295" s="6"/>
       <c r="R295" s="6"/>
       <c r="S295" s="6"/>
-      <c r="T295" s="8"/>
+      <c r="T295" s="9"/>
       <c r="U295" s="6"/>
       <c r="V295" s="6"/>
     </row>
@@ -7769,7 +7912,7 @@
       <c r="Q296" s="6"/>
       <c r="R296" s="6"/>
       <c r="S296" s="6"/>
-      <c r="T296" s="8"/>
+      <c r="T296" s="9"/>
       <c r="U296" s="6"/>
       <c r="V296" s="6"/>
     </row>
@@ -7793,7 +7936,7 @@
       <c r="Q297" s="6"/>
       <c r="R297" s="6"/>
       <c r="S297" s="6"/>
-      <c r="T297" s="8"/>
+      <c r="T297" s="9"/>
       <c r="U297" s="6"/>
       <c r="V297" s="6"/>
     </row>
@@ -7817,7 +7960,7 @@
       <c r="Q298" s="6"/>
       <c r="R298" s="6"/>
       <c r="S298" s="6"/>
-      <c r="T298" s="8"/>
+      <c r="T298" s="9"/>
       <c r="U298" s="6"/>
       <c r="V298" s="6"/>
     </row>
@@ -7841,7 +7984,7 @@
       <c r="Q299" s="6"/>
       <c r="R299" s="6"/>
       <c r="S299" s="6"/>
-      <c r="T299" s="8"/>
+      <c r="T299" s="9"/>
       <c r="U299" s="6"/>
       <c r="V299" s="6"/>
     </row>
@@ -7865,7 +8008,7 @@
       <c r="Q300" s="6"/>
       <c r="R300" s="6"/>
       <c r="S300" s="6"/>
-      <c r="T300" s="8"/>
+      <c r="T300" s="9"/>
       <c r="U300" s="6"/>
       <c r="V300" s="6"/>
     </row>
@@ -7889,7 +8032,7 @@
       <c r="Q301" s="6"/>
       <c r="R301" s="6"/>
       <c r="S301" s="6"/>
-      <c r="T301" s="8"/>
+      <c r="T301" s="9"/>
       <c r="U301" s="6"/>
       <c r="V301" s="6"/>
     </row>
@@ -7913,7 +8056,7 @@
       <c r="Q302" s="6"/>
       <c r="R302" s="6"/>
       <c r="S302" s="6"/>
-      <c r="T302" s="8"/>
+      <c r="T302" s="9"/>
       <c r="U302" s="6"/>
       <c r="V302" s="6"/>
     </row>
@@ -7937,7 +8080,7 @@
       <c r="Q303" s="6"/>
       <c r="R303" s="6"/>
       <c r="S303" s="6"/>
-      <c r="T303" s="8"/>
+      <c r="T303" s="9"/>
       <c r="U303" s="6"/>
       <c r="V303" s="6"/>
     </row>
@@ -7961,7 +8104,7 @@
       <c r="Q304" s="6"/>
       <c r="R304" s="6"/>
       <c r="S304" s="6"/>
-      <c r="T304" s="8"/>
+      <c r="T304" s="9"/>
       <c r="U304" s="6"/>
       <c r="V304" s="6"/>
     </row>
@@ -7985,7 +8128,7 @@
       <c r="Q305" s="6"/>
       <c r="R305" s="6"/>
       <c r="S305" s="6"/>
-      <c r="T305" s="8"/>
+      <c r="T305" s="9"/>
       <c r="U305" s="6"/>
       <c r="V305" s="6"/>
     </row>
@@ -8009,7 +8152,7 @@
       <c r="Q306" s="6"/>
       <c r="R306" s="6"/>
       <c r="S306" s="6"/>
-      <c r="T306" s="8"/>
+      <c r="T306" s="9"/>
       <c r="U306" s="6"/>
       <c r="V306" s="6"/>
     </row>
@@ -8033,7 +8176,7 @@
       <c r="Q307" s="6"/>
       <c r="R307" s="6"/>
       <c r="S307" s="6"/>
-      <c r="T307" s="8"/>
+      <c r="T307" s="9"/>
       <c r="U307" s="6"/>
       <c r="V307" s="6"/>
     </row>
@@ -8057,7 +8200,7 @@
       <c r="Q308" s="6"/>
       <c r="R308" s="6"/>
       <c r="S308" s="6"/>
-      <c r="T308" s="8"/>
+      <c r="T308" s="9"/>
       <c r="U308" s="6"/>
       <c r="V308" s="6"/>
     </row>
@@ -8081,7 +8224,7 @@
       <c r="Q309" s="6"/>
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
-      <c r="T309" s="8"/>
+      <c r="T309" s="9"/>
       <c r="U309" s="6"/>
       <c r="V309" s="6"/>
     </row>
@@ -8105,7 +8248,7 @@
       <c r="Q310" s="6"/>
       <c r="R310" s="6"/>
       <c r="S310" s="6"/>
-      <c r="T310" s="8"/>
+      <c r="T310" s="9"/>
       <c r="U310" s="6"/>
       <c r="V310" s="6"/>
     </row>
@@ -8129,7 +8272,7 @@
       <c r="Q311" s="6"/>
       <c r="R311" s="6"/>
       <c r="S311" s="6"/>
-      <c r="T311" s="8"/>
+      <c r="T311" s="9"/>
       <c r="U311" s="6"/>
       <c r="V311" s="6"/>
     </row>
@@ -8153,7 +8296,7 @@
       <c r="Q312" s="6"/>
       <c r="R312" s="6"/>
       <c r="S312" s="6"/>
-      <c r="T312" s="8"/>
+      <c r="T312" s="9"/>
       <c r="U312" s="6"/>
       <c r="V312" s="6"/>
     </row>
@@ -8177,7 +8320,7 @@
       <c r="Q313" s="6"/>
       <c r="R313" s="6"/>
       <c r="S313" s="6"/>
-      <c r="T313" s="8"/>
+      <c r="T313" s="9"/>
       <c r="U313" s="6"/>
       <c r="V313" s="6"/>
     </row>
@@ -8201,7 +8344,7 @@
       <c r="Q314" s="6"/>
       <c r="R314" s="6"/>
       <c r="S314" s="6"/>
-      <c r="T314" s="8"/>
+      <c r="T314" s="9"/>
       <c r="U314" s="6"/>
       <c r="V314" s="6"/>
     </row>
@@ -8225,7 +8368,7 @@
       <c r="Q315" s="6"/>
       <c r="R315" s="6"/>
       <c r="S315" s="6"/>
-      <c r="T315" s="8"/>
+      <c r="T315" s="9"/>
       <c r="U315" s="6"/>
       <c r="V315" s="6"/>
     </row>
@@ -8249,7 +8392,7 @@
       <c r="Q316" s="6"/>
       <c r="R316" s="6"/>
       <c r="S316" s="6"/>
-      <c r="T316" s="8"/>
+      <c r="T316" s="9"/>
       <c r="U316" s="6"/>
       <c r="V316" s="6"/>
     </row>
@@ -8273,7 +8416,7 @@
       <c r="Q317" s="6"/>
       <c r="R317" s="6"/>
       <c r="S317" s="6"/>
-      <c r="T317" s="8"/>
+      <c r="T317" s="9"/>
       <c r="U317" s="6"/>
       <c r="V317" s="6"/>
     </row>
@@ -8297,7 +8440,7 @@
       <c r="Q318" s="6"/>
       <c r="R318" s="6"/>
       <c r="S318" s="6"/>
-      <c r="T318" s="8"/>
+      <c r="T318" s="9"/>
       <c r="U318" s="6"/>
       <c r="V318" s="6"/>
     </row>
@@ -8321,7 +8464,7 @@
       <c r="Q319" s="6"/>
       <c r="R319" s="6"/>
       <c r="S319" s="6"/>
-      <c r="T319" s="8"/>
+      <c r="T319" s="9"/>
       <c r="U319" s="6"/>
       <c r="V319" s="6"/>
     </row>
@@ -8345,7 +8488,7 @@
       <c r="Q320" s="6"/>
       <c r="R320" s="6"/>
       <c r="S320" s="6"/>
-      <c r="T320" s="8"/>
+      <c r="T320" s="9"/>
       <c r="U320" s="6"/>
       <c r="V320" s="6"/>
     </row>
@@ -8369,7 +8512,7 @@
       <c r="Q321" s="6"/>
       <c r="R321" s="6"/>
       <c r="S321" s="6"/>
-      <c r="T321" s="8"/>
+      <c r="T321" s="9"/>
       <c r="U321" s="6"/>
       <c r="V321" s="6"/>
     </row>
@@ -8393,7 +8536,7 @@
       <c r="Q322" s="6"/>
       <c r="R322" s="6"/>
       <c r="S322" s="6"/>
-      <c r="T322" s="8"/>
+      <c r="T322" s="9"/>
       <c r="U322" s="6"/>
       <c r="V322" s="6"/>
     </row>
@@ -8417,7 +8560,7 @@
       <c r="Q323" s="6"/>
       <c r="R323" s="6"/>
       <c r="S323" s="6"/>
-      <c r="T323" s="8"/>
+      <c r="T323" s="9"/>
       <c r="U323" s="6"/>
       <c r="V323" s="6"/>
     </row>
@@ -8441,7 +8584,7 @@
       <c r="Q324" s="6"/>
       <c r="R324" s="6"/>
       <c r="S324" s="6"/>
-      <c r="T324" s="8"/>
+      <c r="T324" s="9"/>
       <c r="U324" s="6"/>
       <c r="V324" s="6"/>
     </row>
@@ -8465,7 +8608,7 @@
       <c r="Q325" s="6"/>
       <c r="R325" s="6"/>
       <c r="S325" s="6"/>
-      <c r="T325" s="8"/>
+      <c r="T325" s="9"/>
       <c r="U325" s="6"/>
       <c r="V325" s="6"/>
     </row>
@@ -8489,7 +8632,7 @@
       <c r="Q326" s="6"/>
       <c r="R326" s="6"/>
       <c r="S326" s="6"/>
-      <c r="T326" s="8"/>
+      <c r="T326" s="9"/>
       <c r="U326" s="6"/>
       <c r="V326" s="6"/>
     </row>
@@ -8513,7 +8656,7 @@
       <c r="Q327" s="6"/>
       <c r="R327" s="6"/>
       <c r="S327" s="6"/>
-      <c r="T327" s="8"/>
+      <c r="T327" s="9"/>
       <c r="U327" s="6"/>
       <c r="V327" s="6"/>
     </row>
@@ -8537,7 +8680,7 @@
       <c r="Q328" s="6"/>
       <c r="R328" s="6"/>
       <c r="S328" s="6"/>
-      <c r="T328" s="8"/>
+      <c r="T328" s="9"/>
       <c r="U328" s="6"/>
       <c r="V328" s="6"/>
     </row>
@@ -8561,7 +8704,7 @@
       <c r="Q329" s="6"/>
       <c r="R329" s="6"/>
       <c r="S329" s="6"/>
-      <c r="T329" s="8"/>
+      <c r="T329" s="9"/>
       <c r="U329" s="6"/>
       <c r="V329" s="6"/>
     </row>
@@ -8585,7 +8728,7 @@
       <c r="Q330" s="6"/>
       <c r="R330" s="6"/>
       <c r="S330" s="6"/>
-      <c r="T330" s="8"/>
+      <c r="T330" s="9"/>
       <c r="U330" s="6"/>
       <c r="V330" s="6"/>
     </row>
@@ -8609,7 +8752,7 @@
       <c r="Q331" s="6"/>
       <c r="R331" s="6"/>
       <c r="S331" s="6"/>
-      <c r="T331" s="8"/>
+      <c r="T331" s="9"/>
       <c r="U331" s="6"/>
       <c r="V331" s="6"/>
     </row>
@@ -8633,7 +8776,7 @@
       <c r="Q332" s="6"/>
       <c r="R332" s="6"/>
       <c r="S332" s="6"/>
-      <c r="T332" s="8"/>
+      <c r="T332" s="9"/>
       <c r="U332" s="6"/>
       <c r="V332" s="6"/>
     </row>
@@ -8657,7 +8800,7 @@
       <c r="Q333" s="6"/>
       <c r="R333" s="6"/>
       <c r="S333" s="6"/>
-      <c r="T333" s="8"/>
+      <c r="T333" s="9"/>
       <c r="U333" s="6"/>
       <c r="V333" s="6"/>
     </row>
@@ -8681,7 +8824,7 @@
       <c r="Q334" s="6"/>
       <c r="R334" s="6"/>
       <c r="S334" s="6"/>
-      <c r="T334" s="8"/>
+      <c r="T334" s="9"/>
       <c r="U334" s="6"/>
       <c r="V334" s="6"/>
     </row>
@@ -8705,7 +8848,7 @@
       <c r="Q335" s="6"/>
       <c r="R335" s="6"/>
       <c r="S335" s="6"/>
-      <c r="T335" s="8"/>
+      <c r="T335" s="9"/>
       <c r="U335" s="6"/>
       <c r="V335" s="6"/>
     </row>
@@ -8729,7 +8872,7 @@
       <c r="Q336" s="6"/>
       <c r="R336" s="6"/>
       <c r="S336" s="6"/>
-      <c r="T336" s="8"/>
+      <c r="T336" s="9"/>
       <c r="U336" s="6"/>
       <c r="V336" s="6"/>
     </row>
@@ -8753,7 +8896,7 @@
       <c r="Q337" s="6"/>
       <c r="R337" s="6"/>
       <c r="S337" s="6"/>
-      <c r="T337" s="8"/>
+      <c r="T337" s="9"/>
       <c r="U337" s="6"/>
       <c r="V337" s="6"/>
     </row>
@@ -8777,7 +8920,7 @@
       <c r="Q338" s="6"/>
       <c r="R338" s="6"/>
       <c r="S338" s="6"/>
-      <c r="T338" s="8"/>
+      <c r="T338" s="9"/>
       <c r="U338" s="6"/>
       <c r="V338" s="6"/>
     </row>
@@ -8801,7 +8944,7 @@
       <c r="Q339" s="6"/>
       <c r="R339" s="6"/>
       <c r="S339" s="6"/>
-      <c r="T339" s="8"/>
+      <c r="T339" s="9"/>
       <c r="U339" s="6"/>
       <c r="V339" s="6"/>
     </row>
@@ -8825,7 +8968,7 @@
       <c r="Q340" s="6"/>
       <c r="R340" s="6"/>
       <c r="S340" s="6"/>
-      <c r="T340" s="8"/>
+      <c r="T340" s="9"/>
       <c r="U340" s="6"/>
       <c r="V340" s="6"/>
     </row>
@@ -8849,7 +8992,7 @@
       <c r="Q341" s="6"/>
       <c r="R341" s="6"/>
       <c r="S341" s="6"/>
-      <c r="T341" s="8"/>
+      <c r="T341" s="9"/>
       <c r="U341" s="6"/>
       <c r="V341" s="6"/>
     </row>
@@ -8873,7 +9016,7 @@
       <c r="Q342" s="6"/>
       <c r="R342" s="6"/>
       <c r="S342" s="6"/>
-      <c r="T342" s="8"/>
+      <c r="T342" s="9"/>
       <c r="U342" s="6"/>
       <c r="V342" s="6"/>
     </row>
@@ -8897,7 +9040,7 @@
       <c r="Q343" s="6"/>
       <c r="R343" s="6"/>
       <c r="S343" s="6"/>
-      <c r="T343" s="8"/>
+      <c r="T343" s="9"/>
       <c r="U343" s="6"/>
       <c r="V343" s="6"/>
     </row>
@@ -8921,7 +9064,7 @@
       <c r="Q344" s="6"/>
       <c r="R344" s="6"/>
       <c r="S344" s="6"/>
-      <c r="T344" s="8"/>
+      <c r="T344" s="9"/>
       <c r="U344" s="6"/>
       <c r="V344" s="6"/>
     </row>
@@ -8945,7 +9088,7 @@
       <c r="Q345" s="6"/>
       <c r="R345" s="6"/>
       <c r="S345" s="6"/>
-      <c r="T345" s="8"/>
+      <c r="T345" s="9"/>
       <c r="U345" s="6"/>
       <c r="V345" s="6"/>
     </row>
@@ -8969,7 +9112,7 @@
       <c r="Q346" s="6"/>
       <c r="R346" s="6"/>
       <c r="S346" s="6"/>
-      <c r="T346" s="8"/>
+      <c r="T346" s="9"/>
       <c r="U346" s="6"/>
       <c r="V346" s="6"/>
     </row>
@@ -8993,7 +9136,7 @@
       <c r="Q347" s="6"/>
       <c r="R347" s="6"/>
       <c r="S347" s="6"/>
-      <c r="T347" s="8"/>
+      <c r="T347" s="9"/>
       <c r="U347" s="6"/>
       <c r="V347" s="6"/>
     </row>
@@ -9017,7 +9160,7 @@
       <c r="Q348" s="6"/>
       <c r="R348" s="6"/>
       <c r="S348" s="6"/>
-      <c r="T348" s="8"/>
+      <c r="T348" s="9"/>
       <c r="U348" s="6"/>
       <c r="V348" s="6"/>
     </row>
@@ -9041,7 +9184,7 @@
       <c r="Q349" s="6"/>
       <c r="R349" s="6"/>
       <c r="S349" s="6"/>
-      <c r="T349" s="8"/>
+      <c r="T349" s="9"/>
       <c r="U349" s="6"/>
       <c r="V349" s="6"/>
     </row>
@@ -9065,7 +9208,7 @@
       <c r="Q350" s="6"/>
       <c r="R350" s="6"/>
       <c r="S350" s="6"/>
-      <c r="T350" s="8"/>
+      <c r="T350" s="9"/>
       <c r="U350" s="6"/>
       <c r="V350" s="6"/>
     </row>
@@ -9089,7 +9232,7 @@
       <c r="Q351" s="6"/>
       <c r="R351" s="6"/>
       <c r="S351" s="6"/>
-      <c r="T351" s="8"/>
+      <c r="T351" s="9"/>
       <c r="U351" s="6"/>
       <c r="V351" s="6"/>
     </row>
@@ -9113,7 +9256,7 @@
       <c r="Q352" s="6"/>
       <c r="R352" s="6"/>
       <c r="S352" s="6"/>
-      <c r="T352" s="8"/>
+      <c r="T352" s="9"/>
       <c r="U352" s="6"/>
       <c r="V352" s="6"/>
     </row>
@@ -9137,7 +9280,7 @@
       <c r="Q353" s="6"/>
       <c r="R353" s="6"/>
       <c r="S353" s="6"/>
-      <c r="T353" s="8"/>
+      <c r="T353" s="9"/>
       <c r="U353" s="6"/>
       <c r="V353" s="6"/>
     </row>
@@ -9161,7 +9304,7 @@
       <c r="Q354" s="6"/>
       <c r="R354" s="6"/>
       <c r="S354" s="6"/>
-      <c r="T354" s="8"/>
+      <c r="T354" s="9"/>
       <c r="U354" s="6"/>
       <c r="V354" s="6"/>
     </row>
@@ -9185,7 +9328,7 @@
       <c r="Q355" s="6"/>
       <c r="R355" s="6"/>
       <c r="S355" s="6"/>
-      <c r="T355" s="8"/>
+      <c r="T355" s="9"/>
       <c r="U355" s="6"/>
       <c r="V355" s="6"/>
     </row>
@@ -9209,7 +9352,7 @@
       <c r="Q356" s="6"/>
       <c r="R356" s="6"/>
       <c r="S356" s="6"/>
-      <c r="T356" s="8"/>
+      <c r="T356" s="9"/>
       <c r="U356" s="6"/>
       <c r="V356" s="6"/>
     </row>
@@ -9233,7 +9376,7 @@
       <c r="Q357" s="6"/>
       <c r="R357" s="6"/>
       <c r="S357" s="6"/>
-      <c r="T357" s="8"/>
+      <c r="T357" s="9"/>
       <c r="U357" s="6"/>
       <c r="V357" s="6"/>
     </row>
@@ -9257,7 +9400,7 @@
       <c r="Q358" s="6"/>
       <c r="R358" s="6"/>
       <c r="S358" s="6"/>
-      <c r="T358" s="8"/>
+      <c r="T358" s="9"/>
       <c r="U358" s="6"/>
       <c r="V358" s="6"/>
     </row>
@@ -9281,7 +9424,7 @@
       <c r="Q359" s="6"/>
       <c r="R359" s="6"/>
       <c r="S359" s="6"/>
-      <c r="T359" s="8"/>
+      <c r="T359" s="9"/>
       <c r="U359" s="6"/>
       <c r="V359" s="6"/>
     </row>
@@ -9305,7 +9448,7 @@
       <c r="Q360" s="6"/>
       <c r="R360" s="6"/>
       <c r="S360" s="6"/>
-      <c r="T360" s="8"/>
+      <c r="T360" s="9"/>
       <c r="U360" s="6"/>
       <c r="V360" s="6"/>
     </row>
@@ -9329,7 +9472,7 @@
       <c r="Q361" s="6"/>
       <c r="R361" s="6"/>
       <c r="S361" s="6"/>
-      <c r="T361" s="8"/>
+      <c r="T361" s="9"/>
       <c r="U361" s="6"/>
       <c r="V361" s="6"/>
     </row>
@@ -9353,7 +9496,7 @@
       <c r="Q362" s="6"/>
       <c r="R362" s="6"/>
       <c r="S362" s="6"/>
-      <c r="T362" s="8"/>
+      <c r="T362" s="9"/>
       <c r="U362" s="6"/>
       <c r="V362" s="6"/>
     </row>
@@ -9377,7 +9520,7 @@
       <c r="Q363" s="6"/>
       <c r="R363" s="6"/>
       <c r="S363" s="6"/>
-      <c r="T363" s="8"/>
+      <c r="T363" s="9"/>
       <c r="U363" s="6"/>
       <c r="V363" s="6"/>
     </row>
@@ -9401,7 +9544,7 @@
       <c r="Q364" s="6"/>
       <c r="R364" s="6"/>
       <c r="S364" s="6"/>
-      <c r="T364" s="8"/>
+      <c r="T364" s="9"/>
       <c r="U364" s="6"/>
       <c r="V364" s="6"/>
     </row>
@@ -9425,7 +9568,7 @@
       <c r="Q365" s="6"/>
       <c r="R365" s="6"/>
       <c r="S365" s="6"/>
-      <c r="T365" s="8"/>
+      <c r="T365" s="9"/>
       <c r="U365" s="6"/>
       <c r="V365" s="6"/>
     </row>
@@ -9449,7 +9592,7 @@
       <c r="Q366" s="6"/>
       <c r="R366" s="6"/>
       <c r="S366" s="6"/>
-      <c r="T366" s="8"/>
+      <c r="T366" s="9"/>
       <c r="U366" s="6"/>
       <c r="V366" s="6"/>
     </row>
@@ -9473,7 +9616,7 @@
       <c r="Q367" s="6"/>
       <c r="R367" s="6"/>
       <c r="S367" s="6"/>
-      <c r="T367" s="8"/>
+      <c r="T367" s="9"/>
       <c r="U367" s="6"/>
       <c r="V367" s="6"/>
     </row>
@@ -9497,7 +9640,7 @@
       <c r="Q368" s="6"/>
       <c r="R368" s="6"/>
       <c r="S368" s="6"/>
-      <c r="T368" s="8"/>
+      <c r="T368" s="9"/>
       <c r="U368" s="6"/>
       <c r="V368" s="6"/>
     </row>
@@ -9521,7 +9664,7 @@
       <c r="Q369" s="6"/>
       <c r="R369" s="6"/>
       <c r="S369" s="6"/>
-      <c r="T369" s="8"/>
+      <c r="T369" s="9"/>
       <c r="U369" s="6"/>
       <c r="V369" s="6"/>
     </row>
@@ -9545,7 +9688,7 @@
       <c r="Q370" s="6"/>
       <c r="R370" s="6"/>
       <c r="S370" s="6"/>
-      <c r="T370" s="8"/>
+      <c r="T370" s="9"/>
       <c r="U370" s="6"/>
       <c r="V370" s="6"/>
     </row>
@@ -9569,7 +9712,7 @@
       <c r="Q371" s="6"/>
       <c r="R371" s="6"/>
       <c r="S371" s="6"/>
-      <c r="T371" s="8"/>
+      <c r="T371" s="9"/>
       <c r="U371" s="6"/>
       <c r="V371" s="6"/>
     </row>
@@ -9593,7 +9736,7 @@
       <c r="Q372" s="6"/>
       <c r="R372" s="6"/>
       <c r="S372" s="6"/>
-      <c r="T372" s="8"/>
+      <c r="T372" s="9"/>
       <c r="U372" s="6"/>
       <c r="V372" s="6"/>
     </row>
@@ -9617,7 +9760,7 @@
       <c r="Q373" s="6"/>
       <c r="R373" s="6"/>
       <c r="S373" s="6"/>
-      <c r="T373" s="8"/>
+      <c r="T373" s="9"/>
       <c r="U373" s="6"/>
       <c r="V373" s="6"/>
     </row>
@@ -9641,7 +9784,7 @@
       <c r="Q374" s="6"/>
       <c r="R374" s="6"/>
       <c r="S374" s="6"/>
-      <c r="T374" s="8"/>
+      <c r="T374" s="9"/>
       <c r="U374" s="6"/>
       <c r="V374" s="6"/>
     </row>
@@ -9665,7 +9808,7 @@
       <c r="Q375" s="6"/>
       <c r="R375" s="6"/>
       <c r="S375" s="6"/>
-      <c r="T375" s="8"/>
+      <c r="T375" s="9"/>
       <c r="U375" s="6"/>
       <c r="V375" s="6"/>
     </row>
@@ -9689,7 +9832,7 @@
       <c r="Q376" s="6"/>
       <c r="R376" s="6"/>
       <c r="S376" s="6"/>
-      <c r="T376" s="8"/>
+      <c r="T376" s="9"/>
       <c r="U376" s="6"/>
       <c r="V376" s="6"/>
     </row>
@@ -9713,7 +9856,7 @@
       <c r="Q377" s="6"/>
       <c r="R377" s="6"/>
       <c r="S377" s="6"/>
-      <c r="T377" s="8"/>
+      <c r="T377" s="9"/>
       <c r="U377" s="6"/>
       <c r="V377" s="6"/>
     </row>
@@ -9737,7 +9880,7 @@
       <c r="Q378" s="6"/>
       <c r="R378" s="6"/>
       <c r="S378" s="6"/>
-      <c r="T378" s="8"/>
+      <c r="T378" s="9"/>
       <c r="U378" s="6"/>
       <c r="V378" s="6"/>
     </row>
@@ -9761,7 +9904,7 @@
       <c r="Q379" s="6"/>
       <c r="R379" s="6"/>
       <c r="S379" s="6"/>
-      <c r="T379" s="8"/>
+      <c r="T379" s="9"/>
       <c r="U379" s="6"/>
       <c r="V379" s="6"/>
     </row>
@@ -9785,7 +9928,7 @@
       <c r="Q380" s="6"/>
       <c r="R380" s="6"/>
       <c r="S380" s="6"/>
-      <c r="T380" s="8"/>
+      <c r="T380" s="9"/>
       <c r="U380" s="6"/>
       <c r="V380" s="6"/>
     </row>
@@ -9809,7 +9952,7 @@
       <c r="Q381" s="6"/>
       <c r="R381" s="6"/>
       <c r="S381" s="6"/>
-      <c r="T381" s="8"/>
+      <c r="T381" s="9"/>
       <c r="U381" s="6"/>
       <c r="V381" s="6"/>
     </row>
@@ -9833,7 +9976,7 @@
       <c r="Q382" s="6"/>
       <c r="R382" s="6"/>
       <c r="S382" s="6"/>
-      <c r="T382" s="8"/>
+      <c r="T382" s="9"/>
       <c r="U382" s="6"/>
       <c r="V382" s="6"/>
     </row>
@@ -9857,7 +10000,7 @@
       <c r="Q383" s="6"/>
       <c r="R383" s="6"/>
       <c r="S383" s="6"/>
-      <c r="T383" s="8"/>
+      <c r="T383" s="9"/>
       <c r="U383" s="6"/>
       <c r="V383" s="6"/>
     </row>
@@ -9881,7 +10024,7 @@
       <c r="Q384" s="6"/>
       <c r="R384" s="6"/>
       <c r="S384" s="6"/>
-      <c r="T384" s="8"/>
+      <c r="T384" s="9"/>
       <c r="U384" s="6"/>
       <c r="V384" s="6"/>
     </row>
@@ -9905,7 +10048,7 @@
       <c r="Q385" s="6"/>
       <c r="R385" s="6"/>
       <c r="S385" s="6"/>
-      <c r="T385" s="8"/>
+      <c r="T385" s="9"/>
       <c r="U385" s="6"/>
       <c r="V385" s="6"/>
     </row>
@@ -9929,7 +10072,7 @@
       <c r="Q386" s="6"/>
       <c r="R386" s="6"/>
       <c r="S386" s="6"/>
-      <c r="T386" s="8"/>
+      <c r="T386" s="9"/>
       <c r="U386" s="6"/>
       <c r="V386" s="6"/>
     </row>
@@ -9953,7 +10096,7 @@
       <c r="Q387" s="6"/>
       <c r="R387" s="6"/>
       <c r="S387" s="6"/>
-      <c r="T387" s="8"/>
+      <c r="T387" s="9"/>
       <c r="U387" s="6"/>
       <c r="V387" s="6"/>
     </row>
@@ -9977,7 +10120,7 @@
       <c r="Q388" s="6"/>
       <c r="R388" s="6"/>
       <c r="S388" s="6"/>
-      <c r="T388" s="8"/>
+      <c r="T388" s="9"/>
       <c r="U388" s="6"/>
       <c r="V388" s="6"/>
     </row>
@@ -10001,7 +10144,7 @@
       <c r="Q389" s="6"/>
       <c r="R389" s="6"/>
       <c r="S389" s="6"/>
-      <c r="T389" s="8"/>
+      <c r="T389" s="9"/>
       <c r="U389" s="6"/>
       <c r="V389" s="6"/>
     </row>
@@ -10025,7 +10168,7 @@
       <c r="Q390" s="6"/>
       <c r="R390" s="6"/>
       <c r="S390" s="6"/>
-      <c r="T390" s="8"/>
+      <c r="T390" s="9"/>
       <c r="U390" s="6"/>
       <c r="V390" s="6"/>
     </row>
@@ -10049,7 +10192,7 @@
       <c r="Q391" s="6"/>
       <c r="R391" s="6"/>
       <c r="S391" s="6"/>
-      <c r="T391" s="8"/>
+      <c r="T391" s="9"/>
       <c r="U391" s="6"/>
       <c r="V391" s="6"/>
     </row>
@@ -10073,7 +10216,7 @@
       <c r="Q392" s="6"/>
       <c r="R392" s="6"/>
       <c r="S392" s="6"/>
-      <c r="T392" s="8"/>
+      <c r="T392" s="9"/>
       <c r="U392" s="6"/>
       <c r="V392" s="6"/>
     </row>
@@ -10097,7 +10240,7 @@
       <c r="Q393" s="6"/>
       <c r="R393" s="6"/>
       <c r="S393" s="6"/>
-      <c r="T393" s="8"/>
+      <c r="T393" s="9"/>
       <c r="U393" s="6"/>
       <c r="V393" s="6"/>
     </row>
@@ -10121,7 +10264,7 @@
       <c r="Q394" s="6"/>
       <c r="R394" s="6"/>
       <c r="S394" s="6"/>
-      <c r="T394" s="8"/>
+      <c r="T394" s="9"/>
       <c r="U394" s="6"/>
       <c r="V394" s="6"/>
     </row>
@@ -10145,7 +10288,7 @@
       <c r="Q395" s="6"/>
       <c r="R395" s="6"/>
       <c r="S395" s="6"/>
-      <c r="T395" s="8"/>
+      <c r="T395" s="9"/>
       <c r="U395" s="6"/>
       <c r="V395" s="6"/>
     </row>
@@ -10169,7 +10312,7 @@
       <c r="Q396" s="6"/>
       <c r="R396" s="6"/>
       <c r="S396" s="6"/>
-      <c r="T396" s="8"/>
+      <c r="T396" s="9"/>
       <c r="U396" s="6"/>
       <c r="V396" s="6"/>
     </row>
@@ -10193,7 +10336,7 @@
       <c r="Q397" s="6"/>
       <c r="R397" s="6"/>
       <c r="S397" s="6"/>
-      <c r="T397" s="8"/>
+      <c r="T397" s="9"/>
       <c r="U397" s="6"/>
       <c r="V397" s="6"/>
     </row>
@@ -10217,7 +10360,7 @@
       <c r="Q398" s="6"/>
       <c r="R398" s="6"/>
       <c r="S398" s="6"/>
-      <c r="T398" s="8"/>
+      <c r="T398" s="9"/>
       <c r="U398" s="6"/>
       <c r="V398" s="6"/>
     </row>
@@ -10241,7 +10384,7 @@
       <c r="Q399" s="6"/>
       <c r="R399" s="6"/>
       <c r="S399" s="6"/>
-      <c r="T399" s="8"/>
+      <c r="T399" s="9"/>
       <c r="U399" s="6"/>
       <c r="V399" s="6"/>
     </row>
@@ -10265,7 +10408,7 @@
       <c r="Q400" s="6"/>
       <c r="R400" s="6"/>
       <c r="S400" s="6"/>
-      <c r="T400" s="8"/>
+      <c r="T400" s="9"/>
       <c r="U400" s="6"/>
       <c r="V400" s="6"/>
     </row>
@@ -10289,7 +10432,7 @@
       <c r="Q401" s="6"/>
       <c r="R401" s="6"/>
       <c r="S401" s="6"/>
-      <c r="T401" s="8"/>
+      <c r="T401" s="9"/>
       <c r="U401" s="6"/>
       <c r="V401" s="6"/>
     </row>
@@ -10313,7 +10456,7 @@
       <c r="Q402" s="6"/>
       <c r="R402" s="6"/>
       <c r="S402" s="6"/>
-      <c r="T402" s="8"/>
+      <c r="T402" s="9"/>
       <c r="U402" s="6"/>
       <c r="V402" s="6"/>
     </row>
@@ -10337,7 +10480,7 @@
       <c r="Q403" s="6"/>
       <c r="R403" s="6"/>
       <c r="S403" s="6"/>
-      <c r="T403" s="8"/>
+      <c r="T403" s="9"/>
       <c r="U403" s="6"/>
       <c r="V403" s="6"/>
     </row>
@@ -10361,7 +10504,7 @@
       <c r="Q404" s="6"/>
       <c r="R404" s="6"/>
       <c r="S404" s="6"/>
-      <c r="T404" s="8"/>
+      <c r="T404" s="9"/>
       <c r="U404" s="6"/>
       <c r="V404" s="6"/>
     </row>
@@ -10385,7 +10528,7 @@
       <c r="Q405" s="6"/>
       <c r="R405" s="6"/>
       <c r="S405" s="6"/>
-      <c r="T405" s="8"/>
+      <c r="T405" s="9"/>
       <c r="U405" s="6"/>
       <c r="V405" s="6"/>
     </row>
@@ -10409,7 +10552,7 @@
       <c r="Q406" s="6"/>
       <c r="R406" s="6"/>
       <c r="S406" s="6"/>
-      <c r="T406" s="8"/>
+      <c r="T406" s="9"/>
       <c r="U406" s="6"/>
       <c r="V406" s="6"/>
     </row>
@@ -10433,7 +10576,7 @@
       <c r="Q407" s="6"/>
       <c r="R407" s="6"/>
       <c r="S407" s="6"/>
-      <c r="T407" s="8"/>
+      <c r="T407" s="9"/>
       <c r="U407" s="6"/>
       <c r="V407" s="6"/>
     </row>
@@ -10457,7 +10600,7 @@
       <c r="Q408" s="6"/>
       <c r="R408" s="6"/>
       <c r="S408" s="6"/>
-      <c r="T408" s="8"/>
+      <c r="T408" s="9"/>
       <c r="U408" s="6"/>
       <c r="V408" s="6"/>
     </row>
@@ -10481,7 +10624,7 @@
       <c r="Q409" s="6"/>
       <c r="R409" s="6"/>
       <c r="S409" s="6"/>
-      <c r="T409" s="8"/>
+      <c r="T409" s="9"/>
       <c r="U409" s="6"/>
       <c r="V409" s="6"/>
     </row>
@@ -10505,7 +10648,7 @@
       <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
       <c r="S410" s="6"/>
-      <c r="T410" s="8"/>
+      <c r="T410" s="9"/>
       <c r="U410" s="6"/>
       <c r="V410" s="6"/>
     </row>
@@ -10529,7 +10672,7 @@
       <c r="Q411" s="6"/>
       <c r="R411" s="6"/>
       <c r="S411" s="6"/>
-      <c r="T411" s="8"/>
+      <c r="T411" s="9"/>
       <c r="U411" s="6"/>
       <c r="V411" s="6"/>
     </row>
@@ -10553,7 +10696,7 @@
       <c r="Q412" s="6"/>
       <c r="R412" s="6"/>
       <c r="S412" s="6"/>
-      <c r="T412" s="8"/>
+      <c r="T412" s="9"/>
       <c r="U412" s="6"/>
       <c r="V412" s="6"/>
     </row>
@@ -10577,7 +10720,7 @@
       <c r="Q413" s="6"/>
       <c r="R413" s="6"/>
       <c r="S413" s="6"/>
-      <c r="T413" s="8"/>
+      <c r="T413" s="9"/>
       <c r="U413" s="6"/>
       <c r="V413" s="6"/>
     </row>
@@ -10601,7 +10744,7 @@
       <c r="Q414" s="6"/>
       <c r="R414" s="6"/>
       <c r="S414" s="6"/>
-      <c r="T414" s="8"/>
+      <c r="T414" s="9"/>
       <c r="U414" s="6"/>
       <c r="V414" s="6"/>
     </row>
@@ -10625,7 +10768,7 @@
       <c r="Q415" s="6"/>
       <c r="R415" s="6"/>
       <c r="S415" s="6"/>
-      <c r="T415" s="8"/>
+      <c r="T415" s="9"/>
       <c r="U415" s="6"/>
       <c r="V415" s="6"/>
     </row>
@@ -10649,7 +10792,7 @@
       <c r="Q416" s="6"/>
       <c r="R416" s="6"/>
       <c r="S416" s="6"/>
-      <c r="T416" s="8"/>
+      <c r="T416" s="9"/>
       <c r="U416" s="6"/>
       <c r="V416" s="6"/>
     </row>
@@ -10673,7 +10816,7 @@
       <c r="Q417" s="6"/>
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
-      <c r="T417" s="8"/>
+      <c r="T417" s="9"/>
       <c r="U417" s="6"/>
       <c r="V417" s="6"/>
     </row>
@@ -10697,7 +10840,7 @@
       <c r="Q418" s="6"/>
       <c r="R418" s="6"/>
       <c r="S418" s="6"/>
-      <c r="T418" s="8"/>
+      <c r="T418" s="9"/>
       <c r="U418" s="6"/>
       <c r="V418" s="6"/>
     </row>
@@ -10721,7 +10864,7 @@
       <c r="Q419" s="6"/>
       <c r="R419" s="6"/>
       <c r="S419" s="6"/>
-      <c r="T419" s="8"/>
+      <c r="T419" s="9"/>
       <c r="U419" s="6"/>
       <c r="V419" s="6"/>
     </row>
@@ -10745,7 +10888,7 @@
       <c r="Q420" s="6"/>
       <c r="R420" s="6"/>
       <c r="S420" s="6"/>
-      <c r="T420" s="8"/>
+      <c r="T420" s="9"/>
       <c r="U420" s="6"/>
       <c r="V420" s="6"/>
     </row>
@@ -10769,7 +10912,7 @@
       <c r="Q421" s="6"/>
       <c r="R421" s="6"/>
       <c r="S421" s="6"/>
-      <c r="T421" s="8"/>
+      <c r="T421" s="9"/>
       <c r="U421" s="6"/>
       <c r="V421" s="6"/>
     </row>
@@ -10793,7 +10936,7 @@
       <c r="Q422" s="6"/>
       <c r="R422" s="6"/>
       <c r="S422" s="6"/>
-      <c r="T422" s="8"/>
+      <c r="T422" s="9"/>
       <c r="U422" s="6"/>
       <c r="V422" s="6"/>
     </row>
@@ -10817,7 +10960,7 @@
       <c r="Q423" s="6"/>
       <c r="R423" s="6"/>
       <c r="S423" s="6"/>
-      <c r="T423" s="8"/>
+      <c r="T423" s="9"/>
       <c r="U423" s="6"/>
       <c r="V423" s="6"/>
     </row>
@@ -10841,7 +10984,7 @@
       <c r="Q424" s="6"/>
       <c r="R424" s="6"/>
       <c r="S424" s="6"/>
-      <c r="T424" s="8"/>
+      <c r="T424" s="9"/>
       <c r="U424" s="6"/>
       <c r="V424" s="6"/>
     </row>
@@ -10865,7 +11008,7 @@
       <c r="Q425" s="6"/>
       <c r="R425" s="6"/>
       <c r="S425" s="6"/>
-      <c r="T425" s="8"/>
+      <c r="T425" s="9"/>
       <c r="U425" s="6"/>
       <c r="V425" s="6"/>
     </row>
@@ -10889,7 +11032,7 @@
       <c r="Q426" s="6"/>
       <c r="R426" s="6"/>
       <c r="S426" s="6"/>
-      <c r="T426" s="8"/>
+      <c r="T426" s="9"/>
       <c r="U426" s="6"/>
       <c r="V426" s="6"/>
     </row>
@@ -10913,7 +11056,7 @@
       <c r="Q427" s="6"/>
       <c r="R427" s="6"/>
       <c r="S427" s="6"/>
-      <c r="T427" s="8"/>
+      <c r="T427" s="9"/>
       <c r="U427" s="6"/>
       <c r="V427" s="6"/>
     </row>
@@ -10937,7 +11080,7 @@
       <c r="Q428" s="6"/>
       <c r="R428" s="6"/>
       <c r="S428" s="6"/>
-      <c r="T428" s="8"/>
+      <c r="T428" s="9"/>
       <c r="U428" s="6"/>
       <c r="V428" s="6"/>
     </row>
@@ -10961,7 +11104,7 @@
       <c r="Q429" s="6"/>
       <c r="R429" s="6"/>
       <c r="S429" s="6"/>
-      <c r="T429" s="8"/>
+      <c r="T429" s="9"/>
       <c r="U429" s="6"/>
       <c r="V429" s="6"/>
     </row>
@@ -10985,7 +11128,7 @@
       <c r="Q430" s="6"/>
       <c r="R430" s="6"/>
       <c r="S430" s="6"/>
-      <c r="T430" s="8"/>
+      <c r="T430" s="9"/>
       <c r="U430" s="6"/>
       <c r="V430" s="6"/>
     </row>
@@ -11009,7 +11152,7 @@
       <c r="Q431" s="6"/>
       <c r="R431" s="6"/>
       <c r="S431" s="6"/>
-      <c r="T431" s="8"/>
+      <c r="T431" s="9"/>
       <c r="U431" s="6"/>
       <c r="V431" s="6"/>
     </row>
@@ -11033,7 +11176,7 @@
       <c r="Q432" s="6"/>
       <c r="R432" s="6"/>
       <c r="S432" s="6"/>
-      <c r="T432" s="8"/>
+      <c r="T432" s="9"/>
       <c r="U432" s="6"/>
       <c r="V432" s="6"/>
     </row>
@@ -11057,7 +11200,7 @@
       <c r="Q433" s="6"/>
       <c r="R433" s="6"/>
       <c r="S433" s="6"/>
-      <c r="T433" s="8"/>
+      <c r="T433" s="9"/>
       <c r="U433" s="6"/>
       <c r="V433" s="6"/>
     </row>
@@ -11081,7 +11224,7 @@
       <c r="Q434" s="6"/>
       <c r="R434" s="6"/>
       <c r="S434" s="6"/>
-      <c r="T434" s="8"/>
+      <c r="T434" s="9"/>
       <c r="U434" s="6"/>
       <c r="V434" s="6"/>
     </row>
@@ -11105,7 +11248,7 @@
       <c r="Q435" s="6"/>
       <c r="R435" s="6"/>
       <c r="S435" s="6"/>
-      <c r="T435" s="8"/>
+      <c r="T435" s="9"/>
       <c r="U435" s="6"/>
       <c r="V435" s="6"/>
     </row>
@@ -11129,7 +11272,7 @@
       <c r="Q436" s="6"/>
       <c r="R436" s="6"/>
       <c r="S436" s="6"/>
-      <c r="T436" s="8"/>
+      <c r="T436" s="9"/>
       <c r="U436" s="6"/>
       <c r="V436" s="6"/>
     </row>
@@ -11153,7 +11296,7 @@
       <c r="Q437" s="6"/>
       <c r="R437" s="6"/>
       <c r="S437" s="6"/>
-      <c r="T437" s="8"/>
+      <c r="T437" s="9"/>
       <c r="U437" s="6"/>
       <c r="V437" s="6"/>
     </row>
@@ -11177,7 +11320,7 @@
       <c r="Q438" s="6"/>
       <c r="R438" s="6"/>
       <c r="S438" s="6"/>
-      <c r="T438" s="8"/>
+      <c r="T438" s="9"/>
       <c r="U438" s="6"/>
       <c r="V438" s="6"/>
     </row>
@@ -11201,7 +11344,7 @@
       <c r="Q439" s="6"/>
       <c r="R439" s="6"/>
       <c r="S439" s="6"/>
-      <c r="T439" s="8"/>
+      <c r="T439" s="9"/>
       <c r="U439" s="6"/>
       <c r="V439" s="6"/>
     </row>
@@ -11225,7 +11368,7 @@
       <c r="Q440" s="6"/>
       <c r="R440" s="6"/>
       <c r="S440" s="6"/>
-      <c r="T440" s="8"/>
+      <c r="T440" s="9"/>
       <c r="U440" s="6"/>
       <c r="V440" s="6"/>
     </row>
@@ -11249,7 +11392,7 @@
       <c r="Q441" s="6"/>
       <c r="R441" s="6"/>
       <c r="S441" s="6"/>
-      <c r="T441" s="8"/>
+      <c r="T441" s="9"/>
       <c r="U441" s="6"/>
       <c r="V441" s="6"/>
     </row>
@@ -11273,7 +11416,7 @@
       <c r="Q442" s="6"/>
       <c r="R442" s="6"/>
       <c r="S442" s="6"/>
-      <c r="T442" s="8"/>
+      <c r="T442" s="9"/>
       <c r="U442" s="6"/>
       <c r="V442" s="6"/>
     </row>
@@ -11297,7 +11440,7 @@
       <c r="Q443" s="6"/>
       <c r="R443" s="6"/>
       <c r="S443" s="6"/>
-      <c r="T443" s="8"/>
+      <c r="T443" s="9"/>
       <c r="U443" s="6"/>
       <c r="V443" s="6"/>
     </row>
@@ -11321,7 +11464,7 @@
       <c r="Q444" s="6"/>
       <c r="R444" s="6"/>
       <c r="S444" s="6"/>
-      <c r="T444" s="8"/>
+      <c r="T444" s="9"/>
       <c r="U444" s="6"/>
       <c r="V444" s="6"/>
     </row>
@@ -11345,7 +11488,7 @@
       <c r="Q445" s="6"/>
       <c r="R445" s="6"/>
       <c r="S445" s="6"/>
-      <c r="T445" s="8"/>
+      <c r="T445" s="9"/>
       <c r="U445" s="6"/>
       <c r="V445" s="6"/>
     </row>
@@ -11369,7 +11512,7 @@
       <c r="Q446" s="6"/>
       <c r="R446" s="6"/>
       <c r="S446" s="6"/>
-      <c r="T446" s="8"/>
+      <c r="T446" s="9"/>
       <c r="U446" s="6"/>
       <c r="V446" s="6"/>
     </row>
@@ -11393,7 +11536,7 @@
       <c r="Q447" s="6"/>
       <c r="R447" s="6"/>
       <c r="S447" s="6"/>
-      <c r="T447" s="8"/>
+      <c r="T447" s="9"/>
       <c r="U447" s="6"/>
       <c r="V447" s="6"/>
     </row>
@@ -11417,7 +11560,7 @@
       <c r="Q448" s="6"/>
       <c r="R448" s="6"/>
       <c r="S448" s="6"/>
-      <c r="T448" s="8"/>
+      <c r="T448" s="9"/>
       <c r="U448" s="6"/>
       <c r="V448" s="6"/>
     </row>
@@ -11441,7 +11584,7 @@
       <c r="Q449" s="6"/>
       <c r="R449" s="6"/>
       <c r="S449" s="6"/>
-      <c r="T449" s="8"/>
+      <c r="T449" s="9"/>
       <c r="U449" s="6"/>
       <c r="V449" s="6"/>
     </row>
@@ -11465,7 +11608,7 @@
       <c r="Q450" s="6"/>
       <c r="R450" s="6"/>
       <c r="S450" s="6"/>
-      <c r="T450" s="8"/>
+      <c r="T450" s="9"/>
       <c r="U450" s="6"/>
       <c r="V450" s="6"/>
     </row>
@@ -11489,7 +11632,7 @@
       <c r="Q451" s="6"/>
       <c r="R451" s="6"/>
       <c r="S451" s="6"/>
-      <c r="T451" s="8"/>
+      <c r="T451" s="9"/>
       <c r="U451" s="6"/>
       <c r="V451" s="6"/>
     </row>
@@ -11513,7 +11656,7 @@
       <c r="Q452" s="6"/>
       <c r="R452" s="6"/>
       <c r="S452" s="6"/>
-      <c r="T452" s="8"/>
+      <c r="T452" s="9"/>
       <c r="U452" s="6"/>
       <c r="V452" s="6"/>
     </row>
@@ -11537,7 +11680,7 @@
       <c r="Q453" s="6"/>
       <c r="R453" s="6"/>
       <c r="S453" s="6"/>
-      <c r="T453" s="8"/>
+      <c r="T453" s="9"/>
       <c r="U453" s="6"/>
       <c r="V453" s="6"/>
     </row>
@@ -11561,7 +11704,7 @@
       <c r="Q454" s="6"/>
       <c r="R454" s="6"/>
       <c r="S454" s="6"/>
-      <c r="T454" s="8"/>
+      <c r="T454" s="9"/>
       <c r="U454" s="6"/>
       <c r="V454" s="6"/>
     </row>
@@ -11585,7 +11728,7 @@
       <c r="Q455" s="6"/>
       <c r="R455" s="6"/>
       <c r="S455" s="6"/>
-      <c r="T455" s="8"/>
+      <c r="T455" s="9"/>
       <c r="U455" s="6"/>
       <c r="V455" s="6"/>
     </row>
@@ -11609,7 +11752,7 @@
       <c r="Q456" s="6"/>
       <c r="R456" s="6"/>
       <c r="S456" s="6"/>
-      <c r="T456" s="8"/>
+      <c r="T456" s="9"/>
       <c r="U456" s="6"/>
       <c r="V456" s="6"/>
     </row>
@@ -11633,7 +11776,7 @@
       <c r="Q457" s="6"/>
       <c r="R457" s="6"/>
       <c r="S457" s="6"/>
-      <c r="T457" s="8"/>
+      <c r="T457" s="9"/>
       <c r="U457" s="6"/>
       <c r="V457" s="6"/>
     </row>
@@ -11657,7 +11800,7 @@
       <c r="Q458" s="6"/>
       <c r="R458" s="6"/>
       <c r="S458" s="6"/>
-      <c r="T458" s="8"/>
+      <c r="T458" s="9"/>
       <c r="U458" s="6"/>
       <c r="V458" s="6"/>
     </row>
@@ -11681,7 +11824,7 @@
       <c r="Q459" s="6"/>
       <c r="R459" s="6"/>
       <c r="S459" s="6"/>
-      <c r="T459" s="8"/>
+      <c r="T459" s="9"/>
       <c r="U459" s="6"/>
       <c r="V459" s="6"/>
     </row>
@@ -11705,7 +11848,7 @@
       <c r="Q460" s="6"/>
       <c r="R460" s="6"/>
       <c r="S460" s="6"/>
-      <c r="T460" s="8"/>
+      <c r="T460" s="9"/>
       <c r="U460" s="6"/>
       <c r="V460" s="6"/>
     </row>
@@ -11729,7 +11872,7 @@
       <c r="Q461" s="6"/>
       <c r="R461" s="6"/>
       <c r="S461" s="6"/>
-      <c r="T461" s="8"/>
+      <c r="T461" s="9"/>
       <c r="U461" s="6"/>
       <c r="V461" s="6"/>
     </row>
@@ -11753,7 +11896,7 @@
       <c r="Q462" s="6"/>
       <c r="R462" s="6"/>
       <c r="S462" s="6"/>
-      <c r="T462" s="8"/>
+      <c r="T462" s="9"/>
       <c r="U462" s="6"/>
       <c r="V462" s="6"/>
     </row>
@@ -11777,7 +11920,7 @@
       <c r="Q463" s="6"/>
       <c r="R463" s="6"/>
       <c r="S463" s="6"/>
-      <c r="T463" s="8"/>
+      <c r="T463" s="9"/>
       <c r="U463" s="6"/>
       <c r="V463" s="6"/>
     </row>
@@ -11801,7 +11944,7 @@
       <c r="Q464" s="6"/>
       <c r="R464" s="6"/>
       <c r="S464" s="6"/>
-      <c r="T464" s="8"/>
+      <c r="T464" s="9"/>
       <c r="U464" s="6"/>
       <c r="V464" s="6"/>
     </row>
@@ -11825,7 +11968,7 @@
       <c r="Q465" s="6"/>
       <c r="R465" s="6"/>
       <c r="S465" s="6"/>
-      <c r="T465" s="8"/>
+      <c r="T465" s="9"/>
       <c r="U465" s="6"/>
       <c r="V465" s="6"/>
     </row>
@@ -11849,7 +11992,7 @@
       <c r="Q466" s="6"/>
       <c r="R466" s="6"/>
       <c r="S466" s="6"/>
-      <c r="T466" s="8"/>
+      <c r="T466" s="9"/>
       <c r="U466" s="6"/>
       <c r="V466" s="6"/>
     </row>
@@ -11873,7 +12016,7 @@
       <c r="Q467" s="6"/>
       <c r="R467" s="6"/>
       <c r="S467" s="6"/>
-      <c r="T467" s="8"/>
+      <c r="T467" s="9"/>
       <c r="U467" s="6"/>
       <c r="V467" s="6"/>
     </row>
@@ -11897,7 +12040,7 @@
       <c r="Q468" s="6"/>
       <c r="R468" s="6"/>
       <c r="S468" s="6"/>
-      <c r="T468" s="8"/>
+      <c r="T468" s="9"/>
       <c r="U468" s="6"/>
       <c r="V468" s="6"/>
     </row>
@@ -11921,7 +12064,7 @@
       <c r="Q469" s="6"/>
       <c r="R469" s="6"/>
       <c r="S469" s="6"/>
-      <c r="T469" s="8"/>
+      <c r="T469" s="9"/>
       <c r="U469" s="6"/>
       <c r="V469" s="6"/>
     </row>
@@ -11945,7 +12088,7 @@
       <c r="Q470" s="6"/>
       <c r="R470" s="6"/>
       <c r="S470" s="6"/>
-      <c r="T470" s="8"/>
+      <c r="T470" s="9"/>
       <c r="U470" s="6"/>
       <c r="V470" s="6"/>
     </row>
@@ -11969,7 +12112,7 @@
       <c r="Q471" s="6"/>
       <c r="R471" s="6"/>
       <c r="S471" s="6"/>
-      <c r="T471" s="8"/>
+      <c r="T471" s="9"/>
       <c r="U471" s="6"/>
       <c r="V471" s="6"/>
     </row>
@@ -11993,7 +12136,7 @@
       <c r="Q472" s="6"/>
       <c r="R472" s="6"/>
       <c r="S472" s="6"/>
-      <c r="T472" s="8"/>
+      <c r="T472" s="9"/>
       <c r="U472" s="6"/>
       <c r="V472" s="6"/>
     </row>
@@ -12017,7 +12160,7 @@
       <c r="Q473" s="6"/>
       <c r="R473" s="6"/>
       <c r="S473" s="6"/>
-      <c r="T473" s="8"/>
+      <c r="T473" s="9"/>
       <c r="U473" s="6"/>
       <c r="V473" s="6"/>
     </row>
@@ -12041,7 +12184,7 @@
       <c r="Q474" s="6"/>
       <c r="R474" s="6"/>
       <c r="S474" s="6"/>
-      <c r="T474" s="8"/>
+      <c r="T474" s="9"/>
       <c r="U474" s="6"/>
       <c r="V474" s="6"/>
     </row>
@@ -12065,7 +12208,7 @@
       <c r="Q475" s="6"/>
       <c r="R475" s="6"/>
       <c r="S475" s="6"/>
-      <c r="T475" s="8"/>
+      <c r="T475" s="9"/>
       <c r="U475" s="6"/>
       <c r="V475" s="6"/>
     </row>
@@ -12089,7 +12232,7 @@
       <c r="Q476" s="6"/>
       <c r="R476" s="6"/>
       <c r="S476" s="6"/>
-      <c r="T476" s="8"/>
+      <c r="T476" s="9"/>
       <c r="U476" s="6"/>
       <c r="V476" s="6"/>
     </row>
@@ -12113,7 +12256,7 @@
       <c r="Q477" s="6"/>
       <c r="R477" s="6"/>
       <c r="S477" s="6"/>
-      <c r="T477" s="8"/>
+      <c r="T477" s="9"/>
       <c r="U477" s="6"/>
       <c r="V477" s="6"/>
     </row>
@@ -12137,7 +12280,7 @@
       <c r="Q478" s="6"/>
       <c r="R478" s="6"/>
       <c r="S478" s="6"/>
-      <c r="T478" s="8"/>
+      <c r="T478" s="9"/>
       <c r="U478" s="6"/>
       <c r="V478" s="6"/>
     </row>
@@ -12161,7 +12304,7 @@
       <c r="Q479" s="6"/>
       <c r="R479" s="6"/>
       <c r="S479" s="6"/>
-      <c r="T479" s="8"/>
+      <c r="T479" s="9"/>
       <c r="U479" s="6"/>
       <c r="V479" s="6"/>
     </row>
@@ -12185,7 +12328,7 @@
       <c r="Q480" s="6"/>
       <c r="R480" s="6"/>
       <c r="S480" s="6"/>
-      <c r="T480" s="8"/>
+      <c r="T480" s="9"/>
       <c r="U480" s="6"/>
       <c r="V480" s="6"/>
     </row>
@@ -12209,7 +12352,7 @@
       <c r="Q481" s="6"/>
       <c r="R481" s="6"/>
       <c r="S481" s="6"/>
-      <c r="T481" s="8"/>
+      <c r="T481" s="9"/>
       <c r="U481" s="6"/>
       <c r="V481" s="6"/>
     </row>
@@ -12233,7 +12376,7 @@
       <c r="Q482" s="6"/>
       <c r="R482" s="6"/>
       <c r="S482" s="6"/>
-      <c r="T482" s="8"/>
+      <c r="T482" s="9"/>
       <c r="U482" s="6"/>
       <c r="V482" s="6"/>
     </row>
@@ -12257,7 +12400,7 @@
       <c r="Q483" s="6"/>
       <c r="R483" s="6"/>
       <c r="S483" s="6"/>
-      <c r="T483" s="8"/>
+      <c r="T483" s="9"/>
       <c r="U483" s="6"/>
       <c r="V483" s="6"/>
     </row>
@@ -12281,7 +12424,7 @@
       <c r="Q484" s="6"/>
       <c r="R484" s="6"/>
       <c r="S484" s="6"/>
-      <c r="T484" s="8"/>
+      <c r="T484" s="9"/>
       <c r="U484" s="6"/>
       <c r="V484" s="6"/>
     </row>
@@ -12305,7 +12448,7 @@
       <c r="Q485" s="6"/>
       <c r="R485" s="6"/>
       <c r="S485" s="6"/>
-      <c r="T485" s="8"/>
+      <c r="T485" s="9"/>
       <c r="U485" s="6"/>
       <c r="V485" s="6"/>
     </row>
@@ -12329,7 +12472,7 @@
       <c r="Q486" s="6"/>
       <c r="R486" s="6"/>
       <c r="S486" s="6"/>
-      <c r="T486" s="8"/>
+      <c r="T486" s="9"/>
       <c r="U486" s="6"/>
       <c r="V486" s="6"/>
     </row>
@@ -12353,7 +12496,7 @@
       <c r="Q487" s="6"/>
       <c r="R487" s="6"/>
       <c r="S487" s="6"/>
-      <c r="T487" s="8"/>
+      <c r="T487" s="9"/>
       <c r="U487" s="6"/>
       <c r="V487" s="6"/>
     </row>
@@ -12377,7 +12520,7 @@
       <c r="Q488" s="6"/>
       <c r="R488" s="6"/>
       <c r="S488" s="6"/>
-      <c r="T488" s="8"/>
+      <c r="T488" s="9"/>
       <c r="U488" s="6"/>
       <c r="V488" s="6"/>
     </row>
@@ -12401,7 +12544,7 @@
       <c r="Q489" s="6"/>
       <c r="R489" s="6"/>
       <c r="S489" s="6"/>
-      <c r="T489" s="8"/>
+      <c r="T489" s="9"/>
       <c r="U489" s="6"/>
       <c r="V489" s="6"/>
     </row>
@@ -12425,7 +12568,7 @@
       <c r="Q490" s="6"/>
       <c r="R490" s="6"/>
       <c r="S490" s="6"/>
-      <c r="T490" s="8"/>
+      <c r="T490" s="9"/>
       <c r="U490" s="6"/>
       <c r="V490" s="6"/>
     </row>
@@ -12449,7 +12592,7 @@
       <c r="Q491" s="6"/>
       <c r="R491" s="6"/>
       <c r="S491" s="6"/>
-      <c r="T491" s="8"/>
+      <c r="T491" s="9"/>
       <c r="U491" s="6"/>
       <c r="V491" s="6"/>
     </row>
@@ -12473,7 +12616,7 @@
       <c r="Q492" s="6"/>
       <c r="R492" s="6"/>
       <c r="S492" s="6"/>
-      <c r="T492" s="8"/>
+      <c r="T492" s="9"/>
       <c r="U492" s="6"/>
       <c r="V492" s="6"/>
     </row>
@@ -12497,7 +12640,7 @@
       <c r="Q493" s="6"/>
       <c r="R493" s="6"/>
       <c r="S493" s="6"/>
-      <c r="T493" s="8"/>
+      <c r="T493" s="9"/>
       <c r="U493" s="6"/>
       <c r="V493" s="6"/>
     </row>
@@ -12521,7 +12664,7 @@
       <c r="Q494" s="6"/>
       <c r="R494" s="6"/>
       <c r="S494" s="6"/>
-      <c r="T494" s="8"/>
+      <c r="T494" s="9"/>
       <c r="U494" s="6"/>
       <c r="V494" s="6"/>
     </row>
@@ -12545,7 +12688,7 @@
       <c r="Q495" s="6"/>
       <c r="R495" s="6"/>
       <c r="S495" s="6"/>
-      <c r="T495" s="8"/>
+      <c r="T495" s="9"/>
       <c r="U495" s="6"/>
       <c r="V495" s="6"/>
     </row>
@@ -12569,7 +12712,7 @@
       <c r="Q496" s="6"/>
       <c r="R496" s="6"/>
       <c r="S496" s="6"/>
-      <c r="T496" s="8"/>
+      <c r="T496" s="9"/>
       <c r="U496" s="6"/>
       <c r="V496" s="6"/>
     </row>
@@ -12593,7 +12736,7 @@
       <c r="Q497" s="6"/>
       <c r="R497" s="6"/>
       <c r="S497" s="6"/>
-      <c r="T497" s="8"/>
+      <c r="T497" s="9"/>
       <c r="U497" s="6"/>
       <c r="V497" s="6"/>
     </row>
@@ -12617,7 +12760,7 @@
       <c r="Q498" s="6"/>
       <c r="R498" s="6"/>
       <c r="S498" s="6"/>
-      <c r="T498" s="8"/>
+      <c r="T498" s="9"/>
       <c r="U498" s="6"/>
       <c r="V498" s="6"/>
     </row>
@@ -12641,7 +12784,7 @@
       <c r="Q499" s="6"/>
       <c r="R499" s="6"/>
       <c r="S499" s="6"/>
-      <c r="T499" s="8"/>
+      <c r="T499" s="9"/>
       <c r="U499" s="6"/>
       <c r="V499" s="6"/>
     </row>
@@ -12665,7 +12808,7 @@
       <c r="Q500" s="6"/>
       <c r="R500" s="6"/>
       <c r="S500" s="6"/>
-      <c r="T500" s="8"/>
+      <c r="T500" s="9"/>
       <c r="U500" s="6"/>
       <c r="V500" s="6"/>
     </row>
@@ -12689,7 +12832,7 @@
       <c r="Q501" s="6"/>
       <c r="R501" s="6"/>
       <c r="S501" s="6"/>
-      <c r="T501" s="8"/>
+      <c r="T501" s="9"/>
       <c r="U501" s="6"/>
       <c r="V501" s="6"/>
     </row>
@@ -12713,7 +12856,7 @@
       <c r="Q502" s="6"/>
       <c r="R502" s="6"/>
       <c r="S502" s="6"/>
-      <c r="T502" s="8"/>
+      <c r="T502" s="9"/>
       <c r="U502" s="6"/>
       <c r="V502" s="6"/>
     </row>
@@ -12737,7 +12880,7 @@
       <c r="Q503" s="6"/>
       <c r="R503" s="6"/>
       <c r="S503" s="6"/>
-      <c r="T503" s="8"/>
+      <c r="T503" s="9"/>
       <c r="U503" s="6"/>
       <c r="V503" s="6"/>
     </row>
@@ -12761,7 +12904,7 @@
       <c r="Q504" s="6"/>
       <c r="R504" s="6"/>
       <c r="S504" s="6"/>
-      <c r="T504" s="8"/>
+      <c r="T504" s="9"/>
       <c r="U504" s="6"/>
       <c r="V504" s="6"/>
     </row>
@@ -12785,7 +12928,7 @@
       <c r="Q505" s="6"/>
       <c r="R505" s="6"/>
       <c r="S505" s="6"/>
-      <c r="T505" s="8"/>
+      <c r="T505" s="9"/>
       <c r="U505" s="6"/>
       <c r="V505" s="6"/>
     </row>
@@ -12809,7 +12952,7 @@
       <c r="Q506" s="6"/>
       <c r="R506" s="6"/>
       <c r="S506" s="6"/>
-      <c r="T506" s="8"/>
+      <c r="T506" s="9"/>
       <c r="U506" s="6"/>
       <c r="V506" s="6"/>
     </row>
@@ -12833,7 +12976,7 @@
       <c r="Q507" s="6"/>
       <c r="R507" s="6"/>
       <c r="S507" s="6"/>
-      <c r="T507" s="8"/>
+      <c r="T507" s="9"/>
       <c r="U507" s="6"/>
       <c r="V507" s="6"/>
     </row>
@@ -12857,7 +13000,7 @@
       <c r="Q508" s="6"/>
       <c r="R508" s="6"/>
       <c r="S508" s="6"/>
-      <c r="T508" s="8"/>
+      <c r="T508" s="9"/>
       <c r="U508" s="6"/>
       <c r="V508" s="6"/>
     </row>
@@ -12881,7 +13024,7 @@
       <c r="Q509" s="6"/>
       <c r="R509" s="6"/>
       <c r="S509" s="6"/>
-      <c r="T509" s="8"/>
+      <c r="T509" s="9"/>
       <c r="U509" s="6"/>
       <c r="V509" s="6"/>
     </row>
@@ -12905,7 +13048,7 @@
       <c r="Q510" s="6"/>
       <c r="R510" s="6"/>
       <c r="S510" s="6"/>
-      <c r="T510" s="8"/>
+      <c r="T510" s="9"/>
       <c r="U510" s="6"/>
       <c r="V510" s="6"/>
     </row>
@@ -12929,7 +13072,7 @@
       <c r="Q511" s="6"/>
       <c r="R511" s="6"/>
       <c r="S511" s="6"/>
-      <c r="T511" s="8"/>
+      <c r="T511" s="9"/>
       <c r="U511" s="6"/>
       <c r="V511" s="6"/>
     </row>
@@ -12953,7 +13096,7 @@
       <c r="Q512" s="6"/>
       <c r="R512" s="6"/>
       <c r="S512" s="6"/>
-      <c r="T512" s="8"/>
+      <c r="T512" s="9"/>
       <c r="U512" s="6"/>
       <c r="V512" s="6"/>
     </row>
@@ -12977,7 +13120,7 @@
       <c r="Q513" s="6"/>
       <c r="R513" s="6"/>
       <c r="S513" s="6"/>
-      <c r="T513" s="8"/>
+      <c r="T513" s="9"/>
       <c r="U513" s="6"/>
       <c r="V513" s="6"/>
     </row>
@@ -13001,7 +13144,7 @@
       <c r="Q514" s="6"/>
       <c r="R514" s="6"/>
       <c r="S514" s="6"/>
-      <c r="T514" s="8"/>
+      <c r="T514" s="9"/>
       <c r="U514" s="6"/>
       <c r="V514" s="6"/>
     </row>
@@ -13025,7 +13168,7 @@
       <c r="Q515" s="6"/>
       <c r="R515" s="6"/>
       <c r="S515" s="6"/>
-      <c r="T515" s="8"/>
+      <c r="T515" s="9"/>
       <c r="U515" s="6"/>
       <c r="V515" s="6"/>
     </row>
@@ -13049,7 +13192,7 @@
       <c r="Q516" s="6"/>
       <c r="R516" s="6"/>
       <c r="S516" s="6"/>
-      <c r="T516" s="8"/>
+      <c r="T516" s="9"/>
       <c r="U516" s="6"/>
       <c r="V516" s="6"/>
     </row>
@@ -13073,7 +13216,7 @@
       <c r="Q517" s="6"/>
       <c r="R517" s="6"/>
       <c r="S517" s="6"/>
-      <c r="T517" s="8"/>
+      <c r="T517" s="9"/>
       <c r="U517" s="6"/>
       <c r="V517" s="6"/>
     </row>
@@ -13097,7 +13240,7 @@
       <c r="Q518" s="6"/>
       <c r="R518" s="6"/>
       <c r="S518" s="6"/>
-      <c r="T518" s="8"/>
+      <c r="T518" s="9"/>
       <c r="U518" s="6"/>
       <c r="V518" s="6"/>
     </row>
@@ -13121,7 +13264,7 @@
       <c r="Q519" s="6"/>
       <c r="R519" s="6"/>
       <c r="S519" s="6"/>
-      <c r="T519" s="8"/>
+      <c r="T519" s="9"/>
       <c r="U519" s="6"/>
       <c r="V519" s="6"/>
     </row>
@@ -13145,7 +13288,7 @@
       <c r="Q520" s="6"/>
       <c r="R520" s="6"/>
       <c r="S520" s="6"/>
-      <c r="T520" s="8"/>
+      <c r="T520" s="9"/>
       <c r="U520" s="6"/>
       <c r="V520" s="6"/>
     </row>
@@ -13169,7 +13312,7 @@
       <c r="Q521" s="6"/>
       <c r="R521" s="6"/>
       <c r="S521" s="6"/>
-      <c r="T521" s="8"/>
+      <c r="T521" s="9"/>
       <c r="U521" s="6"/>
       <c r="V521" s="6"/>
     </row>
@@ -13193,7 +13336,7 @@
       <c r="Q522" s="6"/>
       <c r="R522" s="6"/>
       <c r="S522" s="6"/>
-      <c r="T522" s="8"/>
+      <c r="T522" s="9"/>
       <c r="U522" s="6"/>
       <c r="V522" s="6"/>
     </row>
@@ -13217,7 +13360,7 @@
       <c r="Q523" s="6"/>
       <c r="R523" s="6"/>
       <c r="S523" s="6"/>
-      <c r="T523" s="8"/>
+      <c r="T523" s="9"/>
       <c r="U523" s="6"/>
       <c r="V523" s="6"/>
     </row>
@@ -13241,7 +13384,7 @@
       <c r="Q524" s="6"/>
       <c r="R524" s="6"/>
       <c r="S524" s="6"/>
-      <c r="T524" s="8"/>
+      <c r="T524" s="9"/>
       <c r="U524" s="6"/>
       <c r="V524" s="6"/>
     </row>
@@ -13265,7 +13408,7 @@
       <c r="Q525" s="6"/>
       <c r="R525" s="6"/>
       <c r="S525" s="6"/>
-      <c r="T525" s="8"/>
+      <c r="T525" s="9"/>
       <c r="U525" s="6"/>
       <c r="V525" s="6"/>
     </row>
@@ -13289,7 +13432,7 @@
       <c r="Q526" s="6"/>
       <c r="R526" s="6"/>
       <c r="S526" s="6"/>
-      <c r="T526" s="8"/>
+      <c r="T526" s="9"/>
       <c r="U526" s="6"/>
       <c r="V526" s="6"/>
     </row>
@@ -13313,7 +13456,7 @@
       <c r="Q527" s="6"/>
       <c r="R527" s="6"/>
       <c r="S527" s="6"/>
-      <c r="T527" s="8"/>
+      <c r="T527" s="9"/>
       <c r="U527" s="6"/>
       <c r="V527" s="6"/>
     </row>
@@ -13337,7 +13480,7 @@
       <c r="Q528" s="6"/>
       <c r="R528" s="6"/>
       <c r="S528" s="6"/>
-      <c r="T528" s="8"/>
+      <c r="T528" s="9"/>
       <c r="U528" s="6"/>
       <c r="V528" s="6"/>
     </row>
@@ -13361,7 +13504,7 @@
       <c r="Q529" s="6"/>
       <c r="R529" s="6"/>
       <c r="S529" s="6"/>
-      <c r="T529" s="8"/>
+      <c r="T529" s="9"/>
       <c r="U529" s="6"/>
       <c r="V529" s="6"/>
     </row>
@@ -13385,7 +13528,7 @@
       <c r="Q530" s="6"/>
       <c r="R530" s="6"/>
       <c r="S530" s="6"/>
-      <c r="T530" s="8"/>
+      <c r="T530" s="9"/>
       <c r="U530" s="6"/>
       <c r="V530" s="6"/>
     </row>
@@ -13409,7 +13552,7 @@
       <c r="Q531" s="6"/>
       <c r="R531" s="6"/>
       <c r="S531" s="6"/>
-      <c r="T531" s="8"/>
+      <c r="T531" s="9"/>
       <c r="U531" s="6"/>
       <c r="V531" s="6"/>
     </row>
@@ -13433,7 +13576,7 @@
       <c r="Q532" s="6"/>
       <c r="R532" s="6"/>
       <c r="S532" s="6"/>
-      <c r="T532" s="8"/>
+      <c r="T532" s="9"/>
       <c r="U532" s="6"/>
       <c r="V532" s="6"/>
     </row>
@@ -13457,7 +13600,7 @@
       <c r="Q533" s="6"/>
       <c r="R533" s="6"/>
       <c r="S533" s="6"/>
-      <c r="T533" s="8"/>
+      <c r="T533" s="9"/>
       <c r="U533" s="6"/>
       <c r="V533" s="6"/>
     </row>
@@ -13481,7 +13624,7 @@
       <c r="Q534" s="6"/>
       <c r="R534" s="6"/>
       <c r="S534" s="6"/>
-      <c r="T534" s="8"/>
+      <c r="T534" s="9"/>
       <c r="U534" s="6"/>
       <c r="V534" s="6"/>
     </row>
@@ -13505,7 +13648,7 @@
       <c r="Q535" s="6"/>
       <c r="R535" s="6"/>
       <c r="S535" s="6"/>
-      <c r="T535" s="8"/>
+      <c r="T535" s="9"/>
       <c r="U535" s="6"/>
       <c r="V535" s="6"/>
     </row>
@@ -13529,7 +13672,7 @@
       <c r="Q536" s="6"/>
       <c r="R536" s="6"/>
       <c r="S536" s="6"/>
-      <c r="T536" s="8"/>
+      <c r="T536" s="9"/>
       <c r="U536" s="6"/>
       <c r="V536" s="6"/>
     </row>
@@ -13553,7 +13696,7 @@
       <c r="Q537" s="6"/>
       <c r="R537" s="6"/>
       <c r="S537" s="6"/>
-      <c r="T537" s="8"/>
+      <c r="T537" s="9"/>
       <c r="U537" s="6"/>
       <c r="V537" s="6"/>
     </row>
@@ -13577,7 +13720,7 @@
       <c r="Q538" s="6"/>
       <c r="R538" s="6"/>
       <c r="S538" s="6"/>
-      <c r="T538" s="8"/>
+      <c r="T538" s="9"/>
       <c r="U538" s="6"/>
       <c r="V538" s="6"/>
     </row>
@@ -13601,7 +13744,7 @@
       <c r="Q539" s="6"/>
       <c r="R539" s="6"/>
       <c r="S539" s="6"/>
-      <c r="T539" s="8"/>
+      <c r="T539" s="9"/>
       <c r="U539" s="6"/>
       <c r="V539" s="6"/>
     </row>
@@ -13625,7 +13768,7 @@
       <c r="Q540" s="6"/>
       <c r="R540" s="6"/>
       <c r="S540" s="6"/>
-      <c r="T540" s="8"/>
+      <c r="T540" s="9"/>
       <c r="U540" s="6"/>
       <c r="V540" s="6"/>
     </row>
@@ -13649,7 +13792,7 @@
       <c r="Q541" s="6"/>
       <c r="R541" s="6"/>
       <c r="S541" s="6"/>
-      <c r="T541" s="8"/>
+      <c r="T541" s="9"/>
       <c r="U541" s="6"/>
       <c r="V541" s="6"/>
     </row>
@@ -13673,7 +13816,7 @@
       <c r="Q542" s="6"/>
       <c r="R542" s="6"/>
       <c r="S542" s="6"/>
-      <c r="T542" s="8"/>
+      <c r="T542" s="9"/>
       <c r="U542" s="6"/>
       <c r="V542" s="6"/>
     </row>
@@ -13697,7 +13840,7 @@
       <c r="Q543" s="6"/>
       <c r="R543" s="6"/>
       <c r="S543" s="6"/>
-      <c r="T543" s="8"/>
+      <c r="T543" s="9"/>
       <c r="U543" s="6"/>
       <c r="V543" s="6"/>
     </row>
@@ -13721,7 +13864,7 @@
       <c r="Q544" s="6"/>
       <c r="R544" s="6"/>
       <c r="S544" s="6"/>
-      <c r="T544" s="8"/>
+      <c r="T544" s="9"/>
       <c r="U544" s="6"/>
       <c r="V544" s="6"/>
     </row>
@@ -13745,7 +13888,7 @@
       <c r="Q545" s="6"/>
       <c r="R545" s="6"/>
       <c r="S545" s="6"/>
-      <c r="T545" s="8"/>
+      <c r="T545" s="9"/>
       <c r="U545" s="6"/>
       <c r="V545" s="6"/>
     </row>
@@ -13769,7 +13912,7 @@
       <c r="Q546" s="6"/>
       <c r="R546" s="6"/>
       <c r="S546" s="6"/>
-      <c r="T546" s="8"/>
+      <c r="T546" s="9"/>
       <c r="U546" s="6"/>
       <c r="V546" s="6"/>
     </row>
@@ -13793,7 +13936,7 @@
       <c r="Q547" s="6"/>
       <c r="R547" s="6"/>
       <c r="S547" s="6"/>
-      <c r="T547" s="8"/>
+      <c r="T547" s="9"/>
       <c r="U547" s="6"/>
       <c r="V547" s="6"/>
     </row>
@@ -13817,7 +13960,7 @@
       <c r="Q548" s="6"/>
       <c r="R548" s="6"/>
       <c r="S548" s="6"/>
-      <c r="T548" s="8"/>
+      <c r="T548" s="9"/>
       <c r="U548" s="6"/>
       <c r="V548" s="6"/>
     </row>
@@ -13841,7 +13984,7 @@
       <c r="Q549" s="6"/>
       <c r="R549" s="6"/>
       <c r="S549" s="6"/>
-      <c r="T549" s="8"/>
+      <c r="T549" s="9"/>
       <c r="U549" s="6"/>
       <c r="V549" s="6"/>
     </row>
@@ -13865,7 +14008,7 @@
       <c r="Q550" s="6"/>
       <c r="R550" s="6"/>
       <c r="S550" s="6"/>
-      <c r="T550" s="8"/>
+      <c r="T550" s="9"/>
       <c r="U550" s="6"/>
       <c r="V550" s="6"/>
     </row>
@@ -13889,7 +14032,7 @@
       <c r="Q551" s="6"/>
       <c r="R551" s="6"/>
       <c r="S551" s="6"/>
-      <c r="T551" s="8"/>
+      <c r="T551" s="9"/>
       <c r="U551" s="6"/>
       <c r="V551" s="6"/>
     </row>
@@ -13913,7 +14056,7 @@
       <c r="Q552" s="6"/>
       <c r="R552" s="6"/>
       <c r="S552" s="6"/>
-      <c r="T552" s="8"/>
+      <c r="T552" s="9"/>
       <c r="U552" s="6"/>
       <c r="V552" s="6"/>
     </row>
@@ -13937,7 +14080,7 @@
       <c r="Q553" s="6"/>
       <c r="R553" s="6"/>
       <c r="S553" s="6"/>
-      <c r="T553" s="8"/>
+      <c r="T553" s="9"/>
       <c r="U553" s="6"/>
       <c r="V553" s="6"/>
     </row>
@@ -13961,7 +14104,7 @@
       <c r="Q554" s="6"/>
       <c r="R554" s="6"/>
       <c r="S554" s="6"/>
-      <c r="T554" s="8"/>
+      <c r="T554" s="9"/>
       <c r="U554" s="6"/>
       <c r="V554" s="6"/>
     </row>
@@ -13985,7 +14128,7 @@
       <c r="Q555" s="6"/>
       <c r="R555" s="6"/>
       <c r="S555" s="6"/>
-      <c r="T555" s="8"/>
+      <c r="T555" s="9"/>
       <c r="U555" s="6"/>
       <c r="V555" s="6"/>
     </row>
@@ -14009,7 +14152,7 @@
       <c r="Q556" s="6"/>
       <c r="R556" s="6"/>
       <c r="S556" s="6"/>
-      <c r="T556" s="8"/>
+      <c r="T556" s="9"/>
       <c r="U556" s="6"/>
       <c r="V556" s="6"/>
     </row>
@@ -14033,7 +14176,7 @@
       <c r="Q557" s="6"/>
       <c r="R557" s="6"/>
       <c r="S557" s="6"/>
-      <c r="T557" s="8"/>
+      <c r="T557" s="9"/>
       <c r="U557" s="6"/>
       <c r="V557" s="6"/>
     </row>
@@ -14057,7 +14200,7 @@
       <c r="Q558" s="6"/>
       <c r="R558" s="6"/>
       <c r="S558" s="6"/>
-      <c r="T558" s="8"/>
+      <c r="T558" s="9"/>
       <c r="U558" s="6"/>
       <c r="V558" s="6"/>
     </row>
@@ -14081,7 +14224,7 @@
       <c r="Q559" s="6"/>
       <c r="R559" s="6"/>
       <c r="S559" s="6"/>
-      <c r="T559" s="8"/>
+      <c r="T559" s="9"/>
       <c r="U559" s="6"/>
       <c r="V559" s="6"/>
     </row>
@@ -14105,7 +14248,7 @@
       <c r="Q560" s="6"/>
       <c r="R560" s="6"/>
       <c r="S560" s="6"/>
-      <c r="T560" s="8"/>
+      <c r="T560" s="9"/>
       <c r="U560" s="6"/>
       <c r="V560" s="6"/>
     </row>
@@ -14129,7 +14272,7 @@
       <c r="Q561" s="6"/>
       <c r="R561" s="6"/>
       <c r="S561" s="6"/>
-      <c r="T561" s="8"/>
+      <c r="T561" s="9"/>
       <c r="U561" s="6"/>
       <c r="V561" s="6"/>
     </row>
@@ -14153,7 +14296,7 @@
       <c r="Q562" s="6"/>
       <c r="R562" s="6"/>
       <c r="S562" s="6"/>
-      <c r="T562" s="8"/>
+      <c r="T562" s="9"/>
       <c r="U562" s="6"/>
       <c r="V562" s="6"/>
     </row>
@@ -14177,7 +14320,7 @@
       <c r="Q563" s="6"/>
       <c r="R563" s="6"/>
       <c r="S563" s="6"/>
-      <c r="T563" s="8"/>
+      <c r="T563" s="9"/>
       <c r="U563" s="6"/>
       <c r="V563" s="6"/>
     </row>
@@ -14201,7 +14344,7 @@
       <c r="Q564" s="6"/>
       <c r="R564" s="6"/>
       <c r="S564" s="6"/>
-      <c r="T564" s="8"/>
+      <c r="T564" s="9"/>
       <c r="U564" s="6"/>
       <c r="V564" s="6"/>
     </row>
@@ -14225,7 +14368,7 @@
       <c r="Q565" s="6"/>
       <c r="R565" s="6"/>
       <c r="S565" s="6"/>
-      <c r="T565" s="8"/>
+      <c r="T565" s="9"/>
       <c r="U565" s="6"/>
       <c r="V565" s="6"/>
     </row>
@@ -14249,7 +14392,7 @@
       <c r="Q566" s="6"/>
       <c r="R566" s="6"/>
       <c r="S566" s="6"/>
-      <c r="T566" s="8"/>
+      <c r="T566" s="9"/>
       <c r="U566" s="6"/>
       <c r="V566" s="6"/>
     </row>
@@ -14273,7 +14416,7 @@
       <c r="Q567" s="6"/>
       <c r="R567" s="6"/>
       <c r="S567" s="6"/>
-      <c r="T567" s="8"/>
+      <c r="T567" s="9"/>
       <c r="U567" s="6"/>
       <c r="V567" s="6"/>
     </row>
@@ -14297,7 +14440,7 @@
       <c r="Q568" s="6"/>
       <c r="R568" s="6"/>
       <c r="S568" s="6"/>
-      <c r="T568" s="8"/>
+      <c r="T568" s="9"/>
       <c r="U568" s="6"/>
       <c r="V568" s="6"/>
     </row>
@@ -14321,7 +14464,7 @@
       <c r="Q569" s="6"/>
       <c r="R569" s="6"/>
       <c r="S569" s="6"/>
-      <c r="T569" s="8"/>
+      <c r="T569" s="9"/>
       <c r="U569" s="6"/>
       <c r="V569" s="6"/>
     </row>
@@ -14345,7 +14488,7 @@
       <c r="Q570" s="6"/>
       <c r="R570" s="6"/>
       <c r="S570" s="6"/>
-      <c r="T570" s="8"/>
+      <c r="T570" s="9"/>
       <c r="U570" s="6"/>
       <c r="V570" s="6"/>
     </row>
@@ -14369,7 +14512,7 @@
       <c r="Q571" s="6"/>
       <c r="R571" s="6"/>
       <c r="S571" s="6"/>
-      <c r="T571" s="8"/>
+      <c r="T571" s="9"/>
       <c r="U571" s="6"/>
       <c r="V571" s="6"/>
     </row>
@@ -14393,7 +14536,7 @@
       <c r="Q572" s="6"/>
       <c r="R572" s="6"/>
       <c r="S572" s="6"/>
-      <c r="T572" s="8"/>
+      <c r="T572" s="9"/>
       <c r="U572" s="6"/>
       <c r="V572" s="6"/>
     </row>
@@ -14417,7 +14560,7 @@
       <c r="Q573" s="6"/>
       <c r="R573" s="6"/>
       <c r="S573" s="6"/>
-      <c r="T573" s="8"/>
+      <c r="T573" s="9"/>
       <c r="U573" s="6"/>
       <c r="V573" s="6"/>
     </row>
@@ -14441,7 +14584,7 @@
       <c r="Q574" s="6"/>
       <c r="R574" s="6"/>
       <c r="S574" s="6"/>
-      <c r="T574" s="8"/>
+      <c r="T574" s="9"/>
       <c r="U574" s="6"/>
       <c r="V574" s="6"/>
     </row>
@@ -14465,7 +14608,7 @@
       <c r="Q575" s="6"/>
       <c r="R575" s="6"/>
       <c r="S575" s="6"/>
-      <c r="T575" s="8"/>
+      <c r="T575" s="9"/>
       <c r="U575" s="6"/>
       <c r="V575" s="6"/>
     </row>
@@ -14489,7 +14632,7 @@
       <c r="Q576" s="6"/>
       <c r="R576" s="6"/>
       <c r="S576" s="6"/>
-      <c r="T576" s="8"/>
+      <c r="T576" s="9"/>
       <c r="U576" s="6"/>
       <c r="V576" s="6"/>
     </row>
@@ -14513,7 +14656,7 @@
       <c r="Q577" s="6"/>
       <c r="R577" s="6"/>
       <c r="S577" s="6"/>
-      <c r="T577" s="8"/>
+      <c r="T577" s="9"/>
       <c r="U577" s="6"/>
       <c r="V577" s="6"/>
     </row>
@@ -14537,7 +14680,7 @@
       <c r="Q578" s="6"/>
       <c r="R578" s="6"/>
       <c r="S578" s="6"/>
-      <c r="T578" s="8"/>
+      <c r="T578" s="9"/>
       <c r="U578" s="6"/>
       <c r="V578" s="6"/>
     </row>
@@ -14561,7 +14704,7 @@
       <c r="Q579" s="6"/>
       <c r="R579" s="6"/>
       <c r="S579" s="6"/>
-      <c r="T579" s="8"/>
+      <c r="T579" s="9"/>
       <c r="U579" s="6"/>
       <c r="V579" s="6"/>
     </row>
@@ -14585,7 +14728,7 @@
       <c r="Q580" s="6"/>
       <c r="R580" s="6"/>
       <c r="S580" s="6"/>
-      <c r="T580" s="8"/>
+      <c r="T580" s="9"/>
       <c r="U580" s="6"/>
       <c r="V580" s="6"/>
     </row>
@@ -14609,7 +14752,7 @@
       <c r="Q581" s="6"/>
       <c r="R581" s="6"/>
       <c r="S581" s="6"/>
-      <c r="T581" s="8"/>
+      <c r="T581" s="9"/>
       <c r="U581" s="6"/>
       <c r="V581" s="6"/>
     </row>
@@ -14633,7 +14776,7 @@
       <c r="Q582" s="6"/>
       <c r="R582" s="6"/>
       <c r="S582" s="6"/>
-      <c r="T582" s="8"/>
+      <c r="T582" s="9"/>
       <c r="U582" s="6"/>
       <c r="V582" s="6"/>
     </row>
@@ -14657,7 +14800,7 @@
       <c r="Q583" s="6"/>
       <c r="R583" s="6"/>
       <c r="S583" s="6"/>
-      <c r="T583" s="8"/>
+      <c r="T583" s="9"/>
       <c r="U583" s="6"/>
       <c r="V583" s="6"/>
     </row>
@@ -14681,7 +14824,7 @@
       <c r="Q584" s="6"/>
       <c r="R584" s="6"/>
       <c r="S584" s="6"/>
-      <c r="T584" s="8"/>
+      <c r="T584" s="9"/>
       <c r="U584" s="6"/>
       <c r="V584" s="6"/>
     </row>
@@ -14705,7 +14848,7 @@
       <c r="Q585" s="6"/>
       <c r="R585" s="6"/>
       <c r="S585" s="6"/>
-      <c r="T585" s="8"/>
+      <c r="T585" s="9"/>
       <c r="U585" s="6"/>
       <c r="V585" s="6"/>
     </row>
@@ -14729,7 +14872,7 @@
       <c r="Q586" s="6"/>
       <c r="R586" s="6"/>
       <c r="S586" s="6"/>
-      <c r="T586" s="8"/>
+      <c r="T586" s="9"/>
       <c r="U586" s="6"/>
       <c r="V586" s="6"/>
     </row>
@@ -14753,7 +14896,7 @@
       <c r="Q587" s="6"/>
       <c r="R587" s="6"/>
       <c r="S587" s="6"/>
-      <c r="T587" s="8"/>
+      <c r="T587" s="9"/>
       <c r="U587" s="6"/>
       <c r="V587" s="6"/>
     </row>
@@ -14777,7 +14920,7 @@
       <c r="Q588" s="6"/>
       <c r="R588" s="6"/>
       <c r="S588" s="6"/>
-      <c r="T588" s="8"/>
+      <c r="T588" s="9"/>
       <c r="U588" s="6"/>
       <c r="V588" s="6"/>
     </row>
@@ -14801,7 +14944,7 @@
       <c r="Q589" s="6"/>
       <c r="R589" s="6"/>
       <c r="S589" s="6"/>
-      <c r="T589" s="8"/>
+      <c r="T589" s="9"/>
       <c r="U589" s="6"/>
       <c r="V589" s="6"/>
     </row>
@@ -14825,7 +14968,7 @@
       <c r="Q590" s="6"/>
       <c r="R590" s="6"/>
       <c r="S590" s="6"/>
-      <c r="T590" s="8"/>
+      <c r="T590" s="9"/>
       <c r="U590" s="6"/>
       <c r="V590" s="6"/>
     </row>
@@ -14849,7 +14992,7 @@
       <c r="Q591" s="6"/>
       <c r="R591" s="6"/>
       <c r="S591" s="6"/>
-      <c r="T591" s="8"/>
+      <c r="T591" s="9"/>
       <c r="U591" s="6"/>
       <c r="V591" s="6"/>
     </row>
@@ -14873,7 +15016,7 @@
       <c r="Q592" s="6"/>
       <c r="R592" s="6"/>
       <c r="S592" s="6"/>
-      <c r="T592" s="8"/>
+      <c r="T592" s="9"/>
       <c r="U592" s="6"/>
       <c r="V592" s="6"/>
     </row>
@@ -14897,7 +15040,7 @@
       <c r="Q593" s="6"/>
       <c r="R593" s="6"/>
       <c r="S593" s="6"/>
-      <c r="T593" s="8"/>
+      <c r="T593" s="9"/>
       <c r="U593" s="6"/>
       <c r="V593" s="6"/>
     </row>
@@ -14921,7 +15064,7 @@
       <c r="Q594" s="6"/>
       <c r="R594" s="6"/>
       <c r="S594" s="6"/>
-      <c r="T594" s="8"/>
+      <c r="T594" s="9"/>
       <c r="U594" s="6"/>
       <c r="V594" s="6"/>
     </row>
@@ -14945,7 +15088,7 @@
       <c r="Q595" s="6"/>
       <c r="R595" s="6"/>
       <c r="S595" s="6"/>
-      <c r="T595" s="8"/>
+      <c r="T595" s="9"/>
       <c r="U595" s="6"/>
       <c r="V595" s="6"/>
     </row>
@@ -14969,7 +15112,7 @@
       <c r="Q596" s="6"/>
       <c r="R596" s="6"/>
       <c r="S596" s="6"/>
-      <c r="T596" s="8"/>
+      <c r="T596" s="9"/>
       <c r="U596" s="6"/>
       <c r="V596" s="6"/>
     </row>
@@ -14993,7 +15136,7 @@
       <c r="Q597" s="6"/>
       <c r="R597" s="6"/>
       <c r="S597" s="6"/>
-      <c r="T597" s="8"/>
+      <c r="T597" s="9"/>
       <c r="U597" s="6"/>
       <c r="V597" s="6"/>
     </row>
@@ -15017,7 +15160,7 @@
       <c r="Q598" s="6"/>
       <c r="R598" s="6"/>
       <c r="S598" s="6"/>
-      <c r="T598" s="8"/>
+      <c r="T598" s="9"/>
       <c r="U598" s="6"/>
       <c r="V598" s="6"/>
     </row>
@@ -15041,7 +15184,7 @@
       <c r="Q599" s="6"/>
       <c r="R599" s="6"/>
       <c r="S599" s="6"/>
-      <c r="T599" s="8"/>
+      <c r="T599" s="9"/>
       <c r="U599" s="6"/>
       <c r="V599" s="6"/>
     </row>
@@ -15065,7 +15208,7 @@
       <c r="Q600" s="6"/>
       <c r="R600" s="6"/>
       <c r="S600" s="6"/>
-      <c r="T600" s="8"/>
+      <c r="T600" s="9"/>
       <c r="U600" s="6"/>
       <c r="V600" s="6"/>
     </row>
@@ -15089,7 +15232,7 @@
       <c r="Q601" s="6"/>
       <c r="R601" s="6"/>
       <c r="S601" s="6"/>
-      <c r="T601" s="8"/>
+      <c r="T601" s="9"/>
       <c r="U601" s="6"/>
       <c r="V601" s="6"/>
     </row>
@@ -15113,7 +15256,7 @@
       <c r="Q602" s="6"/>
       <c r="R602" s="6"/>
       <c r="S602" s="6"/>
-      <c r="T602" s="8"/>
+      <c r="T602" s="9"/>
       <c r="U602" s="6"/>
       <c r="V602" s="6"/>
     </row>
@@ -15137,7 +15280,7 @@
       <c r="Q603" s="6"/>
       <c r="R603" s="6"/>
       <c r="S603" s="6"/>
-      <c r="T603" s="8"/>
+      <c r="T603" s="9"/>
       <c r="U603" s="6"/>
       <c r="V603" s="6"/>
     </row>
@@ -15161,7 +15304,7 @@
       <c r="Q604" s="6"/>
       <c r="R604" s="6"/>
       <c r="S604" s="6"/>
-      <c r="T604" s="8"/>
+      <c r="T604" s="9"/>
       <c r="U604" s="6"/>
       <c r="V604" s="6"/>
     </row>
@@ -15185,7 +15328,7 @@
       <c r="Q605" s="6"/>
       <c r="R605" s="6"/>
       <c r="S605" s="6"/>
-      <c r="T605" s="8"/>
+      <c r="T605" s="9"/>
       <c r="U605" s="6"/>
       <c r="V605" s="6"/>
     </row>
@@ -15209,7 +15352,7 @@
       <c r="Q606" s="6"/>
       <c r="R606" s="6"/>
       <c r="S606" s="6"/>
-      <c r="T606" s="8"/>
+      <c r="T606" s="9"/>
       <c r="U606" s="6"/>
       <c r="V606" s="6"/>
     </row>
@@ -15233,7 +15376,7 @@
       <c r="Q607" s="6"/>
       <c r="R607" s="6"/>
       <c r="S607" s="6"/>
-      <c r="T607" s="8"/>
+      <c r="T607" s="9"/>
       <c r="U607" s="6"/>
       <c r="V607" s="6"/>
     </row>
@@ -15257,7 +15400,7 @@
       <c r="Q608" s="6"/>
       <c r="R608" s="6"/>
       <c r="S608" s="6"/>
-      <c r="T608" s="8"/>
+      <c r="T608" s="9"/>
       <c r="U608" s="6"/>
       <c r="V608" s="6"/>
     </row>
@@ -15281,7 +15424,7 @@
       <c r="Q609" s="6"/>
       <c r="R609" s="6"/>
       <c r="S609" s="6"/>
-      <c r="T609" s="8"/>
+      <c r="T609" s="9"/>
       <c r="U609" s="6"/>
       <c r="V609" s="6"/>
     </row>
@@ -15305,7 +15448,7 @@
       <c r="Q610" s="6"/>
       <c r="R610" s="6"/>
       <c r="S610" s="6"/>
-      <c r="T610" s="8"/>
+      <c r="T610" s="9"/>
       <c r="U610" s="6"/>
       <c r="V610" s="6"/>
     </row>
@@ -15329,7 +15472,7 @@
       <c r="Q611" s="6"/>
       <c r="R611" s="6"/>
       <c r="S611" s="6"/>
-      <c r="T611" s="8"/>
+      <c r="T611" s="9"/>
       <c r="U611" s="6"/>
       <c r="V611" s="6"/>
     </row>
@@ -15353,7 +15496,7 @@
       <c r="Q612" s="6"/>
       <c r="R612" s="6"/>
       <c r="S612" s="6"/>
-      <c r="T612" s="8"/>
+      <c r="T612" s="9"/>
       <c r="U612" s="6"/>
       <c r="V612" s="6"/>
     </row>
@@ -15377,7 +15520,7 @@
       <c r="Q613" s="6"/>
       <c r="R613" s="6"/>
       <c r="S613" s="6"/>
-      <c r="T613" s="8"/>
+      <c r="T613" s="9"/>
       <c r="U613" s="6"/>
       <c r="V613" s="6"/>
     </row>
@@ -15401,7 +15544,7 @@
       <c r="Q614" s="6"/>
       <c r="R614" s="6"/>
       <c r="S614" s="6"/>
-      <c r="T614" s="8"/>
+      <c r="T614" s="9"/>
       <c r="U614" s="6"/>
       <c r="V614" s="6"/>
     </row>
@@ -15425,7 +15568,7 @@
       <c r="Q615" s="6"/>
       <c r="R615" s="6"/>
       <c r="S615" s="6"/>
-      <c r="T615" s="8"/>
+      <c r="T615" s="9"/>
       <c r="U615" s="6"/>
       <c r="V615" s="6"/>
     </row>
@@ -15449,7 +15592,7 @@
       <c r="Q616" s="6"/>
       <c r="R616" s="6"/>
       <c r="S616" s="6"/>
-      <c r="T616" s="8"/>
+      <c r="T616" s="9"/>
       <c r="U616" s="6"/>
       <c r="V616" s="6"/>
     </row>
@@ -15473,7 +15616,7 @@
       <c r="Q617" s="6"/>
       <c r="R617" s="6"/>
       <c r="S617" s="6"/>
-      <c r="T617" s="8"/>
+      <c r="T617" s="9"/>
       <c r="U617" s="6"/>
       <c r="V617" s="6"/>
     </row>
@@ -15497,7 +15640,7 @@
       <c r="Q618" s="6"/>
       <c r="R618" s="6"/>
       <c r="S618" s="6"/>
-      <c r="T618" s="8"/>
+      <c r="T618" s="9"/>
       <c r="U618" s="6"/>
       <c r="V618" s="6"/>
     </row>
@@ -15521,7 +15664,7 @@
       <c r="Q619" s="6"/>
       <c r="R619" s="6"/>
       <c r="S619" s="6"/>
-      <c r="T619" s="8"/>
+      <c r="T619" s="9"/>
       <c r="U619" s="6"/>
       <c r="V619" s="6"/>
     </row>
@@ -15545,7 +15688,7 @@
       <c r="Q620" s="6"/>
       <c r="R620" s="6"/>
       <c r="S620" s="6"/>
-      <c r="T620" s="8"/>
+      <c r="T620" s="9"/>
       <c r="U620" s="6"/>
       <c r="V620" s="6"/>
     </row>
@@ -15569,7 +15712,7 @@
       <c r="Q621" s="6"/>
       <c r="R621" s="6"/>
       <c r="S621" s="6"/>
-      <c r="T621" s="8"/>
+      <c r="T621" s="9"/>
       <c r="U621" s="6"/>
       <c r="V621" s="6"/>
     </row>
@@ -15593,7 +15736,7 @@
       <c r="Q622" s="6"/>
       <c r="R622" s="6"/>
       <c r="S622" s="6"/>
-      <c r="T622" s="8"/>
+      <c r="T622" s="9"/>
       <c r="U622" s="6"/>
       <c r="V622" s="6"/>
     </row>
@@ -15617,7 +15760,7 @@
       <c r="Q623" s="6"/>
       <c r="R623" s="6"/>
       <c r="S623" s="6"/>
-      <c r="T623" s="8"/>
+      <c r="T623" s="9"/>
       <c r="U623" s="6"/>
       <c r="V623" s="6"/>
     </row>
@@ -15641,7 +15784,7 @@
       <c r="Q624" s="6"/>
       <c r="R624" s="6"/>
       <c r="S624" s="6"/>
-      <c r="T624" s="8"/>
+      <c r="T624" s="9"/>
       <c r="U624" s="6"/>
       <c r="V624" s="6"/>
     </row>
@@ -15665,7 +15808,7 @@
       <c r="Q625" s="6"/>
       <c r="R625" s="6"/>
       <c r="S625" s="6"/>
-      <c r="T625" s="8"/>
+      <c r="T625" s="9"/>
       <c r="U625" s="6"/>
       <c r="V625" s="6"/>
     </row>
@@ -15689,7 +15832,7 @@
       <c r="Q626" s="6"/>
       <c r="R626" s="6"/>
       <c r="S626" s="6"/>
-      <c r="T626" s="8"/>
+      <c r="T626" s="9"/>
       <c r="U626" s="6"/>
       <c r="V626" s="6"/>
     </row>
@@ -15713,7 +15856,7 @@
       <c r="Q627" s="6"/>
       <c r="R627" s="6"/>
       <c r="S627" s="6"/>
-      <c r="T627" s="8"/>
+      <c r="T627" s="9"/>
       <c r="U627" s="6"/>
       <c r="V627" s="6"/>
     </row>
@@ -15737,7 +15880,7 @@
       <c r="Q628" s="6"/>
       <c r="R628" s="6"/>
       <c r="S628" s="6"/>
-      <c r="T628" s="8"/>
+      <c r="T628" s="9"/>
       <c r="U628" s="6"/>
       <c r="V628" s="6"/>
     </row>
@@ -15761,7 +15904,7 @@
       <c r="Q629" s="6"/>
       <c r="R629" s="6"/>
       <c r="S629" s="6"/>
-      <c r="T629" s="8"/>
+      <c r="T629" s="9"/>
       <c r="U629" s="6"/>
       <c r="V629" s="6"/>
     </row>
@@ -15785,7 +15928,7 @@
       <c r="Q630" s="6"/>
       <c r="R630" s="6"/>
       <c r="S630" s="6"/>
-      <c r="T630" s="8"/>
+      <c r="T630" s="9"/>
       <c r="U630" s="6"/>
       <c r="V630" s="6"/>
     </row>
@@ -15809,7 +15952,7 @@
       <c r="Q631" s="6"/>
       <c r="R631" s="6"/>
       <c r="S631" s="6"/>
-      <c r="T631" s="8"/>
+      <c r="T631" s="9"/>
       <c r="U631" s="6"/>
       <c r="V631" s="6"/>
     </row>
@@ -15833,7 +15976,7 @@
       <c r="Q632" s="6"/>
       <c r="R632" s="6"/>
       <c r="S632" s="6"/>
-      <c r="T632" s="8"/>
+      <c r="T632" s="9"/>
       <c r="U632" s="6"/>
       <c r="V632" s="6"/>
     </row>
@@ -15857,7 +16000,7 @@
       <c r="Q633" s="6"/>
       <c r="R633" s="6"/>
       <c r="S633" s="6"/>
-      <c r="T633" s="8"/>
+      <c r="T633" s="9"/>
       <c r="U633" s="6"/>
       <c r="V633" s="6"/>
     </row>
@@ -15881,7 +16024,7 @@
       <c r="Q634" s="6"/>
       <c r="R634" s="6"/>
       <c r="S634" s="6"/>
-      <c r="T634" s="8"/>
+      <c r="T634" s="9"/>
       <c r="U634" s="6"/>
       <c r="V634" s="6"/>
     </row>
@@ -15905,7 +16048,7 @@
       <c r="Q635" s="6"/>
       <c r="R635" s="6"/>
       <c r="S635" s="6"/>
-      <c r="T635" s="8"/>
+      <c r="T635" s="9"/>
       <c r="U635" s="6"/>
       <c r="V635" s="6"/>
     </row>
@@ -15929,7 +16072,7 @@
       <c r="Q636" s="6"/>
       <c r="R636" s="6"/>
       <c r="S636" s="6"/>
-      <c r="T636" s="8"/>
+      <c r="T636" s="9"/>
       <c r="U636" s="6"/>
       <c r="V636" s="6"/>
     </row>
@@ -15953,7 +16096,7 @@
       <c r="Q637" s="6"/>
       <c r="R637" s="6"/>
       <c r="S637" s="6"/>
-      <c r="T637" s="8"/>
+      <c r="T637" s="9"/>
       <c r="U637" s="6"/>
       <c r="V637" s="6"/>
     </row>
@@ -15977,7 +16120,7 @@
       <c r="Q638" s="6"/>
       <c r="R638" s="6"/>
       <c r="S638" s="6"/>
-      <c r="T638" s="8"/>
+      <c r="T638" s="9"/>
       <c r="U638" s="6"/>
       <c r="V638" s="6"/>
     </row>
@@ -16001,7 +16144,7 @@
       <c r="Q639" s="6"/>
       <c r="R639" s="6"/>
       <c r="S639" s="6"/>
-      <c r="T639" s="8"/>
+      <c r="T639" s="9"/>
       <c r="U639" s="6"/>
       <c r="V639" s="6"/>
     </row>
@@ -16025,7 +16168,7 @@
       <c r="Q640" s="6"/>
       <c r="R640" s="6"/>
       <c r="S640" s="6"/>
-      <c r="T640" s="8"/>
+      <c r="T640" s="9"/>
       <c r="U640" s="6"/>
       <c r="V640" s="6"/>
     </row>
@@ -16049,7 +16192,7 @@
       <c r="Q641" s="6"/>
       <c r="R641" s="6"/>
       <c r="S641" s="6"/>
-      <c r="T641" s="8"/>
+      <c r="T641" s="9"/>
       <c r="U641" s="6"/>
       <c r="V641" s="6"/>
     </row>
@@ -16073,7 +16216,7 @@
       <c r="Q642" s="6"/>
       <c r="R642" s="6"/>
       <c r="S642" s="6"/>
-      <c r="T642" s="8"/>
+      <c r="T642" s="9"/>
       <c r="U642" s="6"/>
       <c r="V642" s="6"/>
     </row>
@@ -16097,7 +16240,7 @@
       <c r="Q643" s="6"/>
       <c r="R643" s="6"/>
       <c r="S643" s="6"/>
-      <c r="T643" s="8"/>
+      <c r="T643" s="9"/>
       <c r="U643" s="6"/>
       <c r="V643" s="6"/>
     </row>
@@ -16121,7 +16264,7 @@
       <c r="Q644" s="6"/>
       <c r="R644" s="6"/>
       <c r="S644" s="6"/>
-      <c r="T644" s="8"/>
+      <c r="T644" s="9"/>
       <c r="U644" s="6"/>
       <c r="V644" s="6"/>
     </row>
@@ -16145,7 +16288,7 @@
       <c r="Q645" s="6"/>
       <c r="R645" s="6"/>
       <c r="S645" s="6"/>
-      <c r="T645" s="8"/>
+      <c r="T645" s="9"/>
       <c r="U645" s="6"/>
       <c r="V645" s="6"/>
     </row>
@@ -16169,7 +16312,7 @@
       <c r="Q646" s="6"/>
       <c r="R646" s="6"/>
       <c r="S646" s="6"/>
-      <c r="T646" s="8"/>
+      <c r="T646" s="9"/>
       <c r="U646" s="6"/>
       <c r="V646" s="6"/>
     </row>
@@ -16193,7 +16336,7 @@
       <c r="Q647" s="6"/>
       <c r="R647" s="6"/>
       <c r="S647" s="6"/>
-      <c r="T647" s="8"/>
+      <c r="T647" s="9"/>
       <c r="U647" s="6"/>
       <c r="V647" s="6"/>
     </row>
@@ -16217,7 +16360,7 @@
       <c r="Q648" s="6"/>
       <c r="R648" s="6"/>
       <c r="S648" s="6"/>
-      <c r="T648" s="8"/>
+      <c r="T648" s="9"/>
       <c r="U648" s="6"/>
       <c r="V648" s="6"/>
     </row>
@@ -16241,7 +16384,7 @@
       <c r="Q649" s="6"/>
       <c r="R649" s="6"/>
       <c r="S649" s="6"/>
-      <c r="T649" s="8"/>
+      <c r="T649" s="9"/>
       <c r="U649" s="6"/>
       <c r="V649" s="6"/>
     </row>
@@ -16265,7 +16408,7 @@
       <c r="Q650" s="6"/>
       <c r="R650" s="6"/>
       <c r="S650" s="6"/>
-      <c r="T650" s="8"/>
+      <c r="T650" s="9"/>
       <c r="U650" s="6"/>
       <c r="V650" s="6"/>
     </row>
@@ -16289,7 +16432,7 @@
       <c r="Q651" s="6"/>
       <c r="R651" s="6"/>
       <c r="S651" s="6"/>
-      <c r="T651" s="8"/>
+      <c r="T651" s="9"/>
       <c r="U651" s="6"/>
       <c r="V651" s="6"/>
     </row>
@@ -16313,7 +16456,7 @@
       <c r="Q652" s="6"/>
       <c r="R652" s="6"/>
       <c r="S652" s="6"/>
-      <c r="T652" s="8"/>
+      <c r="T652" s="9"/>
       <c r="U652" s="6"/>
       <c r="V652" s="6"/>
     </row>
@@ -16337,7 +16480,7 @@
       <c r="Q653" s="6"/>
       <c r="R653" s="6"/>
       <c r="S653" s="6"/>
-      <c r="T653" s="8"/>
+      <c r="T653" s="9"/>
       <c r="U653" s="6"/>
       <c r="V653" s="6"/>
     </row>
@@ -16361,7 +16504,7 @@
       <c r="Q654" s="6"/>
       <c r="R654" s="6"/>
       <c r="S654" s="6"/>
-      <c r="T654" s="8"/>
+      <c r="T654" s="9"/>
       <c r="U654" s="6"/>
       <c r="V654" s="6"/>
     </row>
@@ -16385,7 +16528,7 @@
       <c r="Q655" s="6"/>
       <c r="R655" s="6"/>
       <c r="S655" s="6"/>
-      <c r="T655" s="8"/>
+      <c r="T655" s="9"/>
       <c r="U655" s="6"/>
       <c r="V655" s="6"/>
     </row>
@@ -16409,7 +16552,7 @@
       <c r="Q656" s="6"/>
       <c r="R656" s="6"/>
       <c r="S656" s="6"/>
-      <c r="T656" s="8"/>
+      <c r="T656" s="9"/>
       <c r="U656" s="6"/>
       <c r="V656" s="6"/>
     </row>
@@ -16433,7 +16576,7 @@
       <c r="Q657" s="6"/>
       <c r="R657" s="6"/>
       <c r="S657" s="6"/>
-      <c r="T657" s="8"/>
+      <c r="T657" s="9"/>
       <c r="U657" s="6"/>
       <c r="V657" s="6"/>
     </row>
@@ -16457,7 +16600,7 @@
       <c r="Q658" s="6"/>
       <c r="R658" s="6"/>
       <c r="S658" s="6"/>
-      <c r="T658" s="8"/>
+      <c r="T658" s="9"/>
       <c r="U658" s="6"/>
       <c r="V658" s="6"/>
     </row>
@@ -16481,7 +16624,7 @@
       <c r="Q659" s="6"/>
       <c r="R659" s="6"/>
       <c r="S659" s="6"/>
-      <c r="T659" s="8"/>
+      <c r="T659" s="9"/>
       <c r="U659" s="6"/>
       <c r="V659" s="6"/>
     </row>
@@ -16505,7 +16648,7 @@
       <c r="Q660" s="6"/>
       <c r="R660" s="6"/>
       <c r="S660" s="6"/>
-      <c r="T660" s="8"/>
+      <c r="T660" s="9"/>
       <c r="U660" s="6"/>
       <c r="V660" s="6"/>
     </row>
@@ -16529,7 +16672,7 @@
       <c r="Q661" s="6"/>
       <c r="R661" s="6"/>
       <c r="S661" s="6"/>
-      <c r="T661" s="8"/>
+      <c r="T661" s="9"/>
       <c r="U661" s="6"/>
       <c r="V661" s="6"/>
     </row>
@@ -16553,7 +16696,7 @@
       <c r="Q662" s="6"/>
       <c r="R662" s="6"/>
       <c r="S662" s="6"/>
-      <c r="T662" s="8"/>
+      <c r="T662" s="9"/>
       <c r="U662" s="6"/>
       <c r="V662" s="6"/>
     </row>
@@ -16577,7 +16720,7 @@
       <c r="Q663" s="6"/>
       <c r="R663" s="6"/>
       <c r="S663" s="6"/>
-      <c r="T663" s="8"/>
+      <c r="T663" s="9"/>
       <c r="U663" s="6"/>
       <c r="V663" s="6"/>
     </row>
@@ -16601,7 +16744,7 @@
       <c r="Q664" s="6"/>
       <c r="R664" s="6"/>
       <c r="S664" s="6"/>
-      <c r="T664" s="8"/>
+      <c r="T664" s="9"/>
       <c r="U664" s="6"/>
       <c r="V664" s="6"/>
     </row>
@@ -16625,7 +16768,7 @@
       <c r="Q665" s="6"/>
       <c r="R665" s="6"/>
       <c r="S665" s="6"/>
-      <c r="T665" s="8"/>
+      <c r="T665" s="9"/>
       <c r="U665" s="6"/>
       <c r="V665" s="6"/>
     </row>
@@ -16649,7 +16792,7 @@
       <c r="Q666" s="6"/>
       <c r="R666" s="6"/>
       <c r="S666" s="6"/>
-      <c r="T666" s="8"/>
+      <c r="T666" s="9"/>
       <c r="U666" s="6"/>
       <c r="V666" s="6"/>
     </row>
@@ -16673,7 +16816,7 @@
       <c r="Q667" s="6"/>
       <c r="R667" s="6"/>
       <c r="S667" s="6"/>
-      <c r="T667" s="8"/>
+      <c r="T667" s="9"/>
       <c r="U667" s="6"/>
       <c r="V667" s="6"/>
     </row>
@@ -16697,7 +16840,7 @@
       <c r="Q668" s="6"/>
       <c r="R668" s="6"/>
       <c r="S668" s="6"/>
-      <c r="T668" s="8"/>
+      <c r="T668" s="9"/>
       <c r="U668" s="6"/>
       <c r="V668" s="6"/>
     </row>
@@ -16721,7 +16864,7 @@
       <c r="Q669" s="6"/>
       <c r="R669" s="6"/>
       <c r="S669" s="6"/>
-      <c r="T669" s="8"/>
+      <c r="T669" s="9"/>
       <c r="U669" s="6"/>
       <c r="V669" s="6"/>
     </row>
@@ -16745,7 +16888,7 @@
       <c r="Q670" s="6"/>
       <c r="R670" s="6"/>
       <c r="S670" s="6"/>
-      <c r="T670" s="8"/>
+      <c r="T670" s="9"/>
       <c r="U670" s="6"/>
       <c r="V670" s="6"/>
     </row>
@@ -16769,7 +16912,7 @@
       <c r="Q671" s="6"/>
       <c r="R671" s="6"/>
       <c r="S671" s="6"/>
-      <c r="T671" s="8"/>
+      <c r="T671" s="9"/>
       <c r="U671" s="6"/>
       <c r="V671" s="6"/>
     </row>
@@ -16793,7 +16936,7 @@
       <c r="Q672" s="6"/>
       <c r="R672" s="6"/>
       <c r="S672" s="6"/>
-      <c r="T672" s="8"/>
+      <c r="T672" s="9"/>
       <c r="U672" s="6"/>
       <c r="V672" s="6"/>
     </row>
@@ -16817,7 +16960,7 @@
       <c r="Q673" s="6"/>
       <c r="R673" s="6"/>
       <c r="S673" s="6"/>
-      <c r="T673" s="8"/>
+      <c r="T673" s="9"/>
       <c r="U673" s="6"/>
       <c r="V673" s="6"/>
     </row>
@@ -16841,7 +16984,7 @@
       <c r="Q674" s="6"/>
       <c r="R674" s="6"/>
       <c r="S674" s="6"/>
-      <c r="T674" s="8"/>
+      <c r="T674" s="9"/>
       <c r="U674" s="6"/>
       <c r="V674" s="6"/>
     </row>
@@ -16865,7 +17008,7 @@
       <c r="Q675" s="6"/>
       <c r="R675" s="6"/>
       <c r="S675" s="6"/>
-      <c r="T675" s="8"/>
+      <c r="T675" s="9"/>
       <c r="U675" s="6"/>
       <c r="V675" s="6"/>
     </row>
@@ -16889,7 +17032,7 @@
       <c r="Q676" s="6"/>
       <c r="R676" s="6"/>
       <c r="S676" s="6"/>
-      <c r="T676" s="8"/>
+      <c r="T676" s="9"/>
       <c r="U676" s="6"/>
       <c r="V676" s="6"/>
     </row>
@@ -16913,7 +17056,7 @@
       <c r="Q677" s="6"/>
       <c r="R677" s="6"/>
       <c r="S677" s="6"/>
-      <c r="T677" s="8"/>
+      <c r="T677" s="9"/>
       <c r="U677" s="6"/>
       <c r="V677" s="6"/>
     </row>
@@ -16937,7 +17080,7 @@
       <c r="Q678" s="6"/>
       <c r="R678" s="6"/>
       <c r="S678" s="6"/>
-      <c r="T678" s="8"/>
+      <c r="T678" s="9"/>
       <c r="U678" s="6"/>
       <c r="V678" s="6"/>
     </row>
@@ -16961,7 +17104,7 @@
       <c r="Q679" s="6"/>
       <c r="R679" s="6"/>
       <c r="S679" s="6"/>
-      <c r="T679" s="8"/>
+      <c r="T679" s="9"/>
       <c r="U679" s="6"/>
       <c r="V679" s="6"/>
     </row>
@@ -16985,7 +17128,7 @@
       <c r="Q680" s="6"/>
       <c r="R680" s="6"/>
       <c r="S680" s="6"/>
-      <c r="T680" s="8"/>
+      <c r="T680" s="9"/>
       <c r="U680" s="6"/>
       <c r="V680" s="6"/>
     </row>
@@ -17009,7 +17152,7 @@
       <c r="Q681" s="6"/>
       <c r="R681" s="6"/>
       <c r="S681" s="6"/>
-      <c r="T681" s="8"/>
+      <c r="T681" s="9"/>
       <c r="U681" s="6"/>
       <c r="V681" s="6"/>
     </row>
@@ -17033,7 +17176,7 @@
       <c r="Q682" s="6"/>
       <c r="R682" s="6"/>
       <c r="S682" s="6"/>
-      <c r="T682" s="8"/>
+      <c r="T682" s="9"/>
       <c r="U682" s="6"/>
       <c r="V682" s="6"/>
     </row>
@@ -17057,7 +17200,7 @@
       <c r="Q683" s="6"/>
       <c r="R683" s="6"/>
       <c r="S683" s="6"/>
-      <c r="T683" s="8"/>
+      <c r="T683" s="9"/>
       <c r="U683" s="6"/>
       <c r="V683" s="6"/>
     </row>
@@ -17081,7 +17224,7 @@
       <c r="Q684" s="6"/>
       <c r="R684" s="6"/>
       <c r="S684" s="6"/>
-      <c r="T684" s="8"/>
+      <c r="T684" s="9"/>
       <c r="U684" s="6"/>
       <c r="V684" s="6"/>
     </row>
@@ -17105,7 +17248,7 @@
       <c r="Q685" s="6"/>
       <c r="R685" s="6"/>
       <c r="S685" s="6"/>
-      <c r="T685" s="8"/>
+      <c r="T685" s="9"/>
       <c r="U685" s="6"/>
       <c r="V685" s="6"/>
     </row>
@@ -17129,7 +17272,7 @@
       <c r="Q686" s="6"/>
       <c r="R686" s="6"/>
       <c r="S686" s="6"/>
-      <c r="T686" s="8"/>
+      <c r="T686" s="9"/>
       <c r="U686" s="6"/>
       <c r="V686" s="6"/>
     </row>
@@ -17153,7 +17296,7 @@
       <c r="Q687" s="6"/>
       <c r="R687" s="6"/>
       <c r="S687" s="6"/>
-      <c r="T687" s="8"/>
+      <c r="T687" s="9"/>
       <c r="U687" s="6"/>
       <c r="V687" s="6"/>
     </row>
@@ -17177,7 +17320,7 @@
       <c r="Q688" s="6"/>
       <c r="R688" s="6"/>
       <c r="S688" s="6"/>
-      <c r="T688" s="8"/>
+      <c r="T688" s="9"/>
       <c r="U688" s="6"/>
       <c r="V688" s="6"/>
     </row>
@@ -17201,7 +17344,7 @@
       <c r="Q689" s="6"/>
       <c r="R689" s="6"/>
       <c r="S689" s="6"/>
-      <c r="T689" s="8"/>
+      <c r="T689" s="9"/>
       <c r="U689" s="6"/>
       <c r="V689" s="6"/>
     </row>
@@ -17225,7 +17368,7 @@
       <c r="Q690" s="6"/>
       <c r="R690" s="6"/>
       <c r="S690" s="6"/>
-      <c r="T690" s="8"/>
+      <c r="T690" s="9"/>
       <c r="U690" s="6"/>
       <c r="V690" s="6"/>
     </row>
@@ -17249,7 +17392,7 @@
       <c r="Q691" s="6"/>
       <c r="R691" s="6"/>
       <c r="S691" s="6"/>
-      <c r="T691" s="8"/>
+      <c r="T691" s="9"/>
       <c r="U691" s="6"/>
       <c r="V691" s="6"/>
     </row>
@@ -17273,7 +17416,7 @@
       <c r="Q692" s="6"/>
       <c r="R692" s="6"/>
       <c r="S692" s="6"/>
-      <c r="T692" s="8"/>
+      <c r="T692" s="9"/>
       <c r="U692" s="6"/>
       <c r="V692" s="6"/>
     </row>
@@ -17297,7 +17440,7 @@
       <c r="Q693" s="6"/>
       <c r="R693" s="6"/>
       <c r="S693" s="6"/>
-      <c r="T693" s="8"/>
+      <c r="T693" s="9"/>
       <c r="U693" s="6"/>
       <c r="V693" s="6"/>
     </row>
@@ -17321,7 +17464,7 @@
       <c r="Q694" s="6"/>
       <c r="R694" s="6"/>
       <c r="S694" s="6"/>
-      <c r="T694" s="8"/>
+      <c r="T694" s="9"/>
       <c r="U694" s="6"/>
       <c r="V694" s="6"/>
     </row>
@@ -17345,7 +17488,7 @@
       <c r="Q695" s="6"/>
       <c r="R695" s="6"/>
       <c r="S695" s="6"/>
-      <c r="T695" s="8"/>
+      <c r="T695" s="9"/>
       <c r="U695" s="6"/>
       <c r="V695" s="6"/>
     </row>
@@ -17369,7 +17512,7 @@
       <c r="Q696" s="6"/>
       <c r="R696" s="6"/>
       <c r="S696" s="6"/>
-      <c r="T696" s="8"/>
+      <c r="T696" s="9"/>
       <c r="U696" s="6"/>
       <c r="V696" s="6"/>
     </row>
@@ -17393,7 +17536,7 @@
       <c r="Q697" s="6"/>
       <c r="R697" s="6"/>
       <c r="S697" s="6"/>
-      <c r="T697" s="8"/>
+      <c r="T697" s="9"/>
       <c r="U697" s="6"/>
       <c r="V697" s="6"/>
     </row>
@@ -17417,7 +17560,7 @@
       <c r="Q698" s="6"/>
       <c r="R698" s="6"/>
       <c r="S698" s="6"/>
-      <c r="T698" s="8"/>
+      <c r="T698" s="9"/>
       <c r="U698" s="6"/>
       <c r="V698" s="6"/>
     </row>
@@ -17441,7 +17584,7 @@
       <c r="Q699" s="6"/>
       <c r="R699" s="6"/>
       <c r="S699" s="6"/>
-      <c r="T699" s="8"/>
+      <c r="T699" s="9"/>
       <c r="U699" s="6"/>
       <c r="V699" s="6"/>
     </row>
@@ -17465,7 +17608,7 @@
       <c r="Q700" s="6"/>
       <c r="R700" s="6"/>
       <c r="S700" s="6"/>
-      <c r="T700" s="8"/>
+      <c r="T700" s="9"/>
       <c r="U700" s="6"/>
       <c r="V700" s="6"/>
     </row>
@@ -17489,7 +17632,7 @@
       <c r="Q701" s="6"/>
       <c r="R701" s="6"/>
       <c r="S701" s="6"/>
-      <c r="T701" s="8"/>
+      <c r="T701" s="9"/>
       <c r="U701" s="6"/>
       <c r="V701" s="6"/>
     </row>
@@ -17513,7 +17656,7 @@
       <c r="Q702" s="6"/>
       <c r="R702" s="6"/>
       <c r="S702" s="6"/>
-      <c r="T702" s="8"/>
+      <c r="T702" s="9"/>
       <c r="U702" s="6"/>
       <c r="V702" s="6"/>
     </row>
@@ -17537,7 +17680,7 @@
       <c r="Q703" s="6"/>
       <c r="R703" s="6"/>
       <c r="S703" s="6"/>
-      <c r="T703" s="8"/>
+      <c r="T703" s="9"/>
       <c r="U703" s="6"/>
       <c r="V703" s="6"/>
     </row>
@@ -17561,7 +17704,7 @@
       <c r="Q704" s="6"/>
       <c r="R704" s="6"/>
       <c r="S704" s="6"/>
-      <c r="T704" s="8"/>
+      <c r="T704" s="9"/>
       <c r="U704" s="6"/>
       <c r="V704" s="6"/>
     </row>
@@ -17585,7 +17728,7 @@
       <c r="Q705" s="6"/>
       <c r="R705" s="6"/>
       <c r="S705" s="6"/>
-      <c r="T705" s="8"/>
+      <c r="T705" s="9"/>
       <c r="U705" s="6"/>
       <c r="V705" s="6"/>
     </row>
@@ -17609,7 +17752,7 @@
       <c r="Q706" s="6"/>
       <c r="R706" s="6"/>
       <c r="S706" s="6"/>
-      <c r="T706" s="8"/>
+      <c r="T706" s="9"/>
       <c r="U706" s="6"/>
       <c r="V706" s="6"/>
     </row>
@@ -17633,7 +17776,7 @@
       <c r="Q707" s="6"/>
       <c r="R707" s="6"/>
       <c r="S707" s="6"/>
-      <c r="T707" s="8"/>
+      <c r="T707" s="9"/>
       <c r="U707" s="6"/>
       <c r="V707" s="6"/>
     </row>
@@ -17657,7 +17800,7 @@
       <c r="Q708" s="6"/>
       <c r="R708" s="6"/>
       <c r="S708" s="6"/>
-      <c r="T708" s="8"/>
+      <c r="T708" s="9"/>
       <c r="U708" s="6"/>
       <c r="V708" s="6"/>
     </row>
@@ -17681,7 +17824,7 @@
       <c r="Q709" s="6"/>
       <c r="R709" s="6"/>
       <c r="S709" s="6"/>
-      <c r="T709" s="8"/>
+      <c r="T709" s="9"/>
       <c r="U709" s="6"/>
       <c r="V709" s="6"/>
     </row>
@@ -17705,7 +17848,7 @@
       <c r="Q710" s="6"/>
       <c r="R710" s="6"/>
       <c r="S710" s="6"/>
-      <c r="T710" s="8"/>
+      <c r="T710" s="9"/>
       <c r="U710" s="6"/>
       <c r="V710" s="6"/>
     </row>
@@ -17729,7 +17872,7 @@
       <c r="Q711" s="6"/>
       <c r="R711" s="6"/>
       <c r="S711" s="6"/>
-      <c r="T711" s="8"/>
+      <c r="T711" s="9"/>
       <c r="U711" s="6"/>
       <c r="V711" s="6"/>
     </row>
@@ -17753,7 +17896,7 @@
       <c r="Q712" s="6"/>
       <c r="R712" s="6"/>
       <c r="S712" s="6"/>
-      <c r="T712" s="8"/>
+      <c r="T712" s="9"/>
       <c r="U712" s="6"/>
       <c r="V712" s="6"/>
     </row>
@@ -17777,7 +17920,7 @@
       <c r="Q713" s="6"/>
       <c r="R713" s="6"/>
       <c r="S713" s="6"/>
-      <c r="T713" s="8"/>
+      <c r="T713" s="9"/>
       <c r="U713" s="6"/>
       <c r="V713" s="6"/>
     </row>
@@ -17801,7 +17944,7 @@
       <c r="Q714" s="6"/>
       <c r="R714" s="6"/>
       <c r="S714" s="6"/>
-      <c r="T714" s="8"/>
+      <c r="T714" s="9"/>
       <c r="U714" s="6"/>
       <c r="V714" s="6"/>
     </row>
@@ -17825,7 +17968,7 @@
       <c r="Q715" s="6"/>
       <c r="R715" s="6"/>
       <c r="S715" s="6"/>
-      <c r="T715" s="8"/>
+      <c r="T715" s="9"/>
       <c r="U715" s="6"/>
       <c r="V715" s="6"/>
     </row>
@@ -17849,7 +17992,7 @@
       <c r="Q716" s="6"/>
       <c r="R716" s="6"/>
       <c r="S716" s="6"/>
-      <c r="T716" s="8"/>
+      <c r="T716" s="9"/>
       <c r="U716" s="6"/>
       <c r="V716" s="6"/>
     </row>
@@ -17873,7 +18016,7 @@
       <c r="Q717" s="6"/>
       <c r="R717" s="6"/>
       <c r="S717" s="6"/>
-      <c r="T717" s="8"/>
+      <c r="T717" s="9"/>
       <c r="U717" s="6"/>
       <c r="V717" s="6"/>
     </row>
@@ -17897,7 +18040,7 @@
       <c r="Q718" s="6"/>
       <c r="R718" s="6"/>
       <c r="S718" s="6"/>
-      <c r="T718" s="8"/>
+      <c r="T718" s="9"/>
       <c r="U718" s="6"/>
       <c r="V718" s="6"/>
     </row>
@@ -17921,7 +18064,7 @@
       <c r="Q719" s="6"/>
       <c r="R719" s="6"/>
       <c r="S719" s="6"/>
-      <c r="T719" s="8"/>
+      <c r="T719" s="9"/>
       <c r="U719" s="6"/>
       <c r="V719" s="6"/>
     </row>
@@ -17945,7 +18088,7 @@
       <c r="Q720" s="6"/>
       <c r="R720" s="6"/>
       <c r="S720" s="6"/>
-      <c r="T720" s="8"/>
+      <c r="T720" s="9"/>
       <c r="U720" s="6"/>
       <c r="V720" s="6"/>
     </row>
@@ -17969,7 +18112,7 @@
       <c r="Q721" s="6"/>
       <c r="R721" s="6"/>
       <c r="S721" s="6"/>
-      <c r="T721" s="8"/>
+      <c r="T721" s="9"/>
       <c r="U721" s="6"/>
       <c r="V721" s="6"/>
     </row>
@@ -17993,7 +18136,7 @@
       <c r="Q722" s="6"/>
       <c r="R722" s="6"/>
       <c r="S722" s="6"/>
-      <c r="T722" s="8"/>
+      <c r="T722" s="9"/>
       <c r="U722" s="6"/>
       <c r="V722" s="6"/>
     </row>
@@ -18017,7 +18160,7 @@
       <c r="Q723" s="6"/>
       <c r="R723" s="6"/>
       <c r="S723" s="6"/>
-      <c r="T723" s="8"/>
+      <c r="T723" s="9"/>
       <c r="U723" s="6"/>
       <c r="V723" s="6"/>
     </row>
@@ -18041,7 +18184,7 @@
       <c r="Q724" s="6"/>
       <c r="R724" s="6"/>
       <c r="S724" s="6"/>
-      <c r="T724" s="8"/>
+      <c r="T724" s="9"/>
       <c r="U724" s="6"/>
       <c r="V724" s="6"/>
     </row>
@@ -18065,7 +18208,7 @@
       <c r="Q725" s="6"/>
       <c r="R725" s="6"/>
       <c r="S725" s="6"/>
-      <c r="T725" s="8"/>
+      <c r="T725" s="9"/>
       <c r="U725" s="6"/>
       <c r="V725" s="6"/>
     </row>
@@ -18089,7 +18232,7 @@
       <c r="Q726" s="6"/>
       <c r="R726" s="6"/>
       <c r="S726" s="6"/>
-      <c r="T726" s="8"/>
+      <c r="T726" s="9"/>
       <c r="U726" s="6"/>
       <c r="V726" s="6"/>
     </row>
@@ -18113,7 +18256,7 @@
       <c r="Q727" s="6"/>
       <c r="R727" s="6"/>
       <c r="S727" s="6"/>
-      <c r="T727" s="8"/>
+      <c r="T727" s="9"/>
       <c r="U727" s="6"/>
       <c r="V727" s="6"/>
     </row>
@@ -18137,7 +18280,7 @@
       <c r="Q728" s="6"/>
       <c r="R728" s="6"/>
       <c r="S728" s="6"/>
-      <c r="T728" s="8"/>
+      <c r="T728" s="9"/>
       <c r="U728" s="6"/>
       <c r="V728" s="6"/>
     </row>
@@ -18161,7 +18304,7 @@
       <c r="Q729" s="6"/>
       <c r="R729" s="6"/>
       <c r="S729" s="6"/>
-      <c r="T729" s="8"/>
+      <c r="T729" s="9"/>
       <c r="U729" s="6"/>
       <c r="V729" s="6"/>
     </row>
@@ -18185,7 +18328,7 @@
       <c r="Q730" s="6"/>
       <c r="R730" s="6"/>
       <c r="S730" s="6"/>
-      <c r="T730" s="8"/>
+      <c r="T730" s="9"/>
       <c r="U730" s="6"/>
       <c r="V730" s="6"/>
     </row>
@@ -18209,7 +18352,7 @@
       <c r="Q731" s="6"/>
       <c r="R731" s="6"/>
       <c r="S731" s="6"/>
-      <c r="T731" s="8"/>
+      <c r="T731" s="9"/>
       <c r="U731" s="6"/>
       <c r="V731" s="6"/>
     </row>
@@ -18233,7 +18376,7 @@
       <c r="Q732" s="6"/>
       <c r="R732" s="6"/>
       <c r="S732" s="6"/>
-      <c r="T732" s="8"/>
+      <c r="T732" s="9"/>
       <c r="U732" s="6"/>
       <c r="V732" s="6"/>
     </row>
@@ -18257,7 +18400,7 @@
       <c r="Q733" s="6"/>
       <c r="R733" s="6"/>
       <c r="S733" s="6"/>
-      <c r="T733" s="8"/>
+      <c r="T733" s="9"/>
       <c r="U733" s="6"/>
       <c r="V733" s="6"/>
     </row>
@@ -18281,7 +18424,7 @@
       <c r="Q734" s="6"/>
       <c r="R734" s="6"/>
       <c r="S734" s="6"/>
-      <c r="T734" s="8"/>
+      <c r="T734" s="9"/>
       <c r="U734" s="6"/>
       <c r="V734" s="6"/>
     </row>
@@ -18305,7 +18448,7 @@
       <c r="Q735" s="6"/>
       <c r="R735" s="6"/>
       <c r="S735" s="6"/>
-      <c r="T735" s="8"/>
+      <c r="T735" s="9"/>
       <c r="U735" s="6"/>
       <c r="V735" s="6"/>
     </row>
@@ -18329,7 +18472,7 @@
       <c r="Q736" s="6"/>
       <c r="R736" s="6"/>
       <c r="S736" s="6"/>
-      <c r="T736" s="8"/>
+      <c r="T736" s="9"/>
       <c r="U736" s="6"/>
       <c r="V736" s="6"/>
     </row>
@@ -18353,7 +18496,7 @@
       <c r="Q737" s="6"/>
       <c r="R737" s="6"/>
       <c r="S737" s="6"/>
-      <c r="T737" s="8"/>
+      <c r="T737" s="9"/>
       <c r="U737" s="6"/>
       <c r="V737" s="6"/>
     </row>
@@ -18377,7 +18520,7 @@
       <c r="Q738" s="6"/>
       <c r="R738" s="6"/>
       <c r="S738" s="6"/>
-      <c r="T738" s="8"/>
+      <c r="T738" s="9"/>
       <c r="U738" s="6"/>
       <c r="V738" s="6"/>
     </row>
@@ -18401,7 +18544,7 @@
       <c r="Q739" s="6"/>
       <c r="R739" s="6"/>
       <c r="S739" s="6"/>
-      <c r="T739" s="8"/>
+      <c r="T739" s="9"/>
       <c r="U739" s="6"/>
       <c r="V739" s="6"/>
     </row>
@@ -18425,7 +18568,7 @@
       <c r="Q740" s="6"/>
       <c r="R740" s="6"/>
       <c r="S740" s="6"/>
-      <c r="T740" s="8"/>
+      <c r="T740" s="9"/>
       <c r="U740" s="6"/>
       <c r="V740" s="6"/>
     </row>
@@ -18449,7 +18592,7 @@
       <c r="Q741" s="6"/>
       <c r="R741" s="6"/>
       <c r="S741" s="6"/>
-      <c r="T741" s="8"/>
+      <c r="T741" s="9"/>
       <c r="U741" s="6"/>
       <c r="V741" s="6"/>
     </row>
@@ -18473,7 +18616,7 @@
       <c r="Q742" s="6"/>
       <c r="R742" s="6"/>
       <c r="S742" s="6"/>
-      <c r="T742" s="8"/>
+      <c r="T742" s="9"/>
       <c r="U742" s="6"/>
       <c r="V742" s="6"/>
     </row>
@@ -18497,7 +18640,7 @@
       <c r="Q743" s="6"/>
       <c r="R743" s="6"/>
       <c r="S743" s="6"/>
-      <c r="T743" s="8"/>
+      <c r="T743" s="9"/>
       <c r="U743" s="6"/>
       <c r="V743" s="6"/>
     </row>
@@ -18521,7 +18664,7 @@
       <c r="Q744" s="6"/>
       <c r="R744" s="6"/>
       <c r="S744" s="6"/>
-      <c r="T744" s="8"/>
+      <c r="T744" s="9"/>
       <c r="U744" s="6"/>
       <c r="V744" s="6"/>
     </row>
@@ -18545,7 +18688,7 @@
       <c r="Q745" s="6"/>
       <c r="R745" s="6"/>
       <c r="S745" s="6"/>
-      <c r="T745" s="8"/>
+      <c r="T745" s="9"/>
       <c r="U745" s="6"/>
       <c r="V745" s="6"/>
     </row>
@@ -18569,7 +18712,7 @@
       <c r="Q746" s="6"/>
       <c r="R746" s="6"/>
       <c r="S746" s="6"/>
-      <c r="T746" s="8"/>
+      <c r="T746" s="9"/>
       <c r="U746" s="6"/>
       <c r="V746" s="6"/>
     </row>
@@ -18593,7 +18736,7 @@
       <c r="Q747" s="6"/>
       <c r="R747" s="6"/>
       <c r="S747" s="6"/>
-      <c r="T747" s="8"/>
+      <c r="T747" s="9"/>
       <c r="U747" s="6"/>
       <c r="V747" s="6"/>
     </row>
@@ -18617,7 +18760,7 @@
       <c r="Q748" s="6"/>
       <c r="R748" s="6"/>
       <c r="S748" s="6"/>
-      <c r="T748" s="8"/>
+      <c r="T748" s="9"/>
       <c r="U748" s="6"/>
       <c r="V748" s="6"/>
     </row>
@@ -18641,7 +18784,7 @@
       <c r="Q749" s="6"/>
       <c r="R749" s="6"/>
       <c r="S749" s="6"/>
-      <c r="T749" s="8"/>
+      <c r="T749" s="9"/>
       <c r="U749" s="6"/>
       <c r="V749" s="6"/>
     </row>
@@ -18665,7 +18808,7 @@
       <c r="Q750" s="6"/>
       <c r="R750" s="6"/>
       <c r="S750" s="6"/>
-      <c r="T750" s="8"/>
+      <c r="T750" s="9"/>
       <c r="U750" s="6"/>
       <c r="V750" s="6"/>
     </row>
@@ -18689,7 +18832,7 @@
       <c r="Q751" s="6"/>
       <c r="R751" s="6"/>
       <c r="S751" s="6"/>
-      <c r="T751" s="8"/>
+      <c r="T751" s="9"/>
       <c r="U751" s="6"/>
       <c r="V751" s="6"/>
     </row>
@@ -18713,7 +18856,7 @@
       <c r="Q752" s="6"/>
       <c r="R752" s="6"/>
       <c r="S752" s="6"/>
-      <c r="T752" s="8"/>
+      <c r="T752" s="9"/>
       <c r="U752" s="6"/>
       <c r="V752" s="6"/>
     </row>
@@ -18737,7 +18880,7 @@
       <c r="Q753" s="6"/>
       <c r="R753" s="6"/>
       <c r="S753" s="6"/>
-      <c r="T753" s="8"/>
+      <c r="T753" s="9"/>
       <c r="U753" s="6"/>
       <c r="V753" s="6"/>
     </row>
@@ -18761,7 +18904,7 @@
       <c r="Q754" s="6"/>
       <c r="R754" s="6"/>
       <c r="S754" s="6"/>
-      <c r="T754" s="8"/>
+      <c r="T754" s="9"/>
       <c r="U754" s="6"/>
       <c r="V754" s="6"/>
     </row>
@@ -18785,7 +18928,7 @@
       <c r="Q755" s="6"/>
       <c r="R755" s="6"/>
       <c r="S755" s="6"/>
-      <c r="T755" s="8"/>
+      <c r="T755" s="9"/>
       <c r="U755" s="6"/>
       <c r="V755" s="6"/>
     </row>
@@ -18809,7 +18952,7 @@
       <c r="Q756" s="6"/>
       <c r="R756" s="6"/>
       <c r="S756" s="6"/>
-      <c r="T756" s="8"/>
+      <c r="T756" s="9"/>
       <c r="U756" s="6"/>
       <c r="V756" s="6"/>
     </row>
@@ -18833,7 +18976,7 @@
       <c r="Q757" s="6"/>
       <c r="R757" s="6"/>
       <c r="S757" s="6"/>
-      <c r="T757" s="8"/>
+      <c r="T757" s="9"/>
       <c r="U757" s="6"/>
       <c r="V757" s="6"/>
     </row>
@@ -18857,7 +19000,7 @@
       <c r="Q758" s="6"/>
       <c r="R758" s="6"/>
       <c r="S758" s="6"/>
-      <c r="T758" s="8"/>
+      <c r="T758" s="9"/>
       <c r="U758" s="6"/>
       <c r="V758" s="6"/>
     </row>
@@ -18881,7 +19024,7 @@
       <c r="Q759" s="6"/>
       <c r="R759" s="6"/>
       <c r="S759" s="6"/>
-      <c r="T759" s="8"/>
+      <c r="T759" s="9"/>
       <c r="U759" s="6"/>
       <c r="V759" s="6"/>
     </row>
@@ -18905,7 +19048,7 @@
       <c r="Q760" s="6"/>
       <c r="R760" s="6"/>
       <c r="S760" s="6"/>
-      <c r="T760" s="8"/>
+      <c r="T760" s="9"/>
       <c r="U760" s="6"/>
       <c r="V760" s="6"/>
     </row>
@@ -18929,7 +19072,7 @@
       <c r="Q761" s="6"/>
       <c r="R761" s="6"/>
       <c r="S761" s="6"/>
-      <c r="T761" s="8"/>
+      <c r="T761" s="9"/>
       <c r="U761" s="6"/>
       <c r="V761" s="6"/>
     </row>
@@ -18953,7 +19096,7 @@
       <c r="Q762" s="6"/>
       <c r="R762" s="6"/>
       <c r="S762" s="6"/>
-      <c r="T762" s="8"/>
+      <c r="T762" s="9"/>
       <c r="U762" s="6"/>
       <c r="V762" s="6"/>
     </row>
@@ -18977,7 +19120,7 @@
       <c r="Q763" s="6"/>
       <c r="R763" s="6"/>
       <c r="S763" s="6"/>
-      <c r="T763" s="8"/>
+      <c r="T763" s="9"/>
       <c r="U763" s="6"/>
       <c r="V763" s="6"/>
     </row>
@@ -19001,7 +19144,7 @@
       <c r="Q764" s="6"/>
       <c r="R764" s="6"/>
       <c r="S764" s="6"/>
-      <c r="T764" s="8"/>
+      <c r="T764" s="9"/>
       <c r="U764" s="6"/>
       <c r="V764" s="6"/>
     </row>
@@ -19025,7 +19168,7 @@
       <c r="Q765" s="6"/>
       <c r="R765" s="6"/>
       <c r="S765" s="6"/>
-      <c r="T765" s="8"/>
+      <c r="T765" s="9"/>
       <c r="U765" s="6"/>
       <c r="V765" s="6"/>
     </row>
@@ -19049,7 +19192,7 @@
       <c r="Q766" s="6"/>
       <c r="R766" s="6"/>
       <c r="S766" s="6"/>
-      <c r="T766" s="8"/>
+      <c r="T766" s="9"/>
       <c r="U766" s="6"/>
       <c r="V766" s="6"/>
     </row>
@@ -19073,7 +19216,7 @@
       <c r="Q767" s="6"/>
       <c r="R767" s="6"/>
       <c r="S767" s="6"/>
-      <c r="T767" s="8"/>
+      <c r="T767" s="9"/>
       <c r="U767" s="6"/>
       <c r="V767" s="6"/>
     </row>
@@ -19097,7 +19240,7 @@
       <c r="Q768" s="6"/>
       <c r="R768" s="6"/>
       <c r="S768" s="6"/>
-      <c r="T768" s="8"/>
+      <c r="T768" s="9"/>
       <c r="U768" s="6"/>
       <c r="V768" s="6"/>
     </row>
@@ -19121,7 +19264,7 @@
       <c r="Q769" s="6"/>
       <c r="R769" s="6"/>
       <c r="S769" s="6"/>
-      <c r="T769" s="8"/>
+      <c r="T769" s="9"/>
       <c r="U769" s="6"/>
       <c r="V769" s="6"/>
     </row>
@@ -19145,7 +19288,7 @@
       <c r="Q770" s="6"/>
       <c r="R770" s="6"/>
       <c r="S770" s="6"/>
-      <c r="T770" s="8"/>
+      <c r="T770" s="9"/>
       <c r="U770" s="6"/>
       <c r="V770" s="6"/>
     </row>
@@ -19169,7 +19312,7 @@
       <c r="Q771" s="6"/>
       <c r="R771" s="6"/>
       <c r="S771" s="6"/>
-      <c r="T771" s="8"/>
+      <c r="T771" s="9"/>
       <c r="U771" s="6"/>
       <c r="V771" s="6"/>
     </row>
@@ -19193,7 +19336,7 @@
       <c r="Q772" s="6"/>
       <c r="R772" s="6"/>
       <c r="S772" s="6"/>
-      <c r="T772" s="8"/>
+      <c r="T772" s="9"/>
       <c r="U772" s="6"/>
       <c r="V772" s="6"/>
     </row>
@@ -19217,7 +19360,7 @@
       <c r="Q773" s="6"/>
       <c r="R773" s="6"/>
       <c r="S773" s="6"/>
-      <c r="T773" s="8"/>
+      <c r="T773" s="9"/>
       <c r="U773" s="6"/>
       <c r="V773" s="6"/>
     </row>
@@ -19241,7 +19384,7 @@
       <c r="Q774" s="6"/>
       <c r="R774" s="6"/>
       <c r="S774" s="6"/>
-      <c r="T774" s="8"/>
+      <c r="T774" s="9"/>
       <c r="U774" s="6"/>
       <c r="V774" s="6"/>
     </row>
@@ -19265,7 +19408,7 @@
       <c r="Q775" s="6"/>
       <c r="R775" s="6"/>
       <c r="S775" s="6"/>
-      <c r="T775" s="8"/>
+      <c r="T775" s="9"/>
       <c r="U775" s="6"/>
       <c r="V775" s="6"/>
     </row>
@@ -19289,7 +19432,7 @@
       <c r="Q776" s="6"/>
       <c r="R776" s="6"/>
       <c r="S776" s="6"/>
-      <c r="T776" s="8"/>
+      <c r="T776" s="9"/>
       <c r="U776" s="6"/>
       <c r="V776" s="6"/>
     </row>
@@ -19313,7 +19456,7 @@
       <c r="Q777" s="6"/>
       <c r="R777" s="6"/>
       <c r="S777" s="6"/>
-      <c r="T777" s="8"/>
+      <c r="T777" s="9"/>
       <c r="U777" s="6"/>
       <c r="V777" s="6"/>
     </row>
@@ -19337,7 +19480,7 @@
       <c r="Q778" s="6"/>
       <c r="R778" s="6"/>
       <c r="S778" s="6"/>
-      <c r="T778" s="8"/>
+      <c r="T778" s="9"/>
       <c r="U778" s="6"/>
       <c r="V778" s="6"/>
     </row>
@@ -19361,7 +19504,7 @@
       <c r="Q779" s="6"/>
       <c r="R779" s="6"/>
       <c r="S779" s="6"/>
-      <c r="T779" s="8"/>
+      <c r="T779" s="9"/>
       <c r="U779" s="6"/>
       <c r="V779" s="6"/>
     </row>
@@ -19385,7 +19528,7 @@
       <c r="Q780" s="6"/>
       <c r="R780" s="6"/>
       <c r="S780" s="6"/>
-      <c r="T780" s="8"/>
+      <c r="T780" s="9"/>
       <c r="U780" s="6"/>
       <c r="V780" s="6"/>
     </row>
@@ -19409,7 +19552,7 @@
       <c r="Q781" s="6"/>
       <c r="R781" s="6"/>
       <c r="S781" s="6"/>
-      <c r="T781" s="8"/>
+      <c r="T781" s="9"/>
       <c r="U781" s="6"/>
       <c r="V781" s="6"/>
     </row>
@@ -19433,7 +19576,7 @@
       <c r="Q782" s="6"/>
       <c r="R782" s="6"/>
       <c r="S782" s="6"/>
-      <c r="T782" s="8"/>
+      <c r="T782" s="9"/>
       <c r="U782" s="6"/>
       <c r="V782" s="6"/>
     </row>
@@ -19457,7 +19600,7 @@
       <c r="Q783" s="6"/>
       <c r="R783" s="6"/>
       <c r="S783" s="6"/>
-      <c r="T783" s="8"/>
+      <c r="T783" s="9"/>
       <c r="U783" s="6"/>
       <c r="V783" s="6"/>
     </row>
@@ -19481,7 +19624,7 @@
       <c r="Q784" s="6"/>
       <c r="R784" s="6"/>
       <c r="S784" s="6"/>
-      <c r="T784" s="8"/>
+      <c r="T784" s="9"/>
       <c r="U784" s="6"/>
       <c r="V784" s="6"/>
     </row>
@@ -19505,7 +19648,7 @@
       <c r="Q785" s="6"/>
       <c r="R785" s="6"/>
       <c r="S785" s="6"/>
-      <c r="T785" s="8"/>
+      <c r="T785" s="9"/>
       <c r="U785" s="6"/>
       <c r="V785" s="6"/>
     </row>
@@ -19529,7 +19672,7 @@
       <c r="Q786" s="6"/>
       <c r="R786" s="6"/>
       <c r="S786" s="6"/>
-      <c r="T786" s="8"/>
+      <c r="T786" s="9"/>
       <c r="U786" s="6"/>
       <c r="V786" s="6"/>
     </row>
@@ -19553,7 +19696,7 @@
       <c r="Q787" s="6"/>
       <c r="R787" s="6"/>
       <c r="S787" s="6"/>
-      <c r="T787" s="8"/>
+      <c r="T787" s="9"/>
       <c r="U787" s="6"/>
       <c r="V787" s="6"/>
     </row>
@@ -19577,7 +19720,7 @@
       <c r="Q788" s="6"/>
       <c r="R788" s="6"/>
       <c r="S788" s="6"/>
-      <c r="T788" s="8"/>
+      <c r="T788" s="9"/>
       <c r="U788" s="6"/>
       <c r="V788" s="6"/>
     </row>
@@ -19601,7 +19744,7 @@
       <c r="Q789" s="6"/>
       <c r="R789" s="6"/>
       <c r="S789" s="6"/>
-      <c r="T789" s="8"/>
+      <c r="T789" s="9"/>
       <c r="U789" s="6"/>
       <c r="V789" s="6"/>
     </row>
@@ -19625,7 +19768,7 @@
       <c r="Q790" s="6"/>
       <c r="R790" s="6"/>
       <c r="S790" s="6"/>
-      <c r="T790" s="8"/>
+      <c r="T790" s="9"/>
       <c r="U790" s="6"/>
       <c r="V790" s="6"/>
     </row>
@@ -19649,7 +19792,7 @@
       <c r="Q791" s="6"/>
       <c r="R791" s="6"/>
       <c r="S791" s="6"/>
-      <c r="T791" s="8"/>
+      <c r="T791" s="9"/>
       <c r="U791" s="6"/>
       <c r="V791" s="6"/>
     </row>
@@ -19673,7 +19816,7 @@
       <c r="Q792" s="6"/>
       <c r="R792" s="6"/>
       <c r="S792" s="6"/>
-      <c r="T792" s="8"/>
+      <c r="T792" s="9"/>
       <c r="U792" s="6"/>
       <c r="V792" s="6"/>
     </row>
@@ -19697,7 +19840,7 @@
       <c r="Q793" s="6"/>
       <c r="R793" s="6"/>
       <c r="S793" s="6"/>
-      <c r="T793" s="8"/>
+      <c r="T793" s="9"/>
       <c r="U793" s="6"/>
       <c r="V793" s="6"/>
     </row>
@@ -19721,7 +19864,7 @@
       <c r="Q794" s="6"/>
       <c r="R794" s="6"/>
       <c r="S794" s="6"/>
-      <c r="T794" s="8"/>
+      <c r="T794" s="9"/>
       <c r="U794" s="6"/>
       <c r="V794" s="6"/>
     </row>
@@ -19745,7 +19888,7 @@
       <c r="Q795" s="6"/>
       <c r="R795" s="6"/>
       <c r="S795" s="6"/>
-      <c r="T795" s="8"/>
+      <c r="T795" s="9"/>
       <c r="U795" s="6"/>
       <c r="V795" s="6"/>
     </row>
@@ -19769,7 +19912,7 @@
       <c r="Q796" s="6"/>
       <c r="R796" s="6"/>
       <c r="S796" s="6"/>
-      <c r="T796" s="8"/>
+      <c r="T796" s="9"/>
       <c r="U796" s="6"/>
       <c r="V796" s="6"/>
     </row>
@@ -19793,7 +19936,7 @@
       <c r="Q797" s="6"/>
       <c r="R797" s="6"/>
       <c r="S797" s="6"/>
-      <c r="T797" s="8"/>
+      <c r="T797" s="9"/>
       <c r="U797" s="6"/>
       <c r="V797" s="6"/>
     </row>
@@ -19817,7 +19960,7 @@
       <c r="Q798" s="6"/>
       <c r="R798" s="6"/>
       <c r="S798" s="6"/>
-      <c r="T798" s="8"/>
+      <c r="T798" s="9"/>
       <c r="U798" s="6"/>
       <c r="V798" s="6"/>
     </row>
@@ -19841,7 +19984,7 @@
       <c r="Q799" s="6"/>
       <c r="R799" s="6"/>
       <c r="S799" s="6"/>
-      <c r="T799" s="8"/>
+      <c r="T799" s="9"/>
       <c r="U799" s="6"/>
       <c r="V799" s="6"/>
     </row>
@@ -19865,7 +20008,7 @@
       <c r="Q800" s="6"/>
       <c r="R800" s="6"/>
       <c r="S800" s="6"/>
-      <c r="T800" s="8"/>
+      <c r="T800" s="9"/>
       <c r="U800" s="6"/>
       <c r="V800" s="6"/>
     </row>
@@ -19889,7 +20032,7 @@
       <c r="Q801" s="6"/>
       <c r="R801" s="6"/>
       <c r="S801" s="6"/>
-      <c r="T801" s="8"/>
+      <c r="T801" s="9"/>
       <c r="U801" s="6"/>
       <c r="V801" s="6"/>
     </row>
@@ -19913,7 +20056,7 @@
       <c r="Q802" s="6"/>
       <c r="R802" s="6"/>
       <c r="S802" s="6"/>
-      <c r="T802" s="8"/>
+      <c r="T802" s="9"/>
       <c r="U802" s="6"/>
       <c r="V802" s="6"/>
     </row>
@@ -19937,7 +20080,7 @@
       <c r="Q803" s="6"/>
       <c r="R803" s="6"/>
       <c r="S803" s="6"/>
-      <c r="T803" s="8"/>
+      <c r="T803" s="9"/>
       <c r="U803" s="6"/>
       <c r="V803" s="6"/>
     </row>
@@ -19961,7 +20104,7 @@
       <c r="Q804" s="6"/>
       <c r="R804" s="6"/>
       <c r="S804" s="6"/>
-      <c r="T804" s="8"/>
+      <c r="T804" s="9"/>
       <c r="U804" s="6"/>
       <c r="V804" s="6"/>
     </row>
@@ -19985,7 +20128,7 @@
       <c r="Q805" s="6"/>
       <c r="R805" s="6"/>
       <c r="S805" s="6"/>
-      <c r="T805" s="8"/>
+      <c r="T805" s="9"/>
       <c r="U805" s="6"/>
       <c r="V805" s="6"/>
     </row>
@@ -20009,7 +20152,7 @@
       <c r="Q806" s="6"/>
       <c r="R806" s="6"/>
       <c r="S806" s="6"/>
-      <c r="T806" s="8"/>
+      <c r="T806" s="9"/>
       <c r="U806" s="6"/>
       <c r="V806" s="6"/>
     </row>
@@ -20033,7 +20176,7 @@
       <c r="Q807" s="6"/>
       <c r="R807" s="6"/>
       <c r="S807" s="6"/>
-      <c r="T807" s="8"/>
+      <c r="T807" s="9"/>
       <c r="U807" s="6"/>
       <c r="V807" s="6"/>
     </row>
@@ -20057,7 +20200,7 @@
       <c r="Q808" s="6"/>
       <c r="R808" s="6"/>
       <c r="S808" s="6"/>
-      <c r="T808" s="8"/>
+      <c r="T808" s="9"/>
       <c r="U808" s="6"/>
       <c r="V808" s="6"/>
     </row>
@@ -20081,7 +20224,7 @@
       <c r="Q809" s="6"/>
       <c r="R809" s="6"/>
       <c r="S809" s="6"/>
-      <c r="T809" s="8"/>
+      <c r="T809" s="9"/>
       <c r="U809" s="6"/>
       <c r="V809" s="6"/>
     </row>
@@ -20105,7 +20248,7 @@
       <c r="Q810" s="6"/>
       <c r="R810" s="6"/>
       <c r="S810" s="6"/>
-      <c r="T810" s="8"/>
+      <c r="T810" s="9"/>
       <c r="U810" s="6"/>
       <c r="V810" s="6"/>
     </row>
@@ -20129,7 +20272,7 @@
       <c r="Q811" s="6"/>
       <c r="R811" s="6"/>
       <c r="S811" s="6"/>
-      <c r="T811" s="8"/>
+      <c r="T811" s="9"/>
       <c r="U811" s="6"/>
       <c r="V811" s="6"/>
     </row>
@@ -20153,7 +20296,7 @@
       <c r="Q812" s="6"/>
       <c r="R812" s="6"/>
       <c r="S812" s="6"/>
-      <c r="T812" s="8"/>
+      <c r="T812" s="9"/>
       <c r="U812" s="6"/>
       <c r="V812" s="6"/>
     </row>
@@ -20177,7 +20320,7 @@
       <c r="Q813" s="6"/>
       <c r="R813" s="6"/>
       <c r="S813" s="6"/>
-      <c r="T813" s="8"/>
+      <c r="T813" s="9"/>
       <c r="U813" s="6"/>
       <c r="V813" s="6"/>
     </row>
@@ -20201,7 +20344,7 @@
       <c r="Q814" s="6"/>
       <c r="R814" s="6"/>
       <c r="S814" s="6"/>
-      <c r="T814" s="8"/>
+      <c r="T814" s="9"/>
       <c r="U814" s="6"/>
       <c r="V814" s="6"/>
     </row>
@@ -20225,7 +20368,7 @@
       <c r="Q815" s="6"/>
       <c r="R815" s="6"/>
       <c r="S815" s="6"/>
-      <c r="T815" s="8"/>
+      <c r="T815" s="9"/>
       <c r="U815" s="6"/>
       <c r="V815" s="6"/>
     </row>
@@ -20249,7 +20392,7 @@
       <c r="Q816" s="6"/>
       <c r="R816" s="6"/>
       <c r="S816" s="6"/>
-      <c r="T816" s="8"/>
+      <c r="T816" s="9"/>
       <c r="U816" s="6"/>
       <c r="V816" s="6"/>
     </row>
@@ -20273,7 +20416,7 @@
       <c r="Q817" s="6"/>
       <c r="R817" s="6"/>
       <c r="S817" s="6"/>
-      <c r="T817" s="8"/>
+      <c r="T817" s="9"/>
       <c r="U817" s="6"/>
       <c r="V817" s="6"/>
     </row>
@@ -20297,7 +20440,7 @@
       <c r="Q818" s="6"/>
       <c r="R818" s="6"/>
       <c r="S818" s="6"/>
-      <c r="T818" s="8"/>
+      <c r="T818" s="9"/>
       <c r="U818" s="6"/>
       <c r="V818" s="6"/>
     </row>
@@ -20321,7 +20464,7 @@
       <c r="Q819" s="6"/>
       <c r="R819" s="6"/>
       <c r="S819" s="6"/>
-      <c r="T819" s="8"/>
+      <c r="T819" s="9"/>
       <c r="U819" s="6"/>
       <c r="V819" s="6"/>
     </row>
@@ -20345,7 +20488,7 @@
       <c r="Q820" s="6"/>
       <c r="R820" s="6"/>
       <c r="S820" s="6"/>
-      <c r="T820" s="8"/>
+      <c r="T820" s="9"/>
       <c r="U820" s="6"/>
       <c r="V820" s="6"/>
     </row>
@@ -20369,7 +20512,7 @@
       <c r="Q821" s="6"/>
       <c r="R821" s="6"/>
       <c r="S821" s="6"/>
-      <c r="T821" s="8"/>
+      <c r="T821" s="9"/>
       <c r="U821" s="6"/>
       <c r="V821" s="6"/>
     </row>
@@ -20393,7 +20536,7 @@
       <c r="Q822" s="6"/>
       <c r="R822" s="6"/>
       <c r="S822" s="6"/>
-      <c r="T822" s="8"/>
+      <c r="T822" s="9"/>
       <c r="U822" s="6"/>
       <c r="V822" s="6"/>
     </row>
@@ -20417,7 +20560,7 @@
       <c r="Q823" s="6"/>
       <c r="R823" s="6"/>
       <c r="S823" s="6"/>
-      <c r="T823" s="8"/>
+      <c r="T823" s="9"/>
       <c r="U823" s="6"/>
       <c r="V823" s="6"/>
     </row>
@@ -20441,7 +20584,7 @@
       <c r="Q824" s="6"/>
       <c r="R824" s="6"/>
       <c r="S824" s="6"/>
-      <c r="T824" s="8"/>
+      <c r="T824" s="9"/>
       <c r="U824" s="6"/>
       <c r="V824" s="6"/>
     </row>
@@ -20465,7 +20608,7 @@
       <c r="Q825" s="6"/>
       <c r="R825" s="6"/>
       <c r="S825" s="6"/>
-      <c r="T825" s="8"/>
+      <c r="T825" s="9"/>
       <c r="U825" s="6"/>
       <c r="V825" s="6"/>
     </row>
@@ -20489,7 +20632,7 @@
       <c r="Q826" s="6"/>
       <c r="R826" s="6"/>
       <c r="S826" s="6"/>
-      <c r="T826" s="8"/>
+      <c r="T826" s="9"/>
       <c r="U826" s="6"/>
       <c r="V826" s="6"/>
     </row>
@@ -20513,7 +20656,7 @@
       <c r="Q827" s="6"/>
       <c r="R827" s="6"/>
       <c r="S827" s="6"/>
-      <c r="T827" s="8"/>
+      <c r="T827" s="9"/>
       <c r="U827" s="6"/>
       <c r="V827" s="6"/>
     </row>
@@ -20537,7 +20680,7 @@
       <c r="Q828" s="6"/>
       <c r="R828" s="6"/>
       <c r="S828" s="6"/>
-      <c r="T828" s="8"/>
+      <c r="T828" s="9"/>
       <c r="U828" s="6"/>
       <c r="V828" s="6"/>
     </row>
@@ -20561,7 +20704,7 @@
       <c r="Q829" s="6"/>
       <c r="R829" s="6"/>
       <c r="S829" s="6"/>
-      <c r="T829" s="8"/>
+      <c r="T829" s="9"/>
       <c r="U829" s="6"/>
       <c r="V829" s="6"/>
     </row>
@@ -20585,7 +20728,7 @@
       <c r="Q830" s="6"/>
       <c r="R830" s="6"/>
       <c r="S830" s="6"/>
-      <c r="T830" s="8"/>
+      <c r="T830" s="9"/>
       <c r="U830" s="6"/>
       <c r="V830" s="6"/>
     </row>
@@ -20609,7 +20752,7 @@
       <c r="Q831" s="6"/>
       <c r="R831" s="6"/>
       <c r="S831" s="6"/>
-      <c r="T831" s="8"/>
+      <c r="T831" s="9"/>
       <c r="U831" s="6"/>
       <c r="V831" s="6"/>
     </row>
@@ -20633,7 +20776,7 @@
       <c r="Q832" s="6"/>
       <c r="R832" s="6"/>
       <c r="S832" s="6"/>
-      <c r="T832" s="8"/>
+      <c r="T832" s="9"/>
       <c r="U832" s="6"/>
       <c r="V832" s="6"/>
     </row>
@@ -20657,7 +20800,7 @@
       <c r="Q833" s="6"/>
       <c r="R833" s="6"/>
       <c r="S833" s="6"/>
-      <c r="T833" s="8"/>
+      <c r="T833" s="9"/>
       <c r="U833" s="6"/>
       <c r="V833" s="6"/>
     </row>
@@ -20681,7 +20824,7 @@
       <c r="Q834" s="6"/>
       <c r="R834" s="6"/>
       <c r="S834" s="6"/>
-      <c r="T834" s="8"/>
+      <c r="T834" s="9"/>
       <c r="U834" s="6"/>
       <c r="V834" s="6"/>
     </row>
@@ -20705,7 +20848,7 @@
       <c r="Q835" s="6"/>
       <c r="R835" s="6"/>
       <c r="S835" s="6"/>
-      <c r="T835" s="8"/>
+      <c r="T835" s="9"/>
       <c r="U835" s="6"/>
       <c r="V835" s="6"/>
     </row>
@@ -20729,7 +20872,7 @@
       <c r="Q836" s="6"/>
       <c r="R836" s="6"/>
       <c r="S836" s="6"/>
-      <c r="T836" s="8"/>
+      <c r="T836" s="9"/>
       <c r="U836" s="6"/>
       <c r="V836" s="6"/>
     </row>
@@ -20753,7 +20896,7 @@
       <c r="Q837" s="6"/>
       <c r="R837" s="6"/>
       <c r="S837" s="6"/>
-      <c r="T837" s="8"/>
+      <c r="T837" s="9"/>
       <c r="U837" s="6"/>
       <c r="V837" s="6"/>
     </row>
@@ -20777,7 +20920,7 @@
       <c r="Q838" s="6"/>
       <c r="R838" s="6"/>
       <c r="S838" s="6"/>
-      <c r="T838" s="8"/>
+      <c r="T838" s="9"/>
       <c r="U838" s="6"/>
       <c r="V838" s="6"/>
     </row>
@@ -20801,7 +20944,7 @@
       <c r="Q839" s="6"/>
       <c r="R839" s="6"/>
       <c r="S839" s="6"/>
-      <c r="T839" s="8"/>
+      <c r="T839" s="9"/>
       <c r="U839" s="6"/>
       <c r="V839" s="6"/>
     </row>
@@ -20825,7 +20968,7 @@
       <c r="Q840" s="6"/>
       <c r="R840" s="6"/>
       <c r="S840" s="6"/>
-      <c r="T840" s="8"/>
+      <c r="T840" s="9"/>
       <c r="U840" s="6"/>
       <c r="V840" s="6"/>
     </row>
@@ -20849,7 +20992,7 @@
       <c r="Q841" s="6"/>
       <c r="R841" s="6"/>
       <c r="S841" s="6"/>
-      <c r="T841" s="8"/>
+      <c r="T841" s="9"/>
       <c r="U841" s="6"/>
       <c r="V841" s="6"/>
     </row>
@@ -20873,7 +21016,7 @@
       <c r="Q842" s="6"/>
       <c r="R842" s="6"/>
       <c r="S842" s="6"/>
-      <c r="T842" s="8"/>
+      <c r="T842" s="9"/>
       <c r="U842" s="6"/>
       <c r="V842" s="6"/>
     </row>
@@ -20897,7 +21040,7 @@
       <c r="Q843" s="6"/>
       <c r="R843" s="6"/>
       <c r="S843" s="6"/>
-      <c r="T843" s="8"/>
+      <c r="T843" s="9"/>
       <c r="U843" s="6"/>
       <c r="V843" s="6"/>
     </row>
@@ -20921,7 +21064,7 @@
       <c r="Q844" s="6"/>
       <c r="R844" s="6"/>
       <c r="S844" s="6"/>
-      <c r="T844" s="8"/>
+      <c r="T844" s="9"/>
       <c r="U844" s="6"/>
       <c r="V844" s="6"/>
     </row>
@@ -20945,7 +21088,7 @@
       <c r="Q845" s="6"/>
       <c r="R845" s="6"/>
       <c r="S845" s="6"/>
-      <c r="T845" s="8"/>
+      <c r="T845" s="9"/>
       <c r="U845" s="6"/>
       <c r="V845" s="6"/>
     </row>
@@ -20969,7 +21112,7 @@
       <c r="Q846" s="6"/>
       <c r="R846" s="6"/>
       <c r="S846" s="6"/>
-      <c r="T846" s="8"/>
+      <c r="T846" s="9"/>
       <c r="U846" s="6"/>
       <c r="V846" s="6"/>
     </row>
@@ -20993,7 +21136,7 @@
       <c r="Q847" s="6"/>
       <c r="R847" s="6"/>
       <c r="S847" s="6"/>
-      <c r="T847" s="8"/>
+      <c r="T847" s="9"/>
       <c r="U847" s="6"/>
       <c r="V847" s="6"/>
     </row>
@@ -21017,7 +21160,7 @@
       <c r="Q848" s="6"/>
       <c r="R848" s="6"/>
       <c r="S848" s="6"/>
-      <c r="T848" s="8"/>
+      <c r="T848" s="9"/>
       <c r="U848" s="6"/>
       <c r="V848" s="6"/>
     </row>
@@ -21041,7 +21184,7 @@
       <c r="Q849" s="6"/>
       <c r="R849" s="6"/>
       <c r="S849" s="6"/>
-      <c r="T849" s="8"/>
+      <c r="T849" s="9"/>
       <c r="U849" s="6"/>
       <c r="V849" s="6"/>
     </row>
@@ -21065,7 +21208,7 @@
       <c r="Q850" s="6"/>
       <c r="R850" s="6"/>
       <c r="S850" s="6"/>
-      <c r="T850" s="8"/>
+      <c r="T850" s="9"/>
       <c r="U850" s="6"/>
       <c r="V850" s="6"/>
     </row>
@@ -21089,7 +21232,7 @@
       <c r="Q851" s="6"/>
       <c r="R851" s="6"/>
       <c r="S851" s="6"/>
-      <c r="T851" s="8"/>
+      <c r="T851" s="9"/>
       <c r="U851" s="6"/>
       <c r="V851" s="6"/>
     </row>
@@ -21113,7 +21256,7 @@
       <c r="Q852" s="6"/>
       <c r="R852" s="6"/>
       <c r="S852" s="6"/>
-      <c r="T852" s="8"/>
+      <c r="T852" s="9"/>
       <c r="U852" s="6"/>
       <c r="V852" s="6"/>
     </row>
@@ -21137,7 +21280,7 @@
       <c r="Q853" s="6"/>
       <c r="R853" s="6"/>
       <c r="S853" s="6"/>
-      <c r="T853" s="8"/>
+      <c r="T853" s="9"/>
       <c r="U853" s="6"/>
       <c r="V853" s="6"/>
     </row>
@@ -21161,7 +21304,7 @@
       <c r="Q854" s="6"/>
       <c r="R854" s="6"/>
       <c r="S854" s="6"/>
-      <c r="T854" s="8"/>
+      <c r="T854" s="9"/>
       <c r="U854" s="6"/>
       <c r="V854" s="6"/>
     </row>
@@ -21185,7 +21328,7 @@
       <c r="Q855" s="6"/>
       <c r="R855" s="6"/>
       <c r="S855" s="6"/>
-      <c r="T855" s="8"/>
+      <c r="T855" s="9"/>
       <c r="U855" s="6"/>
       <c r="V855" s="6"/>
     </row>
@@ -21209,7 +21352,7 @@
       <c r="Q856" s="6"/>
       <c r="R856" s="6"/>
       <c r="S856" s="6"/>
-      <c r="T856" s="8"/>
+      <c r="T856" s="9"/>
       <c r="U856" s="6"/>
       <c r="V856" s="6"/>
     </row>
@@ -21233,7 +21376,7 @@
       <c r="Q857" s="6"/>
       <c r="R857" s="6"/>
       <c r="S857" s="6"/>
-      <c r="T857" s="8"/>
+      <c r="T857" s="9"/>
       <c r="U857" s="6"/>
       <c r="V857" s="6"/>
     </row>
@@ -21257,7 +21400,7 @@
       <c r="Q858" s="6"/>
       <c r="R858" s="6"/>
       <c r="S858" s="6"/>
-      <c r="T858" s="8"/>
+      <c r="T858" s="9"/>
       <c r="U858" s="6"/>
       <c r="V858" s="6"/>
     </row>
@@ -21281,7 +21424,7 @@
       <c r="Q859" s="6"/>
       <c r="R859" s="6"/>
       <c r="S859" s="6"/>
-      <c r="T859" s="8"/>
+      <c r="T859" s="9"/>
       <c r="U859" s="6"/>
       <c r="V859" s="6"/>
     </row>
@@ -21305,7 +21448,7 @@
       <c r="Q860" s="6"/>
       <c r="R860" s="6"/>
       <c r="S860" s="6"/>
-      <c r="T860" s="8"/>
+      <c r="T860" s="9"/>
       <c r="U860" s="6"/>
       <c r="V860" s="6"/>
     </row>
@@ -21329,7 +21472,7 @@
       <c r="Q861" s="6"/>
       <c r="R861" s="6"/>
       <c r="S861" s="6"/>
-      <c r="T861" s="8"/>
+      <c r="T861" s="9"/>
       <c r="U861" s="6"/>
       <c r="V861" s="6"/>
     </row>
@@ -21353,7 +21496,7 @@
       <c r="Q862" s="6"/>
       <c r="R862" s="6"/>
       <c r="S862" s="6"/>
-      <c r="T862" s="8"/>
+      <c r="T862" s="9"/>
       <c r="U862" s="6"/>
       <c r="V862" s="6"/>
     </row>
@@ -21377,7 +21520,7 @@
       <c r="Q863" s="6"/>
       <c r="R863" s="6"/>
       <c r="S863" s="6"/>
-      <c r="T863" s="8"/>
+      <c r="T863" s="9"/>
       <c r="U863" s="6"/>
       <c r="V863" s="6"/>
     </row>
@@ -21401,7 +21544,7 @@
       <c r="Q864" s="6"/>
       <c r="R864" s="6"/>
       <c r="S864" s="6"/>
-      <c r="T864" s="8"/>
+      <c r="T864" s="9"/>
       <c r="U864" s="6"/>
       <c r="V864" s="6"/>
     </row>
@@ -21425,7 +21568,7 @@
       <c r="Q865" s="6"/>
       <c r="R865" s="6"/>
       <c r="S865" s="6"/>
-      <c r="T865" s="8"/>
+      <c r="T865" s="9"/>
       <c r="U865" s="6"/>
       <c r="V865" s="6"/>
     </row>
@@ -21449,7 +21592,7 @@
       <c r="Q866" s="6"/>
       <c r="R866" s="6"/>
       <c r="S866" s="6"/>
-      <c r="T866" s="8"/>
+      <c r="T866" s="9"/>
       <c r="U866" s="6"/>
       <c r="V866" s="6"/>
     </row>
@@ -21473,7 +21616,7 @@
       <c r="Q867" s="6"/>
       <c r="R867" s="6"/>
       <c r="S867" s="6"/>
-      <c r="T867" s="8"/>
+      <c r="T867" s="9"/>
       <c r="U867" s="6"/>
       <c r="V867" s="6"/>
     </row>
@@ -21497,7 +21640,7 @@
       <c r="Q868" s="6"/>
       <c r="R868" s="6"/>
       <c r="S868" s="6"/>
-      <c r="T868" s="8"/>
+      <c r="T868" s="9"/>
       <c r="U868" s="6"/>
       <c r="V868" s="6"/>
     </row>
@@ -21521,7 +21664,7 @@
       <c r="Q869" s="6"/>
       <c r="R869" s="6"/>
       <c r="S869" s="6"/>
-      <c r="T869" s="8"/>
+      <c r="T869" s="9"/>
       <c r="U869" s="6"/>
       <c r="V869" s="6"/>
     </row>
@@ -21545,7 +21688,7 @@
       <c r="Q870" s="6"/>
       <c r="R870" s="6"/>
       <c r="S870" s="6"/>
-      <c r="T870" s="8"/>
+      <c r="T870" s="9"/>
       <c r="U870" s="6"/>
       <c r="V870" s="6"/>
     </row>
@@ -21569,7 +21712,7 @@
       <c r="Q871" s="6"/>
       <c r="R871" s="6"/>
       <c r="S871" s="6"/>
-      <c r="T871" s="8"/>
+      <c r="T871" s="9"/>
       <c r="U871" s="6"/>
       <c r="V871" s="6"/>
     </row>
@@ -21593,7 +21736,7 @@
       <c r="Q872" s="6"/>
       <c r="R872" s="6"/>
       <c r="S872" s="6"/>
-      <c r="T872" s="8"/>
+      <c r="T872" s="9"/>
       <c r="U872" s="6"/>
       <c r="V872" s="6"/>
     </row>
@@ -21617,7 +21760,7 @@
       <c r="Q873" s="6"/>
       <c r="R873" s="6"/>
       <c r="S873" s="6"/>
-      <c r="T873" s="8"/>
+      <c r="T873" s="9"/>
       <c r="U873" s="6"/>
       <c r="V873" s="6"/>
     </row>
@@ -21641,7 +21784,7 @@
       <c r="Q874" s="6"/>
       <c r="R874" s="6"/>
       <c r="S874" s="6"/>
-      <c r="T874" s="8"/>
+      <c r="T874" s="9"/>
       <c r="U874" s="6"/>
       <c r="V874" s="6"/>
     </row>
@@ -21665,7 +21808,7 @@
       <c r="Q875" s="6"/>
       <c r="R875" s="6"/>
       <c r="S875" s="6"/>
-      <c r="T875" s="8"/>
+      <c r="T875" s="9"/>
       <c r="U875" s="6"/>
       <c r="V875" s="6"/>
     </row>
@@ -21689,7 +21832,7 @@
       <c r="Q876" s="6"/>
       <c r="R876" s="6"/>
       <c r="S876" s="6"/>
-      <c r="T876" s="8"/>
+      <c r="T876" s="9"/>
       <c r="U876" s="6"/>
       <c r="V876" s="6"/>
     </row>
@@ -21713,7 +21856,7 @@
       <c r="Q877" s="6"/>
       <c r="R877" s="6"/>
       <c r="S877" s="6"/>
-      <c r="T877" s="8"/>
+      <c r="T877" s="9"/>
       <c r="U877" s="6"/>
       <c r="V877" s="6"/>
     </row>
@@ -21737,7 +21880,7 @@
       <c r="Q878" s="6"/>
       <c r="R878" s="6"/>
       <c r="S878" s="6"/>
-      <c r="T878" s="8"/>
+      <c r="T878" s="9"/>
       <c r="U878" s="6"/>
       <c r="V878" s="6"/>
     </row>
@@ -21761,7 +21904,7 @@
       <c r="Q879" s="6"/>
       <c r="R879" s="6"/>
       <c r="S879" s="6"/>
-      <c r="T879" s="8"/>
+      <c r="T879" s="9"/>
       <c r="U879" s="6"/>
       <c r="V879" s="6"/>
     </row>
@@ -21785,7 +21928,7 @@
       <c r="Q880" s="6"/>
       <c r="R880" s="6"/>
       <c r="S880" s="6"/>
-      <c r="T880" s="8"/>
+      <c r="T880" s="9"/>
       <c r="U880" s="6"/>
       <c r="V880" s="6"/>
     </row>
@@ -21809,7 +21952,7 @@
       <c r="Q881" s="6"/>
       <c r="R881" s="6"/>
       <c r="S881" s="6"/>
-      <c r="T881" s="8"/>
+      <c r="T881" s="9"/>
       <c r="U881" s="6"/>
       <c r="V881" s="6"/>
     </row>
@@ -21833,7 +21976,7 @@
       <c r="Q882" s="6"/>
       <c r="R882" s="6"/>
       <c r="S882" s="6"/>
-      <c r="T882" s="8"/>
+      <c r="T882" s="9"/>
       <c r="U882" s="6"/>
       <c r="V882" s="6"/>
     </row>
@@ -21857,7 +22000,7 @@
       <c r="Q883" s="6"/>
       <c r="R883" s="6"/>
       <c r="S883" s="6"/>
-      <c r="T883" s="8"/>
+      <c r="T883" s="9"/>
       <c r="U883" s="6"/>
       <c r="V883" s="6"/>
     </row>
@@ -21881,7 +22024,7 @@
       <c r="Q884" s="6"/>
       <c r="R884" s="6"/>
       <c r="S884" s="6"/>
-      <c r="T884" s="8"/>
+      <c r="T884" s="9"/>
       <c r="U884" s="6"/>
       <c r="V884" s="6"/>
     </row>
@@ -21905,7 +22048,7 @@
       <c r="Q885" s="6"/>
       <c r="R885" s="6"/>
       <c r="S885" s="6"/>
-      <c r="T885" s="8"/>
+      <c r="T885" s="9"/>
       <c r="U885" s="6"/>
       <c r="V885" s="6"/>
     </row>
@@ -21929,7 +22072,7 @@
       <c r="Q886" s="6"/>
       <c r="R886" s="6"/>
       <c r="S886" s="6"/>
-      <c r="T886" s="8"/>
+      <c r="T886" s="9"/>
       <c r="U886" s="6"/>
       <c r="V886" s="6"/>
     </row>
@@ -21953,7 +22096,7 @@
       <c r="Q887" s="6"/>
       <c r="R887" s="6"/>
       <c r="S887" s="6"/>
-      <c r="T887" s="8"/>
+      <c r="T887" s="9"/>
       <c r="U887" s="6"/>
       <c r="V887" s="6"/>
     </row>
@@ -21977,7 +22120,7 @@
       <c r="Q888" s="6"/>
       <c r="R888" s="6"/>
       <c r="S888" s="6"/>
-      <c r="T888" s="8"/>
+      <c r="T888" s="9"/>
       <c r="U888" s="6"/>
       <c r="V888" s="6"/>
     </row>
@@ -22001,7 +22144,7 @@
       <c r="Q889" s="6"/>
       <c r="R889" s="6"/>
       <c r="S889" s="6"/>
-      <c r="T889" s="8"/>
+      <c r="T889" s="9"/>
       <c r="U889" s="6"/>
       <c r="V889" s="6"/>
     </row>
@@ -22025,7 +22168,7 @@
       <c r="Q890" s="6"/>
       <c r="R890" s="6"/>
       <c r="S890" s="6"/>
-      <c r="T890" s="8"/>
+      <c r="T890" s="9"/>
       <c r="U890" s="6"/>
       <c r="V890" s="6"/>
     </row>
@@ -22049,7 +22192,7 @@
       <c r="Q891" s="6"/>
       <c r="R891" s="6"/>
       <c r="S891" s="6"/>
-      <c r="T891" s="8"/>
+      <c r="T891" s="9"/>
       <c r="U891" s="6"/>
       <c r="V891" s="6"/>
     </row>
@@ -22073,7 +22216,7 @@
       <c r="Q892" s="6"/>
       <c r="R892" s="6"/>
       <c r="S892" s="6"/>
-      <c r="T892" s="8"/>
+      <c r="T892" s="9"/>
       <c r="U892" s="6"/>
       <c r="V892" s="6"/>
     </row>
@@ -22097,7 +22240,7 @@
       <c r="Q893" s="6"/>
       <c r="R893" s="6"/>
       <c r="S893" s="6"/>
-      <c r="T893" s="8"/>
+      <c r="T893" s="9"/>
       <c r="U893" s="6"/>
       <c r="V893" s="6"/>
     </row>
@@ -22121,7 +22264,7 @@
       <c r="Q894" s="6"/>
       <c r="R894" s="6"/>
       <c r="S894" s="6"/>
-      <c r="T894" s="8"/>
+      <c r="T894" s="9"/>
       <c r="U894" s="6"/>
       <c r="V894" s="6"/>
     </row>
@@ -22145,7 +22288,7 @@
       <c r="Q895" s="6"/>
       <c r="R895" s="6"/>
       <c r="S895" s="6"/>
-      <c r="T895" s="8"/>
+      <c r="T895" s="9"/>
       <c r="U895" s="6"/>
       <c r="V895" s="6"/>
     </row>
@@ -22169,7 +22312,7 @@
       <c r="Q896" s="6"/>
       <c r="R896" s="6"/>
       <c r="S896" s="6"/>
-      <c r="T896" s="8"/>
+      <c r="T896" s="9"/>
       <c r="U896" s="6"/>
       <c r="V896" s="6"/>
     </row>
@@ -22193,7 +22336,7 @@
       <c r="Q897" s="6"/>
       <c r="R897" s="6"/>
       <c r="S897" s="6"/>
-      <c r="T897" s="8"/>
+      <c r="T897" s="9"/>
       <c r="U897" s="6"/>
       <c r="V897" s="6"/>
     </row>
@@ -22217,7 +22360,7 @@
       <c r="Q898" s="6"/>
       <c r="R898" s="6"/>
       <c r="S898" s="6"/>
-      <c r="T898" s="8"/>
+      <c r="T898" s="9"/>
       <c r="U898" s="6"/>
       <c r="V898" s="6"/>
     </row>
@@ -22241,7 +22384,7 @@
       <c r="Q899" s="6"/>
       <c r="R899" s="6"/>
       <c r="S899" s="6"/>
-      <c r="T899" s="8"/>
+      <c r="T899" s="9"/>
       <c r="U899" s="6"/>
       <c r="V899" s="6"/>
     </row>
@@ -22265,7 +22408,7 @@
       <c r="Q900" s="6"/>
       <c r="R900" s="6"/>
       <c r="S900" s="6"/>
-      <c r="T900" s="8"/>
+      <c r="T900" s="9"/>
       <c r="U900" s="6"/>
       <c r="V900" s="6"/>
     </row>
@@ -22289,7 +22432,7 @@
       <c r="Q901" s="6"/>
       <c r="R901" s="6"/>
       <c r="S901" s="6"/>
-      <c r="T901" s="8"/>
+      <c r="T901" s="9"/>
       <c r="U901" s="6"/>
       <c r="V901" s="6"/>
     </row>
@@ -22313,7 +22456,7 @@
       <c r="Q902" s="6"/>
       <c r="R902" s="6"/>
       <c r="S902" s="6"/>
-      <c r="T902" s="8"/>
+      <c r="T902" s="9"/>
       <c r="U902" s="6"/>
       <c r="V902" s="6"/>
     </row>
@@ -22337,7 +22480,7 @@
       <c r="Q903" s="6"/>
       <c r="R903" s="6"/>
       <c r="S903" s="6"/>
-      <c r="T903" s="8"/>
+      <c r="T903" s="9"/>
       <c r="U903" s="6"/>
       <c r="V903" s="6"/>
     </row>
@@ -22361,7 +22504,7 @@
       <c r="Q904" s="6"/>
       <c r="R904" s="6"/>
       <c r="S904" s="6"/>
-      <c r="T904" s="8"/>
+      <c r="T904" s="9"/>
       <c r="U904" s="6"/>
       <c r="V904" s="6"/>
     </row>
@@ -22385,7 +22528,7 @@
       <c r="Q905" s="6"/>
       <c r="R905" s="6"/>
       <c r="S905" s="6"/>
-      <c r="T905" s="8"/>
+      <c r="T905" s="9"/>
       <c r="U905" s="6"/>
       <c r="V905" s="6"/>
     </row>
@@ -22409,7 +22552,7 @@
       <c r="Q906" s="6"/>
       <c r="R906" s="6"/>
       <c r="S906" s="6"/>
-      <c r="T906" s="8"/>
+      <c r="T906" s="9"/>
       <c r="U906" s="6"/>
       <c r="V906" s="6"/>
     </row>
@@ -22433,7 +22576,7 @@
       <c r="Q907" s="6"/>
       <c r="R907" s="6"/>
       <c r="S907" s="6"/>
-      <c r="T907" s="8"/>
+      <c r="T907" s="9"/>
       <c r="U907" s="6"/>
       <c r="V907" s="6"/>
     </row>
@@ -22457,7 +22600,7 @@
       <c r="Q908" s="6"/>
       <c r="R908" s="6"/>
       <c r="S908" s="6"/>
-      <c r="T908" s="8"/>
+      <c r="T908" s="9"/>
       <c r="U908" s="6"/>
       <c r="V908" s="6"/>
     </row>
@@ -22481,7 +22624,7 @@
       <c r="Q909" s="6"/>
       <c r="R909" s="6"/>
       <c r="S909" s="6"/>
-      <c r="T909" s="8"/>
+      <c r="T909" s="9"/>
       <c r="U909" s="6"/>
       <c r="V909" s="6"/>
     </row>
@@ -22505,7 +22648,7 @@
       <c r="Q910" s="6"/>
       <c r="R910" s="6"/>
       <c r="S910" s="6"/>
-      <c r="T910" s="8"/>
+      <c r="T910" s="9"/>
       <c r="U910" s="6"/>
       <c r="V910" s="6"/>
     </row>
@@ -22529,7 +22672,7 @@
       <c r="Q911" s="6"/>
       <c r="R911" s="6"/>
       <c r="S911" s="6"/>
-      <c r="T911" s="8"/>
+      <c r="T911" s="9"/>
       <c r="U911" s="6"/>
       <c r="V911" s="6"/>
     </row>
@@ -22553,7 +22696,7 @@
       <c r="Q912" s="6"/>
       <c r="R912" s="6"/>
       <c r="S912" s="6"/>
-      <c r="T912" s="8"/>
+      <c r="T912" s="9"/>
       <c r="U912" s="6"/>
       <c r="V912" s="6"/>
     </row>
@@ -22577,7 +22720,7 @@
       <c r="Q913" s="6"/>
       <c r="R913" s="6"/>
       <c r="S913" s="6"/>
-      <c r="T913" s="8"/>
+      <c r="T913" s="9"/>
       <c r="U913" s="6"/>
       <c r="V913" s="6"/>
     </row>
@@ -22601,7 +22744,7 @@
       <c r="Q914" s="6"/>
       <c r="R914" s="6"/>
       <c r="S914" s="6"/>
-      <c r="T914" s="8"/>
+      <c r="T914" s="9"/>
       <c r="U914" s="6"/>
       <c r="V914" s="6"/>
     </row>
@@ -22625,7 +22768,7 @@
       <c r="Q915" s="6"/>
       <c r="R915" s="6"/>
       <c r="S915" s="6"/>
-      <c r="T915" s="8"/>
+      <c r="T915" s="9"/>
       <c r="U915" s="6"/>
       <c r="V915" s="6"/>
     </row>
@@ -22649,7 +22792,7 @@
       <c r="Q916" s="6"/>
       <c r="R916" s="6"/>
       <c r="S916" s="6"/>
-      <c r="T916" s="8"/>
+      <c r="T916" s="9"/>
       <c r="U916" s="6"/>
       <c r="V916" s="6"/>
     </row>
@@ -22673,7 +22816,7 @@
       <c r="Q917" s="6"/>
       <c r="R917" s="6"/>
       <c r="S917" s="6"/>
-      <c r="T917" s="8"/>
+      <c r="T917" s="9"/>
       <c r="U917" s="6"/>
       <c r="V917" s="6"/>
     </row>
@@ -22697,7 +22840,7 @@
       <c r="Q918" s="6"/>
       <c r="R918" s="6"/>
       <c r="S918" s="6"/>
-      <c r="T918" s="8"/>
+      <c r="T918" s="9"/>
       <c r="U918" s="6"/>
       <c r="V918" s="6"/>
     </row>
@@ -22721,7 +22864,7 @@
       <c r="Q919" s="6"/>
       <c r="R919" s="6"/>
       <c r="S919" s="6"/>
-      <c r="T919" s="8"/>
+      <c r="T919" s="9"/>
       <c r="U919" s="6"/>
       <c r="V919" s="6"/>
     </row>
@@ -22745,7 +22888,7 @@
       <c r="Q920" s="6"/>
       <c r="R920" s="6"/>
       <c r="S920" s="6"/>
-      <c r="T920" s="8"/>
+      <c r="T920" s="9"/>
       <c r="U920" s="6"/>
       <c r="V920" s="6"/>
     </row>
@@ -22769,7 +22912,7 @@
       <c r="Q921" s="6"/>
       <c r="R921" s="6"/>
       <c r="S921" s="6"/>
-      <c r="T921" s="8"/>
+      <c r="T921" s="9"/>
       <c r="U921" s="6"/>
       <c r="V921" s="6"/>
     </row>
@@ -22793,7 +22936,7 @@
       <c r="Q922" s="6"/>
       <c r="R922" s="6"/>
       <c r="S922" s="6"/>
-      <c r="T922" s="8"/>
+      <c r="T922" s="9"/>
       <c r="U922" s="6"/>
       <c r="V922" s="6"/>
     </row>
@@ -22817,7 +22960,7 @@
       <c r="Q923" s="6"/>
       <c r="R923" s="6"/>
       <c r="S923" s="6"/>
-      <c r="T923" s="8"/>
+      <c r="T923" s="9"/>
       <c r="U923" s="6"/>
       <c r="V923" s="6"/>
     </row>
@@ -22841,7 +22984,7 @@
       <c r="Q924" s="6"/>
       <c r="R924" s="6"/>
       <c r="S924" s="6"/>
-      <c r="T924" s="8"/>
+      <c r="T924" s="9"/>
       <c r="U924" s="6"/>
       <c r="V924" s="6"/>
     </row>
@@ -22865,7 +23008,7 @@
       <c r="Q925" s="6"/>
       <c r="R925" s="6"/>
       <c r="S925" s="6"/>
-      <c r="T925" s="8"/>
+      <c r="T925" s="9"/>
       <c r="U925" s="6"/>
       <c r="V925" s="6"/>
     </row>
@@ -22889,7 +23032,7 @@
       <c r="Q926" s="6"/>
       <c r="R926" s="6"/>
       <c r="S926" s="6"/>
-      <c r="T926" s="8"/>
+      <c r="T926" s="9"/>
       <c r="U926" s="6"/>
       <c r="V926" s="6"/>
     </row>
@@ -22913,7 +23056,7 @@
       <c r="Q927" s="6"/>
       <c r="R927" s="6"/>
       <c r="S927" s="6"/>
-      <c r="T927" s="8"/>
+      <c r="T927" s="9"/>
       <c r="U927" s="6"/>
       <c r="V927" s="6"/>
     </row>
@@ -22937,7 +23080,7 @@
       <c r="Q928" s="6"/>
       <c r="R928" s="6"/>
       <c r="S928" s="6"/>
-      <c r="T928" s="8"/>
+      <c r="T928" s="9"/>
       <c r="U928" s="6"/>
       <c r="V928" s="6"/>
     </row>
@@ -22961,7 +23104,7 @@
       <c r="Q929" s="6"/>
       <c r="R929" s="6"/>
       <c r="S929" s="6"/>
-      <c r="T929" s="8"/>
+      <c r="T929" s="9"/>
       <c r="U929" s="6"/>
       <c r="V929" s="6"/>
     </row>
@@ -22985,7 +23128,7 @@
       <c r="Q930" s="6"/>
       <c r="R930" s="6"/>
       <c r="S930" s="6"/>
-      <c r="T930" s="8"/>
+      <c r="T930" s="9"/>
       <c r="U930" s="6"/>
       <c r="V930" s="6"/>
     </row>
@@ -23009,7 +23152,7 @@
       <c r="Q931" s="6"/>
       <c r="R931" s="6"/>
       <c r="S931" s="6"/>
-      <c r="T931" s="8"/>
+      <c r="T931" s="9"/>
       <c r="U931" s="6"/>
       <c r="V931" s="6"/>
     </row>
@@ -23033,7 +23176,7 @@
       <c r="Q932" s="6"/>
       <c r="R932" s="6"/>
       <c r="S932" s="6"/>
-      <c r="T932" s="8"/>
+      <c r="T932" s="9"/>
       <c r="U932" s="6"/>
       <c r="V932" s="6"/>
     </row>
@@ -23057,7 +23200,7 @@
       <c r="Q933" s="6"/>
       <c r="R933" s="6"/>
       <c r="S933" s="6"/>
-      <c r="T933" s="8"/>
+      <c r="T933" s="9"/>
       <c r="U933" s="6"/>
       <c r="V933" s="6"/>
     </row>
@@ -23081,7 +23224,7 @@
       <c r="Q934" s="6"/>
       <c r="R934" s="6"/>
       <c r="S934" s="6"/>
-      <c r="T934" s="8"/>
+      <c r="T934" s="9"/>
       <c r="U934" s="6"/>
       <c r="V934" s="6"/>
     </row>
@@ -23105,7 +23248,7 @@
       <c r="Q935" s="6"/>
       <c r="R935" s="6"/>
       <c r="S935" s="6"/>
-      <c r="T935" s="8"/>
+      <c r="T935" s="9"/>
       <c r="U935" s="6"/>
       <c r="V935" s="6"/>
     </row>
@@ -23129,7 +23272,7 @@
       <c r="Q936" s="6"/>
       <c r="R936" s="6"/>
       <c r="S936" s="6"/>
-      <c r="T936" s="8"/>
+      <c r="T936" s="9"/>
       <c r="U936" s="6"/>
       <c r="V936" s="6"/>
     </row>
@@ -23153,7 +23296,7 @@
       <c r="Q937" s="6"/>
       <c r="R937" s="6"/>
       <c r="S937" s="6"/>
-      <c r="T937" s="8"/>
+      <c r="T937" s="9"/>
       <c r="U937" s="6"/>
       <c r="V937" s="6"/>
     </row>
@@ -23177,7 +23320,7 @@
       <c r="Q938" s="6"/>
       <c r="R938" s="6"/>
       <c r="S938" s="6"/>
-      <c r="T938" s="8"/>
+      <c r="T938" s="9"/>
       <c r="U938" s="6"/>
       <c r="V938" s="6"/>
     </row>
@@ -23201,7 +23344,7 @@
       <c r="Q939" s="6"/>
       <c r="R939" s="6"/>
       <c r="S939" s="6"/>
-      <c r="T939" s="8"/>
+      <c r="T939" s="9"/>
       <c r="U939" s="6"/>
       <c r="V939" s="6"/>
     </row>
@@ -23225,7 +23368,7 @@
       <c r="Q940" s="6"/>
       <c r="R940" s="6"/>
       <c r="S940" s="6"/>
-      <c r="T940" s="8"/>
+      <c r="T940" s="9"/>
       <c r="U940" s="6"/>
       <c r="V940" s="6"/>
     </row>
@@ -23249,7 +23392,7 @@
       <c r="Q941" s="6"/>
       <c r="R941" s="6"/>
       <c r="S941" s="6"/>
-      <c r="T941" s="8"/>
+      <c r="T941" s="9"/>
       <c r="U941" s="6"/>
       <c r="V941" s="6"/>
     </row>
@@ -23273,7 +23416,7 @@
       <c r="Q942" s="6"/>
       <c r="R942" s="6"/>
       <c r="S942" s="6"/>
-      <c r="T942" s="8"/>
+      <c r="T942" s="9"/>
       <c r="U942" s="6"/>
       <c r="V942" s="6"/>
     </row>
@@ -23297,7 +23440,7 @@
       <c r="Q943" s="6"/>
       <c r="R943" s="6"/>
       <c r="S943" s="6"/>
-      <c r="T943" s="8"/>
+      <c r="T943" s="9"/>
       <c r="U943" s="6"/>
       <c r="V943" s="6"/>
     </row>
@@ -23321,7 +23464,7 @@
       <c r="Q944" s="6"/>
       <c r="R944" s="6"/>
       <c r="S944" s="6"/>
-      <c r="T944" s="8"/>
+      <c r="T944" s="9"/>
       <c r="U944" s="6"/>
       <c r="V944" s="6"/>
     </row>
@@ -23345,7 +23488,7 @@
       <c r="Q945" s="6"/>
       <c r="R945" s="6"/>
       <c r="S945" s="6"/>
-      <c r="T945" s="8"/>
+      <c r="T945" s="9"/>
       <c r="U945" s="6"/>
       <c r="V945" s="6"/>
     </row>
@@ -23369,7 +23512,7 @@
       <c r="Q946" s="6"/>
       <c r="R946" s="6"/>
       <c r="S946" s="6"/>
-      <c r="T946" s="8"/>
+      <c r="T946" s="9"/>
       <c r="U946" s="6"/>
       <c r="V946" s="6"/>
     </row>
@@ -23393,7 +23536,7 @@
       <c r="Q947" s="6"/>
       <c r="R947" s="6"/>
       <c r="S947" s="6"/>
-      <c r="T947" s="8"/>
+      <c r="T947" s="9"/>
       <c r="U947" s="6"/>
       <c r="V947" s="6"/>
     </row>
@@ -23417,7 +23560,7 @@
       <c r="Q948" s="6"/>
       <c r="R948" s="6"/>
       <c r="S948" s="6"/>
-      <c r="T948" s="8"/>
+      <c r="T948" s="9"/>
       <c r="U948" s="6"/>
       <c r="V948" s="6"/>
     </row>
@@ -23441,7 +23584,7 @@
       <c r="Q949" s="6"/>
       <c r="R949" s="6"/>
       <c r="S949" s="6"/>
-      <c r="T949" s="8"/>
+      <c r="T949" s="9"/>
       <c r="U949" s="6"/>
       <c r="V949" s="6"/>
     </row>
@@ -23465,7 +23608,7 @@
       <c r="Q950" s="6"/>
       <c r="R950" s="6"/>
       <c r="S950" s="6"/>
-      <c r="T950" s="8"/>
+      <c r="T950" s="9"/>
       <c r="U950" s="6"/>
       <c r="V950" s="6"/>
     </row>
@@ -23489,7 +23632,7 @@
       <c r="Q951" s="6"/>
       <c r="R951" s="6"/>
       <c r="S951" s="6"/>
-      <c r="T951" s="8"/>
+      <c r="T951" s="9"/>
       <c r="U951" s="6"/>
       <c r="V951" s="6"/>
     </row>
@@ -23513,7 +23656,7 @@
       <c r="Q952" s="6"/>
       <c r="R952" s="6"/>
       <c r="S952" s="6"/>
-      <c r="T952" s="8"/>
+      <c r="T952" s="9"/>
       <c r="U952" s="6"/>
       <c r="V952" s="6"/>
     </row>
@@ -23537,7 +23680,7 @@
       <c r="Q953" s="6"/>
       <c r="R953" s="6"/>
       <c r="S953" s="6"/>
-      <c r="T953" s="8"/>
+      <c r="T953" s="9"/>
       <c r="U953" s="6"/>
       <c r="V953" s="6"/>
     </row>
@@ -23561,7 +23704,7 @@
       <c r="Q954" s="6"/>
       <c r="R954" s="6"/>
       <c r="S954" s="6"/>
-      <c r="T954" s="8"/>
+      <c r="T954" s="9"/>
       <c r="U954" s="6"/>
       <c r="V954" s="6"/>
     </row>
@@ -23585,7 +23728,7 @@
       <c r="Q955" s="6"/>
       <c r="R955" s="6"/>
       <c r="S955" s="6"/>
-      <c r="T955" s="8"/>
+      <c r="T955" s="9"/>
       <c r="U955" s="6"/>
       <c r="V955" s="6"/>
     </row>
@@ -23609,7 +23752,7 @@
       <c r="Q956" s="6"/>
       <c r="R956" s="6"/>
       <c r="S956" s="6"/>
-      <c r="T956" s="8"/>
+      <c r="T956" s="9"/>
       <c r="U956" s="6"/>
       <c r="V956" s="6"/>
     </row>
@@ -23633,7 +23776,7 @@
       <c r="Q957" s="6"/>
       <c r="R957" s="6"/>
       <c r="S957" s="6"/>
-      <c r="T957" s="8"/>
+      <c r="T957" s="9"/>
       <c r="U957" s="6"/>
       <c r="V957" s="6"/>
     </row>
@@ -23657,7 +23800,7 @@
       <c r="Q958" s="6"/>
       <c r="R958" s="6"/>
       <c r="S958" s="6"/>
-      <c r="T958" s="8"/>
+      <c r="T958" s="9"/>
       <c r="U958" s="6"/>
       <c r="V958" s="6"/>
     </row>
@@ -23681,7 +23824,7 @@
       <c r="Q959" s="6"/>
       <c r="R959" s="6"/>
       <c r="S959" s="6"/>
-      <c r="T959" s="8"/>
+      <c r="T959" s="9"/>
       <c r="U959" s="6"/>
       <c r="V959" s="6"/>
     </row>
@@ -23705,7 +23848,7 @@
       <c r="Q960" s="6"/>
       <c r="R960" s="6"/>
       <c r="S960" s="6"/>
-      <c r="T960" s="8"/>
+      <c r="T960" s="9"/>
       <c r="U960" s="6"/>
       <c r="V960" s="6"/>
     </row>
@@ -23729,7 +23872,7 @@
       <c r="Q961" s="6"/>
       <c r="R961" s="6"/>
       <c r="S961" s="6"/>
-      <c r="T961" s="8"/>
+      <c r="T961" s="9"/>
       <c r="U961" s="6"/>
       <c r="V961" s="6"/>
     </row>
@@ -23753,7 +23896,7 @@
       <c r="Q962" s="6"/>
       <c r="R962" s="6"/>
       <c r="S962" s="6"/>
-      <c r="T962" s="8"/>
+      <c r="T962" s="9"/>
       <c r="U962" s="6"/>
       <c r="V962" s="6"/>
     </row>
@@ -23777,7 +23920,7 @@
       <c r="Q963" s="6"/>
       <c r="R963" s="6"/>
       <c r="S963" s="6"/>
-      <c r="T963" s="8"/>
+      <c r="T963" s="9"/>
       <c r="U963" s="6"/>
       <c r="V963" s="6"/>
     </row>
@@ -23801,7 +23944,7 @@
       <c r="Q964" s="6"/>
       <c r="R964" s="6"/>
       <c r="S964" s="6"/>
-      <c r="T964" s="8"/>
+      <c r="T964" s="9"/>
       <c r="U964" s="6"/>
       <c r="V964" s="6"/>
     </row>
@@ -23825,7 +23968,7 @@
       <c r="Q965" s="6"/>
       <c r="R965" s="6"/>
       <c r="S965" s="6"/>
-      <c r="T965" s="8"/>
+      <c r="T965" s="9"/>
       <c r="U965" s="6"/>
       <c r="V965" s="6"/>
     </row>
@@ -23849,7 +23992,7 @@
       <c r="Q966" s="6"/>
       <c r="R966" s="6"/>
       <c r="S966" s="6"/>
-      <c r="T966" s="8"/>
+      <c r="T966" s="9"/>
       <c r="U966" s="6"/>
       <c r="V966" s="6"/>
     </row>
@@ -23873,7 +24016,7 @@
       <c r="Q967" s="6"/>
       <c r="R967" s="6"/>
       <c r="S967" s="6"/>
-      <c r="T967" s="8"/>
+      <c r="T967" s="9"/>
       <c r="U967" s="6"/>
       <c r="V967" s="6"/>
     </row>
@@ -23897,7 +24040,7 @@
       <c r="Q968" s="6"/>
       <c r="R968" s="6"/>
       <c r="S968" s="6"/>
-      <c r="T968" s="8"/>
+      <c r="T968" s="9"/>
       <c r="U968" s="6"/>
       <c r="V968" s="6"/>
     </row>
@@ -23921,7 +24064,7 @@
       <c r="Q969" s="6"/>
       <c r="R969" s="6"/>
       <c r="S969" s="6"/>
-      <c r="T969" s="8"/>
+      <c r="T969" s="9"/>
       <c r="U969" s="6"/>
       <c r="V969" s="6"/>
     </row>
@@ -23945,7 +24088,7 @@
       <c r="Q970" s="6"/>
       <c r="R970" s="6"/>
       <c r="S970" s="6"/>
-      <c r="T970" s="8"/>
+      <c r="T970" s="9"/>
       <c r="U970" s="6"/>
       <c r="V970" s="6"/>
     </row>
@@ -23969,7 +24112,7 @@
       <c r="Q971" s="6"/>
       <c r="R971" s="6"/>
       <c r="S971" s="6"/>
-      <c r="T971" s="8"/>
+      <c r="T971" s="9"/>
       <c r="U971" s="6"/>
       <c r="V971" s="6"/>
     </row>
@@ -23993,7 +24136,7 @@
       <c r="Q972" s="6"/>
       <c r="R972" s="6"/>
       <c r="S972" s="6"/>
-      <c r="T972" s="8"/>
+      <c r="T972" s="9"/>
       <c r="U972" s="6"/>
       <c r="V972" s="6"/>
     </row>
@@ -24017,7 +24160,7 @@
       <c r="Q973" s="6"/>
       <c r="R973" s="6"/>
       <c r="S973" s="6"/>
-      <c r="T973" s="8"/>
+      <c r="T973" s="9"/>
       <c r="U973" s="6"/>
       <c r="V973" s="6"/>
     </row>
@@ -24041,7 +24184,7 @@
       <c r="Q974" s="6"/>
       <c r="R974" s="6"/>
       <c r="S974" s="6"/>
-      <c r="T974" s="8"/>
+      <c r="T974" s="9"/>
       <c r="U974" s="6"/>
       <c r="V974" s="6"/>
     </row>
@@ -24065,7 +24208,7 @@
       <c r="Q975" s="6"/>
       <c r="R975" s="6"/>
       <c r="S975" s="6"/>
-      <c r="T975" s="8"/>
+      <c r="T975" s="9"/>
       <c r="U975" s="6"/>
       <c r="V975" s="6"/>
     </row>
@@ -24089,7 +24232,7 @@
       <c r="Q976" s="6"/>
       <c r="R976" s="6"/>
       <c r="S976" s="6"/>
-      <c r="T976" s="8"/>
+      <c r="T976" s="9"/>
       <c r="U976" s="6"/>
       <c r="V976" s="6"/>
     </row>
@@ -24113,7 +24256,7 @@
       <c r="Q977" s="6"/>
       <c r="R977" s="6"/>
       <c r="S977" s="6"/>
-      <c r="T977" s="8"/>
+      <c r="T977" s="9"/>
       <c r="U977" s="6"/>
       <c r="V977" s="6"/>
     </row>
@@ -24137,7 +24280,7 @@
       <c r="Q978" s="6"/>
       <c r="R978" s="6"/>
       <c r="S978" s="6"/>
-      <c r="T978" s="8"/>
+      <c r="T978" s="9"/>
       <c r="U978" s="6"/>
       <c r="V978" s="6"/>
     </row>
@@ -24161,7 +24304,7 @@
       <c r="Q979" s="6"/>
       <c r="R979" s="6"/>
       <c r="S979" s="6"/>
-      <c r="T979" s="8"/>
+      <c r="T979" s="9"/>
       <c r="U979" s="6"/>
       <c r="V979" s="6"/>
     </row>
@@ -24185,7 +24328,7 @@
       <c r="Q980" s="6"/>
       <c r="R980" s="6"/>
       <c r="S980" s="6"/>
-      <c r="T980" s="8"/>
+      <c r="T980" s="9"/>
       <c r="U980" s="6"/>
       <c r="V980" s="6"/>
     </row>
@@ -24209,7 +24352,7 @@
       <c r="Q981" s="6"/>
       <c r="R981" s="6"/>
       <c r="S981" s="6"/>
-      <c r="T981" s="8"/>
+      <c r="T981" s="9"/>
       <c r="U981" s="6"/>
       <c r="V981" s="6"/>
     </row>
@@ -24233,7 +24376,7 @@
       <c r="Q982" s="6"/>
       <c r="R982" s="6"/>
       <c r="S982" s="6"/>
-      <c r="T982" s="8"/>
+      <c r="T982" s="9"/>
       <c r="U982" s="6"/>
       <c r="V982" s="6"/>
     </row>
@@ -24257,7 +24400,7 @@
       <c r="Q983" s="6"/>
       <c r="R983" s="6"/>
       <c r="S983" s="6"/>
-      <c r="T983" s="8"/>
+      <c r="T983" s="9"/>
       <c r="U983" s="6"/>
       <c r="V983" s="6"/>
     </row>
@@ -24281,7 +24424,7 @@
       <c r="Q984" s="6"/>
       <c r="R984" s="6"/>
       <c r="S984" s="6"/>
-      <c r="T984" s="8"/>
+      <c r="T984" s="9"/>
       <c r="U984" s="6"/>
       <c r="V984" s="6"/>
     </row>
@@ -24305,7 +24448,7 @@
       <c r="Q985" s="6"/>
       <c r="R985" s="6"/>
       <c r="S985" s="6"/>
-      <c r="T985" s="8"/>
+      <c r="T985" s="9"/>
       <c r="U985" s="6"/>
       <c r="V985" s="6"/>
     </row>
@@ -24329,7 +24472,7 @@
       <c r="Q986" s="6"/>
       <c r="R986" s="6"/>
       <c r="S986" s="6"/>
-      <c r="T986" s="8"/>
+      <c r="T986" s="9"/>
       <c r="U986" s="6"/>
       <c r="V986" s="6"/>
     </row>
@@ -24353,7 +24496,7 @@
       <c r="Q987" s="6"/>
       <c r="R987" s="6"/>
       <c r="S987" s="6"/>
-      <c r="T987" s="8"/>
+      <c r="T987" s="9"/>
       <c r="U987" s="6"/>
       <c r="V987" s="6"/>
     </row>
@@ -24377,7 +24520,7 @@
       <c r="Q988" s="6"/>
       <c r="R988" s="6"/>
       <c r="S988" s="6"/>
-      <c r="T988" s="8"/>
+      <c r="T988" s="9"/>
       <c r="U988" s="6"/>
       <c r="V988" s="6"/>
     </row>
@@ -24401,7 +24544,7 @@
       <c r="Q989" s="6"/>
       <c r="R989" s="6"/>
       <c r="S989" s="6"/>
-      <c r="T989" s="8"/>
+      <c r="T989" s="9"/>
       <c r="U989" s="6"/>
       <c r="V989" s="6"/>
     </row>
@@ -24425,7 +24568,7 @@
       <c r="Q990" s="6"/>
       <c r="R990" s="6"/>
       <c r="S990" s="6"/>
-      <c r="T990" s="8"/>
+      <c r="T990" s="9"/>
       <c r="U990" s="6"/>
       <c r="V990" s="6"/>
     </row>
@@ -24449,7 +24592,7 @@
       <c r="Q991" s="6"/>
       <c r="R991" s="6"/>
       <c r="S991" s="6"/>
-      <c r="T991" s="8"/>
+      <c r="T991" s="9"/>
       <c r="U991" s="6"/>
       <c r="V991" s="6"/>
     </row>
@@ -24473,7 +24616,7 @@
       <c r="Q992" s="6"/>
       <c r="R992" s="6"/>
       <c r="S992" s="6"/>
-      <c r="T992" s="8"/>
+      <c r="T992" s="9"/>
       <c r="U992" s="6"/>
       <c r="V992" s="6"/>
     </row>
@@ -24497,7 +24640,7 @@
       <c r="Q993" s="6"/>
       <c r="R993" s="6"/>
       <c r="S993" s="6"/>
-      <c r="T993" s="8"/>
+      <c r="T993" s="9"/>
       <c r="U993" s="6"/>
       <c r="V993" s="6"/>
     </row>
@@ -24521,7 +24664,7 @@
       <c r="Q994" s="6"/>
       <c r="R994" s="6"/>
       <c r="S994" s="6"/>
-      <c r="T994" s="8"/>
+      <c r="T994" s="9"/>
       <c r="U994" s="6"/>
       <c r="V994" s="6"/>
     </row>
@@ -24545,7 +24688,7 @@
       <c r="Q995" s="6"/>
       <c r="R995" s="6"/>
       <c r="S995" s="6"/>
-      <c r="T995" s="8"/>
+      <c r="T995" s="9"/>
       <c r="U995" s="6"/>
       <c r="V995" s="6"/>
     </row>
@@ -24569,7 +24712,7 @@
       <c r="Q996" s="6"/>
       <c r="R996" s="6"/>
       <c r="S996" s="6"/>
-      <c r="T996" s="8"/>
+      <c r="T996" s="9"/>
       <c r="U996" s="6"/>
       <c r="V996" s="6"/>
     </row>
@@ -24593,7 +24736,7 @@
       <c r="Q997" s="6"/>
       <c r="R997" s="6"/>
       <c r="S997" s="6"/>
-      <c r="T997" s="8"/>
+      <c r="T997" s="9"/>
       <c r="U997" s="6"/>
       <c r="V997" s="6"/>
     </row>
@@ -24617,7 +24760,7 @@
       <c r="Q998" s="6"/>
       <c r="R998" s="6"/>
       <c r="S998" s="6"/>
-      <c r="T998" s="8"/>
+      <c r="T998" s="9"/>
       <c r="U998" s="6"/>
       <c r="V998" s="6"/>
     </row>
@@ -24641,7 +24784,7 @@
       <c r="Q999" s="6"/>
       <c r="R999" s="6"/>
       <c r="S999" s="6"/>
-      <c r="T999" s="8"/>
+      <c r="T999" s="9"/>
       <c r="U999" s="6"/>
       <c r="V999" s="6"/>
     </row>
@@ -24665,7 +24808,7 @@
       <c r="Q1000" s="6"/>
       <c r="R1000" s="6"/>
       <c r="S1000" s="6"/>
-      <c r="T1000" s="8"/>
+      <c r="T1000" s="9"/>
       <c r="U1000" s="6"/>
       <c r="V1000" s="6"/>
     </row>

--- a/APIs/ExternalAPIs/MiunDrive/Miun_Data/pen_and_paper.xlsx
+++ b/APIs/ExternalAPIs/MiunDrive/Miun_Data/pen_and_paper.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgTAEIk2e+sc1HVOEre/PShQP7fag=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Gnv01EWXI9y1VNJ8LctId3kz+eOO+Y5WfDDwZo60xAU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>תאור מחזור</t>
   </si>
@@ -117,7 +117,7 @@
     <t>היי</t>
   </si>
   <si>
-    <t>בוגר</t>
+    <t>נתנזון</t>
   </si>
 </sst>
 </file>
@@ -221,10 +221,10 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -449,7 +449,7 @@
     <col customWidth="1" min="4" max="4" width="15.75"/>
     <col customWidth="1" min="5" max="5" width="10.75"/>
     <col customWidth="1" min="6" max="6" width="5.75"/>
-    <col customWidth="1" min="7" max="7" width="4.75"/>
+    <col customWidth="1" min="7" max="7" width="0.38"/>
     <col customWidth="1" min="8" max="9" width="7.75"/>
     <col customWidth="1" min="10" max="10" width="5.75"/>
     <col customWidth="1" min="11" max="11" width="7.75"/>
@@ -585,15 +585,15 @@
       <c r="O2" s="6">
         <v>4.0</v>
       </c>
-      <c r="P2" s="6">
-        <v>30.0</v>
+      <c r="P2" s="8">
+        <v>25.0</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="8"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="6">
         <v>2.456</v>
       </c>
@@ -614,66 +614,62 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9">
-        <v>2.13993892E8</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.0</v>
+      <c r="B3" s="8">
+        <v>1.0</v>
       </c>
-      <c r="D3" s="9">
-        <v>0.0</v>
+      <c r="C3" s="8">
+        <v>1.0</v>
       </c>
-      <c r="E3" s="9">
-        <v>0.0</v>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="F3" s="9">
-        <v>0.0</v>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="G3" s="9">
-        <v>0.0</v>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
       </c>
-      <c r="H3" s="9">
-        <v>0.0</v>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="I3" s="9">
-        <v>0.0</v>
+      <c r="H3" s="6">
+        <v>3.0</v>
       </c>
-      <c r="J3" s="9">
-        <v>0.0</v>
+      <c r="I3" s="8">
+        <v>21.0</v>
       </c>
-      <c r="K3" s="9">
-        <v>0.0</v>
+      <c r="J3" s="6">
+        <v>2.8</v>
       </c>
-      <c r="L3" s="9">
-        <v>0.0</v>
+      <c r="K3" s="8">
+        <v>18.0</v>
       </c>
-      <c r="M3" s="9">
-        <v>0.0</v>
+      <c r="L3" s="8">
+        <v>3.0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0.0</v>
+      <c r="M3" s="8">
+        <v>21.0</v>
       </c>
-      <c r="O3" s="9">
-        <v>0.0</v>
+      <c r="N3" s="8">
+        <v>3.0</v>
       </c>
-      <c r="P3" s="9">
-        <v>0.0</v>
+      <c r="O3" s="8">
+        <v>3.0</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0.0</v>
+      <c r="P3" s="6">
+        <v>30.0</v>
       </c>
-      <c r="R3" s="9">
-        <v>0.0</v>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="S3" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0.0</v>
+      <c r="T3" s="9"/>
+      <c r="U3" s="6">
+        <v>2.456</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>30</v>
@@ -682,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>30</v>
@@ -692,37 +688,71 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9">
-        <v>3.0</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="B4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>24.0</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="6">
+        <v>2.456</v>
+      </c>
       <c r="V4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>30</v>
+      <c r="W4" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>30</v>
+      <c r="X4" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>30</v>
@@ -732,37 +762,71 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9">
-        <v>4.0</v>
+      <c r="A5" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="B5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>30.0</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="6">
+        <v>2.456</v>
+      </c>
       <c r="V5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>30</v>
+      <c r="W5" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>30</v>
+      <c r="X5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y5" s="5" t="s">
         <v>30</v>
@@ -772,37 +836,71 @@
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2.13630361E8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="L6" s="8">
         <v>5.0</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="M6" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>25.0</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="6">
+        <v>2.456</v>
+      </c>
       <c r="V6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>30</v>
+      <c r="W6" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>30</v>
+      <c r="X6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Y6" s="5" t="s">
         <v>30</v>
@@ -812,30 +910,78 @@
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9">
-        <v>6.0</v>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="B7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K7" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4.1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>28.0</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="6">
+        <v>2.456</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="6"/>
@@ -857,7 +1003,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="8"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
@@ -881,7 +1027,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="8"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
@@ -905,7 +1051,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="8"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
@@ -929,7 +1075,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
@@ -953,7 +1099,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
@@ -977,7 +1123,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
@@ -1001,7 +1147,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
@@ -1025,7 +1171,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="8"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
@@ -1049,7 +1195,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
@@ -1073,7 +1219,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="8"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
@@ -1097,7 +1243,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
@@ -1121,7 +1267,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
@@ -1145,7 +1291,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
@@ -1169,7 +1315,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="8"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
@@ -1193,7 +1339,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="9"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
@@ -1217,7 +1363,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="8"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
@@ -1241,7 +1387,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="8"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
@@ -1265,7 +1411,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="8"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
@@ -1289,7 +1435,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="8"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
@@ -1313,7 +1459,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="8"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
@@ -1337,7 +1483,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="8"/>
+      <c r="T28" s="9"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
@@ -1361,7 +1507,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="8"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
@@ -1385,7 +1531,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="8"/>
+      <c r="T30" s="9"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
@@ -1409,7 +1555,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="8"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
@@ -1433,7 +1579,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="8"/>
+      <c r="T32" s="9"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
@@ -1457,7 +1603,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="8"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
@@ -1481,7 +1627,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="8"/>
+      <c r="T34" s="9"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
@@ -1505,7 +1651,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="8"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
@@ -1529,7 +1675,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="8"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
@@ -1553,7 +1699,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="8"/>
+      <c r="T37" s="9"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
@@ -1577,7 +1723,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="8"/>
+      <c r="T38" s="9"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
@@ -1601,7 +1747,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="8"/>
+      <c r="T39" s="9"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
@@ -1625,7 +1771,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="8"/>
+      <c r="T40" s="9"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
@@ -1649,7 +1795,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="8"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
@@ -1673,7 +1819,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="8"/>
+      <c r="T42" s="9"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
@@ -1697,7 +1843,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="8"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
@@ -1721,7 +1867,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="8"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
@@ -1745,7 +1891,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="8"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
@@ -1769,7 +1915,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="8"/>
+      <c r="T46" s="9"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
@@ -1793,7 +1939,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="8"/>
+      <c r="T47" s="9"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
@@ -1817,7 +1963,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="8"/>
+      <c r="T48" s="9"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
@@ -1841,7 +1987,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="8"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
@@ -1865,7 +2011,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="8"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
@@ -1889,7 +2035,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="8"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
@@ -1913,7 +2059,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="8"/>
+      <c r="T52" s="9"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
@@ -1937,7 +2083,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="8"/>
+      <c r="T53" s="9"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
@@ -1961,7 +2107,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="8"/>
+      <c r="T54" s="9"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
@@ -1985,7 +2131,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="8"/>
+      <c r="T55" s="9"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
@@ -2009,7 +2155,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="8"/>
+      <c r="T56" s="9"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
@@ -2033,7 +2179,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="8"/>
+      <c r="T57" s="9"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
     </row>
@@ -2057,7 +2203,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="8"/>
+      <c r="T58" s="9"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
     </row>
@@ -2081,7 +2227,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="8"/>
+      <c r="T59" s="9"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
@@ -2105,7 +2251,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="8"/>
+      <c r="T60" s="9"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
     </row>
@@ -2129,7 +2275,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-      <c r="T61" s="8"/>
+      <c r="T61" s="9"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
     </row>
@@ -2153,7 +2299,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
-      <c r="T62" s="8"/>
+      <c r="T62" s="9"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
     </row>
@@ -2177,7 +2323,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
-      <c r="T63" s="8"/>
+      <c r="T63" s="9"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
     </row>
@@ -2201,7 +2347,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="8"/>
+      <c r="T64" s="9"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
     </row>
@@ -2225,7 +2371,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="8"/>
+      <c r="T65" s="9"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
     </row>
@@ -2249,7 +2395,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="8"/>
+      <c r="T66" s="9"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
     </row>
@@ -2273,7 +2419,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="8"/>
+      <c r="T67" s="9"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
     </row>
@@ -2297,7 +2443,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="8"/>
+      <c r="T68" s="9"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
     </row>
@@ -2321,7 +2467,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
-      <c r="T69" s="8"/>
+      <c r="T69" s="9"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
     </row>
@@ -2345,7 +2491,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="8"/>
+      <c r="T70" s="9"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
     </row>
@@ -2369,7 +2515,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="8"/>
+      <c r="T71" s="9"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
     </row>
@@ -2393,7 +2539,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="8"/>
+      <c r="T72" s="9"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
     </row>
@@ -2417,7 +2563,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="8"/>
+      <c r="T73" s="9"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
     </row>
@@ -2441,7 +2587,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="8"/>
+      <c r="T74" s="9"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
     </row>
@@ -2465,7 +2611,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="8"/>
+      <c r="T75" s="9"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
     </row>
@@ -2489,7 +2635,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="8"/>
+      <c r="T76" s="9"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
     </row>
@@ -2513,7 +2659,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="8"/>
+      <c r="T77" s="9"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
     </row>
@@ -2537,7 +2683,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="8"/>
+      <c r="T78" s="9"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
     </row>
@@ -2561,7 +2707,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="8"/>
+      <c r="T79" s="9"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
     </row>
@@ -2585,7 +2731,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="8"/>
+      <c r="T80" s="9"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
     </row>
@@ -2609,7 +2755,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="8"/>
+      <c r="T81" s="9"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
     </row>
@@ -2633,7 +2779,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
-      <c r="T82" s="8"/>
+      <c r="T82" s="9"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
     </row>
@@ -2657,7 +2803,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="8"/>
+      <c r="T83" s="9"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
     </row>
@@ -2681,7 +2827,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="8"/>
+      <c r="T84" s="9"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
     </row>
@@ -2705,7 +2851,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="8"/>
+      <c r="T85" s="9"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
     </row>
@@ -2729,7 +2875,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="8"/>
+      <c r="T86" s="9"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
     </row>
@@ -2753,7 +2899,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="8"/>
+      <c r="T87" s="9"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
     </row>
@@ -2777,7 +2923,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="8"/>
+      <c r="T88" s="9"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
     </row>
@@ -2801,7 +2947,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
-      <c r="T89" s="8"/>
+      <c r="T89" s="9"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
     </row>
@@ -2825,7 +2971,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="8"/>
+      <c r="T90" s="9"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
     </row>
@@ -2849,7 +2995,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="8"/>
+      <c r="T91" s="9"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
     </row>
@@ -2873,7 +3019,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="8"/>
+      <c r="T92" s="9"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
     </row>
@@ -2897,7 +3043,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="8"/>
+      <c r="T93" s="9"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
     </row>
@@ -2921,7 +3067,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="8"/>
+      <c r="T94" s="9"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
     </row>
@@ -2945,7 +3091,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="8"/>
+      <c r="T95" s="9"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
     </row>
@@ -2969,7 +3115,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="8"/>
+      <c r="T96" s="9"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
     </row>
@@ -2993,7 +3139,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="8"/>
+      <c r="T97" s="9"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
     </row>
@@ -3017,7 +3163,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="8"/>
+      <c r="T98" s="9"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
     </row>
@@ -3041,7 +3187,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
-      <c r="T99" s="8"/>
+      <c r="T99" s="9"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
     </row>
@@ -3065,7 +3211,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
-      <c r="T100" s="8"/>
+      <c r="T100" s="9"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
     </row>
@@ -3089,7 +3235,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="8"/>
+      <c r="T101" s="9"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
     </row>
@@ -3113,7 +3259,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="8"/>
+      <c r="T102" s="9"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
     </row>
@@ -3137,7 +3283,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="8"/>
+      <c r="T103" s="9"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
     </row>
@@ -3161,7 +3307,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
-      <c r="T104" s="8"/>
+      <c r="T104" s="9"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
     </row>
@@ -3185,7 +3331,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
-      <c r="T105" s="8"/>
+      <c r="T105" s="9"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
     </row>
@@ -3209,7 +3355,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="8"/>
+      <c r="T106" s="9"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
     </row>
@@ -3233,7 +3379,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
-      <c r="T107" s="8"/>
+      <c r="T107" s="9"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
     </row>
@@ -3257,7 +3403,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="8"/>
+      <c r="T108" s="9"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
     </row>
@@ -3281,7 +3427,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="8"/>
+      <c r="T109" s="9"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
     </row>
@@ -3305,7 +3451,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="8"/>
+      <c r="T110" s="9"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
     </row>
@@ -3329,7 +3475,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="8"/>
+      <c r="T111" s="9"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
     </row>
@@ -3353,7 +3499,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
-      <c r="T112" s="8"/>
+      <c r="T112" s="9"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
     </row>
@@ -3377,7 +3523,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
-      <c r="T113" s="8"/>
+      <c r="T113" s="9"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
     </row>
@@ -3401,7 +3547,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="8"/>
+      <c r="T114" s="9"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
     </row>
@@ -3425,7 +3571,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
-      <c r="T115" s="8"/>
+      <c r="T115" s="9"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
     </row>
@@ -3449,7 +3595,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="8"/>
+      <c r="T116" s="9"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
     </row>
@@ -3473,7 +3619,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
-      <c r="T117" s="8"/>
+      <c r="T117" s="9"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
     </row>
@@ -3497,7 +3643,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
-      <c r="T118" s="8"/>
+      <c r="T118" s="9"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
     </row>
@@ -3521,7 +3667,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="8"/>
+      <c r="T119" s="9"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
     </row>
@@ -3545,7 +3691,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="8"/>
+      <c r="T120" s="9"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
     </row>
@@ -3569,7 +3715,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
-      <c r="T121" s="8"/>
+      <c r="T121" s="9"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
     </row>
@@ -3593,7 +3739,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
-      <c r="T122" s="8"/>
+      <c r="T122" s="9"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
     </row>
@@ -3617,7 +3763,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
-      <c r="T123" s="8"/>
+      <c r="T123" s="9"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
     </row>
@@ -3641,7 +3787,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
-      <c r="T124" s="8"/>
+      <c r="T124" s="9"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
     </row>
@@ -3665,7 +3811,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
-      <c r="T125" s="8"/>
+      <c r="T125" s="9"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
     </row>
@@ -3689,7 +3835,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="8"/>
+      <c r="T126" s="9"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
     </row>
@@ -3713,7 +3859,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
-      <c r="T127" s="8"/>
+      <c r="T127" s="9"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
     </row>
@@ -3737,7 +3883,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
-      <c r="T128" s="8"/>
+      <c r="T128" s="9"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
     </row>
@@ -3761,7 +3907,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
-      <c r="T129" s="8"/>
+      <c r="T129" s="9"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
     </row>
@@ -3785,7 +3931,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
       <c r="S130" s="6"/>
-      <c r="T130" s="8"/>
+      <c r="T130" s="9"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
     </row>
@@ -3809,7 +3955,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
-      <c r="T131" s="8"/>
+      <c r="T131" s="9"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
     </row>
@@ -3833,7 +3979,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
       <c r="S132" s="6"/>
-      <c r="T132" s="8"/>
+      <c r="T132" s="9"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
     </row>
@@ -3857,7 +4003,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
-      <c r="T133" s="8"/>
+      <c r="T133" s="9"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
     </row>
@@ -3881,7 +4027,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
-      <c r="T134" s="8"/>
+      <c r="T134" s="9"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
     </row>
@@ -3905,7 +4051,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
-      <c r="T135" s="8"/>
+      <c r="T135" s="9"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
     </row>
@@ -3929,7 +4075,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
-      <c r="T136" s="8"/>
+      <c r="T136" s="9"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
     </row>
@@ -3953,7 +4099,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
       <c r="S137" s="6"/>
-      <c r="T137" s="8"/>
+      <c r="T137" s="9"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
     </row>
@@ -3977,7 +4123,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
       <c r="S138" s="6"/>
-      <c r="T138" s="8"/>
+      <c r="T138" s="9"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
     </row>
@@ -4001,7 +4147,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
-      <c r="T139" s="8"/>
+      <c r="T139" s="9"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
     </row>
@@ -4025,7 +4171,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
-      <c r="T140" s="8"/>
+      <c r="T140" s="9"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
     </row>
@@ -4049,7 +4195,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
-      <c r="T141" s="8"/>
+      <c r="T141" s="9"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
     </row>
@@ -4073,7 +4219,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="8"/>
+      <c r="T142" s="9"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
     </row>
@@ -4097,7 +4243,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
       <c r="S143" s="6"/>
-      <c r="T143" s="8"/>
+      <c r="T143" s="9"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
     </row>
@@ -4121,7 +4267,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
-      <c r="T144" s="8"/>
+      <c r="T144" s="9"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
     </row>
@@ -4145,7 +4291,7 @@
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
       <c r="S145" s="6"/>
-      <c r="T145" s="8"/>
+      <c r="T145" s="9"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
     </row>
@@ -4169,7 +4315,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
-      <c r="T146" s="8"/>
+      <c r="T146" s="9"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
     </row>
@@ -4193,7 +4339,7 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
       <c r="S147" s="6"/>
-      <c r="T147" s="8"/>
+      <c r="T147" s="9"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
     </row>
@@ -4217,7 +4363,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
-      <c r="T148" s="8"/>
+      <c r="T148" s="9"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
     </row>
@@ -4241,7 +4387,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
-      <c r="T149" s="8"/>
+      <c r="T149" s="9"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
     </row>
@@ -4265,7 +4411,7 @@
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="8"/>
+      <c r="T150" s="9"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
     </row>
@@ -4289,7 +4435,7 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="8"/>
+      <c r="T151" s="9"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
     </row>
@@ -4313,7 +4459,7 @@
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
       <c r="S152" s="6"/>
-      <c r="T152" s="8"/>
+      <c r="T152" s="9"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
     </row>
@@ -4337,7 +4483,7 @@
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
       <c r="S153" s="6"/>
-      <c r="T153" s="8"/>
+      <c r="T153" s="9"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
     </row>
@@ -4361,7 +4507,7 @@
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
-      <c r="T154" s="8"/>
+      <c r="T154" s="9"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
     </row>
@@ -4385,7 +4531,7 @@
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
-      <c r="T155" s="8"/>
+      <c r="T155" s="9"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
     </row>
@@ -4409,7 +4555,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
-      <c r="T156" s="8"/>
+      <c r="T156" s="9"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
     </row>
@@ -4433,7 +4579,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
-      <c r="T157" s="8"/>
+      <c r="T157" s="9"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
     </row>
@@ -4457,7 +4603,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
-      <c r="T158" s="8"/>
+      <c r="T158" s="9"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
     </row>
@@ -4481,7 +4627,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="8"/>
+      <c r="T159" s="9"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
     </row>
@@ -4505,7 +4651,7 @@
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="8"/>
+      <c r="T160" s="9"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
     </row>
@@ -4529,7 +4675,7 @@
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
       <c r="S161" s="6"/>
-      <c r="T161" s="8"/>
+      <c r="T161" s="9"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
     </row>
@@ -4553,7 +4699,7 @@
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
       <c r="S162" s="6"/>
-      <c r="T162" s="8"/>
+      <c r="T162" s="9"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
     </row>
@@ -4577,7 +4723,7 @@
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
       <c r="S163" s="6"/>
-      <c r="T163" s="8"/>
+      <c r="T163" s="9"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
     </row>
@@ -4601,7 +4747,7 @@
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
       <c r="S164" s="6"/>
-      <c r="T164" s="8"/>
+      <c r="T164" s="9"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
     </row>
@@ -4625,7 +4771,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
       <c r="S165" s="6"/>
-      <c r="T165" s="8"/>
+      <c r="T165" s="9"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
     </row>
@@ -4649,7 +4795,7 @@
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
       <c r="S166" s="6"/>
-      <c r="T166" s="8"/>
+      <c r="T166" s="9"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
     </row>
@@ -4673,7 +4819,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
       <c r="S167" s="6"/>
-      <c r="T167" s="8"/>
+      <c r="T167" s="9"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
     </row>
@@ -4697,7 +4843,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
       <c r="S168" s="6"/>
-      <c r="T168" s="8"/>
+      <c r="T168" s="9"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
     </row>
@@ -4721,7 +4867,7 @@
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
       <c r="S169" s="6"/>
-      <c r="T169" s="8"/>
+      <c r="T169" s="9"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
     </row>
@@ -4745,7 +4891,7 @@
       <c r="Q170" s="6"/>
       <c r="R170" s="6"/>
       <c r="S170" s="6"/>
-      <c r="T170" s="8"/>
+      <c r="T170" s="9"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
     </row>
@@ -4769,7 +4915,7 @@
       <c r="Q171" s="6"/>
       <c r="R171" s="6"/>
       <c r="S171" s="6"/>
-      <c r="T171" s="8"/>
+      <c r="T171" s="9"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
     </row>
@@ -4793,7 +4939,7 @@
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
       <c r="S172" s="6"/>
-      <c r="T172" s="8"/>
+      <c r="T172" s="9"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
     </row>
@@ -4817,7 +4963,7 @@
       <c r="Q173" s="6"/>
       <c r="R173" s="6"/>
       <c r="S173" s="6"/>
-      <c r="T173" s="8"/>
+      <c r="T173" s="9"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
     </row>
@@ -4841,7 +4987,7 @@
       <c r="Q174" s="6"/>
       <c r="R174" s="6"/>
       <c r="S174" s="6"/>
-      <c r="T174" s="8"/>
+      <c r="T174" s="9"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
     </row>
@@ -4865,7 +5011,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
       <c r="S175" s="6"/>
-      <c r="T175" s="8"/>
+      <c r="T175" s="9"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
     </row>
@@ -4889,7 +5035,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
       <c r="S176" s="6"/>
-      <c r="T176" s="8"/>
+      <c r="T176" s="9"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
     </row>
@@ -4913,7 +5059,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
       <c r="S177" s="6"/>
-      <c r="T177" s="8"/>
+      <c r="T177" s="9"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
     </row>
@@ -4937,7 +5083,7 @@
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
       <c r="S178" s="6"/>
-      <c r="T178" s="8"/>
+      <c r="T178" s="9"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
     </row>
@@ -4961,7 +5107,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
       <c r="S179" s="6"/>
-      <c r="T179" s="8"/>
+      <c r="T179" s="9"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
     </row>
@@ -4985,7 +5131,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
       <c r="S180" s="6"/>
-      <c r="T180" s="8"/>
+      <c r="T180" s="9"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
     </row>
@@ -5009,7 +5155,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
       <c r="S181" s="6"/>
-      <c r="T181" s="8"/>
+      <c r="T181" s="9"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
     </row>
@@ -5033,7 +5179,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6"/>
-      <c r="T182" s="8"/>
+      <c r="T182" s="9"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
     </row>
@@ -5057,7 +5203,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
       <c r="S183" s="6"/>
-      <c r="T183" s="8"/>
+      <c r="T183" s="9"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
     </row>
@@ -5081,7 +5227,7 @@
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
       <c r="S184" s="6"/>
-      <c r="T184" s="8"/>
+      <c r="T184" s="9"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
     </row>
@@ -5105,7 +5251,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
       <c r="S185" s="6"/>
-      <c r="T185" s="8"/>
+      <c r="T185" s="9"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
     </row>
@@ -5129,7 +5275,7 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
       <c r="S186" s="6"/>
-      <c r="T186" s="8"/>
+      <c r="T186" s="9"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
     </row>
@@ -5153,7 +5299,7 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
       <c r="S187" s="6"/>
-      <c r="T187" s="8"/>
+      <c r="T187" s="9"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
     </row>
@@ -5177,7 +5323,7 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
       <c r="S188" s="6"/>
-      <c r="T188" s="8"/>
+      <c r="T188" s="9"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
     </row>
@@ -5201,7 +5347,7 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="6"/>
       <c r="S189" s="6"/>
-      <c r="T189" s="8"/>
+      <c r="T189" s="9"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
     </row>
@@ -5225,7 +5371,7 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="6"/>
       <c r="S190" s="6"/>
-      <c r="T190" s="8"/>
+      <c r="T190" s="9"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
     </row>
@@ -5249,7 +5395,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
       <c r="S191" s="6"/>
-      <c r="T191" s="8"/>
+      <c r="T191" s="9"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
     </row>
@@ -5273,7 +5419,7 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="6"/>
       <c r="S192" s="6"/>
-      <c r="T192" s="8"/>
+      <c r="T192" s="9"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
     </row>
@@ -5297,7 +5443,7 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="6"/>
       <c r="S193" s="6"/>
-      <c r="T193" s="8"/>
+      <c r="T193" s="9"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
     </row>
@@ -5321,7 +5467,7 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="6"/>
       <c r="S194" s="6"/>
-      <c r="T194" s="8"/>
+      <c r="T194" s="9"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
     </row>
@@ -5345,7 +5491,7 @@
       <c r="Q195" s="6"/>
       <c r="R195" s="6"/>
       <c r="S195" s="6"/>
-      <c r="T195" s="8"/>
+      <c r="T195" s="9"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
     </row>
@@ -5369,7 +5515,7 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="6"/>
       <c r="S196" s="6"/>
-      <c r="T196" s="8"/>
+      <c r="T196" s="9"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
     </row>
@@ -5393,7 +5539,7 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="6"/>
       <c r="S197" s="6"/>
-      <c r="T197" s="8"/>
+      <c r="T197" s="9"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
     </row>
@@ -5417,7 +5563,7 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="6"/>
       <c r="S198" s="6"/>
-      <c r="T198" s="8"/>
+      <c r="T198" s="9"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
     </row>
@@ -5441,7 +5587,7 @@
       <c r="Q199" s="6"/>
       <c r="R199" s="6"/>
       <c r="S199" s="6"/>
-      <c r="T199" s="8"/>
+      <c r="T199" s="9"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
     </row>
@@ -5465,7 +5611,7 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="6"/>
       <c r="S200" s="6"/>
-      <c r="T200" s="8"/>
+      <c r="T200" s="9"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
     </row>
@@ -5489,7 +5635,7 @@
       <c r="Q201" s="6"/>
       <c r="R201" s="6"/>
       <c r="S201" s="6"/>
-      <c r="T201" s="8"/>
+      <c r="T201" s="9"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
     </row>
@@ -5513,7 +5659,7 @@
       <c r="Q202" s="6"/>
       <c r="R202" s="6"/>
       <c r="S202" s="6"/>
-      <c r="T202" s="8"/>
+      <c r="T202" s="9"/>
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
     </row>
@@ -5537,7 +5683,7 @@
       <c r="Q203" s="6"/>
       <c r="R203" s="6"/>
       <c r="S203" s="6"/>
-      <c r="T203" s="8"/>
+      <c r="T203" s="9"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
     </row>
@@ -5561,7 +5707,7 @@
       <c r="Q204" s="6"/>
       <c r="R204" s="6"/>
       <c r="S204" s="6"/>
-      <c r="T204" s="8"/>
+      <c r="T204" s="9"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
     </row>
@@ -5585,7 +5731,7 @@
       <c r="Q205" s="6"/>
       <c r="R205" s="6"/>
       <c r="S205" s="6"/>
-      <c r="T205" s="8"/>
+      <c r="T205" s="9"/>
       <c r="U205" s="6"/>
       <c r="V205" s="6"/>
     </row>
@@ -5609,7 +5755,7 @@
       <c r="Q206" s="6"/>
       <c r="R206" s="6"/>
       <c r="S206" s="6"/>
-      <c r="T206" s="8"/>
+      <c r="T206" s="9"/>
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
     </row>
@@ -5633,7 +5779,7 @@
       <c r="Q207" s="6"/>
       <c r="R207" s="6"/>
       <c r="S207" s="6"/>
-      <c r="T207" s="8"/>
+      <c r="T207" s="9"/>
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
     </row>
@@ -5657,7 +5803,7 @@
       <c r="Q208" s="6"/>
       <c r="R208" s="6"/>
       <c r="S208" s="6"/>
-      <c r="T208" s="8"/>
+      <c r="T208" s="9"/>
       <c r="U208" s="6"/>
       <c r="V208" s="6"/>
     </row>
@@ -5681,7 +5827,7 @@
       <c r="Q209" s="6"/>
       <c r="R209" s="6"/>
       <c r="S209" s="6"/>
-      <c r="T209" s="8"/>
+      <c r="T209" s="9"/>
       <c r="U209" s="6"/>
       <c r="V209" s="6"/>
     </row>
@@ -5705,7 +5851,7 @@
       <c r="Q210" s="6"/>
       <c r="R210" s="6"/>
       <c r="S210" s="6"/>
-      <c r="T210" s="8"/>
+      <c r="T210" s="9"/>
       <c r="U210" s="6"/>
       <c r="V210" s="6"/>
     </row>
@@ -5729,7 +5875,7 @@
       <c r="Q211" s="6"/>
       <c r="R211" s="6"/>
       <c r="S211" s="6"/>
-      <c r="T211" s="8"/>
+      <c r="T211" s="9"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
     </row>
@@ -5753,7 +5899,7 @@
       <c r="Q212" s="6"/>
       <c r="R212" s="6"/>
       <c r="S212" s="6"/>
-      <c r="T212" s="8"/>
+      <c r="T212" s="9"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
     </row>
@@ -5777,7 +5923,7 @@
       <c r="Q213" s="6"/>
       <c r="R213" s="6"/>
       <c r="S213" s="6"/>
-      <c r="T213" s="8"/>
+      <c r="T213" s="9"/>
       <c r="U213" s="6"/>
       <c r="V213" s="6"/>
     </row>
@@ -5801,7 +5947,7 @@
       <c r="Q214" s="6"/>
       <c r="R214" s="6"/>
       <c r="S214" s="6"/>
-      <c r="T214" s="8"/>
+      <c r="T214" s="9"/>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
     </row>
@@ -5825,7 +5971,7 @@
       <c r="Q215" s="6"/>
       <c r="R215" s="6"/>
       <c r="S215" s="6"/>
-      <c r="T215" s="8"/>
+      <c r="T215" s="9"/>
       <c r="U215" s="6"/>
       <c r="V215" s="6"/>
     </row>
@@ -5849,7 +5995,7 @@
       <c r="Q216" s="6"/>
       <c r="R216" s="6"/>
       <c r="S216" s="6"/>
-      <c r="T216" s="8"/>
+      <c r="T216" s="9"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
     </row>
@@ -5873,7 +6019,7 @@
       <c r="Q217" s="6"/>
       <c r="R217" s="6"/>
       <c r="S217" s="6"/>
-      <c r="T217" s="8"/>
+      <c r="T217" s="9"/>
       <c r="U217" s="6"/>
       <c r="V217" s="6"/>
     </row>
@@ -5897,7 +6043,7 @@
       <c r="Q218" s="6"/>
       <c r="R218" s="6"/>
       <c r="S218" s="6"/>
-      <c r="T218" s="8"/>
+      <c r="T218" s="9"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
     </row>
@@ -5921,7 +6067,7 @@
       <c r="Q219" s="6"/>
       <c r="R219" s="6"/>
       <c r="S219" s="6"/>
-      <c r="T219" s="8"/>
+      <c r="T219" s="9"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
     </row>
@@ -5945,7 +6091,7 @@
       <c r="Q220" s="6"/>
       <c r="R220" s="6"/>
       <c r="S220" s="6"/>
-      <c r="T220" s="8"/>
+      <c r="T220" s="9"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
     </row>
@@ -5969,7 +6115,7 @@
       <c r="Q221" s="6"/>
       <c r="R221" s="6"/>
       <c r="S221" s="6"/>
-      <c r="T221" s="8"/>
+      <c r="T221" s="9"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
     </row>
@@ -5993,7 +6139,7 @@
       <c r="Q222" s="6"/>
       <c r="R222" s="6"/>
       <c r="S222" s="6"/>
-      <c r="T222" s="8"/>
+      <c r="T222" s="9"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
     </row>
@@ -6017,7 +6163,7 @@
       <c r="Q223" s="6"/>
       <c r="R223" s="6"/>
       <c r="S223" s="6"/>
-      <c r="T223" s="8"/>
+      <c r="T223" s="9"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
     </row>
@@ -6041,7 +6187,7 @@
       <c r="Q224" s="6"/>
       <c r="R224" s="6"/>
       <c r="S224" s="6"/>
-      <c r="T224" s="8"/>
+      <c r="T224" s="9"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
     </row>
@@ -6065,7 +6211,7 @@
       <c r="Q225" s="6"/>
       <c r="R225" s="6"/>
       <c r="S225" s="6"/>
-      <c r="T225" s="8"/>
+      <c r="T225" s="9"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
     </row>
@@ -6089,7 +6235,7 @@
       <c r="Q226" s="6"/>
       <c r="R226" s="6"/>
       <c r="S226" s="6"/>
-      <c r="T226" s="8"/>
+      <c r="T226" s="9"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
     </row>
@@ -6113,7 +6259,7 @@
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
       <c r="S227" s="6"/>
-      <c r="T227" s="8"/>
+      <c r="T227" s="9"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
     </row>
@@ -6137,7 +6283,7 @@
       <c r="Q228" s="6"/>
       <c r="R228" s="6"/>
       <c r="S228" s="6"/>
-      <c r="T228" s="8"/>
+      <c r="T228" s="9"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
     </row>
@@ -6161,7 +6307,7 @@
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
       <c r="S229" s="6"/>
-      <c r="T229" s="8"/>
+      <c r="T229" s="9"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
     </row>
@@ -6185,7 +6331,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
       <c r="S230" s="6"/>
-      <c r="T230" s="8"/>
+      <c r="T230" s="9"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
     </row>
@@ -6209,7 +6355,7 @@
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
       <c r="S231" s="6"/>
-      <c r="T231" s="8"/>
+      <c r="T231" s="9"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
     </row>
@@ -6233,7 +6379,7 @@
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
       <c r="S232" s="6"/>
-      <c r="T232" s="8"/>
+      <c r="T232" s="9"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
     </row>
@@ -6257,7 +6403,7 @@
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6"/>
-      <c r="T233" s="8"/>
+      <c r="T233" s="9"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
     </row>
@@ -6281,7 +6427,7 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6"/>
-      <c r="T234" s="8"/>
+      <c r="T234" s="9"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
     </row>
@@ -6305,7 +6451,7 @@
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
       <c r="S235" s="6"/>
-      <c r="T235" s="8"/>
+      <c r="T235" s="9"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
     </row>
@@ -6329,7 +6475,7 @@
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
       <c r="S236" s="6"/>
-      <c r="T236" s="8"/>
+      <c r="T236" s="9"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
     </row>
@@ -6353,7 +6499,7 @@
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
       <c r="S237" s="6"/>
-      <c r="T237" s="8"/>
+      <c r="T237" s="9"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6"/>
     </row>
@@ -6377,7 +6523,7 @@
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6"/>
-      <c r="T238" s="8"/>
+      <c r="T238" s="9"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
     </row>
@@ -6401,7 +6547,7 @@
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
       <c r="S239" s="6"/>
-      <c r="T239" s="8"/>
+      <c r="T239" s="9"/>
       <c r="U239" s="6"/>
       <c r="V239" s="6"/>
     </row>
@@ -6425,7 +6571,7 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6"/>
-      <c r="T240" s="8"/>
+      <c r="T240" s="9"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6"/>
     </row>
@@ -6449,7 +6595,7 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6"/>
-      <c r="T241" s="8"/>
+      <c r="T241" s="9"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6"/>
     </row>
@@ -6473,7 +6619,7 @@
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6"/>
-      <c r="T242" s="8"/>
+      <c r="T242" s="9"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6"/>
     </row>
@@ -6497,7 +6643,7 @@
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6"/>
-      <c r="T243" s="8"/>
+      <c r="T243" s="9"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6"/>
     </row>
@@ -6521,7 +6667,7 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6"/>
-      <c r="T244" s="8"/>
+      <c r="T244" s="9"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6"/>
     </row>
@@ -6545,7 +6691,7 @@
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6"/>
-      <c r="T245" s="8"/>
+      <c r="T245" s="9"/>
       <c r="U245" s="6"/>
       <c r="V245" s="6"/>
     </row>
@@ -6569,7 +6715,7 @@
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
       <c r="S246" s="6"/>
-      <c r="T246" s="8"/>
+      <c r="T246" s="9"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6"/>
     </row>
@@ -6593,7 +6739,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
       <c r="S247" s="6"/>
-      <c r="T247" s="8"/>
+      <c r="T247" s="9"/>
       <c r="U247" s="6"/>
       <c r="V247" s="6"/>
     </row>
@@ -6617,7 +6763,7 @@
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
       <c r="S248" s="6"/>
-      <c r="T248" s="8"/>
+      <c r="T248" s="9"/>
       <c r="U248" s="6"/>
       <c r="V248" s="6"/>
     </row>
@@ -6641,7 +6787,7 @@
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
       <c r="S249" s="6"/>
-      <c r="T249" s="8"/>
+      <c r="T249" s="9"/>
       <c r="U249" s="6"/>
       <c r="V249" s="6"/>
     </row>
@@ -6665,7 +6811,7 @@
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
       <c r="S250" s="6"/>
-      <c r="T250" s="8"/>
+      <c r="T250" s="9"/>
       <c r="U250" s="6"/>
       <c r="V250" s="6"/>
     </row>
@@ -6689,7 +6835,7 @@
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
       <c r="S251" s="6"/>
-      <c r="T251" s="8"/>
+      <c r="T251" s="9"/>
       <c r="U251" s="6"/>
       <c r="V251" s="6"/>
     </row>
@@ -6713,7 +6859,7 @@
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
       <c r="S252" s="6"/>
-      <c r="T252" s="8"/>
+      <c r="T252" s="9"/>
       <c r="U252" s="6"/>
       <c r="V252" s="6"/>
     </row>
@@ -6737,7 +6883,7 @@
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
       <c r="S253" s="6"/>
-      <c r="T253" s="8"/>
+      <c r="T253" s="9"/>
       <c r="U253" s="6"/>
       <c r="V253" s="6"/>
     </row>
@@ -6761,7 +6907,7 @@
       <c r="Q254" s="6"/>
       <c r="R254" s="6"/>
       <c r="S254" s="6"/>
-      <c r="T254" s="8"/>
+      <c r="T254" s="9"/>
       <c r="U254" s="6"/>
       <c r="V254" s="6"/>
     </row>
@@ -6785,7 +6931,7 @@
       <c r="Q255" s="6"/>
       <c r="R255" s="6"/>
       <c r="S255" s="6"/>
-      <c r="T255" s="8"/>
+      <c r="T255" s="9"/>
       <c r="U255" s="6"/>
       <c r="V255" s="6"/>
     </row>
@@ -6809,7 +6955,7 @@
       <c r="Q256" s="6"/>
       <c r="R256" s="6"/>
       <c r="S256" s="6"/>
-      <c r="T256" s="8"/>
+      <c r="T256" s="9"/>
       <c r="U256" s="6"/>
       <c r="V256" s="6"/>
     </row>
@@ -6833,7 +6979,7 @@
       <c r="Q257" s="6"/>
       <c r="R257" s="6"/>
       <c r="S257" s="6"/>
-      <c r="T257" s="8"/>
+      <c r="T257" s="9"/>
       <c r="U257" s="6"/>
       <c r="V257" s="6"/>
     </row>
@@ -6857,7 +7003,7 @@
       <c r="Q258" s="6"/>
       <c r="R258" s="6"/>
       <c r="S258" s="6"/>
-      <c r="T258" s="8"/>
+      <c r="T258" s="9"/>
       <c r="U258" s="6"/>
       <c r="V258" s="6"/>
     </row>
@@ -6881,7 +7027,7 @@
       <c r="Q259" s="6"/>
       <c r="R259" s="6"/>
       <c r="S259" s="6"/>
-      <c r="T259" s="8"/>
+      <c r="T259" s="9"/>
       <c r="U259" s="6"/>
       <c r="V259" s="6"/>
     </row>
@@ -6905,7 +7051,7 @@
       <c r="Q260" s="6"/>
       <c r="R260" s="6"/>
       <c r="S260" s="6"/>
-      <c r="T260" s="8"/>
+      <c r="T260" s="9"/>
       <c r="U260" s="6"/>
       <c r="V260" s="6"/>
     </row>
@@ -6929,7 +7075,7 @@
       <c r="Q261" s="6"/>
       <c r="R261" s="6"/>
       <c r="S261" s="6"/>
-      <c r="T261" s="8"/>
+      <c r="T261" s="9"/>
       <c r="U261" s="6"/>
       <c r="V261" s="6"/>
     </row>
@@ -6953,7 +7099,7 @@
       <c r="Q262" s="6"/>
       <c r="R262" s="6"/>
       <c r="S262" s="6"/>
-      <c r="T262" s="8"/>
+      <c r="T262" s="9"/>
       <c r="U262" s="6"/>
       <c r="V262" s="6"/>
     </row>
@@ -6977,7 +7123,7 @@
       <c r="Q263" s="6"/>
       <c r="R263" s="6"/>
       <c r="S263" s="6"/>
-      <c r="T263" s="8"/>
+      <c r="T263" s="9"/>
       <c r="U263" s="6"/>
       <c r="V263" s="6"/>
     </row>
@@ -7001,7 +7147,7 @@
       <c r="Q264" s="6"/>
       <c r="R264" s="6"/>
       <c r="S264" s="6"/>
-      <c r="T264" s="8"/>
+      <c r="T264" s="9"/>
       <c r="U264" s="6"/>
       <c r="V264" s="6"/>
     </row>
@@ -7025,7 +7171,7 @@
       <c r="Q265" s="6"/>
       <c r="R265" s="6"/>
       <c r="S265" s="6"/>
-      <c r="T265" s="8"/>
+      <c r="T265" s="9"/>
       <c r="U265" s="6"/>
       <c r="V265" s="6"/>
     </row>
@@ -7049,7 +7195,7 @@
       <c r="Q266" s="6"/>
       <c r="R266" s="6"/>
       <c r="S266" s="6"/>
-      <c r="T266" s="8"/>
+      <c r="T266" s="9"/>
       <c r="U266" s="6"/>
       <c r="V266" s="6"/>
     </row>
@@ -7073,7 +7219,7 @@
       <c r="Q267" s="6"/>
       <c r="R267" s="6"/>
       <c r="S267" s="6"/>
-      <c r="T267" s="8"/>
+      <c r="T267" s="9"/>
       <c r="U267" s="6"/>
       <c r="V267" s="6"/>
     </row>
@@ -7097,7 +7243,7 @@
       <c r="Q268" s="6"/>
       <c r="R268" s="6"/>
       <c r="S268" s="6"/>
-      <c r="T268" s="8"/>
+      <c r="T268" s="9"/>
       <c r="U268" s="6"/>
       <c r="V268" s="6"/>
     </row>
@@ -7121,7 +7267,7 @@
       <c r="Q269" s="6"/>
       <c r="R269" s="6"/>
       <c r="S269" s="6"/>
-      <c r="T269" s="8"/>
+      <c r="T269" s="9"/>
       <c r="U269" s="6"/>
       <c r="V269" s="6"/>
     </row>
@@ -7145,7 +7291,7 @@
       <c r="Q270" s="6"/>
       <c r="R270" s="6"/>
       <c r="S270" s="6"/>
-      <c r="T270" s="8"/>
+      <c r="T270" s="9"/>
       <c r="U270" s="6"/>
       <c r="V270" s="6"/>
     </row>
@@ -7169,7 +7315,7 @@
       <c r="Q271" s="6"/>
       <c r="R271" s="6"/>
       <c r="S271" s="6"/>
-      <c r="T271" s="8"/>
+      <c r="T271" s="9"/>
       <c r="U271" s="6"/>
       <c r="V271" s="6"/>
     </row>
@@ -7193,7 +7339,7 @@
       <c r="Q272" s="6"/>
       <c r="R272" s="6"/>
       <c r="S272" s="6"/>
-      <c r="T272" s="8"/>
+      <c r="T272" s="9"/>
       <c r="U272" s="6"/>
       <c r="V272" s="6"/>
     </row>
@@ -7217,7 +7363,7 @@
       <c r="Q273" s="6"/>
       <c r="R273" s="6"/>
       <c r="S273" s="6"/>
-      <c r="T273" s="8"/>
+      <c r="T273" s="9"/>
       <c r="U273" s="6"/>
       <c r="V273" s="6"/>
     </row>
@@ -7241,7 +7387,7 @@
       <c r="Q274" s="6"/>
       <c r="R274" s="6"/>
       <c r="S274" s="6"/>
-      <c r="T274" s="8"/>
+      <c r="T274" s="9"/>
       <c r="U274" s="6"/>
       <c r="V274" s="6"/>
     </row>
@@ -7265,7 +7411,7 @@
       <c r="Q275" s="6"/>
       <c r="R275" s="6"/>
       <c r="S275" s="6"/>
-      <c r="T275" s="8"/>
+      <c r="T275" s="9"/>
       <c r="U275" s="6"/>
       <c r="V275" s="6"/>
     </row>
@@ -7289,7 +7435,7 @@
       <c r="Q276" s="6"/>
       <c r="R276" s="6"/>
       <c r="S276" s="6"/>
-      <c r="T276" s="8"/>
+      <c r="T276" s="9"/>
       <c r="U276" s="6"/>
       <c r="V276" s="6"/>
     </row>
@@ -7313,7 +7459,7 @@
       <c r="Q277" s="6"/>
       <c r="R277" s="6"/>
       <c r="S277" s="6"/>
-      <c r="T277" s="8"/>
+      <c r="T277" s="9"/>
       <c r="U277" s="6"/>
       <c r="V277" s="6"/>
     </row>
@@ -7337,7 +7483,7 @@
       <c r="Q278" s="6"/>
       <c r="R278" s="6"/>
       <c r="S278" s="6"/>
-      <c r="T278" s="8"/>
+      <c r="T278" s="9"/>
       <c r="U278" s="6"/>
       <c r="V278" s="6"/>
     </row>
@@ -7361,7 +7507,7 @@
       <c r="Q279" s="6"/>
       <c r="R279" s="6"/>
       <c r="S279" s="6"/>
-      <c r="T279" s="8"/>
+      <c r="T279" s="9"/>
       <c r="U279" s="6"/>
       <c r="V279" s="6"/>
     </row>
@@ -7385,7 +7531,7 @@
       <c r="Q280" s="6"/>
       <c r="R280" s="6"/>
       <c r="S280" s="6"/>
-      <c r="T280" s="8"/>
+      <c r="T280" s="9"/>
       <c r="U280" s="6"/>
       <c r="V280" s="6"/>
     </row>
@@ -7409,7 +7555,7 @@
       <c r="Q281" s="6"/>
       <c r="R281" s="6"/>
       <c r="S281" s="6"/>
-      <c r="T281" s="8"/>
+      <c r="T281" s="9"/>
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
     </row>
@@ -7433,7 +7579,7 @@
       <c r="Q282" s="6"/>
       <c r="R282" s="6"/>
       <c r="S282" s="6"/>
-      <c r="T282" s="8"/>
+      <c r="T282" s="9"/>
       <c r="U282" s="6"/>
       <c r="V282" s="6"/>
     </row>
@@ -7457,7 +7603,7 @@
       <c r="Q283" s="6"/>
       <c r="R283" s="6"/>
       <c r="S283" s="6"/>
-      <c r="T283" s="8"/>
+      <c r="T283" s="9"/>
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
     </row>
@@ -7481,7 +7627,7 @@
       <c r="Q284" s="6"/>
       <c r="R284" s="6"/>
       <c r="S284" s="6"/>
-      <c r="T284" s="8"/>
+      <c r="T284" s="9"/>
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
     </row>
@@ -7505,7 +7651,7 @@
       <c r="Q285" s="6"/>
       <c r="R285" s="6"/>
       <c r="S285" s="6"/>
-      <c r="T285" s="8"/>
+      <c r="T285" s="9"/>
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
     </row>
@@ -7529,7 +7675,7 @@
       <c r="Q286" s="6"/>
       <c r="R286" s="6"/>
       <c r="S286" s="6"/>
-      <c r="T286" s="8"/>
+      <c r="T286" s="9"/>
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
     </row>
@@ -7553,7 +7699,7 @@
       <c r="Q287" s="6"/>
       <c r="R287" s="6"/>
       <c r="S287" s="6"/>
-      <c r="T287" s="8"/>
+      <c r="T287" s="9"/>
       <c r="U287" s="6"/>
       <c r="V287" s="6"/>
     </row>
@@ -7577,7 +7723,7 @@
       <c r="Q288" s="6"/>
       <c r="R288" s="6"/>
       <c r="S288" s="6"/>
-      <c r="T288" s="8"/>
+      <c r="T288" s="9"/>
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
     </row>
@@ -7601,7 +7747,7 @@
       <c r="Q289" s="6"/>
       <c r="R289" s="6"/>
       <c r="S289" s="6"/>
-      <c r="T289" s="8"/>
+      <c r="T289" s="9"/>
       <c r="U289" s="6"/>
       <c r="V289" s="6"/>
     </row>
@@ -7625,7 +7771,7 @@
       <c r="Q290" s="6"/>
       <c r="R290" s="6"/>
       <c r="S290" s="6"/>
-      <c r="T290" s="8"/>
+      <c r="T290" s="9"/>
       <c r="U290" s="6"/>
       <c r="V290" s="6"/>
     </row>
@@ -7649,7 +7795,7 @@
       <c r="Q291" s="6"/>
       <c r="R291" s="6"/>
       <c r="S291" s="6"/>
-      <c r="T291" s="8"/>
+      <c r="T291" s="9"/>
       <c r="U291" s="6"/>
       <c r="V291" s="6"/>
     </row>
@@ -7673,7 +7819,7 @@
       <c r="Q292" s="6"/>
       <c r="R292" s="6"/>
       <c r="S292" s="6"/>
-      <c r="T292" s="8"/>
+      <c r="T292" s="9"/>
       <c r="U292" s="6"/>
       <c r="V292" s="6"/>
     </row>
@@ -7697,7 +7843,7 @@
       <c r="Q293" s="6"/>
       <c r="R293" s="6"/>
       <c r="S293" s="6"/>
-      <c r="T293" s="8"/>
+      <c r="T293" s="9"/>
       <c r="U293" s="6"/>
       <c r="V293" s="6"/>
     </row>
@@ -7721,7 +7867,7 @@
       <c r="Q294" s="6"/>
       <c r="R294" s="6"/>
       <c r="S294" s="6"/>
-      <c r="T294" s="8"/>
+      <c r="T294" s="9"/>
       <c r="U294" s="6"/>
       <c r="V294" s="6"/>
     </row>
@@ -7745,7 +7891,7 @@
       <c r="Q295" s="6"/>
       <c r="R295" s="6"/>
       <c r="S295" s="6"/>
-      <c r="T295" s="8"/>
+      <c r="T295" s="9"/>
       <c r="U295" s="6"/>
       <c r="V295" s="6"/>
     </row>
@@ -7769,7 +7915,7 @@
       <c r="Q296" s="6"/>
       <c r="R296" s="6"/>
       <c r="S296" s="6"/>
-      <c r="T296" s="8"/>
+      <c r="T296" s="9"/>
       <c r="U296" s="6"/>
       <c r="V296" s="6"/>
     </row>
@@ -7793,7 +7939,7 @@
       <c r="Q297" s="6"/>
       <c r="R297" s="6"/>
       <c r="S297" s="6"/>
-      <c r="T297" s="8"/>
+      <c r="T297" s="9"/>
       <c r="U297" s="6"/>
       <c r="V297" s="6"/>
     </row>
@@ -7817,7 +7963,7 @@
       <c r="Q298" s="6"/>
       <c r="R298" s="6"/>
       <c r="S298" s="6"/>
-      <c r="T298" s="8"/>
+      <c r="T298" s="9"/>
       <c r="U298" s="6"/>
       <c r="V298" s="6"/>
     </row>
@@ -7841,7 +7987,7 @@
       <c r="Q299" s="6"/>
       <c r="R299" s="6"/>
       <c r="S299" s="6"/>
-      <c r="T299" s="8"/>
+      <c r="T299" s="9"/>
       <c r="U299" s="6"/>
       <c r="V299" s="6"/>
     </row>
@@ -7865,7 +8011,7 @@
       <c r="Q300" s="6"/>
       <c r="R300" s="6"/>
       <c r="S300" s="6"/>
-      <c r="T300" s="8"/>
+      <c r="T300" s="9"/>
       <c r="U300" s="6"/>
       <c r="V300" s="6"/>
     </row>
@@ -7889,7 +8035,7 @@
       <c r="Q301" s="6"/>
       <c r="R301" s="6"/>
       <c r="S301" s="6"/>
-      <c r="T301" s="8"/>
+      <c r="T301" s="9"/>
       <c r="U301" s="6"/>
       <c r="V301" s="6"/>
     </row>
@@ -7913,7 +8059,7 @@
       <c r="Q302" s="6"/>
       <c r="R302" s="6"/>
       <c r="S302" s="6"/>
-      <c r="T302" s="8"/>
+      <c r="T302" s="9"/>
       <c r="U302" s="6"/>
       <c r="V302" s="6"/>
     </row>
@@ -7937,7 +8083,7 @@
       <c r="Q303" s="6"/>
       <c r="R303" s="6"/>
       <c r="S303" s="6"/>
-      <c r="T303" s="8"/>
+      <c r="T303" s="9"/>
       <c r="U303" s="6"/>
       <c r="V303" s="6"/>
     </row>
@@ -7961,7 +8107,7 @@
       <c r="Q304" s="6"/>
       <c r="R304" s="6"/>
       <c r="S304" s="6"/>
-      <c r="T304" s="8"/>
+      <c r="T304" s="9"/>
       <c r="U304" s="6"/>
       <c r="V304" s="6"/>
     </row>
@@ -7985,7 +8131,7 @@
       <c r="Q305" s="6"/>
       <c r="R305" s="6"/>
       <c r="S305" s="6"/>
-      <c r="T305" s="8"/>
+      <c r="T305" s="9"/>
       <c r="U305" s="6"/>
       <c r="V305" s="6"/>
     </row>
@@ -8009,7 +8155,7 @@
       <c r="Q306" s="6"/>
       <c r="R306" s="6"/>
       <c r="S306" s="6"/>
-      <c r="T306" s="8"/>
+      <c r="T306" s="9"/>
       <c r="U306" s="6"/>
       <c r="V306" s="6"/>
     </row>
@@ -8033,7 +8179,7 @@
       <c r="Q307" s="6"/>
       <c r="R307" s="6"/>
       <c r="S307" s="6"/>
-      <c r="T307" s="8"/>
+      <c r="T307" s="9"/>
       <c r="U307" s="6"/>
       <c r="V307" s="6"/>
     </row>
@@ -8057,7 +8203,7 @@
       <c r="Q308" s="6"/>
       <c r="R308" s="6"/>
       <c r="S308" s="6"/>
-      <c r="T308" s="8"/>
+      <c r="T308" s="9"/>
       <c r="U308" s="6"/>
       <c r="V308" s="6"/>
     </row>
@@ -8081,7 +8227,7 @@
       <c r="Q309" s="6"/>
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
-      <c r="T309" s="8"/>
+      <c r="T309" s="9"/>
       <c r="U309" s="6"/>
       <c r="V309" s="6"/>
     </row>
@@ -8105,7 +8251,7 @@
       <c r="Q310" s="6"/>
       <c r="R310" s="6"/>
       <c r="S310" s="6"/>
-      <c r="T310" s="8"/>
+      <c r="T310" s="9"/>
       <c r="U310" s="6"/>
       <c r="V310" s="6"/>
     </row>
@@ -8129,7 +8275,7 @@
       <c r="Q311" s="6"/>
       <c r="R311" s="6"/>
       <c r="S311" s="6"/>
-      <c r="T311" s="8"/>
+      <c r="T311" s="9"/>
       <c r="U311" s="6"/>
       <c r="V311" s="6"/>
     </row>
@@ -8153,7 +8299,7 @@
       <c r="Q312" s="6"/>
       <c r="R312" s="6"/>
       <c r="S312" s="6"/>
-      <c r="T312" s="8"/>
+      <c r="T312" s="9"/>
       <c r="U312" s="6"/>
       <c r="V312" s="6"/>
     </row>
@@ -8177,7 +8323,7 @@
       <c r="Q313" s="6"/>
       <c r="R313" s="6"/>
       <c r="S313" s="6"/>
-      <c r="T313" s="8"/>
+      <c r="T313" s="9"/>
       <c r="U313" s="6"/>
       <c r="V313" s="6"/>
     </row>
@@ -8201,7 +8347,7 @@
       <c r="Q314" s="6"/>
       <c r="R314" s="6"/>
       <c r="S314" s="6"/>
-      <c r="T314" s="8"/>
+      <c r="T314" s="9"/>
       <c r="U314" s="6"/>
       <c r="V314" s="6"/>
     </row>
@@ -8225,7 +8371,7 @@
       <c r="Q315" s="6"/>
       <c r="R315" s="6"/>
       <c r="S315" s="6"/>
-      <c r="T315" s="8"/>
+      <c r="T315" s="9"/>
       <c r="U315" s="6"/>
       <c r="V315" s="6"/>
     </row>
@@ -8249,7 +8395,7 @@
       <c r="Q316" s="6"/>
       <c r="R316" s="6"/>
       <c r="S316" s="6"/>
-      <c r="T316" s="8"/>
+      <c r="T316" s="9"/>
       <c r="U316" s="6"/>
       <c r="V316" s="6"/>
     </row>
@@ -8273,7 +8419,7 @@
       <c r="Q317" s="6"/>
       <c r="R317" s="6"/>
       <c r="S317" s="6"/>
-      <c r="T317" s="8"/>
+      <c r="T317" s="9"/>
       <c r="U317" s="6"/>
       <c r="V317" s="6"/>
     </row>
@@ -8297,7 +8443,7 @@
       <c r="Q318" s="6"/>
       <c r="R318" s="6"/>
       <c r="S318" s="6"/>
-      <c r="T318" s="8"/>
+      <c r="T318" s="9"/>
       <c r="U318" s="6"/>
       <c r="V318" s="6"/>
     </row>
@@ -8321,7 +8467,7 @@
       <c r="Q319" s="6"/>
       <c r="R319" s="6"/>
       <c r="S319" s="6"/>
-      <c r="T319" s="8"/>
+      <c r="T319" s="9"/>
       <c r="U319" s="6"/>
       <c r="V319" s="6"/>
     </row>
@@ -8345,7 +8491,7 @@
       <c r="Q320" s="6"/>
       <c r="R320" s="6"/>
       <c r="S320" s="6"/>
-      <c r="T320" s="8"/>
+      <c r="T320" s="9"/>
       <c r="U320" s="6"/>
       <c r="V320" s="6"/>
     </row>
@@ -8369,7 +8515,7 @@
       <c r="Q321" s="6"/>
       <c r="R321" s="6"/>
       <c r="S321" s="6"/>
-      <c r="T321" s="8"/>
+      <c r="T321" s="9"/>
       <c r="U321" s="6"/>
       <c r="V321" s="6"/>
     </row>
@@ -8393,7 +8539,7 @@
       <c r="Q322" s="6"/>
       <c r="R322" s="6"/>
       <c r="S322" s="6"/>
-      <c r="T322" s="8"/>
+      <c r="T322" s="9"/>
       <c r="U322" s="6"/>
       <c r="V322" s="6"/>
     </row>
@@ -8417,7 +8563,7 @@
       <c r="Q323" s="6"/>
       <c r="R323" s="6"/>
       <c r="S323" s="6"/>
-      <c r="T323" s="8"/>
+      <c r="T323" s="9"/>
       <c r="U323" s="6"/>
       <c r="V323" s="6"/>
     </row>
@@ -8441,7 +8587,7 @@
       <c r="Q324" s="6"/>
       <c r="R324" s="6"/>
       <c r="S324" s="6"/>
-      <c r="T324" s="8"/>
+      <c r="T324" s="9"/>
       <c r="U324" s="6"/>
       <c r="V324" s="6"/>
     </row>
@@ -8465,7 +8611,7 @@
       <c r="Q325" s="6"/>
       <c r="R325" s="6"/>
       <c r="S325" s="6"/>
-      <c r="T325" s="8"/>
+      <c r="T325" s="9"/>
       <c r="U325" s="6"/>
       <c r="V325" s="6"/>
     </row>
@@ -8489,7 +8635,7 @@
       <c r="Q326" s="6"/>
       <c r="R326" s="6"/>
       <c r="S326" s="6"/>
-      <c r="T326" s="8"/>
+      <c r="T326" s="9"/>
       <c r="U326" s="6"/>
       <c r="V326" s="6"/>
     </row>
@@ -8513,7 +8659,7 @@
       <c r="Q327" s="6"/>
       <c r="R327" s="6"/>
       <c r="S327" s="6"/>
-      <c r="T327" s="8"/>
+      <c r="T327" s="9"/>
       <c r="U327" s="6"/>
       <c r="V327" s="6"/>
     </row>
@@ -8537,7 +8683,7 @@
       <c r="Q328" s="6"/>
       <c r="R328" s="6"/>
       <c r="S328" s="6"/>
-      <c r="T328" s="8"/>
+      <c r="T328" s="9"/>
       <c r="U328" s="6"/>
       <c r="V328" s="6"/>
     </row>
@@ -8561,7 +8707,7 @@
       <c r="Q329" s="6"/>
       <c r="R329" s="6"/>
       <c r="S329" s="6"/>
-      <c r="T329" s="8"/>
+      <c r="T329" s="9"/>
       <c r="U329" s="6"/>
       <c r="V329" s="6"/>
     </row>
@@ -8585,7 +8731,7 @@
       <c r="Q330" s="6"/>
       <c r="R330" s="6"/>
       <c r="S330" s="6"/>
-      <c r="T330" s="8"/>
+      <c r="T330" s="9"/>
       <c r="U330" s="6"/>
       <c r="V330" s="6"/>
     </row>
@@ -8609,7 +8755,7 @@
       <c r="Q331" s="6"/>
       <c r="R331" s="6"/>
       <c r="S331" s="6"/>
-      <c r="T331" s="8"/>
+      <c r="T331" s="9"/>
       <c r="U331" s="6"/>
       <c r="V331" s="6"/>
     </row>
@@ -8633,7 +8779,7 @@
       <c r="Q332" s="6"/>
       <c r="R332" s="6"/>
       <c r="S332" s="6"/>
-      <c r="T332" s="8"/>
+      <c r="T332" s="9"/>
       <c r="U332" s="6"/>
       <c r="V332" s="6"/>
     </row>
@@ -8657,7 +8803,7 @@
       <c r="Q333" s="6"/>
       <c r="R333" s="6"/>
       <c r="S333" s="6"/>
-      <c r="T333" s="8"/>
+      <c r="T333" s="9"/>
       <c r="U333" s="6"/>
       <c r="V333" s="6"/>
     </row>
@@ -8681,7 +8827,7 @@
       <c r="Q334" s="6"/>
       <c r="R334" s="6"/>
       <c r="S334" s="6"/>
-      <c r="T334" s="8"/>
+      <c r="T334" s="9"/>
       <c r="U334" s="6"/>
       <c r="V334" s="6"/>
     </row>
@@ -8705,7 +8851,7 @@
       <c r="Q335" s="6"/>
       <c r="R335" s="6"/>
       <c r="S335" s="6"/>
-      <c r="T335" s="8"/>
+      <c r="T335" s="9"/>
       <c r="U335" s="6"/>
       <c r="V335" s="6"/>
     </row>
@@ -8729,7 +8875,7 @@
       <c r="Q336" s="6"/>
       <c r="R336" s="6"/>
       <c r="S336" s="6"/>
-      <c r="T336" s="8"/>
+      <c r="T336" s="9"/>
       <c r="U336" s="6"/>
       <c r="V336" s="6"/>
     </row>
@@ -8753,7 +8899,7 @@
       <c r="Q337" s="6"/>
       <c r="R337" s="6"/>
       <c r="S337" s="6"/>
-      <c r="T337" s="8"/>
+      <c r="T337" s="9"/>
       <c r="U337" s="6"/>
       <c r="V337" s="6"/>
     </row>
@@ -8777,7 +8923,7 @@
       <c r="Q338" s="6"/>
       <c r="R338" s="6"/>
       <c r="S338" s="6"/>
-      <c r="T338" s="8"/>
+      <c r="T338" s="9"/>
       <c r="U338" s="6"/>
       <c r="V338" s="6"/>
     </row>
@@ -8801,7 +8947,7 @@
       <c r="Q339" s="6"/>
       <c r="R339" s="6"/>
       <c r="S339" s="6"/>
-      <c r="T339" s="8"/>
+      <c r="T339" s="9"/>
       <c r="U339" s="6"/>
       <c r="V339" s="6"/>
     </row>
@@ -8825,7 +8971,7 @@
       <c r="Q340" s="6"/>
       <c r="R340" s="6"/>
       <c r="S340" s="6"/>
-      <c r="T340" s="8"/>
+      <c r="T340" s="9"/>
       <c r="U340" s="6"/>
       <c r="V340" s="6"/>
     </row>
@@ -8849,7 +8995,7 @@
       <c r="Q341" s="6"/>
       <c r="R341" s="6"/>
       <c r="S341" s="6"/>
-      <c r="T341" s="8"/>
+      <c r="T341" s="9"/>
       <c r="U341" s="6"/>
       <c r="V341" s="6"/>
     </row>
@@ -8873,7 +9019,7 @@
       <c r="Q342" s="6"/>
       <c r="R342" s="6"/>
       <c r="S342" s="6"/>
-      <c r="T342" s="8"/>
+      <c r="T342" s="9"/>
       <c r="U342" s="6"/>
       <c r="V342" s="6"/>
     </row>
@@ -8897,7 +9043,7 @@
       <c r="Q343" s="6"/>
       <c r="R343" s="6"/>
       <c r="S343" s="6"/>
-      <c r="T343" s="8"/>
+      <c r="T343" s="9"/>
       <c r="U343" s="6"/>
       <c r="V343" s="6"/>
     </row>
@@ -8921,7 +9067,7 @@
       <c r="Q344" s="6"/>
       <c r="R344" s="6"/>
       <c r="S344" s="6"/>
-      <c r="T344" s="8"/>
+      <c r="T344" s="9"/>
       <c r="U344" s="6"/>
       <c r="V344" s="6"/>
     </row>
@@ -8945,7 +9091,7 @@
       <c r="Q345" s="6"/>
       <c r="R345" s="6"/>
       <c r="S345" s="6"/>
-      <c r="T345" s="8"/>
+      <c r="T345" s="9"/>
       <c r="U345" s="6"/>
       <c r="V345" s="6"/>
     </row>
@@ -8969,7 +9115,7 @@
       <c r="Q346" s="6"/>
       <c r="R346" s="6"/>
       <c r="S346" s="6"/>
-      <c r="T346" s="8"/>
+      <c r="T346" s="9"/>
       <c r="U346" s="6"/>
       <c r="V346" s="6"/>
     </row>
@@ -8993,7 +9139,7 @@
       <c r="Q347" s="6"/>
       <c r="R347" s="6"/>
       <c r="S347" s="6"/>
-      <c r="T347" s="8"/>
+      <c r="T347" s="9"/>
       <c r="U347" s="6"/>
       <c r="V347" s="6"/>
     </row>
@@ -9017,7 +9163,7 @@
       <c r="Q348" s="6"/>
       <c r="R348" s="6"/>
       <c r="S348" s="6"/>
-      <c r="T348" s="8"/>
+      <c r="T348" s="9"/>
       <c r="U348" s="6"/>
       <c r="V348" s="6"/>
     </row>
@@ -9041,7 +9187,7 @@
       <c r="Q349" s="6"/>
       <c r="R349" s="6"/>
       <c r="S349" s="6"/>
-      <c r="T349" s="8"/>
+      <c r="T349" s="9"/>
       <c r="U349" s="6"/>
       <c r="V349" s="6"/>
     </row>
@@ -9065,7 +9211,7 @@
       <c r="Q350" s="6"/>
       <c r="R350" s="6"/>
       <c r="S350" s="6"/>
-      <c r="T350" s="8"/>
+      <c r="T350" s="9"/>
       <c r="U350" s="6"/>
       <c r="V350" s="6"/>
     </row>
@@ -9089,7 +9235,7 @@
       <c r="Q351" s="6"/>
       <c r="R351" s="6"/>
       <c r="S351" s="6"/>
-      <c r="T351" s="8"/>
+      <c r="T351" s="9"/>
       <c r="U351" s="6"/>
       <c r="V351" s="6"/>
     </row>
@@ -9113,7 +9259,7 @@
       <c r="Q352" s="6"/>
       <c r="R352" s="6"/>
       <c r="S352" s="6"/>
-      <c r="T352" s="8"/>
+      <c r="T352" s="9"/>
       <c r="U352" s="6"/>
       <c r="V352" s="6"/>
     </row>
@@ -9137,7 +9283,7 @@
       <c r="Q353" s="6"/>
       <c r="R353" s="6"/>
       <c r="S353" s="6"/>
-      <c r="T353" s="8"/>
+      <c r="T353" s="9"/>
       <c r="U353" s="6"/>
       <c r="V353" s="6"/>
     </row>
@@ -9161,7 +9307,7 @@
       <c r="Q354" s="6"/>
       <c r="R354" s="6"/>
       <c r="S354" s="6"/>
-      <c r="T354" s="8"/>
+      <c r="T354" s="9"/>
       <c r="U354" s="6"/>
       <c r="V354" s="6"/>
     </row>
@@ -9185,7 +9331,7 @@
       <c r="Q355" s="6"/>
       <c r="R355" s="6"/>
       <c r="S355" s="6"/>
-      <c r="T355" s="8"/>
+      <c r="T355" s="9"/>
       <c r="U355" s="6"/>
       <c r="V355" s="6"/>
     </row>
@@ -9209,7 +9355,7 @@
       <c r="Q356" s="6"/>
       <c r="R356" s="6"/>
       <c r="S356" s="6"/>
-      <c r="T356" s="8"/>
+      <c r="T356" s="9"/>
       <c r="U356" s="6"/>
       <c r="V356" s="6"/>
     </row>
@@ -9233,7 +9379,7 @@
       <c r="Q357" s="6"/>
       <c r="R357" s="6"/>
       <c r="S357" s="6"/>
-      <c r="T357" s="8"/>
+      <c r="T357" s="9"/>
       <c r="U357" s="6"/>
       <c r="V357" s="6"/>
     </row>
@@ -9257,7 +9403,7 @@
       <c r="Q358" s="6"/>
       <c r="R358" s="6"/>
       <c r="S358" s="6"/>
-      <c r="T358" s="8"/>
+      <c r="T358" s="9"/>
       <c r="U358" s="6"/>
       <c r="V358" s="6"/>
     </row>
@@ -9281,7 +9427,7 @@
       <c r="Q359" s="6"/>
       <c r="R359" s="6"/>
       <c r="S359" s="6"/>
-      <c r="T359" s="8"/>
+      <c r="T359" s="9"/>
       <c r="U359" s="6"/>
       <c r="V359" s="6"/>
     </row>
@@ -9305,7 +9451,7 @@
       <c r="Q360" s="6"/>
       <c r="R360" s="6"/>
       <c r="S360" s="6"/>
-      <c r="T360" s="8"/>
+      <c r="T360" s="9"/>
       <c r="U360" s="6"/>
       <c r="V360" s="6"/>
     </row>
@@ -9329,7 +9475,7 @@
       <c r="Q361" s="6"/>
       <c r="R361" s="6"/>
       <c r="S361" s="6"/>
-      <c r="T361" s="8"/>
+      <c r="T361" s="9"/>
       <c r="U361" s="6"/>
       <c r="V361" s="6"/>
     </row>
@@ -9353,7 +9499,7 @@
       <c r="Q362" s="6"/>
       <c r="R362" s="6"/>
       <c r="S362" s="6"/>
-      <c r="T362" s="8"/>
+      <c r="T362" s="9"/>
       <c r="U362" s="6"/>
       <c r="V362" s="6"/>
     </row>
@@ -9377,7 +9523,7 @@
       <c r="Q363" s="6"/>
       <c r="R363" s="6"/>
       <c r="S363" s="6"/>
-      <c r="T363" s="8"/>
+      <c r="T363" s="9"/>
       <c r="U363" s="6"/>
       <c r="V363" s="6"/>
     </row>
@@ -9401,7 +9547,7 @@
       <c r="Q364" s="6"/>
       <c r="R364" s="6"/>
       <c r="S364" s="6"/>
-      <c r="T364" s="8"/>
+      <c r="T364" s="9"/>
       <c r="U364" s="6"/>
       <c r="V364" s="6"/>
     </row>
@@ -9425,7 +9571,7 @@
       <c r="Q365" s="6"/>
       <c r="R365" s="6"/>
       <c r="S365" s="6"/>
-      <c r="T365" s="8"/>
+      <c r="T365" s="9"/>
       <c r="U365" s="6"/>
       <c r="V365" s="6"/>
     </row>
@@ -9449,7 +9595,7 @@
       <c r="Q366" s="6"/>
       <c r="R366" s="6"/>
       <c r="S366" s="6"/>
-      <c r="T366" s="8"/>
+      <c r="T366" s="9"/>
       <c r="U366" s="6"/>
       <c r="V366" s="6"/>
     </row>
@@ -9473,7 +9619,7 @@
       <c r="Q367" s="6"/>
       <c r="R367" s="6"/>
       <c r="S367" s="6"/>
-      <c r="T367" s="8"/>
+      <c r="T367" s="9"/>
       <c r="U367" s="6"/>
       <c r="V367" s="6"/>
     </row>
@@ -9497,7 +9643,7 @@
       <c r="Q368" s="6"/>
       <c r="R368" s="6"/>
       <c r="S368" s="6"/>
-      <c r="T368" s="8"/>
+      <c r="T368" s="9"/>
       <c r="U368" s="6"/>
       <c r="V368" s="6"/>
     </row>
@@ -9521,7 +9667,7 @@
       <c r="Q369" s="6"/>
       <c r="R369" s="6"/>
       <c r="S369" s="6"/>
-      <c r="T369" s="8"/>
+      <c r="T369" s="9"/>
       <c r="U369" s="6"/>
       <c r="V369" s="6"/>
     </row>
@@ -9545,7 +9691,7 @@
       <c r="Q370" s="6"/>
       <c r="R370" s="6"/>
       <c r="S370" s="6"/>
-      <c r="T370" s="8"/>
+      <c r="T370" s="9"/>
       <c r="U370" s="6"/>
       <c r="V370" s="6"/>
     </row>
@@ -9569,7 +9715,7 @@
       <c r="Q371" s="6"/>
       <c r="R371" s="6"/>
       <c r="S371" s="6"/>
-      <c r="T371" s="8"/>
+      <c r="T371" s="9"/>
       <c r="U371" s="6"/>
       <c r="V371" s="6"/>
     </row>
@@ -9593,7 +9739,7 @@
       <c r="Q372" s="6"/>
       <c r="R372" s="6"/>
       <c r="S372" s="6"/>
-      <c r="T372" s="8"/>
+      <c r="T372" s="9"/>
       <c r="U372" s="6"/>
       <c r="V372" s="6"/>
     </row>
@@ -9617,7 +9763,7 @@
       <c r="Q373" s="6"/>
       <c r="R373" s="6"/>
       <c r="S373" s="6"/>
-      <c r="T373" s="8"/>
+      <c r="T373" s="9"/>
       <c r="U373" s="6"/>
       <c r="V373" s="6"/>
     </row>
@@ -9641,7 +9787,7 @@
       <c r="Q374" s="6"/>
       <c r="R374" s="6"/>
       <c r="S374" s="6"/>
-      <c r="T374" s="8"/>
+      <c r="T374" s="9"/>
       <c r="U374" s="6"/>
       <c r="V374" s="6"/>
     </row>
@@ -9665,7 +9811,7 @@
       <c r="Q375" s="6"/>
       <c r="R375" s="6"/>
       <c r="S375" s="6"/>
-      <c r="T375" s="8"/>
+      <c r="T375" s="9"/>
       <c r="U375" s="6"/>
       <c r="V375" s="6"/>
     </row>
@@ -9689,7 +9835,7 @@
       <c r="Q376" s="6"/>
       <c r="R376" s="6"/>
       <c r="S376" s="6"/>
-      <c r="T376" s="8"/>
+      <c r="T376" s="9"/>
       <c r="U376" s="6"/>
       <c r="V376" s="6"/>
     </row>
@@ -9713,7 +9859,7 @@
       <c r="Q377" s="6"/>
       <c r="R377" s="6"/>
       <c r="S377" s="6"/>
-      <c r="T377" s="8"/>
+      <c r="T377" s="9"/>
       <c r="U377" s="6"/>
       <c r="V377" s="6"/>
     </row>
@@ -9737,7 +9883,7 @@
       <c r="Q378" s="6"/>
       <c r="R378" s="6"/>
       <c r="S378" s="6"/>
-      <c r="T378" s="8"/>
+      <c r="T378" s="9"/>
       <c r="U378" s="6"/>
       <c r="V378" s="6"/>
     </row>
@@ -9761,7 +9907,7 @@
       <c r="Q379" s="6"/>
       <c r="R379" s="6"/>
       <c r="S379" s="6"/>
-      <c r="T379" s="8"/>
+      <c r="T379" s="9"/>
       <c r="U379" s="6"/>
       <c r="V379" s="6"/>
     </row>
@@ -9785,7 +9931,7 @@
       <c r="Q380" s="6"/>
       <c r="R380" s="6"/>
       <c r="S380" s="6"/>
-      <c r="T380" s="8"/>
+      <c r="T380" s="9"/>
       <c r="U380" s="6"/>
       <c r="V380" s="6"/>
     </row>
@@ -9809,7 +9955,7 @@
       <c r="Q381" s="6"/>
       <c r="R381" s="6"/>
       <c r="S381" s="6"/>
-      <c r="T381" s="8"/>
+      <c r="T381" s="9"/>
       <c r="U381" s="6"/>
       <c r="V381" s="6"/>
     </row>
@@ -9833,7 +9979,7 @@
       <c r="Q382" s="6"/>
       <c r="R382" s="6"/>
       <c r="S382" s="6"/>
-      <c r="T382" s="8"/>
+      <c r="T382" s="9"/>
       <c r="U382" s="6"/>
       <c r="V382" s="6"/>
     </row>
@@ -9857,7 +10003,7 @@
       <c r="Q383" s="6"/>
       <c r="R383" s="6"/>
       <c r="S383" s="6"/>
-      <c r="T383" s="8"/>
+      <c r="T383" s="9"/>
       <c r="U383" s="6"/>
       <c r="V383" s="6"/>
     </row>
@@ -9881,7 +10027,7 @@
       <c r="Q384" s="6"/>
       <c r="R384" s="6"/>
       <c r="S384" s="6"/>
-      <c r="T384" s="8"/>
+      <c r="T384" s="9"/>
       <c r="U384" s="6"/>
       <c r="V384" s="6"/>
     </row>
@@ -9905,7 +10051,7 @@
       <c r="Q385" s="6"/>
       <c r="R385" s="6"/>
       <c r="S385" s="6"/>
-      <c r="T385" s="8"/>
+      <c r="T385" s="9"/>
       <c r="U385" s="6"/>
       <c r="V385" s="6"/>
     </row>
@@ -9929,7 +10075,7 @@
       <c r="Q386" s="6"/>
       <c r="R386" s="6"/>
       <c r="S386" s="6"/>
-      <c r="T386" s="8"/>
+      <c r="T386" s="9"/>
       <c r="U386" s="6"/>
       <c r="V386" s="6"/>
     </row>
@@ -9953,7 +10099,7 @@
       <c r="Q387" s="6"/>
       <c r="R387" s="6"/>
       <c r="S387" s="6"/>
-      <c r="T387" s="8"/>
+      <c r="T387" s="9"/>
       <c r="U387" s="6"/>
       <c r="V387" s="6"/>
     </row>
@@ -9977,7 +10123,7 @@
       <c r="Q388" s="6"/>
       <c r="R388" s="6"/>
       <c r="S388" s="6"/>
-      <c r="T388" s="8"/>
+      <c r="T388" s="9"/>
       <c r="U388" s="6"/>
       <c r="V388" s="6"/>
     </row>
@@ -10001,7 +10147,7 @@
       <c r="Q389" s="6"/>
       <c r="R389" s="6"/>
       <c r="S389" s="6"/>
-      <c r="T389" s="8"/>
+      <c r="T389" s="9"/>
       <c r="U389" s="6"/>
       <c r="V389" s="6"/>
     </row>
@@ -10025,7 +10171,7 @@
       <c r="Q390" s="6"/>
       <c r="R390" s="6"/>
       <c r="S390" s="6"/>
-      <c r="T390" s="8"/>
+      <c r="T390" s="9"/>
       <c r="U390" s="6"/>
       <c r="V390" s="6"/>
     </row>
@@ -10049,7 +10195,7 @@
       <c r="Q391" s="6"/>
       <c r="R391" s="6"/>
       <c r="S391" s="6"/>
-      <c r="T391" s="8"/>
+      <c r="T391" s="9"/>
       <c r="U391" s="6"/>
       <c r="V391" s="6"/>
     </row>
@@ -10073,7 +10219,7 @@
       <c r="Q392" s="6"/>
       <c r="R392" s="6"/>
       <c r="S392" s="6"/>
-      <c r="T392" s="8"/>
+      <c r="T392" s="9"/>
       <c r="U392" s="6"/>
       <c r="V392" s="6"/>
     </row>
@@ -10097,7 +10243,7 @@
       <c r="Q393" s="6"/>
       <c r="R393" s="6"/>
       <c r="S393" s="6"/>
-      <c r="T393" s="8"/>
+      <c r="T393" s="9"/>
       <c r="U393" s="6"/>
       <c r="V393" s="6"/>
     </row>
@@ -10121,7 +10267,7 @@
       <c r="Q394" s="6"/>
       <c r="R394" s="6"/>
       <c r="S394" s="6"/>
-      <c r="T394" s="8"/>
+      <c r="T394" s="9"/>
       <c r="U394" s="6"/>
       <c r="V394" s="6"/>
     </row>
@@ -10145,7 +10291,7 @@
       <c r="Q395" s="6"/>
       <c r="R395" s="6"/>
       <c r="S395" s="6"/>
-      <c r="T395" s="8"/>
+      <c r="T395" s="9"/>
       <c r="U395" s="6"/>
       <c r="V395" s="6"/>
     </row>
@@ -10169,7 +10315,7 @@
       <c r="Q396" s="6"/>
       <c r="R396" s="6"/>
       <c r="S396" s="6"/>
-      <c r="T396" s="8"/>
+      <c r="T396" s="9"/>
       <c r="U396" s="6"/>
       <c r="V396" s="6"/>
     </row>
@@ -10193,7 +10339,7 @@
       <c r="Q397" s="6"/>
       <c r="R397" s="6"/>
       <c r="S397" s="6"/>
-      <c r="T397" s="8"/>
+      <c r="T397" s="9"/>
       <c r="U397" s="6"/>
       <c r="V397" s="6"/>
     </row>
@@ -10217,7 +10363,7 @@
       <c r="Q398" s="6"/>
       <c r="R398" s="6"/>
       <c r="S398" s="6"/>
-      <c r="T398" s="8"/>
+      <c r="T398" s="9"/>
       <c r="U398" s="6"/>
       <c r="V398" s="6"/>
     </row>
@@ -10241,7 +10387,7 @@
       <c r="Q399" s="6"/>
       <c r="R399" s="6"/>
       <c r="S399" s="6"/>
-      <c r="T399" s="8"/>
+      <c r="T399" s="9"/>
       <c r="U399" s="6"/>
       <c r="V399" s="6"/>
     </row>
@@ -10265,7 +10411,7 @@
       <c r="Q400" s="6"/>
       <c r="R400" s="6"/>
       <c r="S400" s="6"/>
-      <c r="T400" s="8"/>
+      <c r="T400" s="9"/>
       <c r="U400" s="6"/>
       <c r="V400" s="6"/>
     </row>
@@ -10289,7 +10435,7 @@
       <c r="Q401" s="6"/>
       <c r="R401" s="6"/>
       <c r="S401" s="6"/>
-      <c r="T401" s="8"/>
+      <c r="T401" s="9"/>
       <c r="U401" s="6"/>
       <c r="V401" s="6"/>
     </row>
@@ -10313,7 +10459,7 @@
       <c r="Q402" s="6"/>
       <c r="R402" s="6"/>
       <c r="S402" s="6"/>
-      <c r="T402" s="8"/>
+      <c r="T402" s="9"/>
       <c r="U402" s="6"/>
       <c r="V402" s="6"/>
     </row>
@@ -10337,7 +10483,7 @@
       <c r="Q403" s="6"/>
       <c r="R403" s="6"/>
       <c r="S403" s="6"/>
-      <c r="T403" s="8"/>
+      <c r="T403" s="9"/>
       <c r="U403" s="6"/>
       <c r="V403" s="6"/>
     </row>
@@ -10361,7 +10507,7 @@
       <c r="Q404" s="6"/>
       <c r="R404" s="6"/>
       <c r="S404" s="6"/>
-      <c r="T404" s="8"/>
+      <c r="T404" s="9"/>
       <c r="U404" s="6"/>
       <c r="V404" s="6"/>
     </row>
@@ -10385,7 +10531,7 @@
       <c r="Q405" s="6"/>
       <c r="R405" s="6"/>
       <c r="S405" s="6"/>
-      <c r="T405" s="8"/>
+      <c r="T405" s="9"/>
       <c r="U405" s="6"/>
       <c r="V405" s="6"/>
     </row>
@@ -10409,7 +10555,7 @@
       <c r="Q406" s="6"/>
       <c r="R406" s="6"/>
       <c r="S406" s="6"/>
-      <c r="T406" s="8"/>
+      <c r="T406" s="9"/>
       <c r="U406" s="6"/>
       <c r="V406" s="6"/>
     </row>
@@ -10433,7 +10579,7 @@
       <c r="Q407" s="6"/>
       <c r="R407" s="6"/>
       <c r="S407" s="6"/>
-      <c r="T407" s="8"/>
+      <c r="T407" s="9"/>
       <c r="U407" s="6"/>
       <c r="V407" s="6"/>
     </row>
@@ -10457,7 +10603,7 @@
       <c r="Q408" s="6"/>
       <c r="R408" s="6"/>
       <c r="S408" s="6"/>
-      <c r="T408" s="8"/>
+      <c r="T408" s="9"/>
       <c r="U408" s="6"/>
       <c r="V408" s="6"/>
     </row>
@@ -10481,7 +10627,7 @@
       <c r="Q409" s="6"/>
       <c r="R409" s="6"/>
       <c r="S409" s="6"/>
-      <c r="T409" s="8"/>
+      <c r="T409" s="9"/>
       <c r="U409" s="6"/>
       <c r="V409" s="6"/>
     </row>
@@ -10505,7 +10651,7 @@
       <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
       <c r="S410" s="6"/>
-      <c r="T410" s="8"/>
+      <c r="T410" s="9"/>
       <c r="U410" s="6"/>
       <c r="V410" s="6"/>
     </row>
@@ -10529,7 +10675,7 @@
       <c r="Q411" s="6"/>
       <c r="R411" s="6"/>
       <c r="S411" s="6"/>
-      <c r="T411" s="8"/>
+      <c r="T411" s="9"/>
       <c r="U411" s="6"/>
       <c r="V411" s="6"/>
     </row>
@@ -10553,7 +10699,7 @@
       <c r="Q412" s="6"/>
       <c r="R412" s="6"/>
       <c r="S412" s="6"/>
-      <c r="T412" s="8"/>
+      <c r="T412" s="9"/>
       <c r="U412" s="6"/>
       <c r="V412" s="6"/>
     </row>
@@ -10577,7 +10723,7 @@
       <c r="Q413" s="6"/>
       <c r="R413" s="6"/>
       <c r="S413" s="6"/>
-      <c r="T413" s="8"/>
+      <c r="T413" s="9"/>
       <c r="U413" s="6"/>
       <c r="V413" s="6"/>
     </row>
@@ -10601,7 +10747,7 @@
       <c r="Q414" s="6"/>
       <c r="R414" s="6"/>
       <c r="S414" s="6"/>
-      <c r="T414" s="8"/>
+      <c r="T414" s="9"/>
       <c r="U414" s="6"/>
       <c r="V414" s="6"/>
     </row>
@@ -10625,7 +10771,7 @@
       <c r="Q415" s="6"/>
       <c r="R415" s="6"/>
       <c r="S415" s="6"/>
-      <c r="T415" s="8"/>
+      <c r="T415" s="9"/>
       <c r="U415" s="6"/>
       <c r="V415" s="6"/>
     </row>
@@ -10649,7 +10795,7 @@
       <c r="Q416" s="6"/>
       <c r="R416" s="6"/>
       <c r="S416" s="6"/>
-      <c r="T416" s="8"/>
+      <c r="T416" s="9"/>
       <c r="U416" s="6"/>
       <c r="V416" s="6"/>
     </row>
@@ -10673,7 +10819,7 @@
       <c r="Q417" s="6"/>
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
-      <c r="T417" s="8"/>
+      <c r="T417" s="9"/>
       <c r="U417" s="6"/>
       <c r="V417" s="6"/>
     </row>
@@ -10697,7 +10843,7 @@
       <c r="Q418" s="6"/>
       <c r="R418" s="6"/>
       <c r="S418" s="6"/>
-      <c r="T418" s="8"/>
+      <c r="T418" s="9"/>
       <c r="U418" s="6"/>
       <c r="V418" s="6"/>
     </row>
@@ -10721,7 +10867,7 @@
       <c r="Q419" s="6"/>
       <c r="R419" s="6"/>
       <c r="S419" s="6"/>
-      <c r="T419" s="8"/>
+      <c r="T419" s="9"/>
       <c r="U419" s="6"/>
       <c r="V419" s="6"/>
     </row>
@@ -10745,7 +10891,7 @@
       <c r="Q420" s="6"/>
       <c r="R420" s="6"/>
       <c r="S420" s="6"/>
-      <c r="T420" s="8"/>
+      <c r="T420" s="9"/>
       <c r="U420" s="6"/>
       <c r="V420" s="6"/>
     </row>
@@ -10769,7 +10915,7 @@
       <c r="Q421" s="6"/>
       <c r="R421" s="6"/>
       <c r="S421" s="6"/>
-      <c r="T421" s="8"/>
+      <c r="T421" s="9"/>
       <c r="U421" s="6"/>
       <c r="V421" s="6"/>
     </row>
@@ -10793,7 +10939,7 @@
       <c r="Q422" s="6"/>
       <c r="R422" s="6"/>
       <c r="S422" s="6"/>
-      <c r="T422" s="8"/>
+      <c r="T422" s="9"/>
       <c r="U422" s="6"/>
       <c r="V422" s="6"/>
     </row>
@@ -10817,7 +10963,7 @@
       <c r="Q423" s="6"/>
       <c r="R423" s="6"/>
       <c r="S423" s="6"/>
-      <c r="T423" s="8"/>
+      <c r="T423" s="9"/>
       <c r="U423" s="6"/>
       <c r="V423" s="6"/>
     </row>
@@ -10841,7 +10987,7 @@
       <c r="Q424" s="6"/>
       <c r="R424" s="6"/>
       <c r="S424" s="6"/>
-      <c r="T424" s="8"/>
+      <c r="T424" s="9"/>
       <c r="U424" s="6"/>
       <c r="V424" s="6"/>
     </row>
@@ -10865,7 +11011,7 @@
       <c r="Q425" s="6"/>
       <c r="R425" s="6"/>
       <c r="S425" s="6"/>
-      <c r="T425" s="8"/>
+      <c r="T425" s="9"/>
       <c r="U425" s="6"/>
       <c r="V425" s="6"/>
     </row>
@@ -10889,7 +11035,7 @@
       <c r="Q426" s="6"/>
       <c r="R426" s="6"/>
       <c r="S426" s="6"/>
-      <c r="T426" s="8"/>
+      <c r="T426" s="9"/>
       <c r="U426" s="6"/>
       <c r="V426" s="6"/>
     </row>
@@ -10913,7 +11059,7 @@
       <c r="Q427" s="6"/>
       <c r="R427" s="6"/>
       <c r="S427" s="6"/>
-      <c r="T427" s="8"/>
+      <c r="T427" s="9"/>
       <c r="U427" s="6"/>
       <c r="V427" s="6"/>
     </row>
@@ -10937,7 +11083,7 @@
       <c r="Q428" s="6"/>
       <c r="R428" s="6"/>
       <c r="S428" s="6"/>
-      <c r="T428" s="8"/>
+      <c r="T428" s="9"/>
       <c r="U428" s="6"/>
       <c r="V428" s="6"/>
     </row>
@@ -10961,7 +11107,7 @@
       <c r="Q429" s="6"/>
       <c r="R429" s="6"/>
       <c r="S429" s="6"/>
-      <c r="T429" s="8"/>
+      <c r="T429" s="9"/>
       <c r="U429" s="6"/>
       <c r="V429" s="6"/>
     </row>
@@ -10985,7 +11131,7 @@
       <c r="Q430" s="6"/>
       <c r="R430" s="6"/>
       <c r="S430" s="6"/>
-      <c r="T430" s="8"/>
+      <c r="T430" s="9"/>
       <c r="U430" s="6"/>
       <c r="V430" s="6"/>
     </row>
@@ -11009,7 +11155,7 @@
       <c r="Q431" s="6"/>
       <c r="R431" s="6"/>
       <c r="S431" s="6"/>
-      <c r="T431" s="8"/>
+      <c r="T431" s="9"/>
       <c r="U431" s="6"/>
       <c r="V431" s="6"/>
     </row>
@@ -11033,7 +11179,7 @@
       <c r="Q432" s="6"/>
       <c r="R432" s="6"/>
       <c r="S432" s="6"/>
-      <c r="T432" s="8"/>
+      <c r="T432" s="9"/>
       <c r="U432" s="6"/>
       <c r="V432" s="6"/>
     </row>
@@ -11057,7 +11203,7 @@
       <c r="Q433" s="6"/>
       <c r="R433" s="6"/>
       <c r="S433" s="6"/>
-      <c r="T433" s="8"/>
+      <c r="T433" s="9"/>
       <c r="U433" s="6"/>
       <c r="V433" s="6"/>
     </row>
@@ -11081,7 +11227,7 @@
       <c r="Q434" s="6"/>
       <c r="R434" s="6"/>
       <c r="S434" s="6"/>
-      <c r="T434" s="8"/>
+      <c r="T434" s="9"/>
       <c r="U434" s="6"/>
       <c r="V434" s="6"/>
     </row>
@@ -11105,7 +11251,7 @@
       <c r="Q435" s="6"/>
       <c r="R435" s="6"/>
       <c r="S435" s="6"/>
-      <c r="T435" s="8"/>
+      <c r="T435" s="9"/>
       <c r="U435" s="6"/>
       <c r="V435" s="6"/>
     </row>
@@ -11129,7 +11275,7 @@
       <c r="Q436" s="6"/>
       <c r="R436" s="6"/>
       <c r="S436" s="6"/>
-      <c r="T436" s="8"/>
+      <c r="T436" s="9"/>
       <c r="U436" s="6"/>
       <c r="V436" s="6"/>
     </row>
@@ -11153,7 +11299,7 @@
       <c r="Q437" s="6"/>
       <c r="R437" s="6"/>
       <c r="S437" s="6"/>
-      <c r="T437" s="8"/>
+      <c r="T437" s="9"/>
       <c r="U437" s="6"/>
       <c r="V437" s="6"/>
     </row>
@@ -11177,7 +11323,7 @@
       <c r="Q438" s="6"/>
       <c r="R438" s="6"/>
       <c r="S438" s="6"/>
-      <c r="T438" s="8"/>
+      <c r="T438" s="9"/>
       <c r="U438" s="6"/>
       <c r="V438" s="6"/>
     </row>
@@ -11201,7 +11347,7 @@
       <c r="Q439" s="6"/>
       <c r="R439" s="6"/>
       <c r="S439" s="6"/>
-      <c r="T439" s="8"/>
+      <c r="T439" s="9"/>
       <c r="U439" s="6"/>
       <c r="V439" s="6"/>
     </row>
@@ -11225,7 +11371,7 @@
       <c r="Q440" s="6"/>
       <c r="R440" s="6"/>
       <c r="S440" s="6"/>
-      <c r="T440" s="8"/>
+      <c r="T440" s="9"/>
       <c r="U440" s="6"/>
       <c r="V440" s="6"/>
     </row>
@@ -11249,7 +11395,7 @@
       <c r="Q441" s="6"/>
       <c r="R441" s="6"/>
       <c r="S441" s="6"/>
-      <c r="T441" s="8"/>
+      <c r="T441" s="9"/>
       <c r="U441" s="6"/>
       <c r="V441" s="6"/>
     </row>
@@ -11273,7 +11419,7 @@
       <c r="Q442" s="6"/>
       <c r="R442" s="6"/>
       <c r="S442" s="6"/>
-      <c r="T442" s="8"/>
+      <c r="T442" s="9"/>
       <c r="U442" s="6"/>
       <c r="V442" s="6"/>
     </row>
@@ -11297,7 +11443,7 @@
       <c r="Q443" s="6"/>
       <c r="R443" s="6"/>
       <c r="S443" s="6"/>
-      <c r="T443" s="8"/>
+      <c r="T443" s="9"/>
       <c r="U443" s="6"/>
       <c r="V443" s="6"/>
     </row>
@@ -11321,7 +11467,7 @@
       <c r="Q444" s="6"/>
       <c r="R444" s="6"/>
       <c r="S444" s="6"/>
-      <c r="T444" s="8"/>
+      <c r="T444" s="9"/>
       <c r="U444" s="6"/>
       <c r="V444" s="6"/>
     </row>
@@ -11345,7 +11491,7 @@
       <c r="Q445" s="6"/>
       <c r="R445" s="6"/>
       <c r="S445" s="6"/>
-      <c r="T445" s="8"/>
+      <c r="T445" s="9"/>
       <c r="U445" s="6"/>
       <c r="V445" s="6"/>
     </row>
@@ -11369,7 +11515,7 @@
       <c r="Q446" s="6"/>
       <c r="R446" s="6"/>
       <c r="S446" s="6"/>
-      <c r="T446" s="8"/>
+      <c r="T446" s="9"/>
       <c r="U446" s="6"/>
       <c r="V446" s="6"/>
     </row>
@@ -11393,7 +11539,7 @@
       <c r="Q447" s="6"/>
       <c r="R447" s="6"/>
       <c r="S447" s="6"/>
-      <c r="T447" s="8"/>
+      <c r="T447" s="9"/>
       <c r="U447" s="6"/>
       <c r="V447" s="6"/>
     </row>
@@ -11417,7 +11563,7 @@
       <c r="Q448" s="6"/>
       <c r="R448" s="6"/>
       <c r="S448" s="6"/>
-      <c r="T448" s="8"/>
+      <c r="T448" s="9"/>
       <c r="U448" s="6"/>
       <c r="V448" s="6"/>
     </row>
@@ -11441,7 +11587,7 @@
       <c r="Q449" s="6"/>
       <c r="R449" s="6"/>
       <c r="S449" s="6"/>
-      <c r="T449" s="8"/>
+      <c r="T449" s="9"/>
       <c r="U449" s="6"/>
       <c r="V449" s="6"/>
     </row>
@@ -11465,7 +11611,7 @@
       <c r="Q450" s="6"/>
       <c r="R450" s="6"/>
       <c r="S450" s="6"/>
-      <c r="T450" s="8"/>
+      <c r="T450" s="9"/>
       <c r="U450" s="6"/>
       <c r="V450" s="6"/>
     </row>
@@ -11489,7 +11635,7 @@
       <c r="Q451" s="6"/>
       <c r="R451" s="6"/>
       <c r="S451" s="6"/>
-      <c r="T451" s="8"/>
+      <c r="T451" s="9"/>
       <c r="U451" s="6"/>
       <c r="V451" s="6"/>
     </row>
@@ -11513,7 +11659,7 @@
       <c r="Q452" s="6"/>
       <c r="R452" s="6"/>
       <c r="S452" s="6"/>
-      <c r="T452" s="8"/>
+      <c r="T452" s="9"/>
       <c r="U452" s="6"/>
       <c r="V452" s="6"/>
     </row>
@@ -11537,7 +11683,7 @@
       <c r="Q453" s="6"/>
       <c r="R453" s="6"/>
       <c r="S453" s="6"/>
-      <c r="T453" s="8"/>
+      <c r="T453" s="9"/>
       <c r="U453" s="6"/>
       <c r="V453" s="6"/>
     </row>
@@ -11561,7 +11707,7 @@
       <c r="Q454" s="6"/>
       <c r="R454" s="6"/>
       <c r="S454" s="6"/>
-      <c r="T454" s="8"/>
+      <c r="T454" s="9"/>
       <c r="U454" s="6"/>
       <c r="V454" s="6"/>
     </row>
@@ -11585,7 +11731,7 @@
       <c r="Q455" s="6"/>
       <c r="R455" s="6"/>
       <c r="S455" s="6"/>
-      <c r="T455" s="8"/>
+      <c r="T455" s="9"/>
       <c r="U455" s="6"/>
       <c r="V455" s="6"/>
     </row>
@@ -11609,7 +11755,7 @@
       <c r="Q456" s="6"/>
       <c r="R456" s="6"/>
       <c r="S456" s="6"/>
-      <c r="T456" s="8"/>
+      <c r="T456" s="9"/>
       <c r="U456" s="6"/>
       <c r="V456" s="6"/>
     </row>
@@ -11633,7 +11779,7 @@
       <c r="Q457" s="6"/>
       <c r="R457" s="6"/>
       <c r="S457" s="6"/>
-      <c r="T457" s="8"/>
+      <c r="T457" s="9"/>
       <c r="U457" s="6"/>
       <c r="V457" s="6"/>
     </row>
@@ -11657,7 +11803,7 @@
       <c r="Q458" s="6"/>
       <c r="R458" s="6"/>
       <c r="S458" s="6"/>
-      <c r="T458" s="8"/>
+      <c r="T458" s="9"/>
       <c r="U458" s="6"/>
       <c r="V458" s="6"/>
     </row>
@@ -11681,7 +11827,7 @@
       <c r="Q459" s="6"/>
       <c r="R459" s="6"/>
       <c r="S459" s="6"/>
-      <c r="T459" s="8"/>
+      <c r="T459" s="9"/>
       <c r="U459" s="6"/>
       <c r="V459" s="6"/>
     </row>
@@ -11705,7 +11851,7 @@
       <c r="Q460" s="6"/>
       <c r="R460" s="6"/>
       <c r="S460" s="6"/>
-      <c r="T460" s="8"/>
+      <c r="T460" s="9"/>
       <c r="U460" s="6"/>
       <c r="V460" s="6"/>
     </row>
@@ -11729,7 +11875,7 @@
       <c r="Q461" s="6"/>
       <c r="R461" s="6"/>
       <c r="S461" s="6"/>
-      <c r="T461" s="8"/>
+      <c r="T461" s="9"/>
       <c r="U461" s="6"/>
       <c r="V461" s="6"/>
     </row>
@@ -11753,7 +11899,7 @@
       <c r="Q462" s="6"/>
       <c r="R462" s="6"/>
       <c r="S462" s="6"/>
-      <c r="T462" s="8"/>
+      <c r="T462" s="9"/>
       <c r="U462" s="6"/>
       <c r="V462" s="6"/>
     </row>
@@ -11777,7 +11923,7 @@
       <c r="Q463" s="6"/>
       <c r="R463" s="6"/>
       <c r="S463" s="6"/>
-      <c r="T463" s="8"/>
+      <c r="T463" s="9"/>
       <c r="U463" s="6"/>
       <c r="V463" s="6"/>
     </row>
@@ -11801,7 +11947,7 @@
       <c r="Q464" s="6"/>
       <c r="R464" s="6"/>
       <c r="S464" s="6"/>
-      <c r="T464" s="8"/>
+      <c r="T464" s="9"/>
       <c r="U464" s="6"/>
       <c r="V464" s="6"/>
     </row>
@@ -11825,7 +11971,7 @@
       <c r="Q465" s="6"/>
       <c r="R465" s="6"/>
       <c r="S465" s="6"/>
-      <c r="T465" s="8"/>
+      <c r="T465" s="9"/>
       <c r="U465" s="6"/>
       <c r="V465" s="6"/>
     </row>
@@ -11849,7 +11995,7 @@
       <c r="Q466" s="6"/>
       <c r="R466" s="6"/>
       <c r="S466" s="6"/>
-      <c r="T466" s="8"/>
+      <c r="T466" s="9"/>
       <c r="U466" s="6"/>
       <c r="V466" s="6"/>
     </row>
@@ -11873,7 +12019,7 @@
       <c r="Q467" s="6"/>
       <c r="R467" s="6"/>
       <c r="S467" s="6"/>
-      <c r="T467" s="8"/>
+      <c r="T467" s="9"/>
       <c r="U467" s="6"/>
       <c r="V467" s="6"/>
     </row>
@@ -11897,7 +12043,7 @@
       <c r="Q468" s="6"/>
       <c r="R468" s="6"/>
       <c r="S468" s="6"/>
-      <c r="T468" s="8"/>
+      <c r="T468" s="9"/>
       <c r="U468" s="6"/>
       <c r="V468" s="6"/>
     </row>
@@ -11921,7 +12067,7 @@
       <c r="Q469" s="6"/>
       <c r="R469" s="6"/>
       <c r="S469" s="6"/>
-      <c r="T469" s="8"/>
+      <c r="T469" s="9"/>
       <c r="U469" s="6"/>
       <c r="V469" s="6"/>
     </row>
@@ -11945,7 +12091,7 @@
       <c r="Q470" s="6"/>
       <c r="R470" s="6"/>
       <c r="S470" s="6"/>
-      <c r="T470" s="8"/>
+      <c r="T470" s="9"/>
       <c r="U470" s="6"/>
       <c r="V470" s="6"/>
     </row>
@@ -11969,7 +12115,7 @@
       <c r="Q471" s="6"/>
       <c r="R471" s="6"/>
       <c r="S471" s="6"/>
-      <c r="T471" s="8"/>
+      <c r="T471" s="9"/>
       <c r="U471" s="6"/>
       <c r="V471" s="6"/>
     </row>
@@ -11993,7 +12139,7 @@
       <c r="Q472" s="6"/>
       <c r="R472" s="6"/>
       <c r="S472" s="6"/>
-      <c r="T472" s="8"/>
+      <c r="T472" s="9"/>
       <c r="U472" s="6"/>
       <c r="V472" s="6"/>
     </row>
@@ -12017,7 +12163,7 @@
       <c r="Q473" s="6"/>
       <c r="R473" s="6"/>
       <c r="S473" s="6"/>
-      <c r="T473" s="8"/>
+      <c r="T473" s="9"/>
       <c r="U473" s="6"/>
       <c r="V473" s="6"/>
     </row>
@@ -12041,7 +12187,7 @@
       <c r="Q474" s="6"/>
       <c r="R474" s="6"/>
       <c r="S474" s="6"/>
-      <c r="T474" s="8"/>
+      <c r="T474" s="9"/>
       <c r="U474" s="6"/>
       <c r="V474" s="6"/>
     </row>
@@ -12065,7 +12211,7 @@
       <c r="Q475" s="6"/>
       <c r="R475" s="6"/>
       <c r="S475" s="6"/>
-      <c r="T475" s="8"/>
+      <c r="T475" s="9"/>
       <c r="U475" s="6"/>
       <c r="V475" s="6"/>
     </row>
@@ -12089,7 +12235,7 @@
       <c r="Q476" s="6"/>
       <c r="R476" s="6"/>
       <c r="S476" s="6"/>
-      <c r="T476" s="8"/>
+      <c r="T476" s="9"/>
       <c r="U476" s="6"/>
       <c r="V476" s="6"/>
     </row>
@@ -12113,7 +12259,7 @@
       <c r="Q477" s="6"/>
       <c r="R477" s="6"/>
       <c r="S477" s="6"/>
-      <c r="T477" s="8"/>
+      <c r="T477" s="9"/>
       <c r="U477" s="6"/>
       <c r="V477" s="6"/>
     </row>
@@ -12137,7 +12283,7 @@
       <c r="Q478" s="6"/>
       <c r="R478" s="6"/>
       <c r="S478" s="6"/>
-      <c r="T478" s="8"/>
+      <c r="T478" s="9"/>
       <c r="U478" s="6"/>
       <c r="V478" s="6"/>
     </row>
@@ -12161,7 +12307,7 @@
       <c r="Q479" s="6"/>
       <c r="R479" s="6"/>
       <c r="S479" s="6"/>
-      <c r="T479" s="8"/>
+      <c r="T479" s="9"/>
       <c r="U479" s="6"/>
       <c r="V479" s="6"/>
     </row>
@@ -12185,7 +12331,7 @@
       <c r="Q480" s="6"/>
       <c r="R480" s="6"/>
       <c r="S480" s="6"/>
-      <c r="T480" s="8"/>
+      <c r="T480" s="9"/>
       <c r="U480" s="6"/>
       <c r="V480" s="6"/>
     </row>
@@ -12209,7 +12355,7 @@
       <c r="Q481" s="6"/>
       <c r="R481" s="6"/>
       <c r="S481" s="6"/>
-      <c r="T481" s="8"/>
+      <c r="T481" s="9"/>
       <c r="U481" s="6"/>
       <c r="V481" s="6"/>
     </row>
@@ -12233,7 +12379,7 @@
       <c r="Q482" s="6"/>
       <c r="R482" s="6"/>
       <c r="S482" s="6"/>
-      <c r="T482" s="8"/>
+      <c r="T482" s="9"/>
       <c r="U482" s="6"/>
       <c r="V482" s="6"/>
     </row>
@@ -12257,7 +12403,7 @@
       <c r="Q483" s="6"/>
       <c r="R483" s="6"/>
       <c r="S483" s="6"/>
-      <c r="T483" s="8"/>
+      <c r="T483" s="9"/>
       <c r="U483" s="6"/>
       <c r="V483" s="6"/>
     </row>
@@ -12281,7 +12427,7 @@
       <c r="Q484" s="6"/>
       <c r="R484" s="6"/>
       <c r="S484" s="6"/>
-      <c r="T484" s="8"/>
+      <c r="T484" s="9"/>
       <c r="U484" s="6"/>
       <c r="V484" s="6"/>
     </row>
@@ -12305,7 +12451,7 @@
       <c r="Q485" s="6"/>
       <c r="R485" s="6"/>
       <c r="S485" s="6"/>
-      <c r="T485" s="8"/>
+      <c r="T485" s="9"/>
       <c r="U485" s="6"/>
       <c r="V485" s="6"/>
     </row>
@@ -12329,7 +12475,7 @@
       <c r="Q486" s="6"/>
       <c r="R486" s="6"/>
       <c r="S486" s="6"/>
-      <c r="T486" s="8"/>
+      <c r="T486" s="9"/>
       <c r="U486" s="6"/>
       <c r="V486" s="6"/>
     </row>
@@ -12353,7 +12499,7 @@
       <c r="Q487" s="6"/>
       <c r="R487" s="6"/>
       <c r="S487" s="6"/>
-      <c r="T487" s="8"/>
+      <c r="T487" s="9"/>
       <c r="U487" s="6"/>
       <c r="V487" s="6"/>
     </row>
@@ -12377,7 +12523,7 @@
       <c r="Q488" s="6"/>
       <c r="R488" s="6"/>
       <c r="S488" s="6"/>
-      <c r="T488" s="8"/>
+      <c r="T488" s="9"/>
       <c r="U488" s="6"/>
       <c r="V488" s="6"/>
     </row>
@@ -12401,7 +12547,7 @@
       <c r="Q489" s="6"/>
       <c r="R489" s="6"/>
       <c r="S489" s="6"/>
-      <c r="T489" s="8"/>
+      <c r="T489" s="9"/>
       <c r="U489" s="6"/>
       <c r="V489" s="6"/>
     </row>
@@ -12425,7 +12571,7 @@
       <c r="Q490" s="6"/>
       <c r="R490" s="6"/>
       <c r="S490" s="6"/>
-      <c r="T490" s="8"/>
+      <c r="T490" s="9"/>
       <c r="U490" s="6"/>
       <c r="V490" s="6"/>
     </row>
@@ -12449,7 +12595,7 @@
       <c r="Q491" s="6"/>
       <c r="R491" s="6"/>
       <c r="S491" s="6"/>
-      <c r="T491" s="8"/>
+      <c r="T491" s="9"/>
       <c r="U491" s="6"/>
       <c r="V491" s="6"/>
     </row>
@@ -12473,7 +12619,7 @@
       <c r="Q492" s="6"/>
       <c r="R492" s="6"/>
       <c r="S492" s="6"/>
-      <c r="T492" s="8"/>
+      <c r="T492" s="9"/>
       <c r="U492" s="6"/>
       <c r="V492" s="6"/>
     </row>
@@ -12497,7 +12643,7 @@
       <c r="Q493" s="6"/>
       <c r="R493" s="6"/>
       <c r="S493" s="6"/>
-      <c r="T493" s="8"/>
+      <c r="T493" s="9"/>
       <c r="U493" s="6"/>
       <c r="V493" s="6"/>
     </row>
@@ -12521,7 +12667,7 @@
       <c r="Q494" s="6"/>
       <c r="R494" s="6"/>
       <c r="S494" s="6"/>
-      <c r="T494" s="8"/>
+      <c r="T494" s="9"/>
       <c r="U494" s="6"/>
       <c r="V494" s="6"/>
     </row>
@@ -12545,7 +12691,7 @@
       <c r="Q495" s="6"/>
       <c r="R495" s="6"/>
       <c r="S495" s="6"/>
-      <c r="T495" s="8"/>
+      <c r="T495" s="9"/>
       <c r="U495" s="6"/>
       <c r="V495" s="6"/>
     </row>
@@ -12569,7 +12715,7 @@
       <c r="Q496" s="6"/>
       <c r="R496" s="6"/>
       <c r="S496" s="6"/>
-      <c r="T496" s="8"/>
+      <c r="T496" s="9"/>
       <c r="U496" s="6"/>
       <c r="V496" s="6"/>
     </row>
@@ -12593,7 +12739,7 @@
       <c r="Q497" s="6"/>
       <c r="R497" s="6"/>
       <c r="S497" s="6"/>
-      <c r="T497" s="8"/>
+      <c r="T497" s="9"/>
       <c r="U497" s="6"/>
       <c r="V497" s="6"/>
     </row>
@@ -12617,7 +12763,7 @@
       <c r="Q498" s="6"/>
       <c r="R498" s="6"/>
       <c r="S498" s="6"/>
-      <c r="T498" s="8"/>
+      <c r="T498" s="9"/>
       <c r="U498" s="6"/>
       <c r="V498" s="6"/>
     </row>
@@ -12641,7 +12787,7 @@
       <c r="Q499" s="6"/>
       <c r="R499" s="6"/>
       <c r="S499" s="6"/>
-      <c r="T499" s="8"/>
+      <c r="T499" s="9"/>
       <c r="U499" s="6"/>
       <c r="V499" s="6"/>
     </row>
@@ -12665,7 +12811,7 @@
       <c r="Q500" s="6"/>
       <c r="R500" s="6"/>
       <c r="S500" s="6"/>
-      <c r="T500" s="8"/>
+      <c r="T500" s="9"/>
       <c r="U500" s="6"/>
       <c r="V500" s="6"/>
     </row>
@@ -12689,7 +12835,7 @@
       <c r="Q501" s="6"/>
       <c r="R501" s="6"/>
       <c r="S501" s="6"/>
-      <c r="T501" s="8"/>
+      <c r="T501" s="9"/>
       <c r="U501" s="6"/>
       <c r="V501" s="6"/>
     </row>
@@ -12713,7 +12859,7 @@
       <c r="Q502" s="6"/>
       <c r="R502" s="6"/>
       <c r="S502" s="6"/>
-      <c r="T502" s="8"/>
+      <c r="T502" s="9"/>
       <c r="U502" s="6"/>
       <c r="V502" s="6"/>
     </row>
@@ -12737,7 +12883,7 @@
       <c r="Q503" s="6"/>
       <c r="R503" s="6"/>
       <c r="S503" s="6"/>
-      <c r="T503" s="8"/>
+      <c r="T503" s="9"/>
       <c r="U503" s="6"/>
       <c r="V503" s="6"/>
     </row>
@@ -12761,7 +12907,7 @@
       <c r="Q504" s="6"/>
       <c r="R504" s="6"/>
       <c r="S504" s="6"/>
-      <c r="T504" s="8"/>
+      <c r="T504" s="9"/>
       <c r="U504" s="6"/>
       <c r="V504" s="6"/>
     </row>
@@ -12785,7 +12931,7 @@
       <c r="Q505" s="6"/>
       <c r="R505" s="6"/>
       <c r="S505" s="6"/>
-      <c r="T505" s="8"/>
+      <c r="T505" s="9"/>
       <c r="U505" s="6"/>
       <c r="V505" s="6"/>
     </row>
@@ -12809,7 +12955,7 @@
       <c r="Q506" s="6"/>
       <c r="R506" s="6"/>
       <c r="S506" s="6"/>
-      <c r="T506" s="8"/>
+      <c r="T506" s="9"/>
       <c r="U506" s="6"/>
       <c r="V506" s="6"/>
     </row>
@@ -12833,7 +12979,7 @@
       <c r="Q507" s="6"/>
       <c r="R507" s="6"/>
       <c r="S507" s="6"/>
-      <c r="T507" s="8"/>
+      <c r="T507" s="9"/>
       <c r="U507" s="6"/>
       <c r="V507" s="6"/>
     </row>
@@ -12857,7 +13003,7 @@
       <c r="Q508" s="6"/>
       <c r="R508" s="6"/>
       <c r="S508" s="6"/>
-      <c r="T508" s="8"/>
+      <c r="T508" s="9"/>
       <c r="U508" s="6"/>
       <c r="V508" s="6"/>
     </row>
@@ -12881,7 +13027,7 @@
       <c r="Q509" s="6"/>
       <c r="R509" s="6"/>
       <c r="S509" s="6"/>
-      <c r="T509" s="8"/>
+      <c r="T509" s="9"/>
       <c r="U509" s="6"/>
       <c r="V509" s="6"/>
     </row>
@@ -12905,7 +13051,7 @@
       <c r="Q510" s="6"/>
       <c r="R510" s="6"/>
       <c r="S510" s="6"/>
-      <c r="T510" s="8"/>
+      <c r="T510" s="9"/>
       <c r="U510" s="6"/>
       <c r="V510" s="6"/>
     </row>
@@ -12929,7 +13075,7 @@
       <c r="Q511" s="6"/>
       <c r="R511" s="6"/>
       <c r="S511" s="6"/>
-      <c r="T511" s="8"/>
+      <c r="T511" s="9"/>
       <c r="U511" s="6"/>
       <c r="V511" s="6"/>
     </row>
@@ -12953,7 +13099,7 @@
       <c r="Q512" s="6"/>
       <c r="R512" s="6"/>
       <c r="S512" s="6"/>
-      <c r="T512" s="8"/>
+      <c r="T512" s="9"/>
       <c r="U512" s="6"/>
       <c r="V512" s="6"/>
     </row>
@@ -12977,7 +13123,7 @@
       <c r="Q513" s="6"/>
       <c r="R513" s="6"/>
       <c r="S513" s="6"/>
-      <c r="T513" s="8"/>
+      <c r="T513" s="9"/>
       <c r="U513" s="6"/>
       <c r="V513" s="6"/>
     </row>
@@ -13001,7 +13147,7 @@
       <c r="Q514" s="6"/>
       <c r="R514" s="6"/>
       <c r="S514" s="6"/>
-      <c r="T514" s="8"/>
+      <c r="T514" s="9"/>
       <c r="U514" s="6"/>
       <c r="V514" s="6"/>
     </row>
@@ -13025,7 +13171,7 @@
       <c r="Q515" s="6"/>
       <c r="R515" s="6"/>
       <c r="S515" s="6"/>
-      <c r="T515" s="8"/>
+      <c r="T515" s="9"/>
       <c r="U515" s="6"/>
       <c r="V515" s="6"/>
     </row>
@@ -13049,7 +13195,7 @@
       <c r="Q516" s="6"/>
       <c r="R516" s="6"/>
       <c r="S516" s="6"/>
-      <c r="T516" s="8"/>
+      <c r="T516" s="9"/>
       <c r="U516" s="6"/>
       <c r="V516" s="6"/>
     </row>
@@ -13073,7 +13219,7 @@
       <c r="Q517" s="6"/>
       <c r="R517" s="6"/>
       <c r="S517" s="6"/>
-      <c r="T517" s="8"/>
+      <c r="T517" s="9"/>
       <c r="U517" s="6"/>
       <c r="V517" s="6"/>
     </row>
@@ -13097,7 +13243,7 @@
       <c r="Q518" s="6"/>
       <c r="R518" s="6"/>
       <c r="S518" s="6"/>
-      <c r="T518" s="8"/>
+      <c r="T518" s="9"/>
       <c r="U518" s="6"/>
       <c r="V518" s="6"/>
     </row>
@@ -13121,7 +13267,7 @@
       <c r="Q519" s="6"/>
       <c r="R519" s="6"/>
       <c r="S519" s="6"/>
-      <c r="T519" s="8"/>
+      <c r="T519" s="9"/>
       <c r="U519" s="6"/>
       <c r="V519" s="6"/>
     </row>
@@ -13145,7 +13291,7 @@
       <c r="Q520" s="6"/>
       <c r="R520" s="6"/>
       <c r="S520" s="6"/>
-      <c r="T520" s="8"/>
+      <c r="T520" s="9"/>
       <c r="U520" s="6"/>
       <c r="V520" s="6"/>
     </row>
@@ -13169,7 +13315,7 @@
       <c r="Q521" s="6"/>
       <c r="R521" s="6"/>
       <c r="S521" s="6"/>
-      <c r="T521" s="8"/>
+      <c r="T521" s="9"/>
       <c r="U521" s="6"/>
       <c r="V521" s="6"/>
     </row>
@@ -13193,7 +13339,7 @@
       <c r="Q522" s="6"/>
       <c r="R522" s="6"/>
       <c r="S522" s="6"/>
-      <c r="T522" s="8"/>
+      <c r="T522" s="9"/>
       <c r="U522" s="6"/>
       <c r="V522" s="6"/>
     </row>
@@ -13217,7 +13363,7 @@
       <c r="Q523" s="6"/>
       <c r="R523" s="6"/>
       <c r="S523" s="6"/>
-      <c r="T523" s="8"/>
+      <c r="T523" s="9"/>
       <c r="U523" s="6"/>
       <c r="V523" s="6"/>
     </row>
@@ -13241,7 +13387,7 @@
       <c r="Q524" s="6"/>
       <c r="R524" s="6"/>
       <c r="S524" s="6"/>
-      <c r="T524" s="8"/>
+      <c r="T524" s="9"/>
       <c r="U524" s="6"/>
       <c r="V524" s="6"/>
     </row>
@@ -13265,7 +13411,7 @@
       <c r="Q525" s="6"/>
       <c r="R525" s="6"/>
       <c r="S525" s="6"/>
-      <c r="T525" s="8"/>
+      <c r="T525" s="9"/>
       <c r="U525" s="6"/>
       <c r="V525" s="6"/>
     </row>
@@ -13289,7 +13435,7 @@
       <c r="Q526" s="6"/>
       <c r="R526" s="6"/>
       <c r="S526" s="6"/>
-      <c r="T526" s="8"/>
+      <c r="T526" s="9"/>
       <c r="U526" s="6"/>
       <c r="V526" s="6"/>
     </row>
@@ -13313,7 +13459,7 @@
       <c r="Q527" s="6"/>
       <c r="R527" s="6"/>
       <c r="S527" s="6"/>
-      <c r="T527" s="8"/>
+      <c r="T527" s="9"/>
       <c r="U527" s="6"/>
       <c r="V527" s="6"/>
     </row>
@@ -13337,7 +13483,7 @@
       <c r="Q528" s="6"/>
       <c r="R528" s="6"/>
       <c r="S528" s="6"/>
-      <c r="T528" s="8"/>
+      <c r="T528" s="9"/>
       <c r="U528" s="6"/>
       <c r="V528" s="6"/>
     </row>
@@ -13361,7 +13507,7 @@
       <c r="Q529" s="6"/>
       <c r="R529" s="6"/>
       <c r="S529" s="6"/>
-      <c r="T529" s="8"/>
+      <c r="T529" s="9"/>
       <c r="U529" s="6"/>
       <c r="V529" s="6"/>
     </row>
@@ -13385,7 +13531,7 @@
       <c r="Q530" s="6"/>
       <c r="R530" s="6"/>
       <c r="S530" s="6"/>
-      <c r="T530" s="8"/>
+      <c r="T530" s="9"/>
       <c r="U530" s="6"/>
       <c r="V530" s="6"/>
     </row>
@@ -13409,7 +13555,7 @@
       <c r="Q531" s="6"/>
       <c r="R531" s="6"/>
       <c r="S531" s="6"/>
-      <c r="T531" s="8"/>
+      <c r="T531" s="9"/>
       <c r="U531" s="6"/>
       <c r="V531" s="6"/>
     </row>
@@ -13433,7 +13579,7 @@
       <c r="Q532" s="6"/>
       <c r="R532" s="6"/>
       <c r="S532" s="6"/>
-      <c r="T532" s="8"/>
+      <c r="T532" s="9"/>
       <c r="U532" s="6"/>
       <c r="V532" s="6"/>
     </row>
@@ -13457,7 +13603,7 @@
       <c r="Q533" s="6"/>
       <c r="R533" s="6"/>
       <c r="S533" s="6"/>
-      <c r="T533" s="8"/>
+      <c r="T533" s="9"/>
       <c r="U533" s="6"/>
       <c r="V533" s="6"/>
     </row>
@@ -13481,7 +13627,7 @@
       <c r="Q534" s="6"/>
       <c r="R534" s="6"/>
       <c r="S534" s="6"/>
-      <c r="T534" s="8"/>
+      <c r="T534" s="9"/>
       <c r="U534" s="6"/>
       <c r="V534" s="6"/>
     </row>
@@ -13505,7 +13651,7 @@
       <c r="Q535" s="6"/>
       <c r="R535" s="6"/>
       <c r="S535" s="6"/>
-      <c r="T535" s="8"/>
+      <c r="T535" s="9"/>
       <c r="U535" s="6"/>
       <c r="V535" s="6"/>
     </row>
@@ -13529,7 +13675,7 @@
       <c r="Q536" s="6"/>
       <c r="R536" s="6"/>
       <c r="S536" s="6"/>
-      <c r="T536" s="8"/>
+      <c r="T536" s="9"/>
       <c r="U536" s="6"/>
       <c r="V536" s="6"/>
     </row>
@@ -13553,7 +13699,7 @@
       <c r="Q537" s="6"/>
       <c r="R537" s="6"/>
       <c r="S537" s="6"/>
-      <c r="T537" s="8"/>
+      <c r="T537" s="9"/>
       <c r="U537" s="6"/>
       <c r="V537" s="6"/>
     </row>
@@ -13577,7 +13723,7 @@
       <c r="Q538" s="6"/>
       <c r="R538" s="6"/>
       <c r="S538" s="6"/>
-      <c r="T538" s="8"/>
+      <c r="T538" s="9"/>
       <c r="U538" s="6"/>
       <c r="V538" s="6"/>
     </row>
@@ -13601,7 +13747,7 @@
       <c r="Q539" s="6"/>
       <c r="R539" s="6"/>
       <c r="S539" s="6"/>
-      <c r="T539" s="8"/>
+      <c r="T539" s="9"/>
       <c r="U539" s="6"/>
       <c r="V539" s="6"/>
     </row>
@@ -13625,7 +13771,7 @@
       <c r="Q540" s="6"/>
       <c r="R540" s="6"/>
       <c r="S540" s="6"/>
-      <c r="T540" s="8"/>
+      <c r="T540" s="9"/>
       <c r="U540" s="6"/>
       <c r="V540" s="6"/>
     </row>
@@ -13649,7 +13795,7 @@
       <c r="Q541" s="6"/>
       <c r="R541" s="6"/>
       <c r="S541" s="6"/>
-      <c r="T541" s="8"/>
+      <c r="T541" s="9"/>
       <c r="U541" s="6"/>
       <c r="V541" s="6"/>
     </row>
@@ -13673,7 +13819,7 @@
       <c r="Q542" s="6"/>
       <c r="R542" s="6"/>
       <c r="S542" s="6"/>
-      <c r="T542" s="8"/>
+      <c r="T542" s="9"/>
       <c r="U542" s="6"/>
       <c r="V542" s="6"/>
     </row>
@@ -13697,7 +13843,7 @@
       <c r="Q543" s="6"/>
       <c r="R543" s="6"/>
       <c r="S543" s="6"/>
-      <c r="T543" s="8"/>
+      <c r="T543" s="9"/>
       <c r="U543" s="6"/>
       <c r="V543" s="6"/>
     </row>
@@ -13721,7 +13867,7 @@
       <c r="Q544" s="6"/>
       <c r="R544" s="6"/>
       <c r="S544" s="6"/>
-      <c r="T544" s="8"/>
+      <c r="T544" s="9"/>
       <c r="U544" s="6"/>
       <c r="V544" s="6"/>
     </row>
@@ -13745,7 +13891,7 @@
       <c r="Q545" s="6"/>
       <c r="R545" s="6"/>
       <c r="S545" s="6"/>
-      <c r="T545" s="8"/>
+      <c r="T545" s="9"/>
       <c r="U545" s="6"/>
       <c r="V545" s="6"/>
     </row>
@@ -13769,7 +13915,7 @@
       <c r="Q546" s="6"/>
       <c r="R546" s="6"/>
       <c r="S546" s="6"/>
-      <c r="T546" s="8"/>
+      <c r="T546" s="9"/>
       <c r="U546" s="6"/>
       <c r="V546" s="6"/>
     </row>
@@ -13793,7 +13939,7 @@
       <c r="Q547" s="6"/>
       <c r="R547" s="6"/>
       <c r="S547" s="6"/>
-      <c r="T547" s="8"/>
+      <c r="T547" s="9"/>
       <c r="U547" s="6"/>
       <c r="V547" s="6"/>
     </row>
@@ -13817,7 +13963,7 @@
       <c r="Q548" s="6"/>
       <c r="R548" s="6"/>
       <c r="S548" s="6"/>
-      <c r="T548" s="8"/>
+      <c r="T548" s="9"/>
       <c r="U548" s="6"/>
       <c r="V548" s="6"/>
     </row>
@@ -13841,7 +13987,7 @@
       <c r="Q549" s="6"/>
       <c r="R549" s="6"/>
       <c r="S549" s="6"/>
-      <c r="T549" s="8"/>
+      <c r="T549" s="9"/>
       <c r="U549" s="6"/>
       <c r="V549" s="6"/>
     </row>
@@ -13865,7 +14011,7 @@
       <c r="Q550" s="6"/>
       <c r="R550" s="6"/>
       <c r="S550" s="6"/>
-      <c r="T550" s="8"/>
+      <c r="T550" s="9"/>
       <c r="U550" s="6"/>
       <c r="V550" s="6"/>
     </row>
@@ -13889,7 +14035,7 @@
       <c r="Q551" s="6"/>
       <c r="R551" s="6"/>
       <c r="S551" s="6"/>
-      <c r="T551" s="8"/>
+      <c r="T551" s="9"/>
       <c r="U551" s="6"/>
       <c r="V551" s="6"/>
     </row>
@@ -13913,7 +14059,7 @@
       <c r="Q552" s="6"/>
       <c r="R552" s="6"/>
       <c r="S552" s="6"/>
-      <c r="T552" s="8"/>
+      <c r="T552" s="9"/>
       <c r="U552" s="6"/>
       <c r="V552" s="6"/>
     </row>
@@ -13937,7 +14083,7 @@
       <c r="Q553" s="6"/>
       <c r="R553" s="6"/>
       <c r="S553" s="6"/>
-      <c r="T553" s="8"/>
+      <c r="T553" s="9"/>
       <c r="U553" s="6"/>
       <c r="V553" s="6"/>
     </row>
@@ -13961,7 +14107,7 @@
       <c r="Q554" s="6"/>
       <c r="R554" s="6"/>
       <c r="S554" s="6"/>
-      <c r="T554" s="8"/>
+      <c r="T554" s="9"/>
       <c r="U554" s="6"/>
       <c r="V554" s="6"/>
     </row>
@@ -13985,7 +14131,7 @@
       <c r="Q555" s="6"/>
       <c r="R555" s="6"/>
       <c r="S555" s="6"/>
-      <c r="T555" s="8"/>
+      <c r="T555" s="9"/>
       <c r="U555" s="6"/>
       <c r="V555" s="6"/>
     </row>
@@ -14009,7 +14155,7 @@
       <c r="Q556" s="6"/>
       <c r="R556" s="6"/>
       <c r="S556" s="6"/>
-      <c r="T556" s="8"/>
+      <c r="T556" s="9"/>
       <c r="U556" s="6"/>
       <c r="V556" s="6"/>
     </row>
@@ -14033,7 +14179,7 @@
       <c r="Q557" s="6"/>
       <c r="R557" s="6"/>
       <c r="S557" s="6"/>
-      <c r="T557" s="8"/>
+      <c r="T557" s="9"/>
       <c r="U557" s="6"/>
       <c r="V557" s="6"/>
     </row>
@@ -14057,7 +14203,7 @@
       <c r="Q558" s="6"/>
       <c r="R558" s="6"/>
       <c r="S558" s="6"/>
-      <c r="T558" s="8"/>
+      <c r="T558" s="9"/>
       <c r="U558" s="6"/>
       <c r="V558" s="6"/>
     </row>
@@ -14081,7 +14227,7 @@
       <c r="Q559" s="6"/>
       <c r="R559" s="6"/>
       <c r="S559" s="6"/>
-      <c r="T559" s="8"/>
+      <c r="T559" s="9"/>
       <c r="U559" s="6"/>
       <c r="V559" s="6"/>
     </row>
@@ -14105,7 +14251,7 @@
       <c r="Q560" s="6"/>
       <c r="R560" s="6"/>
       <c r="S560" s="6"/>
-      <c r="T560" s="8"/>
+      <c r="T560" s="9"/>
       <c r="U560" s="6"/>
       <c r="V560" s="6"/>
     </row>
@@ -14129,7 +14275,7 @@
       <c r="Q561" s="6"/>
       <c r="R561" s="6"/>
       <c r="S561" s="6"/>
-      <c r="T561" s="8"/>
+      <c r="T561" s="9"/>
       <c r="U561" s="6"/>
       <c r="V561" s="6"/>
     </row>
@@ -14153,7 +14299,7 @@
       <c r="Q562" s="6"/>
       <c r="R562" s="6"/>
       <c r="S562" s="6"/>
-      <c r="T562" s="8"/>
+      <c r="T562" s="9"/>
       <c r="U562" s="6"/>
       <c r="V562" s="6"/>
     </row>
@@ -14177,7 +14323,7 @@
       <c r="Q563" s="6"/>
       <c r="R563" s="6"/>
       <c r="S563" s="6"/>
-      <c r="T563" s="8"/>
+      <c r="T563" s="9"/>
       <c r="U563" s="6"/>
       <c r="V563" s="6"/>
     </row>
@@ -14201,7 +14347,7 @@
       <c r="Q564" s="6"/>
       <c r="R564" s="6"/>
       <c r="S564" s="6"/>
-      <c r="T564" s="8"/>
+      <c r="T564" s="9"/>
       <c r="U564" s="6"/>
       <c r="V564" s="6"/>
     </row>
@@ -14225,7 +14371,7 @@
       <c r="Q565" s="6"/>
       <c r="R565" s="6"/>
       <c r="S565" s="6"/>
-      <c r="T565" s="8"/>
+      <c r="T565" s="9"/>
       <c r="U565" s="6"/>
       <c r="V565" s="6"/>
     </row>
@@ -14249,7 +14395,7 @@
       <c r="Q566" s="6"/>
       <c r="R566" s="6"/>
       <c r="S566" s="6"/>
-      <c r="T566" s="8"/>
+      <c r="T566" s="9"/>
       <c r="U566" s="6"/>
       <c r="V566" s="6"/>
     </row>
@@ -14273,7 +14419,7 @@
       <c r="Q567" s="6"/>
       <c r="R567" s="6"/>
       <c r="S567" s="6"/>
-      <c r="T567" s="8"/>
+      <c r="T567" s="9"/>
       <c r="U567" s="6"/>
       <c r="V567" s="6"/>
     </row>
@@ -14297,7 +14443,7 @@
       <c r="Q568" s="6"/>
       <c r="R568" s="6"/>
       <c r="S568" s="6"/>
-      <c r="T568" s="8"/>
+      <c r="T568" s="9"/>
       <c r="U568" s="6"/>
       <c r="V568" s="6"/>
     </row>
@@ -14321,7 +14467,7 @@
       <c r="Q569" s="6"/>
       <c r="R569" s="6"/>
       <c r="S569" s="6"/>
-      <c r="T569" s="8"/>
+      <c r="T569" s="9"/>
       <c r="U569" s="6"/>
       <c r="V569" s="6"/>
     </row>
@@ -14345,7 +14491,7 @@
       <c r="Q570" s="6"/>
       <c r="R570" s="6"/>
       <c r="S570" s="6"/>
-      <c r="T570" s="8"/>
+      <c r="T570" s="9"/>
       <c r="U570" s="6"/>
       <c r="V570" s="6"/>
     </row>
@@ -14369,7 +14515,7 @@
       <c r="Q571" s="6"/>
       <c r="R571" s="6"/>
       <c r="S571" s="6"/>
-      <c r="T571" s="8"/>
+      <c r="T571" s="9"/>
       <c r="U571" s="6"/>
       <c r="V571" s="6"/>
     </row>
@@ -14393,7 +14539,7 @@
       <c r="Q572" s="6"/>
       <c r="R572" s="6"/>
       <c r="S572" s="6"/>
-      <c r="T572" s="8"/>
+      <c r="T572" s="9"/>
       <c r="U572" s="6"/>
       <c r="V572" s="6"/>
     </row>
@@ -14417,7 +14563,7 @@
       <c r="Q573" s="6"/>
       <c r="R573" s="6"/>
       <c r="S573" s="6"/>
-      <c r="T573" s="8"/>
+      <c r="T573" s="9"/>
       <c r="U573" s="6"/>
       <c r="V573" s="6"/>
     </row>
@@ -14441,7 +14587,7 @@
       <c r="Q574" s="6"/>
       <c r="R574" s="6"/>
       <c r="S574" s="6"/>
-      <c r="T574" s="8"/>
+      <c r="T574" s="9"/>
       <c r="U574" s="6"/>
       <c r="V574" s="6"/>
     </row>
@@ -14465,7 +14611,7 @@
       <c r="Q575" s="6"/>
       <c r="R575" s="6"/>
       <c r="S575" s="6"/>
-      <c r="T575" s="8"/>
+      <c r="T575" s="9"/>
       <c r="U575" s="6"/>
       <c r="V575" s="6"/>
     </row>
@@ -14489,7 +14635,7 @@
       <c r="Q576" s="6"/>
       <c r="R576" s="6"/>
       <c r="S576" s="6"/>
-      <c r="T576" s="8"/>
+      <c r="T576" s="9"/>
       <c r="U576" s="6"/>
       <c r="V576" s="6"/>
     </row>
@@ -14513,7 +14659,7 @@
       <c r="Q577" s="6"/>
       <c r="R577" s="6"/>
       <c r="S577" s="6"/>
-      <c r="T577" s="8"/>
+      <c r="T577" s="9"/>
       <c r="U577" s="6"/>
       <c r="V577" s="6"/>
     </row>
@@ -14537,7 +14683,7 @@
       <c r="Q578" s="6"/>
       <c r="R578" s="6"/>
       <c r="S578" s="6"/>
-      <c r="T578" s="8"/>
+      <c r="T578" s="9"/>
       <c r="U578" s="6"/>
       <c r="V578" s="6"/>
     </row>
@@ -14561,7 +14707,7 @@
       <c r="Q579" s="6"/>
       <c r="R579" s="6"/>
       <c r="S579" s="6"/>
-      <c r="T579" s="8"/>
+      <c r="T579" s="9"/>
       <c r="U579" s="6"/>
       <c r="V579" s="6"/>
     </row>
@@ -14585,7 +14731,7 @@
       <c r="Q580" s="6"/>
       <c r="R580" s="6"/>
       <c r="S580" s="6"/>
-      <c r="T580" s="8"/>
+      <c r="T580" s="9"/>
       <c r="U580" s="6"/>
       <c r="V580" s="6"/>
     </row>
@@ -14609,7 +14755,7 @@
       <c r="Q581" s="6"/>
       <c r="R581" s="6"/>
       <c r="S581" s="6"/>
-      <c r="T581" s="8"/>
+      <c r="T581" s="9"/>
       <c r="U581" s="6"/>
       <c r="V581" s="6"/>
     </row>
@@ -14633,7 +14779,7 @@
       <c r="Q582" s="6"/>
       <c r="R582" s="6"/>
       <c r="S582" s="6"/>
-      <c r="T582" s="8"/>
+      <c r="T582" s="9"/>
       <c r="U582" s="6"/>
       <c r="V582" s="6"/>
     </row>
@@ -14657,7 +14803,7 @@
       <c r="Q583" s="6"/>
       <c r="R583" s="6"/>
       <c r="S583" s="6"/>
-      <c r="T583" s="8"/>
+      <c r="T583" s="9"/>
       <c r="U583" s="6"/>
       <c r="V583" s="6"/>
     </row>
@@ -14681,7 +14827,7 @@
       <c r="Q584" s="6"/>
       <c r="R584" s="6"/>
       <c r="S584" s="6"/>
-      <c r="T584" s="8"/>
+      <c r="T584" s="9"/>
       <c r="U584" s="6"/>
       <c r="V584" s="6"/>
     </row>
@@ -14705,7 +14851,7 @@
       <c r="Q585" s="6"/>
       <c r="R585" s="6"/>
       <c r="S585" s="6"/>
-      <c r="T585" s="8"/>
+      <c r="T585" s="9"/>
       <c r="U585" s="6"/>
       <c r="V585" s="6"/>
     </row>
@@ -14729,7 +14875,7 @@
       <c r="Q586" s="6"/>
       <c r="R586" s="6"/>
       <c r="S586" s="6"/>
-      <c r="T586" s="8"/>
+      <c r="T586" s="9"/>
       <c r="U586" s="6"/>
       <c r="V586" s="6"/>
     </row>
@@ -14753,7 +14899,7 @@
       <c r="Q587" s="6"/>
       <c r="R587" s="6"/>
       <c r="S587" s="6"/>
-      <c r="T587" s="8"/>
+      <c r="T587" s="9"/>
       <c r="U587" s="6"/>
       <c r="V587" s="6"/>
     </row>
@@ -14777,7 +14923,7 @@
       <c r="Q588" s="6"/>
       <c r="R588" s="6"/>
       <c r="S588" s="6"/>
-      <c r="T588" s="8"/>
+      <c r="T588" s="9"/>
       <c r="U588" s="6"/>
       <c r="V588" s="6"/>
     </row>
@@ -14801,7 +14947,7 @@
       <c r="Q589" s="6"/>
       <c r="R589" s="6"/>
       <c r="S589" s="6"/>
-      <c r="T589" s="8"/>
+      <c r="T589" s="9"/>
       <c r="U589" s="6"/>
       <c r="V589" s="6"/>
     </row>
@@ -14825,7 +14971,7 @@
       <c r="Q590" s="6"/>
       <c r="R590" s="6"/>
       <c r="S590" s="6"/>
-      <c r="T590" s="8"/>
+      <c r="T590" s="9"/>
       <c r="U590" s="6"/>
       <c r="V590" s="6"/>
     </row>
@@ -14849,7 +14995,7 @@
       <c r="Q591" s="6"/>
       <c r="R591" s="6"/>
       <c r="S591" s="6"/>
-      <c r="T591" s="8"/>
+      <c r="T591" s="9"/>
       <c r="U591" s="6"/>
       <c r="V591" s="6"/>
     </row>
@@ -14873,7 +15019,7 @@
       <c r="Q592" s="6"/>
       <c r="R592" s="6"/>
       <c r="S592" s="6"/>
-      <c r="T592" s="8"/>
+      <c r="T592" s="9"/>
       <c r="U592" s="6"/>
       <c r="V592" s="6"/>
     </row>
@@ -14897,7 +15043,7 @@
       <c r="Q593" s="6"/>
       <c r="R593" s="6"/>
       <c r="S593" s="6"/>
-      <c r="T593" s="8"/>
+      <c r="T593" s="9"/>
       <c r="U593" s="6"/>
       <c r="V593" s="6"/>
     </row>
@@ -14921,7 +15067,7 @@
       <c r="Q594" s="6"/>
       <c r="R594" s="6"/>
       <c r="S594" s="6"/>
-      <c r="T594" s="8"/>
+      <c r="T594" s="9"/>
       <c r="U594" s="6"/>
       <c r="V594" s="6"/>
     </row>
@@ -14945,7 +15091,7 @@
       <c r="Q595" s="6"/>
       <c r="R595" s="6"/>
       <c r="S595" s="6"/>
-      <c r="T595" s="8"/>
+      <c r="T595" s="9"/>
       <c r="U595" s="6"/>
       <c r="V595" s="6"/>
     </row>
@@ -14969,7 +15115,7 @@
       <c r="Q596" s="6"/>
       <c r="R596" s="6"/>
       <c r="S596" s="6"/>
-      <c r="T596" s="8"/>
+      <c r="T596" s="9"/>
       <c r="U596" s="6"/>
       <c r="V596" s="6"/>
     </row>
@@ -14993,7 +15139,7 @@
       <c r="Q597" s="6"/>
       <c r="R597" s="6"/>
       <c r="S597" s="6"/>
-      <c r="T597" s="8"/>
+      <c r="T597" s="9"/>
       <c r="U597" s="6"/>
       <c r="V597" s="6"/>
     </row>
@@ -15017,7 +15163,7 @@
       <c r="Q598" s="6"/>
       <c r="R598" s="6"/>
       <c r="S598" s="6"/>
-      <c r="T598" s="8"/>
+      <c r="T598" s="9"/>
       <c r="U598" s="6"/>
       <c r="V598" s="6"/>
     </row>
@@ -15041,7 +15187,7 @@
       <c r="Q599" s="6"/>
       <c r="R599" s="6"/>
       <c r="S599" s="6"/>
-      <c r="T599" s="8"/>
+      <c r="T599" s="9"/>
       <c r="U599" s="6"/>
       <c r="V599" s="6"/>
     </row>
@@ -15065,7 +15211,7 @@
       <c r="Q600" s="6"/>
       <c r="R600" s="6"/>
       <c r="S600" s="6"/>
-      <c r="T600" s="8"/>
+      <c r="T600" s="9"/>
       <c r="U600" s="6"/>
       <c r="V600" s="6"/>
     </row>
@@ -15089,7 +15235,7 @@
       <c r="Q601" s="6"/>
       <c r="R601" s="6"/>
       <c r="S601" s="6"/>
-      <c r="T601" s="8"/>
+      <c r="T601" s="9"/>
       <c r="U601" s="6"/>
       <c r="V601" s="6"/>
     </row>
@@ -15113,7 +15259,7 @@
       <c r="Q602" s="6"/>
       <c r="R602" s="6"/>
       <c r="S602" s="6"/>
-      <c r="T602" s="8"/>
+      <c r="T602" s="9"/>
       <c r="U602" s="6"/>
       <c r="V602" s="6"/>
     </row>
@@ -15137,7 +15283,7 @@
       <c r="Q603" s="6"/>
       <c r="R603" s="6"/>
       <c r="S603" s="6"/>
-      <c r="T603" s="8"/>
+      <c r="T603" s="9"/>
       <c r="U603" s="6"/>
       <c r="V603" s="6"/>
     </row>
@@ -15161,7 +15307,7 @@
       <c r="Q604" s="6"/>
       <c r="R604" s="6"/>
       <c r="S604" s="6"/>
-      <c r="T604" s="8"/>
+      <c r="T604" s="9"/>
       <c r="U604" s="6"/>
       <c r="V604" s="6"/>
     </row>
@@ -15185,7 +15331,7 @@
       <c r="Q605" s="6"/>
       <c r="R605" s="6"/>
       <c r="S605" s="6"/>
-      <c r="T605" s="8"/>
+      <c r="T605" s="9"/>
       <c r="U605" s="6"/>
       <c r="V605" s="6"/>
     </row>
@@ -15209,7 +15355,7 @@
       <c r="Q606" s="6"/>
       <c r="R606" s="6"/>
       <c r="S606" s="6"/>
-      <c r="T606" s="8"/>
+      <c r="T606" s="9"/>
       <c r="U606" s="6"/>
       <c r="V606" s="6"/>
     </row>
@@ -15233,7 +15379,7 @@
       <c r="Q607" s="6"/>
       <c r="R607" s="6"/>
       <c r="S607" s="6"/>
-      <c r="T607" s="8"/>
+      <c r="T607" s="9"/>
       <c r="U607" s="6"/>
       <c r="V607" s="6"/>
     </row>
@@ -15257,7 +15403,7 @@
       <c r="Q608" s="6"/>
       <c r="R608" s="6"/>
       <c r="S608" s="6"/>
-      <c r="T608" s="8"/>
+      <c r="T608" s="9"/>
       <c r="U608" s="6"/>
       <c r="V608" s="6"/>
     </row>
@@ -15281,7 +15427,7 @@
       <c r="Q609" s="6"/>
       <c r="R609" s="6"/>
       <c r="S609" s="6"/>
-      <c r="T609" s="8"/>
+      <c r="T609" s="9"/>
       <c r="U609" s="6"/>
       <c r="V609" s="6"/>
     </row>
@@ -15305,7 +15451,7 @@
       <c r="Q610" s="6"/>
       <c r="R610" s="6"/>
       <c r="S610" s="6"/>
-      <c r="T610" s="8"/>
+      <c r="T610" s="9"/>
       <c r="U610" s="6"/>
       <c r="V610" s="6"/>
     </row>
@@ -15329,7 +15475,7 @@
       <c r="Q611" s="6"/>
       <c r="R611" s="6"/>
       <c r="S611" s="6"/>
-      <c r="T611" s="8"/>
+      <c r="T611" s="9"/>
       <c r="U611" s="6"/>
       <c r="V611" s="6"/>
     </row>
@@ -15353,7 +15499,7 @@
       <c r="Q612" s="6"/>
       <c r="R612" s="6"/>
       <c r="S612" s="6"/>
-      <c r="T612" s="8"/>
+      <c r="T612" s="9"/>
       <c r="U612" s="6"/>
       <c r="V612" s="6"/>
     </row>
@@ -15377,7 +15523,7 @@
       <c r="Q613" s="6"/>
       <c r="R613" s="6"/>
       <c r="S613" s="6"/>
-      <c r="T613" s="8"/>
+      <c r="T613" s="9"/>
       <c r="U613" s="6"/>
       <c r="V613" s="6"/>
     </row>
@@ -15401,7 +15547,7 @@
       <c r="Q614" s="6"/>
       <c r="R614" s="6"/>
       <c r="S614" s="6"/>
-      <c r="T614" s="8"/>
+      <c r="T614" s="9"/>
       <c r="U614" s="6"/>
       <c r="V614" s="6"/>
     </row>
@@ -15425,7 +15571,7 @@
       <c r="Q615" s="6"/>
       <c r="R615" s="6"/>
       <c r="S615" s="6"/>
-      <c r="T615" s="8"/>
+      <c r="T615" s="9"/>
       <c r="U615" s="6"/>
       <c r="V615" s="6"/>
     </row>
@@ -15449,7 +15595,7 @@
       <c r="Q616" s="6"/>
       <c r="R616" s="6"/>
       <c r="S616" s="6"/>
-      <c r="T616" s="8"/>
+      <c r="T616" s="9"/>
       <c r="U616" s="6"/>
       <c r="V616" s="6"/>
     </row>
@@ -15473,7 +15619,7 @@
       <c r="Q617" s="6"/>
       <c r="R617" s="6"/>
       <c r="S617" s="6"/>
-      <c r="T617" s="8"/>
+      <c r="T617" s="9"/>
       <c r="U617" s="6"/>
       <c r="V617" s="6"/>
     </row>
@@ -15497,7 +15643,7 @@
       <c r="Q618" s="6"/>
       <c r="R618" s="6"/>
       <c r="S618" s="6"/>
-      <c r="T618" s="8"/>
+      <c r="T618" s="9"/>
       <c r="U618" s="6"/>
       <c r="V618" s="6"/>
     </row>
@@ -15521,7 +15667,7 @@
       <c r="Q619" s="6"/>
       <c r="R619" s="6"/>
       <c r="S619" s="6"/>
-      <c r="T619" s="8"/>
+      <c r="T619" s="9"/>
       <c r="U619" s="6"/>
       <c r="V619" s="6"/>
     </row>
@@ -15545,7 +15691,7 @@
       <c r="Q620" s="6"/>
       <c r="R620" s="6"/>
       <c r="S620" s="6"/>
-      <c r="T620" s="8"/>
+      <c r="T620" s="9"/>
       <c r="U620" s="6"/>
       <c r="V620" s="6"/>
     </row>
@@ -15569,7 +15715,7 @@
       <c r="Q621" s="6"/>
       <c r="R621" s="6"/>
       <c r="S621" s="6"/>
-      <c r="T621" s="8"/>
+      <c r="T621" s="9"/>
       <c r="U621" s="6"/>
       <c r="V621" s="6"/>
     </row>
@@ -15593,7 +15739,7 @@
       <c r="Q622" s="6"/>
       <c r="R622" s="6"/>
       <c r="S622" s="6"/>
-      <c r="T622" s="8"/>
+      <c r="T622" s="9"/>
       <c r="U622" s="6"/>
       <c r="V622" s="6"/>
     </row>
@@ -15617,7 +15763,7 @@
       <c r="Q623" s="6"/>
       <c r="R623" s="6"/>
       <c r="S623" s="6"/>
-      <c r="T623" s="8"/>
+      <c r="T623" s="9"/>
       <c r="U623" s="6"/>
       <c r="V623" s="6"/>
     </row>
@@ -15641,7 +15787,7 @@
       <c r="Q624" s="6"/>
       <c r="R624" s="6"/>
       <c r="S624" s="6"/>
-      <c r="T624" s="8"/>
+      <c r="T624" s="9"/>
       <c r="U624" s="6"/>
       <c r="V624" s="6"/>
     </row>
@@ -15665,7 +15811,7 @@
       <c r="Q625" s="6"/>
       <c r="R625" s="6"/>
       <c r="S625" s="6"/>
-      <c r="T625" s="8"/>
+      <c r="T625" s="9"/>
       <c r="U625" s="6"/>
       <c r="V625" s="6"/>
     </row>
@@ -15689,7 +15835,7 @@
       <c r="Q626" s="6"/>
       <c r="R626" s="6"/>
       <c r="S626" s="6"/>
-      <c r="T626" s="8"/>
+      <c r="T626" s="9"/>
       <c r="U626" s="6"/>
       <c r="V626" s="6"/>
     </row>
@@ -15713,7 +15859,7 @@
       <c r="Q627" s="6"/>
       <c r="R627" s="6"/>
       <c r="S627" s="6"/>
-      <c r="T627" s="8"/>
+      <c r="T627" s="9"/>
       <c r="U627" s="6"/>
       <c r="V627" s="6"/>
     </row>
@@ -15737,7 +15883,7 @@
       <c r="Q628" s="6"/>
       <c r="R628" s="6"/>
       <c r="S628" s="6"/>
-      <c r="T628" s="8"/>
+      <c r="T628" s="9"/>
       <c r="U628" s="6"/>
       <c r="V628" s="6"/>
     </row>
@@ -15761,7 +15907,7 @@
       <c r="Q629" s="6"/>
       <c r="R629" s="6"/>
       <c r="S629" s="6"/>
-      <c r="T629" s="8"/>
+      <c r="T629" s="9"/>
       <c r="U629" s="6"/>
       <c r="V629" s="6"/>
     </row>
@@ -15785,7 +15931,7 @@
       <c r="Q630" s="6"/>
       <c r="R630" s="6"/>
       <c r="S630" s="6"/>
-      <c r="T630" s="8"/>
+      <c r="T630" s="9"/>
       <c r="U630" s="6"/>
       <c r="V630" s="6"/>
     </row>
@@ -15809,7 +15955,7 @@
       <c r="Q631" s="6"/>
       <c r="R631" s="6"/>
       <c r="S631" s="6"/>
-      <c r="T631" s="8"/>
+      <c r="T631" s="9"/>
       <c r="U631" s="6"/>
       <c r="V631" s="6"/>
     </row>
@@ -15833,7 +15979,7 @@
       <c r="Q632" s="6"/>
       <c r="R632" s="6"/>
       <c r="S632" s="6"/>
-      <c r="T632" s="8"/>
+      <c r="T632" s="9"/>
       <c r="U632" s="6"/>
       <c r="V632" s="6"/>
     </row>
@@ -15857,7 +16003,7 @@
       <c r="Q633" s="6"/>
       <c r="R633" s="6"/>
       <c r="S633" s="6"/>
-      <c r="T633" s="8"/>
+      <c r="T633" s="9"/>
       <c r="U633" s="6"/>
       <c r="V633" s="6"/>
     </row>
@@ -15881,7 +16027,7 @@
       <c r="Q634" s="6"/>
       <c r="R634" s="6"/>
       <c r="S634" s="6"/>
-      <c r="T634" s="8"/>
+      <c r="T634" s="9"/>
       <c r="U634" s="6"/>
       <c r="V634" s="6"/>
     </row>
@@ -15905,7 +16051,7 @@
       <c r="Q635" s="6"/>
       <c r="R635" s="6"/>
       <c r="S635" s="6"/>
-      <c r="T635" s="8"/>
+      <c r="T635" s="9"/>
       <c r="U635" s="6"/>
       <c r="V635" s="6"/>
     </row>
@@ -15929,7 +16075,7 @@
       <c r="Q636" s="6"/>
       <c r="R636" s="6"/>
       <c r="S636" s="6"/>
-      <c r="T636" s="8"/>
+      <c r="T636" s="9"/>
       <c r="U636" s="6"/>
       <c r="V636" s="6"/>
     </row>
@@ -15953,7 +16099,7 @@
       <c r="Q637" s="6"/>
       <c r="R637" s="6"/>
       <c r="S637" s="6"/>
-      <c r="T637" s="8"/>
+      <c r="T637" s="9"/>
       <c r="U637" s="6"/>
       <c r="V637" s="6"/>
     </row>
@@ -15977,7 +16123,7 @@
       <c r="Q638" s="6"/>
       <c r="R638" s="6"/>
       <c r="S638" s="6"/>
-      <c r="T638" s="8"/>
+      <c r="T638" s="9"/>
       <c r="U638" s="6"/>
       <c r="V638" s="6"/>
     </row>
@@ -16001,7 +16147,7 @@
       <c r="Q639" s="6"/>
       <c r="R639" s="6"/>
       <c r="S639" s="6"/>
-      <c r="T639" s="8"/>
+      <c r="T639" s="9"/>
       <c r="U639" s="6"/>
       <c r="V639" s="6"/>
     </row>
@@ -16025,7 +16171,7 @@
       <c r="Q640" s="6"/>
       <c r="R640" s="6"/>
       <c r="S640" s="6"/>
-      <c r="T640" s="8"/>
+      <c r="T640" s="9"/>
       <c r="U640" s="6"/>
       <c r="V640" s="6"/>
     </row>
@@ -16049,7 +16195,7 @@
       <c r="Q641" s="6"/>
       <c r="R641" s="6"/>
       <c r="S641" s="6"/>
-      <c r="T641" s="8"/>
+      <c r="T641" s="9"/>
       <c r="U641" s="6"/>
       <c r="V641" s="6"/>
     </row>
@@ -16073,7 +16219,7 @@
       <c r="Q642" s="6"/>
       <c r="R642" s="6"/>
       <c r="S642" s="6"/>
-      <c r="T642" s="8"/>
+      <c r="T642" s="9"/>
       <c r="U642" s="6"/>
       <c r="V642" s="6"/>
     </row>
@@ -16097,7 +16243,7 @@
       <c r="Q643" s="6"/>
       <c r="R643" s="6"/>
       <c r="S643" s="6"/>
-      <c r="T643" s="8"/>
+      <c r="T643" s="9"/>
       <c r="U643" s="6"/>
       <c r="V643" s="6"/>
     </row>
@@ -16121,7 +16267,7 @@
       <c r="Q644" s="6"/>
       <c r="R644" s="6"/>
       <c r="S644" s="6"/>
-      <c r="T644" s="8"/>
+      <c r="T644" s="9"/>
       <c r="U644" s="6"/>
       <c r="V644" s="6"/>
     </row>
@@ -16145,7 +16291,7 @@
       <c r="Q645" s="6"/>
       <c r="R645" s="6"/>
       <c r="S645" s="6"/>
-      <c r="T645" s="8"/>
+      <c r="T645" s="9"/>
       <c r="U645" s="6"/>
       <c r="V645" s="6"/>
     </row>
@@ -16169,7 +16315,7 @@
       <c r="Q646" s="6"/>
       <c r="R646" s="6"/>
       <c r="S646" s="6"/>
-      <c r="T646" s="8"/>
+      <c r="T646" s="9"/>
       <c r="U646" s="6"/>
       <c r="V646" s="6"/>
     </row>
@@ -16193,7 +16339,7 @@
       <c r="Q647" s="6"/>
       <c r="R647" s="6"/>
       <c r="S647" s="6"/>
-      <c r="T647" s="8"/>
+      <c r="T647" s="9"/>
       <c r="U647" s="6"/>
       <c r="V647" s="6"/>
     </row>
@@ -16217,7 +16363,7 @@
       <c r="Q648" s="6"/>
       <c r="R648" s="6"/>
       <c r="S648" s="6"/>
-      <c r="T648" s="8"/>
+      <c r="T648" s="9"/>
       <c r="U648" s="6"/>
       <c r="V648" s="6"/>
     </row>
@@ -16241,7 +16387,7 @@
       <c r="Q649" s="6"/>
       <c r="R649" s="6"/>
       <c r="S649" s="6"/>
-      <c r="T649" s="8"/>
+      <c r="T649" s="9"/>
       <c r="U649" s="6"/>
       <c r="V649" s="6"/>
     </row>
@@ -16265,7 +16411,7 @@
       <c r="Q650" s="6"/>
       <c r="R650" s="6"/>
       <c r="S650" s="6"/>
-      <c r="T650" s="8"/>
+      <c r="T650" s="9"/>
       <c r="U650" s="6"/>
       <c r="V650" s="6"/>
     </row>
@@ -16289,7 +16435,7 @@
       <c r="Q651" s="6"/>
       <c r="R651" s="6"/>
       <c r="S651" s="6"/>
-      <c r="T651" s="8"/>
+      <c r="T651" s="9"/>
       <c r="U651" s="6"/>
       <c r="V651" s="6"/>
     </row>
@@ -16313,7 +16459,7 @@
       <c r="Q652" s="6"/>
       <c r="R652" s="6"/>
       <c r="S652" s="6"/>
-      <c r="T652" s="8"/>
+      <c r="T652" s="9"/>
       <c r="U652" s="6"/>
       <c r="V652" s="6"/>
     </row>
@@ -16337,7 +16483,7 @@
       <c r="Q653" s="6"/>
       <c r="R653" s="6"/>
       <c r="S653" s="6"/>
-      <c r="T653" s="8"/>
+      <c r="T653" s="9"/>
       <c r="U653" s="6"/>
       <c r="V653" s="6"/>
     </row>
@@ -16361,7 +16507,7 @@
       <c r="Q654" s="6"/>
       <c r="R654" s="6"/>
       <c r="S654" s="6"/>
-      <c r="T654" s="8"/>
+      <c r="T654" s="9"/>
       <c r="U654" s="6"/>
       <c r="V654" s="6"/>
     </row>
@@ -16385,7 +16531,7 @@
       <c r="Q655" s="6"/>
       <c r="R655" s="6"/>
       <c r="S655" s="6"/>
-      <c r="T655" s="8"/>
+      <c r="T655" s="9"/>
       <c r="U655" s="6"/>
       <c r="V655" s="6"/>
     </row>
@@ -16409,7 +16555,7 @@
       <c r="Q656" s="6"/>
       <c r="R656" s="6"/>
       <c r="S656" s="6"/>
-      <c r="T656" s="8"/>
+      <c r="T656" s="9"/>
       <c r="U656" s="6"/>
       <c r="V656" s="6"/>
     </row>
@@ -16433,7 +16579,7 @@
       <c r="Q657" s="6"/>
       <c r="R657" s="6"/>
       <c r="S657" s="6"/>
-      <c r="T657" s="8"/>
+      <c r="T657" s="9"/>
       <c r="U657" s="6"/>
       <c r="V657" s="6"/>
     </row>
@@ -16457,7 +16603,7 @@
       <c r="Q658" s="6"/>
       <c r="R658" s="6"/>
       <c r="S658" s="6"/>
-      <c r="T658" s="8"/>
+      <c r="T658" s="9"/>
       <c r="U658" s="6"/>
       <c r="V658" s="6"/>
     </row>
@@ -16481,7 +16627,7 @@
       <c r="Q659" s="6"/>
       <c r="R659" s="6"/>
       <c r="S659" s="6"/>
-      <c r="T659" s="8"/>
+      <c r="T659" s="9"/>
       <c r="U659" s="6"/>
       <c r="V659" s="6"/>
     </row>
@@ -16505,7 +16651,7 @@
       <c r="Q660" s="6"/>
       <c r="R660" s="6"/>
       <c r="S660" s="6"/>
-      <c r="T660" s="8"/>
+      <c r="T660" s="9"/>
       <c r="U660" s="6"/>
       <c r="V660" s="6"/>
     </row>
@@ -16529,7 +16675,7 @@
       <c r="Q661" s="6"/>
       <c r="R661" s="6"/>
       <c r="S661" s="6"/>
-      <c r="T661" s="8"/>
+      <c r="T661" s="9"/>
       <c r="U661" s="6"/>
       <c r="V661" s="6"/>
     </row>
@@ -16553,7 +16699,7 @@
       <c r="Q662" s="6"/>
       <c r="R662" s="6"/>
       <c r="S662" s="6"/>
-      <c r="T662" s="8"/>
+      <c r="T662" s="9"/>
       <c r="U662" s="6"/>
       <c r="V662" s="6"/>
     </row>
@@ -16577,7 +16723,7 @@
       <c r="Q663" s="6"/>
       <c r="R663" s="6"/>
       <c r="S663" s="6"/>
-      <c r="T663" s="8"/>
+      <c r="T663" s="9"/>
       <c r="U663" s="6"/>
       <c r="V663" s="6"/>
     </row>
@@ -16601,7 +16747,7 @@
       <c r="Q664" s="6"/>
       <c r="R664" s="6"/>
       <c r="S664" s="6"/>
-      <c r="T664" s="8"/>
+      <c r="T664" s="9"/>
       <c r="U664" s="6"/>
       <c r="V664" s="6"/>
     </row>
@@ -16625,7 +16771,7 @@
       <c r="Q665" s="6"/>
       <c r="R665" s="6"/>
       <c r="S665" s="6"/>
-      <c r="T665" s="8"/>
+      <c r="T665" s="9"/>
       <c r="U665" s="6"/>
       <c r="V665" s="6"/>
     </row>
@@ -16649,7 +16795,7 @@
       <c r="Q666" s="6"/>
       <c r="R666" s="6"/>
       <c r="S666" s="6"/>
-      <c r="T666" s="8"/>
+      <c r="T666" s="9"/>
       <c r="U666" s="6"/>
       <c r="V666" s="6"/>
     </row>
@@ -16673,7 +16819,7 @@
       <c r="Q667" s="6"/>
       <c r="R667" s="6"/>
       <c r="S667" s="6"/>
-      <c r="T667" s="8"/>
+      <c r="T667" s="9"/>
       <c r="U667" s="6"/>
       <c r="V667" s="6"/>
     </row>
@@ -16697,7 +16843,7 @@
       <c r="Q668" s="6"/>
       <c r="R668" s="6"/>
       <c r="S668" s="6"/>
-      <c r="T668" s="8"/>
+      <c r="T668" s="9"/>
       <c r="U668" s="6"/>
       <c r="V668" s="6"/>
     </row>
@@ -16721,7 +16867,7 @@
       <c r="Q669" s="6"/>
       <c r="R669" s="6"/>
       <c r="S669" s="6"/>
-      <c r="T669" s="8"/>
+      <c r="T669" s="9"/>
       <c r="U669" s="6"/>
       <c r="V669" s="6"/>
     </row>
@@ -16745,7 +16891,7 @@
       <c r="Q670" s="6"/>
       <c r="R670" s="6"/>
       <c r="S670" s="6"/>
-      <c r="T670" s="8"/>
+      <c r="T670" s="9"/>
       <c r="U670" s="6"/>
       <c r="V670" s="6"/>
     </row>
@@ -16769,7 +16915,7 @@
       <c r="Q671" s="6"/>
       <c r="R671" s="6"/>
       <c r="S671" s="6"/>
-      <c r="T671" s="8"/>
+      <c r="T671" s="9"/>
       <c r="U671" s="6"/>
       <c r="V671" s="6"/>
     </row>
@@ -16793,7 +16939,7 @@
       <c r="Q672" s="6"/>
       <c r="R672" s="6"/>
       <c r="S672" s="6"/>
-      <c r="T672" s="8"/>
+      <c r="T672" s="9"/>
       <c r="U672" s="6"/>
       <c r="V672" s="6"/>
     </row>
@@ -16817,7 +16963,7 @@
       <c r="Q673" s="6"/>
       <c r="R673" s="6"/>
       <c r="S673" s="6"/>
-      <c r="T673" s="8"/>
+      <c r="T673" s="9"/>
       <c r="U673" s="6"/>
       <c r="V673" s="6"/>
     </row>
@@ -16841,7 +16987,7 @@
       <c r="Q674" s="6"/>
       <c r="R674" s="6"/>
       <c r="S674" s="6"/>
-      <c r="T674" s="8"/>
+      <c r="T674" s="9"/>
       <c r="U674" s="6"/>
       <c r="V674" s="6"/>
     </row>
@@ -16865,7 +17011,7 @@
       <c r="Q675" s="6"/>
       <c r="R675" s="6"/>
       <c r="S675" s="6"/>
-      <c r="T675" s="8"/>
+      <c r="T675" s="9"/>
       <c r="U675" s="6"/>
       <c r="V675" s="6"/>
     </row>
@@ -16889,7 +17035,7 @@
       <c r="Q676" s="6"/>
       <c r="R676" s="6"/>
       <c r="S676" s="6"/>
-      <c r="T676" s="8"/>
+      <c r="T676" s="9"/>
       <c r="U676" s="6"/>
       <c r="V676" s="6"/>
     </row>
@@ -16913,7 +17059,7 @@
       <c r="Q677" s="6"/>
       <c r="R677" s="6"/>
       <c r="S677" s="6"/>
-      <c r="T677" s="8"/>
+      <c r="T677" s="9"/>
       <c r="U677" s="6"/>
       <c r="V677" s="6"/>
     </row>
@@ -16937,7 +17083,7 @@
       <c r="Q678" s="6"/>
       <c r="R678" s="6"/>
       <c r="S678" s="6"/>
-      <c r="T678" s="8"/>
+      <c r="T678" s="9"/>
       <c r="U678" s="6"/>
       <c r="V678" s="6"/>
     </row>
@@ -16961,7 +17107,7 @@
       <c r="Q679" s="6"/>
       <c r="R679" s="6"/>
       <c r="S679" s="6"/>
-      <c r="T679" s="8"/>
+      <c r="T679" s="9"/>
       <c r="U679" s="6"/>
       <c r="V679" s="6"/>
     </row>
@@ -16985,7 +17131,7 @@
       <c r="Q680" s="6"/>
       <c r="R680" s="6"/>
       <c r="S680" s="6"/>
-      <c r="T680" s="8"/>
+      <c r="T680" s="9"/>
       <c r="U680" s="6"/>
       <c r="V680" s="6"/>
     </row>
@@ -17009,7 +17155,7 @@
       <c r="Q681" s="6"/>
       <c r="R681" s="6"/>
       <c r="S681" s="6"/>
-      <c r="T681" s="8"/>
+      <c r="T681" s="9"/>
       <c r="U681" s="6"/>
       <c r="V681" s="6"/>
     </row>
@@ -17033,7 +17179,7 @@
       <c r="Q682" s="6"/>
       <c r="R682" s="6"/>
       <c r="S682" s="6"/>
-      <c r="T682" s="8"/>
+      <c r="T682" s="9"/>
       <c r="U682" s="6"/>
       <c r="V682" s="6"/>
     </row>
@@ -17057,7 +17203,7 @@
       <c r="Q683" s="6"/>
       <c r="R683" s="6"/>
       <c r="S683" s="6"/>
-      <c r="T683" s="8"/>
+      <c r="T683" s="9"/>
       <c r="U683" s="6"/>
       <c r="V683" s="6"/>
     </row>
@@ -17081,7 +17227,7 @@
       <c r="Q684" s="6"/>
       <c r="R684" s="6"/>
       <c r="S684" s="6"/>
-      <c r="T684" s="8"/>
+      <c r="T684" s="9"/>
       <c r="U684" s="6"/>
       <c r="V684" s="6"/>
     </row>
@@ -17105,7 +17251,7 @@
       <c r="Q685" s="6"/>
       <c r="R685" s="6"/>
       <c r="S685" s="6"/>
-      <c r="T685" s="8"/>
+      <c r="T685" s="9"/>
       <c r="U685" s="6"/>
       <c r="V685" s="6"/>
     </row>
@@ -17129,7 +17275,7 @@
       <c r="Q686" s="6"/>
       <c r="R686" s="6"/>
       <c r="S686" s="6"/>
-      <c r="T686" s="8"/>
+      <c r="T686" s="9"/>
       <c r="U686" s="6"/>
       <c r="V686" s="6"/>
     </row>
@@ -17153,7 +17299,7 @@
       <c r="Q687" s="6"/>
       <c r="R687" s="6"/>
       <c r="S687" s="6"/>
-      <c r="T687" s="8"/>
+      <c r="T687" s="9"/>
       <c r="U687" s="6"/>
       <c r="V687" s="6"/>
     </row>
@@ -17177,7 +17323,7 @@
       <c r="Q688" s="6"/>
       <c r="R688" s="6"/>
       <c r="S688" s="6"/>
-      <c r="T688" s="8"/>
+      <c r="T688" s="9"/>
       <c r="U688" s="6"/>
       <c r="V688" s="6"/>
     </row>
@@ -17201,7 +17347,7 @@
       <c r="Q689" s="6"/>
       <c r="R689" s="6"/>
       <c r="S689" s="6"/>
-      <c r="T689" s="8"/>
+      <c r="T689" s="9"/>
       <c r="U689" s="6"/>
       <c r="V689" s="6"/>
     </row>
@@ -17225,7 +17371,7 @@
       <c r="Q690" s="6"/>
       <c r="R690" s="6"/>
       <c r="S690" s="6"/>
-      <c r="T690" s="8"/>
+      <c r="T690" s="9"/>
       <c r="U690" s="6"/>
       <c r="V690" s="6"/>
     </row>
@@ -17249,7 +17395,7 @@
       <c r="Q691" s="6"/>
       <c r="R691" s="6"/>
       <c r="S691" s="6"/>
-      <c r="T691" s="8"/>
+      <c r="T691" s="9"/>
       <c r="U691" s="6"/>
       <c r="V691" s="6"/>
     </row>
@@ -17273,7 +17419,7 @@
       <c r="Q692" s="6"/>
       <c r="R692" s="6"/>
       <c r="S692" s="6"/>
-      <c r="T692" s="8"/>
+      <c r="T692" s="9"/>
       <c r="U692" s="6"/>
       <c r="V692" s="6"/>
     </row>
@@ -17297,7 +17443,7 @@
       <c r="Q693" s="6"/>
       <c r="R693" s="6"/>
       <c r="S693" s="6"/>
-      <c r="T693" s="8"/>
+      <c r="T693" s="9"/>
       <c r="U693" s="6"/>
       <c r="V693" s="6"/>
     </row>
@@ -17321,7 +17467,7 @@
       <c r="Q694" s="6"/>
       <c r="R694" s="6"/>
       <c r="S694" s="6"/>
-      <c r="T694" s="8"/>
+      <c r="T694" s="9"/>
       <c r="U694" s="6"/>
       <c r="V694" s="6"/>
     </row>
@@ -17345,7 +17491,7 @@
       <c r="Q695" s="6"/>
       <c r="R695" s="6"/>
       <c r="S695" s="6"/>
-      <c r="T695" s="8"/>
+      <c r="T695" s="9"/>
       <c r="U695" s="6"/>
       <c r="V695" s="6"/>
     </row>
@@ -17369,7 +17515,7 @@
       <c r="Q696" s="6"/>
       <c r="R696" s="6"/>
       <c r="S696" s="6"/>
-      <c r="T696" s="8"/>
+      <c r="T696" s="9"/>
       <c r="U696" s="6"/>
       <c r="V696" s="6"/>
     </row>
@@ -17393,7 +17539,7 @@
       <c r="Q697" s="6"/>
       <c r="R697" s="6"/>
       <c r="S697" s="6"/>
-      <c r="T697" s="8"/>
+      <c r="T697" s="9"/>
       <c r="U697" s="6"/>
       <c r="V697" s="6"/>
     </row>
@@ -17417,7 +17563,7 @@
       <c r="Q698" s="6"/>
       <c r="R698" s="6"/>
       <c r="S698" s="6"/>
-      <c r="T698" s="8"/>
+      <c r="T698" s="9"/>
       <c r="U698" s="6"/>
       <c r="V698" s="6"/>
     </row>
@@ -17441,7 +17587,7 @@
       <c r="Q699" s="6"/>
       <c r="R699" s="6"/>
       <c r="S699" s="6"/>
-      <c r="T699" s="8"/>
+      <c r="T699" s="9"/>
       <c r="U699" s="6"/>
       <c r="V699" s="6"/>
     </row>
@@ -17465,7 +17611,7 @@
       <c r="Q700" s="6"/>
       <c r="R700" s="6"/>
       <c r="S700" s="6"/>
-      <c r="T700" s="8"/>
+      <c r="T700" s="9"/>
       <c r="U700" s="6"/>
       <c r="V700" s="6"/>
     </row>
@@ -17489,7 +17635,7 @@
       <c r="Q701" s="6"/>
       <c r="R701" s="6"/>
       <c r="S701" s="6"/>
-      <c r="T701" s="8"/>
+      <c r="T701" s="9"/>
       <c r="U701" s="6"/>
       <c r="V701" s="6"/>
     </row>
@@ -17513,7 +17659,7 @@
       <c r="Q702" s="6"/>
       <c r="R702" s="6"/>
       <c r="S702" s="6"/>
-      <c r="T702" s="8"/>
+      <c r="T702" s="9"/>
       <c r="U702" s="6"/>
       <c r="V702" s="6"/>
     </row>
@@ -17537,7 +17683,7 @@
       <c r="Q703" s="6"/>
       <c r="R703" s="6"/>
       <c r="S703" s="6"/>
-      <c r="T703" s="8"/>
+      <c r="T703" s="9"/>
       <c r="U703" s="6"/>
       <c r="V703" s="6"/>
     </row>
@@ -17561,7 +17707,7 @@
       <c r="Q704" s="6"/>
       <c r="R704" s="6"/>
       <c r="S704" s="6"/>
-      <c r="T704" s="8"/>
+      <c r="T704" s="9"/>
       <c r="U704" s="6"/>
       <c r="V704" s="6"/>
     </row>
@@ -17585,7 +17731,7 @@
       <c r="Q705" s="6"/>
       <c r="R705" s="6"/>
       <c r="S705" s="6"/>
-      <c r="T705" s="8"/>
+      <c r="T705" s="9"/>
       <c r="U705" s="6"/>
       <c r="V705" s="6"/>
     </row>
@@ -17609,7 +17755,7 @@
       <c r="Q706" s="6"/>
       <c r="R706" s="6"/>
       <c r="S706" s="6"/>
-      <c r="T706" s="8"/>
+      <c r="T706" s="9"/>
       <c r="U706" s="6"/>
       <c r="V706" s="6"/>
     </row>
@@ -17633,7 +17779,7 @@
       <c r="Q707" s="6"/>
       <c r="R707" s="6"/>
       <c r="S707" s="6"/>
-      <c r="T707" s="8"/>
+      <c r="T707" s="9"/>
       <c r="U707" s="6"/>
       <c r="V707" s="6"/>
     </row>
@@ -17657,7 +17803,7 @@
       <c r="Q708" s="6"/>
       <c r="R708" s="6"/>
       <c r="S708" s="6"/>
-      <c r="T708" s="8"/>
+      <c r="T708" s="9"/>
       <c r="U708" s="6"/>
       <c r="V708" s="6"/>
     </row>
@@ -17681,7 +17827,7 @@
       <c r="Q709" s="6"/>
       <c r="R709" s="6"/>
       <c r="S709" s="6"/>
-      <c r="T709" s="8"/>
+      <c r="T709" s="9"/>
       <c r="U709" s="6"/>
       <c r="V709" s="6"/>
     </row>
@@ -17705,7 +17851,7 @@
       <c r="Q710" s="6"/>
       <c r="R710" s="6"/>
       <c r="S710" s="6"/>
-      <c r="T710" s="8"/>
+      <c r="T710" s="9"/>
       <c r="U710" s="6"/>
       <c r="V710" s="6"/>
     </row>
@@ -17729,7 +17875,7 @@
       <c r="Q711" s="6"/>
       <c r="R711" s="6"/>
       <c r="S711" s="6"/>
-      <c r="T711" s="8"/>
+      <c r="T711" s="9"/>
       <c r="U711" s="6"/>
       <c r="V711" s="6"/>
     </row>
@@ -17753,7 +17899,7 @@
       <c r="Q712" s="6"/>
       <c r="R712" s="6"/>
       <c r="S712" s="6"/>
-      <c r="T712" s="8"/>
+      <c r="T712" s="9"/>
       <c r="U712" s="6"/>
       <c r="V712" s="6"/>
     </row>
@@ -17777,7 +17923,7 @@
       <c r="Q713" s="6"/>
       <c r="R713" s="6"/>
       <c r="S713" s="6"/>
-      <c r="T713" s="8"/>
+      <c r="T713" s="9"/>
       <c r="U713" s="6"/>
       <c r="V713" s="6"/>
     </row>
@@ -17801,7 +17947,7 @@
       <c r="Q714" s="6"/>
       <c r="R714" s="6"/>
       <c r="S714" s="6"/>
-      <c r="T714" s="8"/>
+      <c r="T714" s="9"/>
       <c r="U714" s="6"/>
       <c r="V714" s="6"/>
     </row>
@@ -17825,7 +17971,7 @@
       <c r="Q715" s="6"/>
       <c r="R715" s="6"/>
       <c r="S715" s="6"/>
-      <c r="T715" s="8"/>
+      <c r="T715" s="9"/>
       <c r="U715" s="6"/>
       <c r="V715" s="6"/>
     </row>
@@ -17849,7 +17995,7 @@
       <c r="Q716" s="6"/>
       <c r="R716" s="6"/>
       <c r="S716" s="6"/>
-      <c r="T716" s="8"/>
+      <c r="T716" s="9"/>
       <c r="U716" s="6"/>
       <c r="V716" s="6"/>
     </row>
@@ -17873,7 +18019,7 @@
       <c r="Q717" s="6"/>
       <c r="R717" s="6"/>
       <c r="S717" s="6"/>
-      <c r="T717" s="8"/>
+      <c r="T717" s="9"/>
       <c r="U717" s="6"/>
       <c r="V717" s="6"/>
     </row>
@@ -17897,7 +18043,7 @@
       <c r="Q718" s="6"/>
       <c r="R718" s="6"/>
       <c r="S718" s="6"/>
-      <c r="T718" s="8"/>
+      <c r="T718" s="9"/>
       <c r="U718" s="6"/>
       <c r="V718" s="6"/>
     </row>
@@ -17921,7 +18067,7 @@
       <c r="Q719" s="6"/>
       <c r="R719" s="6"/>
       <c r="S719" s="6"/>
-      <c r="T719" s="8"/>
+      <c r="T719" s="9"/>
       <c r="U719" s="6"/>
       <c r="V719" s="6"/>
     </row>
@@ -17945,7 +18091,7 @@
       <c r="Q720" s="6"/>
       <c r="R720" s="6"/>
       <c r="S720" s="6"/>
-      <c r="T720" s="8"/>
+      <c r="T720" s="9"/>
       <c r="U720" s="6"/>
       <c r="V720" s="6"/>
     </row>
@@ -17969,7 +18115,7 @@
       <c r="Q721" s="6"/>
       <c r="R721" s="6"/>
       <c r="S721" s="6"/>
-      <c r="T721" s="8"/>
+      <c r="T721" s="9"/>
       <c r="U721" s="6"/>
       <c r="V721" s="6"/>
     </row>
@@ -17993,7 +18139,7 @@
       <c r="Q722" s="6"/>
       <c r="R722" s="6"/>
       <c r="S722" s="6"/>
-      <c r="T722" s="8"/>
+      <c r="T722" s="9"/>
       <c r="U722" s="6"/>
       <c r="V722" s="6"/>
     </row>
@@ -18017,7 +18163,7 @@
       <c r="Q723" s="6"/>
       <c r="R723" s="6"/>
       <c r="S723" s="6"/>
-      <c r="T723" s="8"/>
+      <c r="T723" s="9"/>
       <c r="U723" s="6"/>
       <c r="V723" s="6"/>
     </row>
@@ -18041,7 +18187,7 @@
       <c r="Q724" s="6"/>
       <c r="R724" s="6"/>
       <c r="S724" s="6"/>
-      <c r="T724" s="8"/>
+      <c r="T724" s="9"/>
       <c r="U724" s="6"/>
       <c r="V724" s="6"/>
     </row>
@@ -18065,7 +18211,7 @@
       <c r="Q725" s="6"/>
       <c r="R725" s="6"/>
       <c r="S725" s="6"/>
-      <c r="T725" s="8"/>
+      <c r="T725" s="9"/>
       <c r="U725" s="6"/>
       <c r="V725" s="6"/>
     </row>
@@ -18089,7 +18235,7 @@
       <c r="Q726" s="6"/>
       <c r="R726" s="6"/>
       <c r="S726" s="6"/>
-      <c r="T726" s="8"/>
+      <c r="T726" s="9"/>
       <c r="U726" s="6"/>
       <c r="V726" s="6"/>
     </row>
@@ -18113,7 +18259,7 @@
       <c r="Q727" s="6"/>
       <c r="R727" s="6"/>
       <c r="S727" s="6"/>
-      <c r="T727" s="8"/>
+      <c r="T727" s="9"/>
       <c r="U727" s="6"/>
       <c r="V727" s="6"/>
     </row>
@@ -18137,7 +18283,7 @@
       <c r="Q728" s="6"/>
       <c r="R728" s="6"/>
       <c r="S728" s="6"/>
-      <c r="T728" s="8"/>
+      <c r="T728" s="9"/>
       <c r="U728" s="6"/>
       <c r="V728" s="6"/>
     </row>
@@ -18161,7 +18307,7 @@
       <c r="Q729" s="6"/>
       <c r="R729" s="6"/>
       <c r="S729" s="6"/>
-      <c r="T729" s="8"/>
+      <c r="T729" s="9"/>
       <c r="U729" s="6"/>
       <c r="V729" s="6"/>
     </row>
@@ -18185,7 +18331,7 @@
       <c r="Q730" s="6"/>
       <c r="R730" s="6"/>
       <c r="S730" s="6"/>
-      <c r="T730" s="8"/>
+      <c r="T730" s="9"/>
       <c r="U730" s="6"/>
       <c r="V730" s="6"/>
     </row>
@@ -18209,7 +18355,7 @@
       <c r="Q731" s="6"/>
       <c r="R731" s="6"/>
       <c r="S731" s="6"/>
-      <c r="T731" s="8"/>
+      <c r="T731" s="9"/>
       <c r="U731" s="6"/>
       <c r="V731" s="6"/>
     </row>
@@ -18233,7 +18379,7 @@
       <c r="Q732" s="6"/>
       <c r="R732" s="6"/>
       <c r="S732" s="6"/>
-      <c r="T732" s="8"/>
+      <c r="T732" s="9"/>
       <c r="U732" s="6"/>
       <c r="V732" s="6"/>
     </row>
@@ -18257,7 +18403,7 @@
       <c r="Q733" s="6"/>
       <c r="R733" s="6"/>
       <c r="S733" s="6"/>
-      <c r="T733" s="8"/>
+      <c r="T733" s="9"/>
       <c r="U733" s="6"/>
       <c r="V733" s="6"/>
     </row>
@@ -18281,7 +18427,7 @@
       <c r="Q734" s="6"/>
       <c r="R734" s="6"/>
       <c r="S734" s="6"/>
-      <c r="T734" s="8"/>
+      <c r="T734" s="9"/>
       <c r="U734" s="6"/>
       <c r="V734" s="6"/>
     </row>
@@ -18305,7 +18451,7 @@
       <c r="Q735" s="6"/>
       <c r="R735" s="6"/>
       <c r="S735" s="6"/>
-      <c r="T735" s="8"/>
+      <c r="T735" s="9"/>
       <c r="U735" s="6"/>
       <c r="V735" s="6"/>
     </row>
@@ -18329,7 +18475,7 @@
       <c r="Q736" s="6"/>
       <c r="R736" s="6"/>
       <c r="S736" s="6"/>
-      <c r="T736" s="8"/>
+      <c r="T736" s="9"/>
       <c r="U736" s="6"/>
       <c r="V736" s="6"/>
     </row>
@@ -18353,7 +18499,7 @@
       <c r="Q737" s="6"/>
       <c r="R737" s="6"/>
       <c r="S737" s="6"/>
-      <c r="T737" s="8"/>
+      <c r="T737" s="9"/>
       <c r="U737" s="6"/>
       <c r="V737" s="6"/>
     </row>
@@ -18377,7 +18523,7 @@
       <c r="Q738" s="6"/>
       <c r="R738" s="6"/>
       <c r="S738" s="6"/>
-      <c r="T738" s="8"/>
+      <c r="T738" s="9"/>
       <c r="U738" s="6"/>
       <c r="V738" s="6"/>
     </row>
@@ -18401,7 +18547,7 @@
       <c r="Q739" s="6"/>
       <c r="R739" s="6"/>
       <c r="S739" s="6"/>
-      <c r="T739" s="8"/>
+      <c r="T739" s="9"/>
       <c r="U739" s="6"/>
       <c r="V739" s="6"/>
     </row>
@@ -18425,7 +18571,7 @@
       <c r="Q740" s="6"/>
       <c r="R740" s="6"/>
       <c r="S740" s="6"/>
-      <c r="T740" s="8"/>
+      <c r="T740" s="9"/>
       <c r="U740" s="6"/>
       <c r="V740" s="6"/>
     </row>
@@ -18449,7 +18595,7 @@
       <c r="Q741" s="6"/>
       <c r="R741" s="6"/>
       <c r="S741" s="6"/>
-      <c r="T741" s="8"/>
+      <c r="T741" s="9"/>
       <c r="U741" s="6"/>
       <c r="V741" s="6"/>
     </row>
@@ -18473,7 +18619,7 @@
       <c r="Q742" s="6"/>
       <c r="R742" s="6"/>
       <c r="S742" s="6"/>
-      <c r="T742" s="8"/>
+      <c r="T742" s="9"/>
       <c r="U742" s="6"/>
       <c r="V742" s="6"/>
     </row>
@@ -18497,7 +18643,7 @@
       <c r="Q743" s="6"/>
       <c r="R743" s="6"/>
       <c r="S743" s="6"/>
-      <c r="T743" s="8"/>
+      <c r="T743" s="9"/>
       <c r="U743" s="6"/>
       <c r="V743" s="6"/>
     </row>
@@ -18521,7 +18667,7 @@
       <c r="Q744" s="6"/>
       <c r="R744" s="6"/>
       <c r="S744" s="6"/>
-      <c r="T744" s="8"/>
+      <c r="T744" s="9"/>
       <c r="U744" s="6"/>
       <c r="V744" s="6"/>
     </row>
@@ -18545,7 +18691,7 @@
       <c r="Q745" s="6"/>
       <c r="R745" s="6"/>
       <c r="S745" s="6"/>
-      <c r="T745" s="8"/>
+      <c r="T745" s="9"/>
       <c r="U745" s="6"/>
       <c r="V745" s="6"/>
     </row>
@@ -18569,7 +18715,7 @@
       <c r="Q746" s="6"/>
       <c r="R746" s="6"/>
       <c r="S746" s="6"/>
-      <c r="T746" s="8"/>
+      <c r="T746" s="9"/>
       <c r="U746" s="6"/>
       <c r="V746" s="6"/>
     </row>
@@ -18593,7 +18739,7 @@
       <c r="Q747" s="6"/>
       <c r="R747" s="6"/>
       <c r="S747" s="6"/>
-      <c r="T747" s="8"/>
+      <c r="T747" s="9"/>
       <c r="U747" s="6"/>
       <c r="V747" s="6"/>
     </row>
@@ -18617,7 +18763,7 @@
       <c r="Q748" s="6"/>
       <c r="R748" s="6"/>
       <c r="S748" s="6"/>
-      <c r="T748" s="8"/>
+      <c r="T748" s="9"/>
       <c r="U748" s="6"/>
       <c r="V748" s="6"/>
     </row>
@@ -18641,7 +18787,7 @@
       <c r="Q749" s="6"/>
       <c r="R749" s="6"/>
       <c r="S749" s="6"/>
-      <c r="T749" s="8"/>
+      <c r="T749" s="9"/>
       <c r="U749" s="6"/>
       <c r="V749" s="6"/>
     </row>
@@ -18665,7 +18811,7 @@
       <c r="Q750" s="6"/>
       <c r="R750" s="6"/>
       <c r="S750" s="6"/>
-      <c r="T750" s="8"/>
+      <c r="T750" s="9"/>
       <c r="U750" s="6"/>
       <c r="V750" s="6"/>
     </row>
@@ -18689,7 +18835,7 @@
       <c r="Q751" s="6"/>
       <c r="R751" s="6"/>
       <c r="S751" s="6"/>
-      <c r="T751" s="8"/>
+      <c r="T751" s="9"/>
       <c r="U751" s="6"/>
       <c r="V751" s="6"/>
     </row>
@@ -18713,7 +18859,7 @@
       <c r="Q752" s="6"/>
       <c r="R752" s="6"/>
       <c r="S752" s="6"/>
-      <c r="T752" s="8"/>
+      <c r="T752" s="9"/>
       <c r="U752" s="6"/>
       <c r="V752" s="6"/>
     </row>
@@ -18737,7 +18883,7 @@
       <c r="Q753" s="6"/>
       <c r="R753" s="6"/>
       <c r="S753" s="6"/>
-      <c r="T753" s="8"/>
+      <c r="T753" s="9"/>
       <c r="U753" s="6"/>
       <c r="V753" s="6"/>
     </row>
@@ -18761,7 +18907,7 @@
       <c r="Q754" s="6"/>
       <c r="R754" s="6"/>
       <c r="S754" s="6"/>
-      <c r="T754" s="8"/>
+      <c r="T754" s="9"/>
       <c r="U754" s="6"/>
       <c r="V754" s="6"/>
     </row>
@@ -18785,7 +18931,7 @@
       <c r="Q755" s="6"/>
       <c r="R755" s="6"/>
       <c r="S755" s="6"/>
-      <c r="T755" s="8"/>
+      <c r="T755" s="9"/>
       <c r="U755" s="6"/>
       <c r="V755" s="6"/>
     </row>
@@ -18809,7 +18955,7 @@
       <c r="Q756" s="6"/>
       <c r="R756" s="6"/>
       <c r="S756" s="6"/>
-      <c r="T756" s="8"/>
+      <c r="T756" s="9"/>
       <c r="U756" s="6"/>
       <c r="V756" s="6"/>
     </row>
@@ -18833,7 +18979,7 @@
       <c r="Q757" s="6"/>
       <c r="R757" s="6"/>
       <c r="S757" s="6"/>
-      <c r="T757" s="8"/>
+      <c r="T757" s="9"/>
       <c r="U757" s="6"/>
       <c r="V757" s="6"/>
     </row>
@@ -18857,7 +19003,7 @@
       <c r="Q758" s="6"/>
       <c r="R758" s="6"/>
       <c r="S758" s="6"/>
-      <c r="T758" s="8"/>
+      <c r="T758" s="9"/>
       <c r="U758" s="6"/>
       <c r="V758" s="6"/>
     </row>
@@ -18881,7 +19027,7 @@
       <c r="Q759" s="6"/>
       <c r="R759" s="6"/>
       <c r="S759" s="6"/>
-      <c r="T759" s="8"/>
+      <c r="T759" s="9"/>
       <c r="U759" s="6"/>
       <c r="V759" s="6"/>
     </row>
@@ -18905,7 +19051,7 @@
       <c r="Q760" s="6"/>
       <c r="R760" s="6"/>
       <c r="S760" s="6"/>
-      <c r="T760" s="8"/>
+      <c r="T760" s="9"/>
       <c r="U760" s="6"/>
       <c r="V760" s="6"/>
     </row>
@@ -18929,7 +19075,7 @@
       <c r="Q761" s="6"/>
       <c r="R761" s="6"/>
       <c r="S761" s="6"/>
-      <c r="T761" s="8"/>
+      <c r="T761" s="9"/>
       <c r="U761" s="6"/>
       <c r="V761" s="6"/>
     </row>
@@ -18953,7 +19099,7 @@
       <c r="Q762" s="6"/>
       <c r="R762" s="6"/>
       <c r="S762" s="6"/>
-      <c r="T762" s="8"/>
+      <c r="T762" s="9"/>
       <c r="U762" s="6"/>
       <c r="V762" s="6"/>
     </row>
@@ -18977,7 +19123,7 @@
       <c r="Q763" s="6"/>
       <c r="R763" s="6"/>
       <c r="S763" s="6"/>
-      <c r="T763" s="8"/>
+      <c r="T763" s="9"/>
       <c r="U763" s="6"/>
       <c r="V763" s="6"/>
     </row>
@@ -19001,7 +19147,7 @@
       <c r="Q764" s="6"/>
       <c r="R764" s="6"/>
       <c r="S764" s="6"/>
-      <c r="T764" s="8"/>
+      <c r="T764" s="9"/>
       <c r="U764" s="6"/>
       <c r="V764" s="6"/>
     </row>
@@ -19025,7 +19171,7 @@
       <c r="Q765" s="6"/>
       <c r="R765" s="6"/>
       <c r="S765" s="6"/>
-      <c r="T765" s="8"/>
+      <c r="T765" s="9"/>
       <c r="U765" s="6"/>
       <c r="V765" s="6"/>
     </row>
@@ -19049,7 +19195,7 @@
       <c r="Q766" s="6"/>
       <c r="R766" s="6"/>
       <c r="S766" s="6"/>
-      <c r="T766" s="8"/>
+      <c r="T766" s="9"/>
       <c r="U766" s="6"/>
       <c r="V766" s="6"/>
     </row>
@@ -19073,7 +19219,7 @@
       <c r="Q767" s="6"/>
       <c r="R767" s="6"/>
       <c r="S767" s="6"/>
-      <c r="T767" s="8"/>
+      <c r="T767" s="9"/>
       <c r="U767" s="6"/>
       <c r="V767" s="6"/>
     </row>
@@ -19097,7 +19243,7 @@
       <c r="Q768" s="6"/>
       <c r="R768" s="6"/>
       <c r="S768" s="6"/>
-      <c r="T768" s="8"/>
+      <c r="T768" s="9"/>
       <c r="U768" s="6"/>
       <c r="V768" s="6"/>
     </row>
@@ -19121,7 +19267,7 @@
       <c r="Q769" s="6"/>
       <c r="R769" s="6"/>
       <c r="S769" s="6"/>
-      <c r="T769" s="8"/>
+      <c r="T769" s="9"/>
       <c r="U769" s="6"/>
       <c r="V769" s="6"/>
     </row>
@@ -19145,7 +19291,7 @@
       <c r="Q770" s="6"/>
       <c r="R770" s="6"/>
       <c r="S770" s="6"/>
-      <c r="T770" s="8"/>
+      <c r="T770" s="9"/>
       <c r="U770" s="6"/>
       <c r="V770" s="6"/>
     </row>
@@ -19169,7 +19315,7 @@
       <c r="Q771" s="6"/>
       <c r="R771" s="6"/>
       <c r="S771" s="6"/>
-      <c r="T771" s="8"/>
+      <c r="T771" s="9"/>
       <c r="U771" s="6"/>
       <c r="V771" s="6"/>
     </row>
@@ -19193,7 +19339,7 @@
       <c r="Q772" s="6"/>
       <c r="R772" s="6"/>
       <c r="S772" s="6"/>
-      <c r="T772" s="8"/>
+      <c r="T772" s="9"/>
       <c r="U772" s="6"/>
       <c r="V772" s="6"/>
     </row>
@@ -19217,7 +19363,7 @@
       <c r="Q773" s="6"/>
       <c r="R773" s="6"/>
       <c r="S773" s="6"/>
-      <c r="T773" s="8"/>
+      <c r="T773" s="9"/>
       <c r="U773" s="6"/>
       <c r="V773" s="6"/>
     </row>
@@ -19241,7 +19387,7 @@
       <c r="Q774" s="6"/>
       <c r="R774" s="6"/>
       <c r="S774" s="6"/>
-      <c r="T774" s="8"/>
+      <c r="T774" s="9"/>
       <c r="U774" s="6"/>
       <c r="V774" s="6"/>
     </row>
@@ -19265,7 +19411,7 @@
       <c r="Q775" s="6"/>
       <c r="R775" s="6"/>
       <c r="S775" s="6"/>
-      <c r="T775" s="8"/>
+      <c r="T775" s="9"/>
       <c r="U775" s="6"/>
       <c r="V775" s="6"/>
     </row>
@@ -19289,7 +19435,7 @@
       <c r="Q776" s="6"/>
       <c r="R776" s="6"/>
       <c r="S776" s="6"/>
-      <c r="T776" s="8"/>
+      <c r="T776" s="9"/>
       <c r="U776" s="6"/>
       <c r="V776" s="6"/>
     </row>
@@ -19313,7 +19459,7 @@
       <c r="Q777" s="6"/>
       <c r="R777" s="6"/>
       <c r="S777" s="6"/>
-      <c r="T777" s="8"/>
+      <c r="T777" s="9"/>
       <c r="U777" s="6"/>
       <c r="V777" s="6"/>
     </row>
@@ -19337,7 +19483,7 @@
       <c r="Q778" s="6"/>
       <c r="R778" s="6"/>
       <c r="S778" s="6"/>
-      <c r="T778" s="8"/>
+      <c r="T778" s="9"/>
       <c r="U778" s="6"/>
       <c r="V778" s="6"/>
     </row>
@@ -19361,7 +19507,7 @@
       <c r="Q779" s="6"/>
       <c r="R779" s="6"/>
       <c r="S779" s="6"/>
-      <c r="T779" s="8"/>
+      <c r="T779" s="9"/>
       <c r="U779" s="6"/>
       <c r="V779" s="6"/>
     </row>
@@ -19385,7 +19531,7 @@
       <c r="Q780" s="6"/>
       <c r="R780" s="6"/>
       <c r="S780" s="6"/>
-      <c r="T780" s="8"/>
+      <c r="T780" s="9"/>
       <c r="U780" s="6"/>
       <c r="V780" s="6"/>
     </row>
@@ -19409,7 +19555,7 @@
       <c r="Q781" s="6"/>
       <c r="R781" s="6"/>
       <c r="S781" s="6"/>
-      <c r="T781" s="8"/>
+      <c r="T781" s="9"/>
       <c r="U781" s="6"/>
       <c r="V781" s="6"/>
     </row>
@@ -19433,7 +19579,7 @@
       <c r="Q782" s="6"/>
       <c r="R782" s="6"/>
       <c r="S782" s="6"/>
-      <c r="T782" s="8"/>
+      <c r="T782" s="9"/>
       <c r="U782" s="6"/>
       <c r="V782" s="6"/>
     </row>
@@ -19457,7 +19603,7 @@
       <c r="Q783" s="6"/>
       <c r="R783" s="6"/>
       <c r="S783" s="6"/>
-      <c r="T783" s="8"/>
+      <c r="T783" s="9"/>
       <c r="U783" s="6"/>
       <c r="V783" s="6"/>
     </row>
@@ -19481,7 +19627,7 @@
       <c r="Q784" s="6"/>
       <c r="R784" s="6"/>
       <c r="S784" s="6"/>
-      <c r="T784" s="8"/>
+      <c r="T784" s="9"/>
       <c r="U784" s="6"/>
       <c r="V784" s="6"/>
     </row>
@@ -19505,7 +19651,7 @@
       <c r="Q785" s="6"/>
       <c r="R785" s="6"/>
       <c r="S785" s="6"/>
-      <c r="T785" s="8"/>
+      <c r="T785" s="9"/>
       <c r="U785" s="6"/>
       <c r="V785" s="6"/>
     </row>
@@ -19529,7 +19675,7 @@
       <c r="Q786" s="6"/>
       <c r="R786" s="6"/>
       <c r="S786" s="6"/>
-      <c r="T786" s="8"/>
+      <c r="T786" s="9"/>
       <c r="U786" s="6"/>
       <c r="V786" s="6"/>
     </row>
@@ -19553,7 +19699,7 @@
       <c r="Q787" s="6"/>
       <c r="R787" s="6"/>
       <c r="S787" s="6"/>
-      <c r="T787" s="8"/>
+      <c r="T787" s="9"/>
       <c r="U787" s="6"/>
       <c r="V787" s="6"/>
     </row>
@@ -19577,7 +19723,7 @@
       <c r="Q788" s="6"/>
       <c r="R788" s="6"/>
       <c r="S788" s="6"/>
-      <c r="T788" s="8"/>
+      <c r="T788" s="9"/>
       <c r="U788" s="6"/>
       <c r="V788" s="6"/>
     </row>
@@ -19601,7 +19747,7 @@
       <c r="Q789" s="6"/>
       <c r="R789" s="6"/>
       <c r="S789" s="6"/>
-      <c r="T789" s="8"/>
+      <c r="T789" s="9"/>
       <c r="U789" s="6"/>
       <c r="V789" s="6"/>
     </row>
@@ -19625,7 +19771,7 @@
       <c r="Q790" s="6"/>
       <c r="R790" s="6"/>
       <c r="S790" s="6"/>
-      <c r="T790" s="8"/>
+      <c r="T790" s="9"/>
       <c r="U790" s="6"/>
       <c r="V790" s="6"/>
     </row>
@@ -19649,7 +19795,7 @@
       <c r="Q791" s="6"/>
       <c r="R791" s="6"/>
       <c r="S791" s="6"/>
-      <c r="T791" s="8"/>
+      <c r="T791" s="9"/>
       <c r="U791" s="6"/>
       <c r="V791" s="6"/>
     </row>
@@ -19673,7 +19819,7 @@
       <c r="Q792" s="6"/>
       <c r="R792" s="6"/>
       <c r="S792" s="6"/>
-      <c r="T792" s="8"/>
+      <c r="T792" s="9"/>
       <c r="U792" s="6"/>
       <c r="V792" s="6"/>
     </row>
@@ -19697,7 +19843,7 @@
       <c r="Q793" s="6"/>
       <c r="R793" s="6"/>
       <c r="S793" s="6"/>
-      <c r="T793" s="8"/>
+      <c r="T793" s="9"/>
       <c r="U793" s="6"/>
       <c r="V793" s="6"/>
     </row>
@@ -19721,7 +19867,7 @@
       <c r="Q794" s="6"/>
       <c r="R794" s="6"/>
       <c r="S794" s="6"/>
-      <c r="T794" s="8"/>
+      <c r="T794" s="9"/>
       <c r="U794" s="6"/>
       <c r="V794" s="6"/>
     </row>
@@ -19745,7 +19891,7 @@
       <c r="Q795" s="6"/>
       <c r="R795" s="6"/>
       <c r="S795" s="6"/>
-      <c r="T795" s="8"/>
+      <c r="T795" s="9"/>
       <c r="U795" s="6"/>
       <c r="V795" s="6"/>
     </row>
@@ -19769,7 +19915,7 @@
       <c r="Q796" s="6"/>
       <c r="R796" s="6"/>
       <c r="S796" s="6"/>
-      <c r="T796" s="8"/>
+      <c r="T796" s="9"/>
       <c r="U796" s="6"/>
       <c r="V796" s="6"/>
     </row>
@@ -19793,7 +19939,7 @@
       <c r="Q797" s="6"/>
       <c r="R797" s="6"/>
       <c r="S797" s="6"/>
-      <c r="T797" s="8"/>
+      <c r="T797" s="9"/>
       <c r="U797" s="6"/>
       <c r="V797" s="6"/>
     </row>
@@ -19817,7 +19963,7 @@
       <c r="Q798" s="6"/>
       <c r="R798" s="6"/>
       <c r="S798" s="6"/>
-      <c r="T798" s="8"/>
+      <c r="T798" s="9"/>
       <c r="U798" s="6"/>
       <c r="V798" s="6"/>
     </row>
@@ -19841,7 +19987,7 @@
       <c r="Q799" s="6"/>
       <c r="R799" s="6"/>
       <c r="S799" s="6"/>
-      <c r="T799" s="8"/>
+      <c r="T799" s="9"/>
       <c r="U799" s="6"/>
       <c r="V799" s="6"/>
     </row>
@@ -19865,7 +20011,7 @@
       <c r="Q800" s="6"/>
       <c r="R800" s="6"/>
       <c r="S800" s="6"/>
-      <c r="T800" s="8"/>
+      <c r="T800" s="9"/>
       <c r="U800" s="6"/>
       <c r="V800" s="6"/>
     </row>
@@ -19889,7 +20035,7 @@
       <c r="Q801" s="6"/>
       <c r="R801" s="6"/>
       <c r="S801" s="6"/>
-      <c r="T801" s="8"/>
+      <c r="T801" s="9"/>
       <c r="U801" s="6"/>
       <c r="V801" s="6"/>
     </row>
@@ -19913,7 +20059,7 @@
       <c r="Q802" s="6"/>
       <c r="R802" s="6"/>
       <c r="S802" s="6"/>
-      <c r="T802" s="8"/>
+      <c r="T802" s="9"/>
       <c r="U802" s="6"/>
       <c r="V802" s="6"/>
     </row>
@@ -19937,7 +20083,7 @@
       <c r="Q803" s="6"/>
       <c r="R803" s="6"/>
       <c r="S803" s="6"/>
-      <c r="T803" s="8"/>
+      <c r="T803" s="9"/>
       <c r="U803" s="6"/>
       <c r="V803" s="6"/>
     </row>
@@ -19961,7 +20107,7 @@
       <c r="Q804" s="6"/>
       <c r="R804" s="6"/>
       <c r="S804" s="6"/>
-      <c r="T804" s="8"/>
+      <c r="T804" s="9"/>
       <c r="U804" s="6"/>
       <c r="V804" s="6"/>
     </row>
@@ -19985,7 +20131,7 @@
       <c r="Q805" s="6"/>
       <c r="R805" s="6"/>
       <c r="S805" s="6"/>
-      <c r="T805" s="8"/>
+      <c r="T805" s="9"/>
       <c r="U805" s="6"/>
       <c r="V805" s="6"/>
     </row>
@@ -20009,7 +20155,7 @@
       <c r="Q806" s="6"/>
       <c r="R806" s="6"/>
       <c r="S806" s="6"/>
-      <c r="T806" s="8"/>
+      <c r="T806" s="9"/>
       <c r="U806" s="6"/>
       <c r="V806" s="6"/>
     </row>
@@ -20033,7 +20179,7 @@
       <c r="Q807" s="6"/>
       <c r="R807" s="6"/>
       <c r="S807" s="6"/>
-      <c r="T807" s="8"/>
+      <c r="T807" s="9"/>
       <c r="U807" s="6"/>
       <c r="V807" s="6"/>
     </row>
@@ -20057,7 +20203,7 @@
       <c r="Q808" s="6"/>
       <c r="R808" s="6"/>
       <c r="S808" s="6"/>
-      <c r="T808" s="8"/>
+      <c r="T808" s="9"/>
       <c r="U808" s="6"/>
       <c r="V808" s="6"/>
     </row>
@@ -20081,7 +20227,7 @@
       <c r="Q809" s="6"/>
       <c r="R809" s="6"/>
       <c r="S809" s="6"/>
-      <c r="T809" s="8"/>
+      <c r="T809" s="9"/>
       <c r="U809" s="6"/>
       <c r="V809" s="6"/>
     </row>
@@ -20105,7 +20251,7 @@
       <c r="Q810" s="6"/>
       <c r="R810" s="6"/>
       <c r="S810" s="6"/>
-      <c r="T810" s="8"/>
+      <c r="T810" s="9"/>
       <c r="U810" s="6"/>
       <c r="V810" s="6"/>
     </row>
@@ -20129,7 +20275,7 @@
       <c r="Q811" s="6"/>
       <c r="R811" s="6"/>
       <c r="S811" s="6"/>
-      <c r="T811" s="8"/>
+      <c r="T811" s="9"/>
       <c r="U811" s="6"/>
       <c r="V811" s="6"/>
     </row>
@@ -20153,7 +20299,7 @@
       <c r="Q812" s="6"/>
       <c r="R812" s="6"/>
       <c r="S812" s="6"/>
-      <c r="T812" s="8"/>
+      <c r="T812" s="9"/>
       <c r="U812" s="6"/>
       <c r="V812" s="6"/>
     </row>
@@ -20177,7 +20323,7 @@
       <c r="Q813" s="6"/>
       <c r="R813" s="6"/>
       <c r="S813" s="6"/>
-      <c r="T813" s="8"/>
+      <c r="T813" s="9"/>
       <c r="U813" s="6"/>
       <c r="V813" s="6"/>
     </row>
@@ -20201,7 +20347,7 @@
       <c r="Q814" s="6"/>
       <c r="R814" s="6"/>
       <c r="S814" s="6"/>
-      <c r="T814" s="8"/>
+      <c r="T814" s="9"/>
       <c r="U814" s="6"/>
       <c r="V814" s="6"/>
     </row>
@@ -20225,7 +20371,7 @@
       <c r="Q815" s="6"/>
       <c r="R815" s="6"/>
       <c r="S815" s="6"/>
-      <c r="T815" s="8"/>
+      <c r="T815" s="9"/>
       <c r="U815" s="6"/>
       <c r="V815" s="6"/>
     </row>
@@ -20249,7 +20395,7 @@
       <c r="Q816" s="6"/>
       <c r="R816" s="6"/>
       <c r="S816" s="6"/>
-      <c r="T816" s="8"/>
+      <c r="T816" s="9"/>
       <c r="U816" s="6"/>
       <c r="V816" s="6"/>
     </row>
@@ -20273,7 +20419,7 @@
       <c r="Q817" s="6"/>
       <c r="R817" s="6"/>
       <c r="S817" s="6"/>
-      <c r="T817" s="8"/>
+      <c r="T817" s="9"/>
       <c r="U817" s="6"/>
       <c r="V817" s="6"/>
     </row>
@@ -20297,7 +20443,7 @@
       <c r="Q818" s="6"/>
       <c r="R818" s="6"/>
       <c r="S818" s="6"/>
-      <c r="T818" s="8"/>
+      <c r="T818" s="9"/>
       <c r="U818" s="6"/>
       <c r="V818" s="6"/>
     </row>
@@ -20321,7 +20467,7 @@
       <c r="Q819" s="6"/>
       <c r="R819" s="6"/>
       <c r="S819" s="6"/>
-      <c r="T819" s="8"/>
+      <c r="T819" s="9"/>
       <c r="U819" s="6"/>
       <c r="V819" s="6"/>
     </row>
@@ -20345,7 +20491,7 @@
       <c r="Q820" s="6"/>
       <c r="R820" s="6"/>
       <c r="S820" s="6"/>
-      <c r="T820" s="8"/>
+      <c r="T820" s="9"/>
       <c r="U820" s="6"/>
       <c r="V820" s="6"/>
     </row>
@@ -20369,7 +20515,7 @@
       <c r="Q821" s="6"/>
       <c r="R821" s="6"/>
       <c r="S821" s="6"/>
-      <c r="T821" s="8"/>
+      <c r="T821" s="9"/>
       <c r="U821" s="6"/>
       <c r="V821" s="6"/>
     </row>
@@ -20393,7 +20539,7 @@
       <c r="Q822" s="6"/>
       <c r="R822" s="6"/>
       <c r="S822" s="6"/>
-      <c r="T822" s="8"/>
+      <c r="T822" s="9"/>
       <c r="U822" s="6"/>
       <c r="V822" s="6"/>
     </row>
@@ -20417,7 +20563,7 @@
       <c r="Q823" s="6"/>
       <c r="R823" s="6"/>
       <c r="S823" s="6"/>
-      <c r="T823" s="8"/>
+      <c r="T823" s="9"/>
       <c r="U823" s="6"/>
       <c r="V823" s="6"/>
     </row>
@@ -20441,7 +20587,7 @@
       <c r="Q824" s="6"/>
       <c r="R824" s="6"/>
       <c r="S824" s="6"/>
-      <c r="T824" s="8"/>
+      <c r="T824" s="9"/>
       <c r="U824" s="6"/>
       <c r="V824" s="6"/>
     </row>
@@ -20465,7 +20611,7 @@
       <c r="Q825" s="6"/>
       <c r="R825" s="6"/>
       <c r="S825" s="6"/>
-      <c r="T825" s="8"/>
+      <c r="T825" s="9"/>
       <c r="U825" s="6"/>
       <c r="V825" s="6"/>
     </row>
@@ -20489,7 +20635,7 @@
       <c r="Q826" s="6"/>
       <c r="R826" s="6"/>
       <c r="S826" s="6"/>
-      <c r="T826" s="8"/>
+      <c r="T826" s="9"/>
       <c r="U826" s="6"/>
       <c r="V826" s="6"/>
     </row>
@@ -20513,7 +20659,7 @@
       <c r="Q827" s="6"/>
       <c r="R827" s="6"/>
       <c r="S827" s="6"/>
-      <c r="T827" s="8"/>
+      <c r="T827" s="9"/>
       <c r="U827" s="6"/>
       <c r="V827" s="6"/>
     </row>
@@ -20537,7 +20683,7 @@
       <c r="Q828" s="6"/>
       <c r="R828" s="6"/>
       <c r="S828" s="6"/>
-      <c r="T828" s="8"/>
+      <c r="T828" s="9"/>
       <c r="U828" s="6"/>
       <c r="V828" s="6"/>
     </row>
@@ -20561,7 +20707,7 @@
       <c r="Q829" s="6"/>
       <c r="R829" s="6"/>
       <c r="S829" s="6"/>
-      <c r="T829" s="8"/>
+      <c r="T829" s="9"/>
       <c r="U829" s="6"/>
       <c r="V829" s="6"/>
     </row>
@@ -20585,7 +20731,7 @@
       <c r="Q830" s="6"/>
       <c r="R830" s="6"/>
       <c r="S830" s="6"/>
-      <c r="T830" s="8"/>
+      <c r="T830" s="9"/>
       <c r="U830" s="6"/>
       <c r="V830" s="6"/>
     </row>
@@ -20609,7 +20755,7 @@
       <c r="Q831" s="6"/>
       <c r="R831" s="6"/>
       <c r="S831" s="6"/>
-      <c r="T831" s="8"/>
+      <c r="T831" s="9"/>
       <c r="U831" s="6"/>
       <c r="V831" s="6"/>
     </row>
@@ -20633,7 +20779,7 @@
       <c r="Q832" s="6"/>
       <c r="R832" s="6"/>
       <c r="S832" s="6"/>
-      <c r="T832" s="8"/>
+      <c r="T832" s="9"/>
       <c r="U832" s="6"/>
       <c r="V832" s="6"/>
     </row>
@@ -20657,7 +20803,7 @@
       <c r="Q833" s="6"/>
       <c r="R833" s="6"/>
       <c r="S833" s="6"/>
-      <c r="T833" s="8"/>
+      <c r="T833" s="9"/>
       <c r="U833" s="6"/>
       <c r="V833" s="6"/>
     </row>
@@ -20681,7 +20827,7 @@
       <c r="Q834" s="6"/>
       <c r="R834" s="6"/>
       <c r="S834" s="6"/>
-      <c r="T834" s="8"/>
+      <c r="T834" s="9"/>
       <c r="U834" s="6"/>
       <c r="V834" s="6"/>
     </row>
@@ -20705,7 +20851,7 @@
       <c r="Q835" s="6"/>
       <c r="R835" s="6"/>
       <c r="S835" s="6"/>
-      <c r="T835" s="8"/>
+      <c r="T835" s="9"/>
       <c r="U835" s="6"/>
       <c r="V835" s="6"/>
     </row>
@@ -20729,7 +20875,7 @@
       <c r="Q836" s="6"/>
       <c r="R836" s="6"/>
       <c r="S836" s="6"/>
-      <c r="T836" s="8"/>
+      <c r="T836" s="9"/>
       <c r="U836" s="6"/>
       <c r="V836" s="6"/>
     </row>
@@ -20753,7 +20899,7 @@
       <c r="Q837" s="6"/>
       <c r="R837" s="6"/>
       <c r="S837" s="6"/>
-      <c r="T837" s="8"/>
+      <c r="T837" s="9"/>
       <c r="U837" s="6"/>
       <c r="V837" s="6"/>
     </row>
@@ -20777,7 +20923,7 @@
       <c r="Q838" s="6"/>
       <c r="R838" s="6"/>
       <c r="S838" s="6"/>
-      <c r="T838" s="8"/>
+      <c r="T838" s="9"/>
       <c r="U838" s="6"/>
       <c r="V838" s="6"/>
     </row>
@@ -20801,7 +20947,7 @@
       <c r="Q839" s="6"/>
       <c r="R839" s="6"/>
       <c r="S839" s="6"/>
-      <c r="T839" s="8"/>
+      <c r="T839" s="9"/>
       <c r="U839" s="6"/>
       <c r="V839" s="6"/>
     </row>
@@ -20825,7 +20971,7 @@
       <c r="Q840" s="6"/>
       <c r="R840" s="6"/>
       <c r="S840" s="6"/>
-      <c r="T840" s="8"/>
+      <c r="T840" s="9"/>
       <c r="U840" s="6"/>
       <c r="V840" s="6"/>
     </row>
@@ -20849,7 +20995,7 @@
       <c r="Q841" s="6"/>
       <c r="R841" s="6"/>
       <c r="S841" s="6"/>
-      <c r="T841" s="8"/>
+      <c r="T841" s="9"/>
       <c r="U841" s="6"/>
       <c r="V841" s="6"/>
     </row>
@@ -20873,7 +21019,7 @@
       <c r="Q842" s="6"/>
       <c r="R842" s="6"/>
       <c r="S842" s="6"/>
-      <c r="T842" s="8"/>
+      <c r="T842" s="9"/>
       <c r="U842" s="6"/>
       <c r="V842" s="6"/>
     </row>
@@ -20897,7 +21043,7 @@
       <c r="Q843" s="6"/>
       <c r="R843" s="6"/>
       <c r="S843" s="6"/>
-      <c r="T843" s="8"/>
+      <c r="T843" s="9"/>
       <c r="U843" s="6"/>
       <c r="V843" s="6"/>
     </row>
@@ -20921,7 +21067,7 @@
       <c r="Q844" s="6"/>
       <c r="R844" s="6"/>
       <c r="S844" s="6"/>
-      <c r="T844" s="8"/>
+      <c r="T844" s="9"/>
       <c r="U844" s="6"/>
       <c r="V844" s="6"/>
     </row>
@@ -20945,7 +21091,7 @@
       <c r="Q845" s="6"/>
       <c r="R845" s="6"/>
       <c r="S845" s="6"/>
-      <c r="T845" s="8"/>
+      <c r="T845" s="9"/>
       <c r="U845" s="6"/>
       <c r="V845" s="6"/>
     </row>
@@ -20969,7 +21115,7 @@
       <c r="Q846" s="6"/>
       <c r="R846" s="6"/>
       <c r="S846" s="6"/>
-      <c r="T846" s="8"/>
+      <c r="T846" s="9"/>
       <c r="U846" s="6"/>
       <c r="V846" s="6"/>
     </row>
@@ -20993,7 +21139,7 @@
       <c r="Q847" s="6"/>
       <c r="R847" s="6"/>
       <c r="S847" s="6"/>
-      <c r="T847" s="8"/>
+      <c r="T847" s="9"/>
       <c r="U847" s="6"/>
       <c r="V847" s="6"/>
     </row>
@@ -21017,7 +21163,7 @@
       <c r="Q848" s="6"/>
       <c r="R848" s="6"/>
       <c r="S848" s="6"/>
-      <c r="T848" s="8"/>
+      <c r="T848" s="9"/>
       <c r="U848" s="6"/>
       <c r="V848" s="6"/>
     </row>
@@ -21041,7 +21187,7 @@
       <c r="Q849" s="6"/>
       <c r="R849" s="6"/>
       <c r="S849" s="6"/>
-      <c r="T849" s="8"/>
+      <c r="T849" s="9"/>
       <c r="U849" s="6"/>
       <c r="V849" s="6"/>
     </row>
@@ -21065,7 +21211,7 @@
       <c r="Q850" s="6"/>
       <c r="R850" s="6"/>
       <c r="S850" s="6"/>
-      <c r="T850" s="8"/>
+      <c r="T850" s="9"/>
       <c r="U850" s="6"/>
       <c r="V850" s="6"/>
     </row>
@@ -21089,7 +21235,7 @@
       <c r="Q851" s="6"/>
       <c r="R851" s="6"/>
       <c r="S851" s="6"/>
-      <c r="T851" s="8"/>
+      <c r="T851" s="9"/>
       <c r="U851" s="6"/>
       <c r="V851" s="6"/>
     </row>
@@ -21113,7 +21259,7 @@
       <c r="Q852" s="6"/>
       <c r="R852" s="6"/>
       <c r="S852" s="6"/>
-      <c r="T852" s="8"/>
+      <c r="T852" s="9"/>
       <c r="U852" s="6"/>
       <c r="V852" s="6"/>
     </row>
@@ -21137,7 +21283,7 @@
       <c r="Q853" s="6"/>
       <c r="R853" s="6"/>
       <c r="S853" s="6"/>
-      <c r="T853" s="8"/>
+      <c r="T853" s="9"/>
       <c r="U853" s="6"/>
       <c r="V853" s="6"/>
     </row>
@@ -21161,7 +21307,7 @@
       <c r="Q854" s="6"/>
       <c r="R854" s="6"/>
       <c r="S854" s="6"/>
-      <c r="T854" s="8"/>
+      <c r="T854" s="9"/>
       <c r="U854" s="6"/>
       <c r="V854" s="6"/>
     </row>
@@ -21185,7 +21331,7 @@
       <c r="Q855" s="6"/>
       <c r="R855" s="6"/>
       <c r="S855" s="6"/>
-      <c r="T855" s="8"/>
+      <c r="T855" s="9"/>
       <c r="U855" s="6"/>
       <c r="V855" s="6"/>
     </row>
@@ -21209,7 +21355,7 @@
       <c r="Q856" s="6"/>
       <c r="R856" s="6"/>
       <c r="S856" s="6"/>
-      <c r="T856" s="8"/>
+      <c r="T856" s="9"/>
       <c r="U856" s="6"/>
       <c r="V856" s="6"/>
     </row>
@@ -21233,7 +21379,7 @@
       <c r="Q857" s="6"/>
       <c r="R857" s="6"/>
       <c r="S857" s="6"/>
-      <c r="T857" s="8"/>
+      <c r="T857" s="9"/>
       <c r="U857" s="6"/>
       <c r="V857" s="6"/>
     </row>
@@ -21257,7 +21403,7 @@
       <c r="Q858" s="6"/>
       <c r="R858" s="6"/>
       <c r="S858" s="6"/>
-      <c r="T858" s="8"/>
+      <c r="T858" s="9"/>
       <c r="U858" s="6"/>
       <c r="V858" s="6"/>
     </row>
@@ -21281,7 +21427,7 @@
       <c r="Q859" s="6"/>
       <c r="R859" s="6"/>
       <c r="S859" s="6"/>
-      <c r="T859" s="8"/>
+      <c r="T859" s="9"/>
       <c r="U859" s="6"/>
       <c r="V859" s="6"/>
     </row>
@@ -21305,7 +21451,7 @@
       <c r="Q860" s="6"/>
       <c r="R860" s="6"/>
       <c r="S860" s="6"/>
-      <c r="T860" s="8"/>
+      <c r="T860" s="9"/>
       <c r="U860" s="6"/>
       <c r="V860" s="6"/>
     </row>
@@ -21329,7 +21475,7 @@
       <c r="Q861" s="6"/>
       <c r="R861" s="6"/>
       <c r="S861" s="6"/>
-      <c r="T861" s="8"/>
+      <c r="T861" s="9"/>
       <c r="U861" s="6"/>
       <c r="V861" s="6"/>
     </row>
@@ -21353,7 +21499,7 @@
       <c r="Q862" s="6"/>
       <c r="R862" s="6"/>
       <c r="S862" s="6"/>
-      <c r="T862" s="8"/>
+      <c r="T862" s="9"/>
       <c r="U862" s="6"/>
       <c r="V862" s="6"/>
     </row>
@@ -21377,7 +21523,7 @@
       <c r="Q863" s="6"/>
       <c r="R863" s="6"/>
       <c r="S863" s="6"/>
-      <c r="T863" s="8"/>
+      <c r="T863" s="9"/>
       <c r="U863" s="6"/>
       <c r="V863" s="6"/>
     </row>
@@ -21401,7 +21547,7 @@
       <c r="Q864" s="6"/>
       <c r="R864" s="6"/>
       <c r="S864" s="6"/>
-      <c r="T864" s="8"/>
+      <c r="T864" s="9"/>
       <c r="U864" s="6"/>
       <c r="V864" s="6"/>
     </row>
@@ -21425,7 +21571,7 @@
       <c r="Q865" s="6"/>
       <c r="R865" s="6"/>
       <c r="S865" s="6"/>
-      <c r="T865" s="8"/>
+      <c r="T865" s="9"/>
       <c r="U865" s="6"/>
       <c r="V865" s="6"/>
     </row>
@@ -21449,7 +21595,7 @@
       <c r="Q866" s="6"/>
       <c r="R866" s="6"/>
       <c r="S866" s="6"/>
-      <c r="T866" s="8"/>
+      <c r="T866" s="9"/>
       <c r="U866" s="6"/>
       <c r="V866" s="6"/>
     </row>
@@ -21473,7 +21619,7 @@
       <c r="Q867" s="6"/>
       <c r="R867" s="6"/>
       <c r="S867" s="6"/>
-      <c r="T867" s="8"/>
+      <c r="T867" s="9"/>
       <c r="U867" s="6"/>
       <c r="V867" s="6"/>
     </row>
@@ -21497,7 +21643,7 @@
       <c r="Q868" s="6"/>
       <c r="R868" s="6"/>
       <c r="S868" s="6"/>
-      <c r="T868" s="8"/>
+      <c r="T868" s="9"/>
       <c r="U868" s="6"/>
       <c r="V868" s="6"/>
     </row>
@@ -21521,7 +21667,7 @@
       <c r="Q869" s="6"/>
       <c r="R869" s="6"/>
       <c r="S869" s="6"/>
-      <c r="T869" s="8"/>
+      <c r="T869" s="9"/>
       <c r="U869" s="6"/>
       <c r="V869" s="6"/>
     </row>
@@ -21545,7 +21691,7 @@
       <c r="Q870" s="6"/>
       <c r="R870" s="6"/>
       <c r="S870" s="6"/>
-      <c r="T870" s="8"/>
+      <c r="T870" s="9"/>
       <c r="U870" s="6"/>
       <c r="V870" s="6"/>
     </row>
@@ -21569,7 +21715,7 @@
       <c r="Q871" s="6"/>
       <c r="R871" s="6"/>
       <c r="S871" s="6"/>
-      <c r="T871" s="8"/>
+      <c r="T871" s="9"/>
       <c r="U871" s="6"/>
       <c r="V871" s="6"/>
     </row>
@@ -21593,7 +21739,7 @@
       <c r="Q872" s="6"/>
       <c r="R872" s="6"/>
       <c r="S872" s="6"/>
-      <c r="T872" s="8"/>
+      <c r="T872" s="9"/>
       <c r="U872" s="6"/>
       <c r="V872" s="6"/>
     </row>
@@ -21617,7 +21763,7 @@
       <c r="Q873" s="6"/>
       <c r="R873" s="6"/>
       <c r="S873" s="6"/>
-      <c r="T873" s="8"/>
+      <c r="T873" s="9"/>
       <c r="U873" s="6"/>
       <c r="V873" s="6"/>
     </row>
@@ -21641,7 +21787,7 @@
       <c r="Q874" s="6"/>
       <c r="R874" s="6"/>
       <c r="S874" s="6"/>
-      <c r="T874" s="8"/>
+      <c r="T874" s="9"/>
       <c r="U874" s="6"/>
       <c r="V874" s="6"/>
     </row>
@@ -21665,7 +21811,7 @@
       <c r="Q875" s="6"/>
       <c r="R875" s="6"/>
       <c r="S875" s="6"/>
-      <c r="T875" s="8"/>
+      <c r="T875" s="9"/>
       <c r="U875" s="6"/>
       <c r="V875" s="6"/>
     </row>
@@ -21689,7 +21835,7 @@
       <c r="Q876" s="6"/>
       <c r="R876" s="6"/>
       <c r="S876" s="6"/>
-      <c r="T876" s="8"/>
+      <c r="T876" s="9"/>
       <c r="U876" s="6"/>
       <c r="V876" s="6"/>
     </row>
@@ -21713,7 +21859,7 @@
       <c r="Q877" s="6"/>
       <c r="R877" s="6"/>
       <c r="S877" s="6"/>
-      <c r="T877" s="8"/>
+      <c r="T877" s="9"/>
       <c r="U877" s="6"/>
       <c r="V877" s="6"/>
     </row>
@@ -21737,7 +21883,7 @@
       <c r="Q878" s="6"/>
       <c r="R878" s="6"/>
       <c r="S878" s="6"/>
-      <c r="T878" s="8"/>
+      <c r="T878" s="9"/>
       <c r="U878" s="6"/>
       <c r="V878" s="6"/>
     </row>
@@ -21761,7 +21907,7 @@
       <c r="Q879" s="6"/>
       <c r="R879" s="6"/>
       <c r="S879" s="6"/>
-      <c r="T879" s="8"/>
+      <c r="T879" s="9"/>
       <c r="U879" s="6"/>
       <c r="V879" s="6"/>
     </row>
@@ -21785,7 +21931,7 @@
       <c r="Q880" s="6"/>
       <c r="R880" s="6"/>
       <c r="S880" s="6"/>
-      <c r="T880" s="8"/>
+      <c r="T880" s="9"/>
       <c r="U880" s="6"/>
       <c r="V880" s="6"/>
     </row>
@@ -21809,7 +21955,7 @@
       <c r="Q881" s="6"/>
       <c r="R881" s="6"/>
       <c r="S881" s="6"/>
-      <c r="T881" s="8"/>
+      <c r="T881" s="9"/>
       <c r="U881" s="6"/>
       <c r="V881" s="6"/>
     </row>
@@ -21833,7 +21979,7 @@
       <c r="Q882" s="6"/>
       <c r="R882" s="6"/>
       <c r="S882" s="6"/>
-      <c r="T882" s="8"/>
+      <c r="T882" s="9"/>
       <c r="U882" s="6"/>
       <c r="V882" s="6"/>
     </row>
@@ -21857,7 +22003,7 @@
       <c r="Q883" s="6"/>
       <c r="R883" s="6"/>
       <c r="S883" s="6"/>
-      <c r="T883" s="8"/>
+      <c r="T883" s="9"/>
       <c r="U883" s="6"/>
       <c r="V883" s="6"/>
     </row>
@@ -21881,7 +22027,7 @@
       <c r="Q884" s="6"/>
       <c r="R884" s="6"/>
       <c r="S884" s="6"/>
-      <c r="T884" s="8"/>
+      <c r="T884" s="9"/>
       <c r="U884" s="6"/>
       <c r="V884" s="6"/>
     </row>
@@ -21905,7 +22051,7 @@
       <c r="Q885" s="6"/>
       <c r="R885" s="6"/>
       <c r="S885" s="6"/>
-      <c r="T885" s="8"/>
+      <c r="T885" s="9"/>
       <c r="U885" s="6"/>
       <c r="V885" s="6"/>
     </row>
@@ -21929,7 +22075,7 @@
       <c r="Q886" s="6"/>
       <c r="R886" s="6"/>
       <c r="S886" s="6"/>
-      <c r="T886" s="8"/>
+      <c r="T886" s="9"/>
       <c r="U886" s="6"/>
       <c r="V886" s="6"/>
     </row>
@@ -21953,7 +22099,7 @@
       <c r="Q887" s="6"/>
       <c r="R887" s="6"/>
       <c r="S887" s="6"/>
-      <c r="T887" s="8"/>
+      <c r="T887" s="9"/>
       <c r="U887" s="6"/>
       <c r="V887" s="6"/>
     </row>
@@ -21977,7 +22123,7 @@
       <c r="Q888" s="6"/>
       <c r="R888" s="6"/>
       <c r="S888" s="6"/>
-      <c r="T888" s="8"/>
+      <c r="T888" s="9"/>
       <c r="U888" s="6"/>
       <c r="V888" s="6"/>
     </row>
@@ -22001,7 +22147,7 @@
       <c r="Q889" s="6"/>
       <c r="R889" s="6"/>
       <c r="S889" s="6"/>
-      <c r="T889" s="8"/>
+      <c r="T889" s="9"/>
       <c r="U889" s="6"/>
       <c r="V889" s="6"/>
     </row>
@@ -22025,7 +22171,7 @@
       <c r="Q890" s="6"/>
       <c r="R890" s="6"/>
       <c r="S890" s="6"/>
-      <c r="T890" s="8"/>
+      <c r="T890" s="9"/>
       <c r="U890" s="6"/>
       <c r="V890" s="6"/>
     </row>
@@ -22049,7 +22195,7 @@
       <c r="Q891" s="6"/>
       <c r="R891" s="6"/>
       <c r="S891" s="6"/>
-      <c r="T891" s="8"/>
+      <c r="T891" s="9"/>
       <c r="U891" s="6"/>
       <c r="V891" s="6"/>
     </row>
@@ -22073,7 +22219,7 @@
       <c r="Q892" s="6"/>
       <c r="R892" s="6"/>
       <c r="S892" s="6"/>
-      <c r="T892" s="8"/>
+      <c r="T892" s="9"/>
       <c r="U892" s="6"/>
       <c r="V892" s="6"/>
     </row>
@@ -22097,7 +22243,7 @@
       <c r="Q893" s="6"/>
       <c r="R893" s="6"/>
       <c r="S893" s="6"/>
-      <c r="T893" s="8"/>
+      <c r="T893" s="9"/>
       <c r="U893" s="6"/>
       <c r="V893" s="6"/>
     </row>
@@ -22121,7 +22267,7 @@
       <c r="Q894" s="6"/>
       <c r="R894" s="6"/>
       <c r="S894" s="6"/>
-      <c r="T894" s="8"/>
+      <c r="T894" s="9"/>
       <c r="U894" s="6"/>
       <c r="V894" s="6"/>
     </row>
@@ -22145,7 +22291,7 @@
       <c r="Q895" s="6"/>
       <c r="R895" s="6"/>
       <c r="S895" s="6"/>
-      <c r="T895" s="8"/>
+      <c r="T895" s="9"/>
       <c r="U895" s="6"/>
       <c r="V895" s="6"/>
     </row>
@@ -22169,7 +22315,7 @@
       <c r="Q896" s="6"/>
       <c r="R896" s="6"/>
       <c r="S896" s="6"/>
-      <c r="T896" s="8"/>
+      <c r="T896" s="9"/>
       <c r="U896" s="6"/>
       <c r="V896" s="6"/>
     </row>
@@ -22193,7 +22339,7 @@
       <c r="Q897" s="6"/>
       <c r="R897" s="6"/>
       <c r="S897" s="6"/>
-      <c r="T897" s="8"/>
+      <c r="T897" s="9"/>
       <c r="U897" s="6"/>
       <c r="V897" s="6"/>
     </row>
@@ -22217,7 +22363,7 @@
       <c r="Q898" s="6"/>
       <c r="R898" s="6"/>
       <c r="S898" s="6"/>
-      <c r="T898" s="8"/>
+      <c r="T898" s="9"/>
       <c r="U898" s="6"/>
       <c r="V898" s="6"/>
     </row>
@@ -22241,7 +22387,7 @@
       <c r="Q899" s="6"/>
       <c r="R899" s="6"/>
       <c r="S899" s="6"/>
-      <c r="T899" s="8"/>
+      <c r="T899" s="9"/>
       <c r="U899" s="6"/>
       <c r="V899" s="6"/>
     </row>
@@ -22265,7 +22411,7 @@
       <c r="Q900" s="6"/>
       <c r="R900" s="6"/>
       <c r="S900" s="6"/>
-      <c r="T900" s="8"/>
+      <c r="T900" s="9"/>
       <c r="U900" s="6"/>
       <c r="V900" s="6"/>
     </row>
@@ -22289,7 +22435,7 @@
       <c r="Q901" s="6"/>
       <c r="R901" s="6"/>
       <c r="S901" s="6"/>
-      <c r="T901" s="8"/>
+      <c r="T901" s="9"/>
       <c r="U901" s="6"/>
       <c r="V901" s="6"/>
     </row>
@@ -22313,7 +22459,7 @@
       <c r="Q902" s="6"/>
       <c r="R902" s="6"/>
       <c r="S902" s="6"/>
-      <c r="T902" s="8"/>
+      <c r="T902" s="9"/>
       <c r="U902" s="6"/>
       <c r="V902" s="6"/>
     </row>
@@ -22337,7 +22483,7 @@
       <c r="Q903" s="6"/>
       <c r="R903" s="6"/>
       <c r="S903" s="6"/>
-      <c r="T903" s="8"/>
+      <c r="T903" s="9"/>
       <c r="U903" s="6"/>
       <c r="V903" s="6"/>
     </row>
@@ -22361,7 +22507,7 @@
       <c r="Q904" s="6"/>
       <c r="R904" s="6"/>
       <c r="S904" s="6"/>
-      <c r="T904" s="8"/>
+      <c r="T904" s="9"/>
       <c r="U904" s="6"/>
       <c r="V904" s="6"/>
     </row>
@@ -22385,7 +22531,7 @@
       <c r="Q905" s="6"/>
       <c r="R905" s="6"/>
       <c r="S905" s="6"/>
-      <c r="T905" s="8"/>
+      <c r="T905" s="9"/>
       <c r="U905" s="6"/>
       <c r="V905" s="6"/>
     </row>
@@ -22409,7 +22555,7 @@
       <c r="Q906" s="6"/>
       <c r="R906" s="6"/>
       <c r="S906" s="6"/>
-      <c r="T906" s="8"/>
+      <c r="T906" s="9"/>
       <c r="U906" s="6"/>
       <c r="V906" s="6"/>
     </row>
@@ -22433,7 +22579,7 @@
       <c r="Q907" s="6"/>
       <c r="R907" s="6"/>
       <c r="S907" s="6"/>
-      <c r="T907" s="8"/>
+      <c r="T907" s="9"/>
       <c r="U907" s="6"/>
       <c r="V907" s="6"/>
     </row>
@@ -22457,7 +22603,7 @@
       <c r="Q908" s="6"/>
       <c r="R908" s="6"/>
       <c r="S908" s="6"/>
-      <c r="T908" s="8"/>
+      <c r="T908" s="9"/>
       <c r="U908" s="6"/>
       <c r="V908" s="6"/>
     </row>
@@ -22481,7 +22627,7 @@
       <c r="Q909" s="6"/>
       <c r="R909" s="6"/>
       <c r="S909" s="6"/>
-      <c r="T909" s="8"/>
+      <c r="T909" s="9"/>
       <c r="U909" s="6"/>
       <c r="V909" s="6"/>
     </row>
@@ -22505,7 +22651,7 @@
       <c r="Q910" s="6"/>
       <c r="R910" s="6"/>
       <c r="S910" s="6"/>
-      <c r="T910" s="8"/>
+      <c r="T910" s="9"/>
       <c r="U910" s="6"/>
       <c r="V910" s="6"/>
     </row>
@@ -22529,7 +22675,7 @@
       <c r="Q911" s="6"/>
       <c r="R911" s="6"/>
       <c r="S911" s="6"/>
-      <c r="T911" s="8"/>
+      <c r="T911" s="9"/>
       <c r="U911" s="6"/>
       <c r="V911" s="6"/>
     </row>
@@ -22553,7 +22699,7 @@
       <c r="Q912" s="6"/>
       <c r="R912" s="6"/>
       <c r="S912" s="6"/>
-      <c r="T912" s="8"/>
+      <c r="T912" s="9"/>
       <c r="U912" s="6"/>
       <c r="V912" s="6"/>
     </row>
@@ -22577,7 +22723,7 @@
       <c r="Q913" s="6"/>
       <c r="R913" s="6"/>
       <c r="S913" s="6"/>
-      <c r="T913" s="8"/>
+      <c r="T913" s="9"/>
       <c r="U913" s="6"/>
       <c r="V913" s="6"/>
     </row>
@@ -22601,7 +22747,7 @@
       <c r="Q914" s="6"/>
       <c r="R914" s="6"/>
       <c r="S914" s="6"/>
-      <c r="T914" s="8"/>
+      <c r="T914" s="9"/>
       <c r="U914" s="6"/>
       <c r="V914" s="6"/>
     </row>
@@ -22625,7 +22771,7 @@
       <c r="Q915" s="6"/>
       <c r="R915" s="6"/>
       <c r="S915" s="6"/>
-      <c r="T915" s="8"/>
+      <c r="T915" s="9"/>
       <c r="U915" s="6"/>
       <c r="V915" s="6"/>
     </row>
@@ -22649,7 +22795,7 @@
       <c r="Q916" s="6"/>
       <c r="R916" s="6"/>
       <c r="S916" s="6"/>
-      <c r="T916" s="8"/>
+      <c r="T916" s="9"/>
       <c r="U916" s="6"/>
       <c r="V916" s="6"/>
     </row>
@@ -22673,7 +22819,7 @@
       <c r="Q917" s="6"/>
       <c r="R917" s="6"/>
       <c r="S917" s="6"/>
-      <c r="T917" s="8"/>
+      <c r="T917" s="9"/>
       <c r="U917" s="6"/>
       <c r="V917" s="6"/>
     </row>
@@ -22697,7 +22843,7 @@
       <c r="Q918" s="6"/>
       <c r="R918" s="6"/>
       <c r="S918" s="6"/>
-      <c r="T918" s="8"/>
+      <c r="T918" s="9"/>
       <c r="U918" s="6"/>
       <c r="V918" s="6"/>
     </row>
@@ -22721,7 +22867,7 @@
       <c r="Q919" s="6"/>
       <c r="R919" s="6"/>
       <c r="S919" s="6"/>
-      <c r="T919" s="8"/>
+      <c r="T919" s="9"/>
       <c r="U919" s="6"/>
       <c r="V919" s="6"/>
     </row>
@@ -22745,7 +22891,7 @@
       <c r="Q920" s="6"/>
       <c r="R920" s="6"/>
       <c r="S920" s="6"/>
-      <c r="T920" s="8"/>
+      <c r="T920" s="9"/>
       <c r="U920" s="6"/>
       <c r="V920" s="6"/>
     </row>
@@ -22769,7 +22915,7 @@
       <c r="Q921" s="6"/>
       <c r="R921" s="6"/>
       <c r="S921" s="6"/>
-      <c r="T921" s="8"/>
+      <c r="T921" s="9"/>
       <c r="U921" s="6"/>
       <c r="V921" s="6"/>
     </row>
@@ -22793,7 +22939,7 @@
       <c r="Q922" s="6"/>
       <c r="R922" s="6"/>
       <c r="S922" s="6"/>
-      <c r="T922" s="8"/>
+      <c r="T922" s="9"/>
       <c r="U922" s="6"/>
       <c r="V922" s="6"/>
     </row>
@@ -22817,7 +22963,7 @@
       <c r="Q923" s="6"/>
       <c r="R923" s="6"/>
       <c r="S923" s="6"/>
-      <c r="T923" s="8"/>
+      <c r="T923" s="9"/>
       <c r="U923" s="6"/>
       <c r="V923" s="6"/>
     </row>
@@ -22841,7 +22987,7 @@
       <c r="Q924" s="6"/>
       <c r="R924" s="6"/>
       <c r="S924" s="6"/>
-      <c r="T924" s="8"/>
+      <c r="T924" s="9"/>
       <c r="U924" s="6"/>
       <c r="V924" s="6"/>
     </row>
@@ -22865,7 +23011,7 @@
       <c r="Q925" s="6"/>
       <c r="R925" s="6"/>
       <c r="S925" s="6"/>
-      <c r="T925" s="8"/>
+      <c r="T925" s="9"/>
       <c r="U925" s="6"/>
       <c r="V925" s="6"/>
     </row>
@@ -22889,7 +23035,7 @@
       <c r="Q926" s="6"/>
       <c r="R926" s="6"/>
       <c r="S926" s="6"/>
-      <c r="T926" s="8"/>
+      <c r="T926" s="9"/>
       <c r="U926" s="6"/>
       <c r="V926" s="6"/>
     </row>
@@ -22913,7 +23059,7 @@
       <c r="Q927" s="6"/>
       <c r="R927" s="6"/>
       <c r="S927" s="6"/>
-      <c r="T927" s="8"/>
+      <c r="T927" s="9"/>
       <c r="U927" s="6"/>
       <c r="V927" s="6"/>
     </row>
@@ -22937,7 +23083,7 @@
       <c r="Q928" s="6"/>
       <c r="R928" s="6"/>
       <c r="S928" s="6"/>
-      <c r="T928" s="8"/>
+      <c r="T928" s="9"/>
       <c r="U928" s="6"/>
       <c r="V928" s="6"/>
     </row>
@@ -22961,7 +23107,7 @@
       <c r="Q929" s="6"/>
       <c r="R929" s="6"/>
       <c r="S929" s="6"/>
-      <c r="T929" s="8"/>
+      <c r="T929" s="9"/>
       <c r="U929" s="6"/>
       <c r="V929" s="6"/>
     </row>
@@ -22985,7 +23131,7 @@
       <c r="Q930" s="6"/>
       <c r="R930" s="6"/>
       <c r="S930" s="6"/>
-      <c r="T930" s="8"/>
+      <c r="T930" s="9"/>
       <c r="U930" s="6"/>
       <c r="V930" s="6"/>
     </row>
@@ -23009,7 +23155,7 @@
       <c r="Q931" s="6"/>
       <c r="R931" s="6"/>
       <c r="S931" s="6"/>
-      <c r="T931" s="8"/>
+      <c r="T931" s="9"/>
       <c r="U931" s="6"/>
       <c r="V931" s="6"/>
     </row>
@@ -23033,7 +23179,7 @@
       <c r="Q932" s="6"/>
       <c r="R932" s="6"/>
       <c r="S932" s="6"/>
-      <c r="T932" s="8"/>
+      <c r="T932" s="9"/>
       <c r="U932" s="6"/>
       <c r="V932" s="6"/>
     </row>
@@ -23057,7 +23203,7 @@
       <c r="Q933" s="6"/>
       <c r="R933" s="6"/>
       <c r="S933" s="6"/>
-      <c r="T933" s="8"/>
+      <c r="T933" s="9"/>
       <c r="U933" s="6"/>
       <c r="V933" s="6"/>
     </row>
@@ -23081,7 +23227,7 @@
       <c r="Q934" s="6"/>
       <c r="R934" s="6"/>
       <c r="S934" s="6"/>
-      <c r="T934" s="8"/>
+      <c r="T934" s="9"/>
       <c r="U934" s="6"/>
       <c r="V934" s="6"/>
     </row>
@@ -23105,7 +23251,7 @@
       <c r="Q935" s="6"/>
       <c r="R935" s="6"/>
       <c r="S935" s="6"/>
-      <c r="T935" s="8"/>
+      <c r="T935" s="9"/>
       <c r="U935" s="6"/>
       <c r="V935" s="6"/>
     </row>
@@ -23129,7 +23275,7 @@
       <c r="Q936" s="6"/>
       <c r="R936" s="6"/>
       <c r="S936" s="6"/>
-      <c r="T936" s="8"/>
+      <c r="T936" s="9"/>
       <c r="U936" s="6"/>
       <c r="V936" s="6"/>
     </row>
@@ -23153,7 +23299,7 @@
       <c r="Q937" s="6"/>
       <c r="R937" s="6"/>
       <c r="S937" s="6"/>
-      <c r="T937" s="8"/>
+      <c r="T937" s="9"/>
       <c r="U937" s="6"/>
       <c r="V937" s="6"/>
     </row>
@@ -23177,7 +23323,7 @@
       <c r="Q938" s="6"/>
       <c r="R938" s="6"/>
       <c r="S938" s="6"/>
-      <c r="T938" s="8"/>
+      <c r="T938" s="9"/>
       <c r="U938" s="6"/>
       <c r="V938" s="6"/>
     </row>
@@ -23201,7 +23347,7 @@
       <c r="Q939" s="6"/>
       <c r="R939" s="6"/>
       <c r="S939" s="6"/>
-      <c r="T939" s="8"/>
+      <c r="T939" s="9"/>
       <c r="U939" s="6"/>
       <c r="V939" s="6"/>
     </row>
@@ -23225,7 +23371,7 @@
       <c r="Q940" s="6"/>
       <c r="R940" s="6"/>
       <c r="S940" s="6"/>
-      <c r="T940" s="8"/>
+      <c r="T940" s="9"/>
       <c r="U940" s="6"/>
       <c r="V940" s="6"/>
     </row>
@@ -23249,7 +23395,7 @@
       <c r="Q941" s="6"/>
       <c r="R941" s="6"/>
       <c r="S941" s="6"/>
-      <c r="T941" s="8"/>
+      <c r="T941" s="9"/>
       <c r="U941" s="6"/>
       <c r="V941" s="6"/>
     </row>
@@ -23273,7 +23419,7 @@
       <c r="Q942" s="6"/>
       <c r="R942" s="6"/>
       <c r="S942" s="6"/>
-      <c r="T942" s="8"/>
+      <c r="T942" s="9"/>
       <c r="U942" s="6"/>
       <c r="V942" s="6"/>
     </row>
@@ -23297,7 +23443,7 @@
       <c r="Q943" s="6"/>
       <c r="R943" s="6"/>
       <c r="S943" s="6"/>
-      <c r="T943" s="8"/>
+      <c r="T943" s="9"/>
       <c r="U943" s="6"/>
       <c r="V943" s="6"/>
     </row>
@@ -23321,7 +23467,7 @@
       <c r="Q944" s="6"/>
       <c r="R944" s="6"/>
       <c r="S944" s="6"/>
-      <c r="T944" s="8"/>
+      <c r="T944" s="9"/>
       <c r="U944" s="6"/>
       <c r="V944" s="6"/>
     </row>
@@ -23345,7 +23491,7 @@
       <c r="Q945" s="6"/>
       <c r="R945" s="6"/>
       <c r="S945" s="6"/>
-      <c r="T945" s="8"/>
+      <c r="T945" s="9"/>
       <c r="U945" s="6"/>
       <c r="V945" s="6"/>
     </row>
@@ -23369,7 +23515,7 @@
       <c r="Q946" s="6"/>
       <c r="R946" s="6"/>
       <c r="S946" s="6"/>
-      <c r="T946" s="8"/>
+      <c r="T946" s="9"/>
       <c r="U946" s="6"/>
       <c r="V946" s="6"/>
     </row>
@@ -23393,7 +23539,7 @@
       <c r="Q947" s="6"/>
       <c r="R947" s="6"/>
       <c r="S947" s="6"/>
-      <c r="T947" s="8"/>
+      <c r="T947" s="9"/>
       <c r="U947" s="6"/>
       <c r="V947" s="6"/>
     </row>
@@ -23417,7 +23563,7 @@
       <c r="Q948" s="6"/>
       <c r="R948" s="6"/>
       <c r="S948" s="6"/>
-      <c r="T948" s="8"/>
+      <c r="T948" s="9"/>
       <c r="U948" s="6"/>
       <c r="V948" s="6"/>
     </row>
@@ -23441,7 +23587,7 @@
       <c r="Q949" s="6"/>
       <c r="R949" s="6"/>
       <c r="S949" s="6"/>
-      <c r="T949" s="8"/>
+      <c r="T949" s="9"/>
       <c r="U949" s="6"/>
       <c r="V949" s="6"/>
     </row>
@@ -23465,7 +23611,7 @@
       <c r="Q950" s="6"/>
       <c r="R950" s="6"/>
       <c r="S950" s="6"/>
-      <c r="T950" s="8"/>
+      <c r="T950" s="9"/>
       <c r="U950" s="6"/>
       <c r="V950" s="6"/>
     </row>
@@ -23489,7 +23635,7 @@
       <c r="Q951" s="6"/>
       <c r="R951" s="6"/>
       <c r="S951" s="6"/>
-      <c r="T951" s="8"/>
+      <c r="T951" s="9"/>
       <c r="U951" s="6"/>
       <c r="V951" s="6"/>
     </row>
@@ -23513,7 +23659,7 @@
       <c r="Q952" s="6"/>
       <c r="R952" s="6"/>
       <c r="S952" s="6"/>
-      <c r="T952" s="8"/>
+      <c r="T952" s="9"/>
       <c r="U952" s="6"/>
       <c r="V952" s="6"/>
     </row>
@@ -23537,7 +23683,7 @@
       <c r="Q953" s="6"/>
       <c r="R953" s="6"/>
       <c r="S953" s="6"/>
-      <c r="T953" s="8"/>
+      <c r="T953" s="9"/>
       <c r="U953" s="6"/>
       <c r="V953" s="6"/>
     </row>
@@ -23561,7 +23707,7 @@
       <c r="Q954" s="6"/>
       <c r="R954" s="6"/>
       <c r="S954" s="6"/>
-      <c r="T954" s="8"/>
+      <c r="T954" s="9"/>
       <c r="U954" s="6"/>
       <c r="V954" s="6"/>
     </row>
@@ -23585,7 +23731,7 @@
       <c r="Q955" s="6"/>
       <c r="R955" s="6"/>
       <c r="S955" s="6"/>
-      <c r="T955" s="8"/>
+      <c r="T955" s="9"/>
       <c r="U955" s="6"/>
       <c r="V955" s="6"/>
     </row>
@@ -23609,7 +23755,7 @@
       <c r="Q956" s="6"/>
       <c r="R956" s="6"/>
       <c r="S956" s="6"/>
-      <c r="T956" s="8"/>
+      <c r="T956" s="9"/>
       <c r="U956" s="6"/>
       <c r="V956" s="6"/>
     </row>
@@ -23633,7 +23779,7 @@
       <c r="Q957" s="6"/>
       <c r="R957" s="6"/>
       <c r="S957" s="6"/>
-      <c r="T957" s="8"/>
+      <c r="T957" s="9"/>
       <c r="U957" s="6"/>
       <c r="V957" s="6"/>
     </row>
@@ -23657,7 +23803,7 @@
       <c r="Q958" s="6"/>
       <c r="R958" s="6"/>
       <c r="S958" s="6"/>
-      <c r="T958" s="8"/>
+      <c r="T958" s="9"/>
       <c r="U958" s="6"/>
       <c r="V958" s="6"/>
     </row>
@@ -23681,7 +23827,7 @@
       <c r="Q959" s="6"/>
       <c r="R959" s="6"/>
       <c r="S959" s="6"/>
-      <c r="T959" s="8"/>
+      <c r="T959" s="9"/>
       <c r="U959" s="6"/>
       <c r="V959" s="6"/>
     </row>
@@ -23705,7 +23851,7 @@
       <c r="Q960" s="6"/>
       <c r="R960" s="6"/>
       <c r="S960" s="6"/>
-      <c r="T960" s="8"/>
+      <c r="T960" s="9"/>
       <c r="U960" s="6"/>
       <c r="V960" s="6"/>
     </row>
@@ -23729,7 +23875,7 @@
       <c r="Q961" s="6"/>
       <c r="R961" s="6"/>
       <c r="S961" s="6"/>
-      <c r="T961" s="8"/>
+      <c r="T961" s="9"/>
       <c r="U961" s="6"/>
       <c r="V961" s="6"/>
     </row>
@@ -23753,7 +23899,7 @@
       <c r="Q962" s="6"/>
       <c r="R962" s="6"/>
       <c r="S962" s="6"/>
-      <c r="T962" s="8"/>
+      <c r="T962" s="9"/>
       <c r="U962" s="6"/>
       <c r="V962" s="6"/>
     </row>
@@ -23777,7 +23923,7 @@
       <c r="Q963" s="6"/>
       <c r="R963" s="6"/>
       <c r="S963" s="6"/>
-      <c r="T963" s="8"/>
+      <c r="T963" s="9"/>
       <c r="U963" s="6"/>
       <c r="V963" s="6"/>
     </row>
@@ -23801,7 +23947,7 @@
       <c r="Q964" s="6"/>
       <c r="R964" s="6"/>
       <c r="S964" s="6"/>
-      <c r="T964" s="8"/>
+      <c r="T964" s="9"/>
       <c r="U964" s="6"/>
       <c r="V964" s="6"/>
     </row>
@@ -23825,7 +23971,7 @@
       <c r="Q965" s="6"/>
       <c r="R965" s="6"/>
       <c r="S965" s="6"/>
-      <c r="T965" s="8"/>
+      <c r="T965" s="9"/>
       <c r="U965" s="6"/>
       <c r="V965" s="6"/>
     </row>
@@ -23849,7 +23995,7 @@
       <c r="Q966" s="6"/>
       <c r="R966" s="6"/>
       <c r="S966" s="6"/>
-      <c r="T966" s="8"/>
+      <c r="T966" s="9"/>
       <c r="U966" s="6"/>
       <c r="V966" s="6"/>
     </row>
@@ -23873,7 +24019,7 @@
       <c r="Q967" s="6"/>
       <c r="R967" s="6"/>
       <c r="S967" s="6"/>
-      <c r="T967" s="8"/>
+      <c r="T967" s="9"/>
       <c r="U967" s="6"/>
       <c r="V967" s="6"/>
     </row>
@@ -23897,7 +24043,7 @@
       <c r="Q968" s="6"/>
       <c r="R968" s="6"/>
       <c r="S968" s="6"/>
-      <c r="T968" s="8"/>
+      <c r="T968" s="9"/>
       <c r="U968" s="6"/>
       <c r="V968" s="6"/>
     </row>
@@ -23921,7 +24067,7 @@
       <c r="Q969" s="6"/>
       <c r="R969" s="6"/>
       <c r="S969" s="6"/>
-      <c r="T969" s="8"/>
+      <c r="T969" s="9"/>
       <c r="U969" s="6"/>
       <c r="V969" s="6"/>
     </row>
@@ -23945,7 +24091,7 @@
       <c r="Q970" s="6"/>
       <c r="R970" s="6"/>
       <c r="S970" s="6"/>
-      <c r="T970" s="8"/>
+      <c r="T970" s="9"/>
       <c r="U970" s="6"/>
       <c r="V970" s="6"/>
     </row>
@@ -23969,7 +24115,7 @@
       <c r="Q971" s="6"/>
       <c r="R971" s="6"/>
       <c r="S971" s="6"/>
-      <c r="T971" s="8"/>
+      <c r="T971" s="9"/>
       <c r="U971" s="6"/>
       <c r="V971" s="6"/>
     </row>
@@ -23993,7 +24139,7 @@
       <c r="Q972" s="6"/>
       <c r="R972" s="6"/>
       <c r="S972" s="6"/>
-      <c r="T972" s="8"/>
+      <c r="T972" s="9"/>
       <c r="U972" s="6"/>
       <c r="V972" s="6"/>
     </row>
@@ -24017,7 +24163,7 @@
       <c r="Q973" s="6"/>
       <c r="R973" s="6"/>
       <c r="S973" s="6"/>
-      <c r="T973" s="8"/>
+      <c r="T973" s="9"/>
       <c r="U973" s="6"/>
       <c r="V973" s="6"/>
     </row>
@@ -24041,7 +24187,7 @@
       <c r="Q974" s="6"/>
       <c r="R974" s="6"/>
       <c r="S974" s="6"/>
-      <c r="T974" s="8"/>
+      <c r="T974" s="9"/>
       <c r="U974" s="6"/>
       <c r="V974" s="6"/>
     </row>
@@ -24065,7 +24211,7 @@
       <c r="Q975" s="6"/>
       <c r="R975" s="6"/>
       <c r="S975" s="6"/>
-      <c r="T975" s="8"/>
+      <c r="T975" s="9"/>
       <c r="U975" s="6"/>
       <c r="V975" s="6"/>
     </row>
@@ -24089,7 +24235,7 @@
       <c r="Q976" s="6"/>
       <c r="R976" s="6"/>
       <c r="S976" s="6"/>
-      <c r="T976" s="8"/>
+      <c r="T976" s="9"/>
       <c r="U976" s="6"/>
       <c r="V976" s="6"/>
     </row>
@@ -24113,7 +24259,7 @@
       <c r="Q977" s="6"/>
       <c r="R977" s="6"/>
       <c r="S977" s="6"/>
-      <c r="T977" s="8"/>
+      <c r="T977" s="9"/>
       <c r="U977" s="6"/>
       <c r="V977" s="6"/>
     </row>
@@ -24137,7 +24283,7 @@
       <c r="Q978" s="6"/>
       <c r="R978" s="6"/>
       <c r="S978" s="6"/>
-      <c r="T978" s="8"/>
+      <c r="T978" s="9"/>
       <c r="U978" s="6"/>
       <c r="V978" s="6"/>
     </row>
@@ -24161,7 +24307,7 @@
       <c r="Q979" s="6"/>
       <c r="R979" s="6"/>
       <c r="S979" s="6"/>
-      <c r="T979" s="8"/>
+      <c r="T979" s="9"/>
       <c r="U979" s="6"/>
       <c r="V979" s="6"/>
     </row>
@@ -24185,7 +24331,7 @@
       <c r="Q980" s="6"/>
       <c r="R980" s="6"/>
       <c r="S980" s="6"/>
-      <c r="T980" s="8"/>
+      <c r="T980" s="9"/>
       <c r="U980" s="6"/>
       <c r="V980" s="6"/>
     </row>
@@ -24209,7 +24355,7 @@
       <c r="Q981" s="6"/>
       <c r="R981" s="6"/>
       <c r="S981" s="6"/>
-      <c r="T981" s="8"/>
+      <c r="T981" s="9"/>
       <c r="U981" s="6"/>
       <c r="V981" s="6"/>
     </row>
@@ -24233,7 +24379,7 @@
       <c r="Q982" s="6"/>
       <c r="R982" s="6"/>
       <c r="S982" s="6"/>
-      <c r="T982" s="8"/>
+      <c r="T982" s="9"/>
       <c r="U982" s="6"/>
       <c r="V982" s="6"/>
     </row>
@@ -24257,7 +24403,7 @@
       <c r="Q983" s="6"/>
       <c r="R983" s="6"/>
       <c r="S983" s="6"/>
-      <c r="T983" s="8"/>
+      <c r="T983" s="9"/>
       <c r="U983" s="6"/>
       <c r="V983" s="6"/>
     </row>
@@ -24281,7 +24427,7 @@
       <c r="Q984" s="6"/>
       <c r="R984" s="6"/>
       <c r="S984" s="6"/>
-      <c r="T984" s="8"/>
+      <c r="T984" s="9"/>
       <c r="U984" s="6"/>
       <c r="V984" s="6"/>
     </row>
@@ -24305,7 +24451,7 @@
       <c r="Q985" s="6"/>
       <c r="R985" s="6"/>
       <c r="S985" s="6"/>
-      <c r="T985" s="8"/>
+      <c r="T985" s="9"/>
       <c r="U985" s="6"/>
       <c r="V985" s="6"/>
     </row>
@@ -24329,7 +24475,7 @@
       <c r="Q986" s="6"/>
       <c r="R986" s="6"/>
       <c r="S986" s="6"/>
-      <c r="T986" s="8"/>
+      <c r="T986" s="9"/>
       <c r="U986" s="6"/>
       <c r="V986" s="6"/>
     </row>
@@ -24353,7 +24499,7 @@
       <c r="Q987" s="6"/>
       <c r="R987" s="6"/>
       <c r="S987" s="6"/>
-      <c r="T987" s="8"/>
+      <c r="T987" s="9"/>
       <c r="U987" s="6"/>
       <c r="V987" s="6"/>
     </row>
@@ -24377,7 +24523,7 @@
       <c r="Q988" s="6"/>
       <c r="R988" s="6"/>
       <c r="S988" s="6"/>
-      <c r="T988" s="8"/>
+      <c r="T988" s="9"/>
       <c r="U988" s="6"/>
       <c r="V988" s="6"/>
     </row>
@@ -24401,7 +24547,7 @@
       <c r="Q989" s="6"/>
       <c r="R989" s="6"/>
       <c r="S989" s="6"/>
-      <c r="T989" s="8"/>
+      <c r="T989" s="9"/>
       <c r="U989" s="6"/>
       <c r="V989" s="6"/>
     </row>
@@ -24425,7 +24571,7 @@
       <c r="Q990" s="6"/>
       <c r="R990" s="6"/>
       <c r="S990" s="6"/>
-      <c r="T990" s="8"/>
+      <c r="T990" s="9"/>
       <c r="U990" s="6"/>
       <c r="V990" s="6"/>
     </row>
@@ -24449,7 +24595,7 @@
       <c r="Q991" s="6"/>
       <c r="R991" s="6"/>
       <c r="S991" s="6"/>
-      <c r="T991" s="8"/>
+      <c r="T991" s="9"/>
       <c r="U991" s="6"/>
       <c r="V991" s="6"/>
     </row>
@@ -24473,7 +24619,7 @@
       <c r="Q992" s="6"/>
       <c r="R992" s="6"/>
       <c r="S992" s="6"/>
-      <c r="T992" s="8"/>
+      <c r="T992" s="9"/>
       <c r="U992" s="6"/>
       <c r="V992" s="6"/>
     </row>
@@ -24497,7 +24643,7 @@
       <c r="Q993" s="6"/>
       <c r="R993" s="6"/>
       <c r="S993" s="6"/>
-      <c r="T993" s="8"/>
+      <c r="T993" s="9"/>
       <c r="U993" s="6"/>
       <c r="V993" s="6"/>
     </row>
@@ -24521,7 +24667,7 @@
       <c r="Q994" s="6"/>
       <c r="R994" s="6"/>
       <c r="S994" s="6"/>
-      <c r="T994" s="8"/>
+      <c r="T994" s="9"/>
       <c r="U994" s="6"/>
       <c r="V994" s="6"/>
     </row>
@@ -24545,7 +24691,7 @@
       <c r="Q995" s="6"/>
       <c r="R995" s="6"/>
       <c r="S995" s="6"/>
-      <c r="T995" s="8"/>
+      <c r="T995" s="9"/>
       <c r="U995" s="6"/>
       <c r="V995" s="6"/>
     </row>
@@ -24569,7 +24715,7 @@
       <c r="Q996" s="6"/>
       <c r="R996" s="6"/>
       <c r="S996" s="6"/>
-      <c r="T996" s="8"/>
+      <c r="T996" s="9"/>
       <c r="U996" s="6"/>
       <c r="V996" s="6"/>
     </row>
@@ -24593,7 +24739,7 @@
       <c r="Q997" s="6"/>
       <c r="R997" s="6"/>
       <c r="S997" s="6"/>
-      <c r="T997" s="8"/>
+      <c r="T997" s="9"/>
       <c r="U997" s="6"/>
       <c r="V997" s="6"/>
     </row>
@@ -24617,7 +24763,7 @@
       <c r="Q998" s="6"/>
       <c r="R998" s="6"/>
       <c r="S998" s="6"/>
-      <c r="T998" s="8"/>
+      <c r="T998" s="9"/>
       <c r="U998" s="6"/>
       <c r="V998" s="6"/>
     </row>
@@ -24641,7 +24787,7 @@
       <c r="Q999" s="6"/>
       <c r="R999" s="6"/>
       <c r="S999" s="6"/>
-      <c r="T999" s="8"/>
+      <c r="T999" s="9"/>
       <c r="U999" s="6"/>
       <c r="V999" s="6"/>
     </row>
@@ -24665,7 +24811,7 @@
       <c r="Q1000" s="6"/>
       <c r="R1000" s="6"/>
       <c r="S1000" s="6"/>
-      <c r="T1000" s="8"/>
+      <c r="T1000" s="9"/>
       <c r="U1000" s="6"/>
       <c r="V1000" s="6"/>
     </row>
